--- a/ExternalDataSources.xlsx
+++ b/ExternalDataSources.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="328">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -488,6 +488,69 @@
     <t xml:space="preserve">https://www.bafg.de/GRDC/EN/Home/homepage_node.html</t>
   </si>
   <si>
+    <t xml:space="preserve">HydroBASINS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HydrographicData</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HydroBASINS is a series of polygon layers that depict watershed boundaries and sub-basin delineations at a global scale.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.hydrosheds.org/page/hydrobasins</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lehner, B., Grill G. (2013): Global river hydrography and network routing: baseline data and new approaches to study the world’s large river systems. Hydrological Processes, 27(15): 2171–2186. Data is available at www.hydrosheds.org.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HydroRIVERS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HydroRIVERS is a database aiming to provide the vectorized line network of all global rivers that have a catchment area of at least 10 km2 or an average river flow of 0.1 cubic meters per second, or both. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vector</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.hydrosheds.org/page/hydrorivers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HydroLAKES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HydroLAKES is a database aiming to provide the shoreline polygons of all global lakes with a surface area of at least 10 ha.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.hydrosheds.org/page/hydrolakes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://dx.doi.org/10.1038/ncomms13603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Messager, M.L., Lehner, B., Grill, G., Nedeva, I., Schmitt, O. (2016): Estimating the volume and age of water stored in global lakes using a geo-statistical approach. Nature Communications: 13603.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HydroATLAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HydroATLAS offers a global compendium of hydro-environmental sub-basin and river reach characteristics at 15 arc-second resolution.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15 arc second</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.hydrosheds.org/page/hydroatlas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1038/s41597-019-0300-6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Linke, S., Lehner, B., Ouellet Dallaire, C., Ariwi, J., Grill, G., Anand, M., Beames, P., Burchard-Levine, V., Maxwell, S., Moidu, H., Tan, F., Thieme, M. (2019). Global hydro-environmental sub-basin and river reach characteristics at high spatial resolution. Scientific Data 6: 283.</t>
+  </si>
+  <si>
     <t xml:space="preserve">TreeNet</t>
   </si>
   <si>
@@ -549,9 +612,6 @@
   </si>
   <si>
     <t xml:space="preserve">Global database initiative, which has united a wide range of the plant trait research community worldwide</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No</t>
   </si>
   <si>
     <t xml:space="preserve">Species</t>
@@ -1599,7 +1659,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1637,12 +1697,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <i val="true"/>
@@ -1778,7 +1832,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1860,28 +1914,28 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:U41"/>
+  <dimension ref="A1:U45"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="N9" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O9" activeCellId="0" sqref="O9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="O1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="R19" activeCellId="0" sqref="R19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.2734375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.2890625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="25.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="39.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="43.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="43.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="2" width="19.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="7.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="24.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="10" style="3" width="13.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="4" width="13.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="14.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="10" style="3" width="13.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="4" width="13.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="14.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="35.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="11.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="60.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="43.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="43.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="82.28"/>
   </cols>
   <sheetData>
@@ -2623,73 +2677,57 @@
       </c>
       <c r="Q16" s="11"/>
     </row>
-    <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
         <v>131</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>132</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>133</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>131</v>
       </c>
       <c r="E17" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="K17" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="P17" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="G17" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="I17" s="2" t="s">
+      <c r="Q17" s="11"/>
+      <c r="T17" s="0" t="s">
         <v>136</v>
       </c>
-      <c r="J17" s="3" t="s">
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
         <v>137</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="L17" s="3" t="s">
+      <c r="B18" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="P17" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q17" s="11"/>
-      <c r="R17" s="0" t="s">
-        <v>140</v>
-      </c>
-      <c r="S17" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="T17" s="11"/>
-      <c r="U17" s="0" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>145</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>50</v>
@@ -2698,144 +2736,164 @@
         <v>27</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>84</v>
+        <v>139</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>27</v>
+        <v>134</v>
       </c>
       <c r="P18" s="11" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="Q18" s="11"/>
-      <c r="R18" s="0" t="s">
-        <v>147</v>
-      </c>
-      <c r="S18" s="11"/>
-      <c r="T18" s="11"/>
-    </row>
-    <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>149</v>
+        <v>125</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>150</v>
+        <v>132</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>50</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>152</v>
+        <v>27</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>129</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="M19" s="4" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="P19" s="11" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="Q19" s="11"/>
-      <c r="S19" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="T19" s="11"/>
-    </row>
-    <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="S19" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="T19" s="0" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>149</v>
+        <v>125</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>150</v>
+        <v>132</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>50</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>152</v>
+        <v>27</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>148</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="P20" s="11" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="Q20" s="11"/>
-      <c r="S20" s="11" t="s">
-        <v>160</v>
-      </c>
-      <c r="T20" s="11"/>
+      <c r="S20" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="T20" s="0" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="P21" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q21" s="11"/>
+      <c r="R21" s="0" t="s">
         <v>161</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="D21" s="1" t="s">
+      <c r="S21" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="T21" s="11"/>
+      <c r="U21" s="0" t="s">
         <v>163</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="M21" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="P21" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q21" s="11"/>
-      <c r="S21" s="11"/>
-      <c r="T21" s="0" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>166</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>168</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>50</v>
@@ -2846,161 +2904,145 @@
       <c r="H22" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="I22" s="2" t="s">
-        <v>169</v>
-      </c>
       <c r="K22" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="M22" s="4" t="s">
-        <v>153</v>
+        <v>27</v>
       </c>
       <c r="P22" s="11" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="Q22" s="11"/>
       <c r="R22" s="0" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="S22" s="11"/>
       <c r="T22" s="11"/>
     </row>
     <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>172</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>173</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>50</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="J23" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="M23" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="P23" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="P23" s="11" t="s">
+      <c r="Q23" s="11"/>
+      <c r="S23" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="Q23" s="11"/>
-      <c r="R23" s="0" t="s">
-        <v>171</v>
-      </c>
-      <c r="S23" s="11" t="s">
-        <v>176</v>
-      </c>
-      <c r="T23" s="0" t="s">
-        <v>177</v>
-      </c>
+      <c r="T23" s="11"/>
     </row>
     <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E24" s="1" t="s">
         <v>178</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>180</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>50</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>84</v>
+        <v>134</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>27</v>
+        <v>134</v>
       </c>
       <c r="P24" s="11" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="Q24" s="11"/>
       <c r="S24" s="11" t="s">
-        <v>182</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="T24" s="11"/>
     </row>
     <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E25" s="1" t="s">
         <v>183</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>186</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>50</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>84</v>
+        <v>134</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>152</v>
+        <v>134</v>
+      </c>
+      <c r="M25" s="4" t="s">
+        <v>173</v>
       </c>
       <c r="P25" s="11" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="Q25" s="11"/>
       <c r="S25" s="11"/>
+      <c r="T25" s="0" t="s">
+        <v>185</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E26" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>191</v>
-      </c>
       <c r="F26" s="2" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>27</v>
@@ -3008,39 +3050,40 @@
       <c r="H26" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="J26" s="3" t="s">
-        <v>192</v>
+      <c r="I26" s="2" t="s">
+        <v>189</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="L26" s="3" t="s">
-        <v>169</v>
+        <v>134</v>
+      </c>
+      <c r="M26" s="4" t="s">
+        <v>173</v>
       </c>
       <c r="P26" s="11" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="Q26" s="11"/>
       <c r="R26" s="0" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="S26" s="11"/>
+      <c r="T26" s="11"/>
     </row>
     <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>149</v>
+        <v>170</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>50</v>
@@ -3051,47 +3094,44 @@
       <c r="H27" s="2" t="s">
         <v>84</v>
       </c>
+      <c r="I27" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>194</v>
+      </c>
       <c r="K27" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="L27" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="O27" s="0" t="s">
-        <v>78</v>
+        <v>134</v>
       </c>
       <c r="P27" s="11" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="Q27" s="11"/>
       <c r="R27" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="S27" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="T27" s="0" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="E28" s="1" t="s">
         <v>200</v>
-      </c>
-      <c r="S27" s="11" t="s">
-        <v>201</v>
-      </c>
-      <c r="T27" s="0" t="s">
-        <v>202</v>
-      </c>
-      <c r="U27" s="0" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
-        <v>204</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>206</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>50</v>
@@ -3100,35 +3140,34 @@
         <v>27</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>207</v>
+        <v>84</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>152</v>
+        <v>27</v>
       </c>
       <c r="P28" s="11" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="Q28" s="11"/>
-      <c r="S28" s="11"/>
+      <c r="S28" s="11" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>210</v>
+        <v>170</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>50</v>
@@ -3140,67 +3179,72 @@
         <v>84</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="P29" s="11" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="Q29" s="11"/>
-      <c r="S29" s="11" t="s">
-        <v>215</v>
-      </c>
-      <c r="T29" s="0" t="s">
-        <v>216</v>
-      </c>
+      <c r="S29" s="11"/>
     </row>
     <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="C30" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>219</v>
-      </c>
       <c r="E30" s="1" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>27</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>28</v>
+        <v>84</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>212</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>152</v>
+        <v>27</v>
+      </c>
+      <c r="L30" s="3" t="s">
+        <v>189</v>
       </c>
       <c r="P30" s="11" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="Q30" s="11"/>
+      <c r="R30" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="S30" s="11"/>
     </row>
     <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>210</v>
+        <v>170</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>50</v>
@@ -3209,37 +3253,49 @@
         <v>27</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I31" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="K31" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L31" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="O31" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="P31" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q31" s="11"/>
+      <c r="R31" s="0" t="s">
+        <v>220</v>
+      </c>
+      <c r="S31" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="T31" s="0" t="s">
+        <v>222</v>
+      </c>
+      <c r="U31" s="0" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
         <v>224</v>
       </c>
-      <c r="K31" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="P31" s="11" t="s">
+      <c r="B32" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="Q31" s="11"/>
-      <c r="U31" s="0" t="s">
+      <c r="D32" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="E32" s="1" t="s">
         <v>226</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
-        <v>227</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>228</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>50</v>
@@ -3251,37 +3307,32 @@
         <v>28</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="P32" s="11" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="Q32" s="11"/>
-      <c r="R32" s="0" t="s">
-        <v>231</v>
-      </c>
-      <c r="S32" s="11" t="s">
-        <v>232</v>
-      </c>
-      <c r="T32" s="0" t="s">
-        <v>233</v>
-      </c>
+      <c r="S32" s="11"/>
     </row>
     <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>218</v>
+        <v>231</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>235</v>
+        <v>232</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>233</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>50</v>
@@ -3290,43 +3341,37 @@
         <v>27</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I33" s="2" t="s">
-        <v>229</v>
+        <v>84</v>
       </c>
       <c r="K33" s="3" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="P33" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q33" s="11"/>
+      <c r="S33" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="T33" s="0" t="s">
         <v>236</v>
-      </c>
-      <c r="Q33" s="11"/>
-      <c r="R33" s="0" t="s">
-        <v>237</v>
-      </c>
-      <c r="S33" s="11" t="s">
-        <v>238</v>
-      </c>
-      <c r="T33" s="0" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
+        <v>237</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="E34" s="1" t="s">
         <v>240</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>242</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>50</v>
@@ -3337,38 +3382,29 @@
       <c r="H34" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I34" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="K34" s="3" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="P34" s="11" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="Q34" s="11"/>
-      <c r="T34" s="0" t="s">
-        <v>244</v>
-      </c>
-      <c r="U34" s="0" t="s">
-        <v>245</v>
-      </c>
     </row>
     <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>50</v>
@@ -3377,40 +3413,37 @@
         <v>27</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>84</v>
+        <v>28</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>244</v>
       </c>
       <c r="K35" s="3" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="P35" s="11" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="Q35" s="11"/>
-      <c r="R35" s="0" t="s">
-        <v>251</v>
-      </c>
-      <c r="S35" s="11" t="s">
-        <v>252</v>
-      </c>
-      <c r="T35" s="0" t="s">
-        <v>253</v>
+      <c r="U35" s="0" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>50</v>
@@ -3419,48 +3452,40 @@
         <v>27</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="J36" s="3" t="s">
-        <v>258</v>
+        <v>28</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>249</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="L36" s="3" t="s">
-        <v>259</v>
+        <v>134</v>
       </c>
       <c r="P36" s="11" t="s">
-        <v>260</v>
-      </c>
-      <c r="Q36" s="0" t="s">
-        <v>261</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="Q36" s="11"/>
       <c r="R36" s="0" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="S36" s="11" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="T36" s="0" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>266</v>
+        <v>230</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>267</v>
+        <v>238</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>269</v>
+        <v>255</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>50</v>
@@ -3469,37 +3494,43 @@
         <v>27</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>129</v>
+        <v>28</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>249</v>
       </c>
       <c r="K37" s="3" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="P37" s="11" t="s">
-        <v>270</v>
+        <v>256</v>
       </c>
       <c r="Q37" s="11"/>
+      <c r="R37" s="0" t="s">
+        <v>257</v>
+      </c>
       <c r="S37" s="11" t="s">
-        <v>271</v>
+        <v>258</v>
       </c>
       <c r="T37" s="0" t="s">
-        <v>272</v>
+        <v>259</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>273</v>
+        <v>260</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>266</v>
+        <v>230</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>275</v>
+        <v>260</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>276</v>
+        <v>262</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>50</v>
@@ -3508,41 +3539,40 @@
         <v>27</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>129</v>
+        <v>28</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>277</v>
+        <v>51</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="P38" s="11" t="s">
-        <v>278</v>
+        <v>263</v>
       </c>
       <c r="Q38" s="11"/>
-      <c r="R38" s="0" t="s">
-        <v>279</v>
-      </c>
-      <c r="S38" s="11" t="s">
-        <v>280</v>
-      </c>
-      <c r="T38" s="11"/>
+      <c r="T38" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="U38" s="0" t="s">
+        <v>265</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>282</v>
+        <v>230</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>283</v>
+        <v>267</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>281</v>
+        <v>268</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>284</v>
+        <v>269</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>50</v>
@@ -3553,50 +3583,38 @@
       <c r="H39" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="I39" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="J39" s="3" t="s">
-        <v>285</v>
-      </c>
       <c r="K39" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="L39" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="M39" s="4" t="s">
-        <v>286</v>
+        <v>134</v>
       </c>
       <c r="P39" s="11" t="s">
-        <v>287</v>
+        <v>270</v>
       </c>
       <c r="Q39" s="11"/>
       <c r="R39" s="0" t="s">
-        <v>171</v>
+        <v>271</v>
       </c>
       <c r="S39" s="11" t="s">
-        <v>288</v>
+        <v>272</v>
       </c>
       <c r="T39" s="0" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>290</v>
+        <v>274</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>282</v>
+        <v>230</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>291</v>
+        <v>275</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>50</v>
@@ -3607,31 +3625,46 @@
       <c r="H40" s="2" t="s">
         <v>84</v>
       </c>
+      <c r="J40" s="3" t="s">
+        <v>278</v>
+      </c>
       <c r="K40" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="P40" s="0" t="s">
-        <v>293</v>
-      </c>
-      <c r="U40" s="0" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>27</v>
+      </c>
+      <c r="L40" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="P40" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="Q40" s="0" t="s">
+        <v>281</v>
+      </c>
+      <c r="R40" s="0" t="s">
+        <v>282</v>
+      </c>
+      <c r="S40" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="T40" s="0" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>50</v>
@@ -3640,31 +3673,202 @@
         <v>27</v>
       </c>
       <c r="H41" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="K41" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="P41" s="11" t="s">
+        <v>290</v>
+      </c>
+      <c r="Q41" s="11"/>
+      <c r="S41" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="T41" s="0" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="s">
+        <v>293</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="K42" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="P42" s="11" t="s">
+        <v>298</v>
+      </c>
+      <c r="Q42" s="11"/>
+      <c r="R42" s="0" t="s">
+        <v>299</v>
+      </c>
+      <c r="S42" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="T42" s="11"/>
+    </row>
+    <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="s">
+        <v>301</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H43" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="L41" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="M41" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="P41" s="11" t="s">
-        <v>299</v>
-      </c>
-      <c r="R41" s="0" t="s">
-        <v>300</v>
-      </c>
-      <c r="S41" s="11" t="s">
-        <v>301</v>
-      </c>
-      <c r="T41" s="0" t="s">
+      <c r="I43" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="K43" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L43" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="M43" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="P43" s="11" t="s">
+        <v>307</v>
+      </c>
+      <c r="Q43" s="11"/>
+      <c r="R43" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="S43" s="11" t="s">
+        <v>308</v>
+      </c>
+      <c r="T43" s="0" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="U41" s="0" t="s">
-        <v>303</v>
+      <c r="C44" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="K44" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="P44" s="0" t="s">
+        <v>313</v>
+      </c>
+      <c r="U44" s="0" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="s">
+        <v>315</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="K45" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L45" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="M45" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="P45" s="11" t="s">
+        <v>319</v>
+      </c>
+      <c r="R45" s="0" t="s">
+        <v>320</v>
+      </c>
+      <c r="S45" s="11" t="s">
+        <v>321</v>
+      </c>
+      <c r="T45" s="0" t="s">
+        <v>322</v>
+      </c>
+      <c r="U45" s="0" t="s">
+        <v>323</v>
       </c>
     </row>
   </sheetData>
@@ -3685,48 +3889,49 @@
     <hyperlink ref="P15" r:id="rId14" display="https://conservancy.umn.edu/handle/11299/197613"/>
     <hyperlink ref="S15" r:id="rId15" display="https://doi.org/10.1029/2018GB005990"/>
     <hyperlink ref="P16" r:id="rId16" display="https://www.bafg.de/GRDC/EN/Home/homepage_node.html"/>
-    <hyperlink ref="P17" r:id="rId17" display="https://treenet.info/"/>
-    <hyperlink ref="S17" r:id="rId18" display="https://doi.org/10.3389/ffgc.2021.776905"/>
-    <hyperlink ref="P18" r:id="rId19" display="https://www.ncei.noaa.gov/products/paleoclimatology"/>
-    <hyperlink ref="P19" r:id="rId20" display="https://www.try-db.org/TryWeb/Home.php"/>
-    <hyperlink ref="S19" r:id="rId21" display="https://doi.org/10.1111/j.1365-2486.2011.02451.x"/>
-    <hyperlink ref="P20" r:id="rId22" display="https://roots.ornl.gov/"/>
-    <hyperlink ref="S20" r:id="rId23" display="https://doi.org/10.1111/nph.14486"/>
-    <hyperlink ref="P21" r:id="rId24" display="https://xylemfunctionaltraits.org/"/>
-    <hyperlink ref="P22" r:id="rId25" display="https://www.idiv.de/de/splot.html"/>
-    <hyperlink ref="P23" r:id="rId26" display="https://doi.org/10.25829/idiv.3474-40-3292"/>
-    <hyperlink ref="S23" r:id="rId27" display="https://doi.org/10.1111/geb.13346"/>
-    <hyperlink ref="P24" r:id="rId28" display="https://lotvs.csic.es/"/>
-    <hyperlink ref="S24" r:id="rId29" display="https://www.biorxiv.org/content/10.1101/2021.09.29.462383v1.full"/>
-    <hyperlink ref="P25" r:id="rId30" display="https://gfbinitiative.net/"/>
-    <hyperlink ref="P26" r:id="rId31" display="http://icp-forests.net/"/>
-    <hyperlink ref="P27" r:id="rId32" display="http://sapfluxnet.creaf.cat/"/>
-    <hyperlink ref="S27" r:id="rId33" display="https://doi.org/10.5194/essd-13-2607-2021"/>
-    <hyperlink ref="P29" r:id="rId34" location="/home" display="https://data.isric.org/geonetwork/srv/eng/catalog.search#/home"/>
-    <hyperlink ref="S29" r:id="rId35" display="https://doi.org/10.5194/essd-9-1-2017"/>
-    <hyperlink ref="P30" r:id="rId36" display="https://www.fao.org/soils-portal/data-hub/soil-maps-and-databases/harmonized-world-soil-database-v12/en/"/>
-    <hyperlink ref="P31" r:id="rId37" display="https://soilgrids.org/"/>
-    <hyperlink ref="P32" r:id="rId38" display="https://www.isric.org/explore/wise-databases"/>
-    <hyperlink ref="S32" r:id="rId39" display="https://doi.org/10.1016/j.geoderma.2016.01.034"/>
-    <hyperlink ref="P33" r:id="rId40" display="http://globalchange.bnu.edu.cn/research/data"/>
-    <hyperlink ref="S33" r:id="rId41" display="http://doi.wiley.com/10.1002/2013MS000293"/>
-    <hyperlink ref="P34" r:id="rId42" display="https://www.futurewater.eu/projects/hihydrosoil/"/>
-    <hyperlink ref="P35" r:id="rId43" display="https://ismn.earth/en/"/>
-    <hyperlink ref="S35" r:id="rId44" display="https://doi.org/10.5194/hess-2021-2"/>
-    <hyperlink ref="P36" r:id="rId45" display="https://doi.org/10.3334/ORNLDAAC/1827"/>
-    <hyperlink ref="S36" r:id="rId46" display="https://10.5194/bg-7-1915-2010"/>
-    <hyperlink ref="P37" r:id="rId47" display="https://doi.pangaea.de/10.1594/PANGAEA.788537"/>
-    <hyperlink ref="S37" r:id="rId48" display="https://doi.org/10.1029/2012GC004370"/>
-    <hyperlink ref="P38" r:id="rId49" display="https://dataverse.scholarsportal.info/dataset.xhtml"/>
-    <hyperlink ref="S38" r:id="rId50" display="https://doi.org/10.1002/2017GL075860"/>
-    <hyperlink ref="P39" r:id="rId51" display="https://biotime.st-andrews.ac.uk/"/>
-    <hyperlink ref="S39" r:id="rId52" display="https://doi.org/10.1111/geb.12729"/>
-    <hyperlink ref="P41" r:id="rId53" display="https://compadre-db.org/"/>
-    <hyperlink ref="S41" r:id="rId54" display="https://doi.org/10.1111/1365-2745.12334"/>
+    <hyperlink ref="S19" r:id="rId17" display="https://dx.doi.org/10.1038/ncomms13603"/>
+    <hyperlink ref="P21" r:id="rId18" display="https://treenet.info/"/>
+    <hyperlink ref="S21" r:id="rId19" display="https://doi.org/10.3389/ffgc.2021.776905"/>
+    <hyperlink ref="P22" r:id="rId20" display="https://www.ncei.noaa.gov/products/paleoclimatology"/>
+    <hyperlink ref="P23" r:id="rId21" display="https://www.try-db.org/TryWeb/Home.php"/>
+    <hyperlink ref="S23" r:id="rId22" display="https://doi.org/10.1111/j.1365-2486.2011.02451.x"/>
+    <hyperlink ref="P24" r:id="rId23" display="https://roots.ornl.gov/"/>
+    <hyperlink ref="S24" r:id="rId24" display="https://doi.org/10.1111/nph.14486"/>
+    <hyperlink ref="P25" r:id="rId25" display="https://xylemfunctionaltraits.org/"/>
+    <hyperlink ref="P26" r:id="rId26" display="https://www.idiv.de/de/splot.html"/>
+    <hyperlink ref="P27" r:id="rId27" display="https://doi.org/10.25829/idiv.3474-40-3292"/>
+    <hyperlink ref="S27" r:id="rId28" display="https://doi.org/10.1111/geb.13346"/>
+    <hyperlink ref="P28" r:id="rId29" display="https://lotvs.csic.es/"/>
+    <hyperlink ref="S28" r:id="rId30" display="https://www.biorxiv.org/content/10.1101/2021.09.29.462383v1.full"/>
+    <hyperlink ref="P29" r:id="rId31" display="https://gfbinitiative.net/"/>
+    <hyperlink ref="P30" r:id="rId32" display="http://icp-forests.net/"/>
+    <hyperlink ref="P31" r:id="rId33" display="http://sapfluxnet.creaf.cat/"/>
+    <hyperlink ref="S31" r:id="rId34" display="https://doi.org/10.5194/essd-13-2607-2021"/>
+    <hyperlink ref="P33" r:id="rId35" location="/home" display="https://data.isric.org/geonetwork/srv/eng/catalog.search#/home"/>
+    <hyperlink ref="S33" r:id="rId36" display="https://doi.org/10.5194/essd-9-1-2017"/>
+    <hyperlink ref="P34" r:id="rId37" display="https://www.fao.org/soils-portal/data-hub/soil-maps-and-databases/harmonized-world-soil-database-v12/en/"/>
+    <hyperlink ref="P35" r:id="rId38" display="https://soilgrids.org/"/>
+    <hyperlink ref="P36" r:id="rId39" display="https://www.isric.org/explore/wise-databases"/>
+    <hyperlink ref="S36" r:id="rId40" display="https://doi.org/10.1016/j.geoderma.2016.01.034"/>
+    <hyperlink ref="P37" r:id="rId41" display="http://globalchange.bnu.edu.cn/research/data"/>
+    <hyperlink ref="S37" r:id="rId42" display="http://doi.wiley.com/10.1002/2013MS000293"/>
+    <hyperlink ref="P38" r:id="rId43" display="https://www.futurewater.eu/projects/hihydrosoil/"/>
+    <hyperlink ref="P39" r:id="rId44" display="https://ismn.earth/en/"/>
+    <hyperlink ref="S39" r:id="rId45" display="https://doi.org/10.5194/hess-2021-2"/>
+    <hyperlink ref="P40" r:id="rId46" display="https://doi.org/10.3334/ORNLDAAC/1827"/>
+    <hyperlink ref="S40" r:id="rId47" display="https://10.5194/bg-7-1915-2010"/>
+    <hyperlink ref="P41" r:id="rId48" display="https://doi.pangaea.de/10.1594/PANGAEA.788537"/>
+    <hyperlink ref="S41" r:id="rId49" display="https://doi.org/10.1029/2012GC004370"/>
+    <hyperlink ref="P42" r:id="rId50" display="https://dataverse.scholarsportal.info/dataset.xhtml"/>
+    <hyperlink ref="S42" r:id="rId51" display="https://doi.org/10.1002/2017GL075860"/>
+    <hyperlink ref="P43" r:id="rId52" display="https://biotime.st-andrews.ac.uk/"/>
+    <hyperlink ref="S43" r:id="rId53" display="https://doi.org/10.1111/geb.12729"/>
+    <hyperlink ref="P45" r:id="rId54" display="https://compadre-db.org/"/>
+    <hyperlink ref="S45" r:id="rId55" display="https://doi.org/10.1111/1365-2745.12334"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -3745,22 +3950,22 @@
       <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.2734375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.2890625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>304</v>
+        <v>324</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>305</v>
+        <v>325</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>306</v>
+        <v>326</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>307</v>
+        <v>327</v>
       </c>
     </row>
   </sheetData>
@@ -3769,8 +3974,8 @@
     <hyperlink ref="C3" r:id="rId2" display="https://cran.r-project.org/web/packages/ProfoundData/vignettes/PROFOUNDdatabase.html"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>

--- a/ExternalDataSources.xlsx
+++ b/ExternalDataSources.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="333">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -297,6 +297,21 @@
   </si>
   <si>
     <t xml:space="preserve">http://www.aemet.es/en/portada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AVAMET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AVAMET network</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Automatic meteorological station network from the Pais Valencia meteorology association</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valencia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.avamet.org/</t>
   </si>
   <si>
     <t xml:space="preserve">easyclimate</t>
@@ -1914,13 +1929,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:U45"/>
+  <dimension ref="A1:U46"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="O1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R19" activeCellId="0" sqref="R19"/>
+      <selection pane="topLeft" activeCell="R12" activeCellId="0" sqref="R12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.2890625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.30078125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="25.28"/>
@@ -1931,7 +1946,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="24.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="10" style="3" width="13.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="4" width="13.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="14.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="14.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="35.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="11.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="60.72"/>
@@ -2456,7 +2471,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
         <v>92</v>
       </c>
@@ -2464,7 +2479,7 @@
         <v>22</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>23</v>
+        <v>81</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>93</v>
@@ -2473,91 +2488,81 @@
         <v>94</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>27</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="L12" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="P12" s="11" t="s">
+      <c r="P12" s="0" t="s">
         <v>96</v>
-      </c>
-      <c r="Q12" s="11"/>
-      <c r="R12" s="0" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>99</v>
+        <v>23</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>98</v>
       </c>
       <c r="E13" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J13" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="F13" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="K13" s="3" t="s">
         <v>27</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>65</v>
       </c>
       <c r="P13" s="11" t="s">
         <v>101</v>
       </c>
       <c r="Q13" s="11"/>
-      <c r="S13" s="11" t="s">
+      <c r="R13" s="0" t="s">
         <v>102</v>
-      </c>
-      <c r="T13" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="U13" s="11" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D14" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>107</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>50</v>
@@ -2566,44 +2571,40 @@
         <v>27</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>65</v>
-      </c>
       <c r="P14" s="11" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="Q14" s="11"/>
       <c r="S14" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="T14" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="U14" s="11" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
         <v>110</v>
-      </c>
-      <c r="T14" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="U14" s="11"/>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
-        <v>112</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>50</v>
@@ -2614,51 +2615,42 @@
       <c r="H15" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I15" s="2" t="s">
+      <c r="J15" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="P15" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q15" s="11"/>
+      <c r="S15" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="T15" s="0" t="s">
         <v>116</v>
       </c>
-      <c r="J15" s="3" t="s">
+      <c r="U15" s="11"/>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
         <v>117</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="L15" s="3" t="s">
+      <c r="B16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="N15" s="0" t="s">
+      <c r="D16" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="P15" s="11" t="s">
+      <c r="E16" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="Q15" s="11"/>
-      <c r="R15" s="0" t="s">
-        <v>121</v>
-      </c>
-      <c r="S15" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="T15" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="U15" s="11"/>
-    </row>
-    <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
-        <v>124</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>128</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>50</v>
@@ -2667,28 +2659,50 @@
         <v>27</v>
       </c>
       <c r="H16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="N16" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="P16" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="S16" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="T16" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="U16" s="11"/>
+    </row>
+    <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
         <v>129</v>
       </c>
-      <c r="K16" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="P16" s="11" t="s">
+      <c r="B17" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="Q16" s="11"/>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+      <c r="C17" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C17" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>132</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>131</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>133</v>
@@ -2700,31 +2714,28 @@
         <v>27</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>134</v>
+        <v>27</v>
       </c>
       <c r="P17" s="11" t="s">
         <v>135</v>
       </c>
       <c r="Q17" s="11"/>
-      <c r="T17" s="0" t="s">
-        <v>136</v>
-      </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>132</v>
-      </c>
       <c r="D18" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>138</v>
@@ -2736,31 +2747,34 @@
         <v>27</v>
       </c>
       <c r="H18" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="K18" s="3" t="s">
         <v>139</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>134</v>
       </c>
       <c r="P18" s="11" t="s">
         <v>140</v>
       </c>
       <c r="Q18" s="11"/>
+      <c r="T18" s="0" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>50</v>
@@ -2769,31 +2783,25 @@
         <v>27</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>129</v>
+        <v>144</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="P19" s="11" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q19" s="11"/>
-      <c r="S19" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="T19" s="0" t="s">
-        <v>145</v>
-      </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
         <v>146</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>146</v>
@@ -2808,95 +2816,82 @@
         <v>27</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I20" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="P20" s="11" t="s">
         <v>148</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="P20" s="11" t="s">
-        <v>149</v>
       </c>
       <c r="Q20" s="11"/>
       <c r="S20" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="T20" s="0" t="s">
         <v>150</v>
       </c>
-      <c r="T20" s="0" t="s">
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+      <c r="B21" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="F21" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I21" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="K21" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="P21" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="E21" s="1" t="s">
+      <c r="Q21" s="11"/>
+      <c r="S21" s="0" t="s">
         <v>155</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="T21" s="0" t="s">
         <v>156</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="L21" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="P21" s="11" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q21" s="11"/>
-      <c r="R21" s="0" t="s">
-        <v>161</v>
-      </c>
-      <c r="S21" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="T21" s="11"/>
-      <c r="U21" s="0" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>50</v>
+        <v>161</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>27</v>
@@ -2904,80 +2899,98 @@
       <c r="H22" s="2" t="s">
         <v>84</v>
       </c>
+      <c r="I22" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>163</v>
+      </c>
       <c r="K22" s="3" t="s">
         <v>27</v>
       </c>
+      <c r="L22" s="3" t="s">
+        <v>164</v>
+      </c>
       <c r="P22" s="11" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="Q22" s="11"/>
       <c r="R22" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="S22" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="T22" s="11"/>
+      <c r="U22" s="0" t="s">
         <v>168</v>
       </c>
-      <c r="S22" s="11"/>
-      <c r="T22" s="11"/>
     </row>
     <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
         <v>169</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="E23" s="1" t="s">
         <v>171</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>172</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>50</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>134</v>
+        <v>27</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>84</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="M23" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="P23" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q23" s="11"/>
+      <c r="R23" s="0" t="s">
         <v>173</v>
       </c>
-      <c r="P23" s="11" t="s">
-        <v>174</v>
-      </c>
-      <c r="Q23" s="11"/>
-      <c r="S23" s="11" t="s">
-        <v>175</v>
-      </c>
+      <c r="S23" s="11"/>
       <c r="T23" s="11"/>
     </row>
     <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>171</v>
-      </c>
       <c r="D24" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E24" s="1" t="s">
         <v>177</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>178</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>50</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>134</v>
+        <v>139</v>
+      </c>
+      <c r="M24" s="4" t="s">
+        <v>178</v>
       </c>
       <c r="P24" s="11" t="s">
         <v>179</v>
@@ -2993,10 +3006,10 @@
         <v>181</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>182</v>
@@ -3008,35 +3021,32 @@
         <v>50</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="M25" s="4" t="s">
-        <v>173</v>
+        <v>139</v>
       </c>
       <c r="P25" s="11" t="s">
         <v>184</v>
       </c>
       <c r="Q25" s="11"/>
-      <c r="S25" s="11"/>
-      <c r="T25" s="0" t="s">
+      <c r="S25" s="11" t="s">
         <v>185</v>
       </c>
+      <c r="T25" s="11"/>
     </row>
     <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
         <v>186</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="C26" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>187</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>186</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>188</v>
@@ -3045,42 +3055,35 @@
         <v>50</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="I26" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="M26" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="P26" s="11" t="s">
         <v>189</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="M26" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="P26" s="11" t="s">
+      <c r="Q26" s="11"/>
+      <c r="S26" s="11"/>
+      <c r="T26" s="0" t="s">
         <v>190</v>
       </c>
-      <c r="Q26" s="11"/>
-      <c r="R26" s="0" t="s">
-        <v>191</v>
-      </c>
-      <c r="S26" s="11"/>
-      <c r="T26" s="11"/>
     </row>
     <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>187</v>
-      </c>
       <c r="D27" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>193</v>
@@ -3095,43 +3098,39 @@
         <v>84</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="J27" s="3" t="s">
         <v>194</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>134</v>
+        <v>139</v>
+      </c>
+      <c r="M27" s="4" t="s">
+        <v>178</v>
       </c>
       <c r="P27" s="11" t="s">
         <v>195</v>
       </c>
       <c r="Q27" s="11"/>
       <c r="R27" s="0" t="s">
-        <v>191</v>
-      </c>
-      <c r="S27" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="T27" s="0" t="s">
-        <v>197</v>
-      </c>
+      <c r="S27" s="11"/>
+      <c r="T27" s="11"/>
     </row>
     <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
+        <v>197</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="E28" s="1" t="s">
         <v>198</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>200</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>50</v>
@@ -3142,14 +3141,26 @@
       <c r="H28" s="2" t="s">
         <v>84</v>
       </c>
+      <c r="I28" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>199</v>
+      </c>
       <c r="K28" s="3" t="s">
-        <v>27</v>
+        <v>139</v>
       </c>
       <c r="P28" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q28" s="11"/>
+      <c r="R28" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="S28" s="11" t="s">
         <v>201</v>
       </c>
-      <c r="Q28" s="11"/>
-      <c r="S28" s="11" t="s">
+      <c r="T28" s="0" t="s">
         <v>202</v>
       </c>
     </row>
@@ -3158,16 +3169,16 @@
         <v>203</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="C29" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="E29" s="1" t="s">
         <v>205</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>206</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>50</v>
@@ -3179,20 +3190,22 @@
         <v>84</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>134</v>
+        <v>27</v>
       </c>
       <c r="P29" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q29" s="11"/>
+      <c r="S29" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="Q29" s="11"/>
-      <c r="S29" s="11"/>
     </row>
     <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
         <v>208</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>209</v>
@@ -3204,7 +3217,7 @@
         <v>211</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>27</v>
@@ -3212,42 +3225,33 @@
       <c r="H30" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="J30" s="3" t="s">
+      <c r="K30" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="P30" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="K30" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="L30" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="P30" s="11" t="s">
-        <v>213</v>
-      </c>
       <c r="Q30" s="11"/>
-      <c r="R30" s="0" t="s">
-        <v>214</v>
-      </c>
       <c r="S30" s="11"/>
     </row>
     <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>215</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>27</v>
@@ -3255,47 +3259,39 @@
       <c r="H31" s="2" t="s">
         <v>84</v>
       </c>
+      <c r="J31" s="3" t="s">
+        <v>217</v>
+      </c>
       <c r="K31" s="3" t="s">
         <v>27</v>
       </c>
       <c r="L31" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="P31" s="11" t="s">
         <v>218</v>
-      </c>
-      <c r="O31" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="P31" s="11" t="s">
-        <v>219</v>
       </c>
       <c r="Q31" s="11"/>
       <c r="R31" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="S31" s="11"/>
+    </row>
+    <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
         <v>220</v>
       </c>
-      <c r="S31" s="11" t="s">
+      <c r="B32" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="T31" s="0" t="s">
+      <c r="D32" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="E32" s="1" t="s">
         <v>222</v>
-      </c>
-      <c r="U31" s="0" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
-        <v>224</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>226</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>50</v>
@@ -3304,35 +3300,49 @@
         <v>27</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I32" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L32" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="O32" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="P32" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q32" s="11"/>
+      <c r="R32" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="S32" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="T32" s="0" t="s">
         <v>227</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="P32" s="11" t="s">
+      <c r="U32" s="0" t="s">
         <v>228</v>
       </c>
-      <c r="Q32" s="11"/>
-      <c r="S32" s="11"/>
-    </row>
-    <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
         <v>229</v>
       </c>
       <c r="B33" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="D33" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="E33" s="1" t="s">
         <v>231</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>233</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>50</v>
@@ -3341,37 +3351,35 @@
         <v>27</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>84</v>
+        <v>28</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>232</v>
       </c>
       <c r="K33" s="3" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="P33" s="11" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="Q33" s="11"/>
-      <c r="S33" s="11" t="s">
-        <v>235</v>
-      </c>
-      <c r="T33" s="0" t="s">
-        <v>236</v>
-      </c>
+      <c r="S33" s="11"/>
     </row>
     <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
+        <v>234</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="D34" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="C34" s="1" t="s">
+      <c r="E34" s="1" t="s">
         <v>238</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>240</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>50</v>
@@ -3380,31 +3388,37 @@
         <v>27</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>28</v>
+        <v>84</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="P34" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q34" s="11"/>
+      <c r="S34" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="T34" s="0" t="s">
         <v>241</v>
       </c>
-      <c r="Q34" s="11"/>
     </row>
     <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
         <v>242</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>50</v>
@@ -3415,29 +3429,23 @@
       <c r="H35" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I35" s="2" t="s">
-        <v>244</v>
-      </c>
       <c r="K35" s="3" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="P35" s="11" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q35" s="11"/>
-      <c r="U35" s="0" t="s">
-        <v>246</v>
-      </c>
     </row>
     <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
         <v>247</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>247</v>
@@ -3458,34 +3466,31 @@
         <v>249</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="P36" s="11" t="s">
         <v>250</v>
       </c>
       <c r="Q36" s="11"/>
-      <c r="R36" s="0" t="s">
+      <c r="U36" s="0" t="s">
         <v>251</v>
-      </c>
-      <c r="S36" s="11" t="s">
-        <v>252</v>
-      </c>
-      <c r="T36" s="0" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>255</v>
+        <v>252</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>253</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>50</v>
@@ -3497,41 +3502,38 @@
         <v>28</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="K37" s="3" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="P37" s="11" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="Q37" s="11"/>
       <c r="R37" s="0" t="s">
+        <v>256</v>
+      </c>
+      <c r="S37" s="11" t="s">
         <v>257</v>
       </c>
-      <c r="S37" s="11" t="s">
+      <c r="T37" s="0" t="s">
         <v>258</v>
-      </c>
-      <c r="T37" s="0" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>261</v>
+        <v>243</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="E38" s="1" t="s">
-        <v>262</v>
-      </c>
       <c r="F38" s="2" t="s">
         <v>50</v>
       </c>
@@ -3542,37 +3544,40 @@
         <v>28</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>51</v>
+        <v>254</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="P38" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q38" s="11"/>
+      <c r="R38" s="0" t="s">
+        <v>262</v>
+      </c>
+      <c r="S38" s="11" t="s">
         <v>263</v>
       </c>
-      <c r="Q38" s="11"/>
       <c r="T38" s="0" t="s">
         <v>264</v>
       </c>
-      <c r="U38" s="0" t="s">
-        <v>265</v>
-      </c>
     </row>
     <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="C39" s="1" t="s">
+      <c r="D39" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="E39" s="1" t="s">
         <v>267</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>269</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>50</v>
@@ -3581,40 +3586,40 @@
         <v>27</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>84</v>
+        <v>28</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="P39" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q39" s="11"/>
+      <c r="T39" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="U39" s="0" t="s">
         <v>270</v>
-      </c>
-      <c r="Q39" s="11"/>
-      <c r="R39" s="0" t="s">
-        <v>271</v>
-      </c>
-      <c r="S39" s="11" t="s">
-        <v>272</v>
-      </c>
-      <c r="T39" s="0" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
+        <v>271</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="E40" s="1" t="s">
         <v>274</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>277</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>50</v>
@@ -3625,46 +3630,38 @@
       <c r="H40" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="J40" s="3" t="s">
+      <c r="K40" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="P40" s="11" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q40" s="11"/>
+      <c r="R40" s="0" t="s">
+        <v>276</v>
+      </c>
+      <c r="S40" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="T40" s="0" t="s">
         <v>278</v>
-      </c>
-      <c r="K40" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="L40" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="P40" s="11" t="s">
-        <v>280</v>
-      </c>
-      <c r="Q40" s="0" t="s">
-        <v>281</v>
-      </c>
-      <c r="R40" s="0" t="s">
-        <v>282</v>
-      </c>
-      <c r="S40" s="11" t="s">
-        <v>283</v>
-      </c>
-      <c r="T40" s="0" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>286</v>
+        <v>235</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>50</v>
@@ -3673,37 +3670,48 @@
         <v>27</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>129</v>
+        <v>84</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>283</v>
       </c>
       <c r="K41" s="3" t="s">
-        <v>134</v>
+        <v>27</v>
+      </c>
+      <c r="L41" s="3" t="s">
+        <v>284</v>
       </c>
       <c r="P41" s="11" t="s">
-        <v>290</v>
-      </c>
-      <c r="Q41" s="11"/>
+        <v>285</v>
+      </c>
+      <c r="Q41" s="0" t="s">
+        <v>286</v>
+      </c>
+      <c r="R41" s="0" t="s">
+        <v>287</v>
+      </c>
       <c r="S41" s="11" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="T41" s="0" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
+        <v>290</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="D42" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="B42" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="C42" s="1" t="s">
+      <c r="E42" s="1" t="s">
         <v>294</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>296</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>50</v>
@@ -3712,41 +3720,37 @@
         <v>27</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="I42" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="K42" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="P42" s="11" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q42" s="11"/>
+      <c r="S42" s="11" t="s">
+        <v>296</v>
+      </c>
+      <c r="T42" s="0" t="s">
         <v>297</v>
       </c>
-      <c r="K42" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="P42" s="11" t="s">
-        <v>298</v>
-      </c>
-      <c r="Q42" s="11"/>
-      <c r="R42" s="0" t="s">
-        <v>299</v>
-      </c>
-      <c r="S42" s="11" t="s">
-        <v>300</v>
-      </c>
-      <c r="T42" s="11"/>
     </row>
     <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
+        <v>298</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="E43" s="1" t="s">
         <v>301</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>304</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>50</v>
@@ -3755,52 +3759,41 @@
         <v>27</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>84</v>
+        <v>134</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="L43" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="M43" s="4" t="s">
-        <v>306</v>
+        <v>139</v>
       </c>
       <c r="P43" s="11" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="Q43" s="11"/>
       <c r="R43" s="0" t="s">
-        <v>191</v>
+        <v>304</v>
       </c>
       <c r="S43" s="11" t="s">
+        <v>305</v>
+      </c>
+      <c r="T43" s="11"/>
+    </row>
+    <row r="44" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="s">
+        <v>306</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="C44" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="T43" s="0" t="s">
+      <c r="D44" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="E44" s="1" t="s">
         <v>309</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="s">
-        <v>310</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>312</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>50</v>
@@ -3811,31 +3804,50 @@
       <c r="H44" s="2" t="s">
         <v>84</v>
       </c>
+      <c r="I44" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>310</v>
+      </c>
       <c r="K44" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="P44" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="L44" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="M44" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="P44" s="11" t="s">
+        <v>312</v>
+      </c>
+      <c r="Q44" s="11"/>
+      <c r="R44" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="S44" s="11" t="s">
         <v>313</v>
       </c>
-      <c r="U44" s="0" t="s">
+      <c r="T44" s="0" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
         <v>315</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>316</v>
       </c>
       <c r="D45" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="E45" s="1" t="s">
         <v>317</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>318</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>50</v>
@@ -3847,28 +3859,63 @@
         <v>84</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="L45" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="M45" s="4" t="s">
-        <v>306</v>
-      </c>
-      <c r="P45" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="P45" s="0" t="s">
+        <v>318</v>
+      </c>
+      <c r="U45" s="0" t="s">
         <v>319</v>
       </c>
-      <c r="R45" s="0" t="s">
+    </row>
+    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="s">
         <v>320</v>
       </c>
-      <c r="S45" s="11" t="s">
+      <c r="B46" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="C46" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="T45" s="0" t="s">
+      <c r="D46" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="U45" s="0" t="s">
+      <c r="E46" s="1" t="s">
         <v>323</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="K46" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L46" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="M46" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="P46" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="R46" s="0" t="s">
+        <v>325</v>
+      </c>
+      <c r="S46" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="T46" s="0" t="s">
+        <v>327</v>
+      </c>
+      <c r="U46" s="0" t="s">
+        <v>328</v>
       </c>
     </row>
   </sheetData>
@@ -3880,54 +3927,54 @@
     <hyperlink ref="S5" r:id="rId5" display="https://doi.org/10.1038/sdata.2017.122"/>
     <hyperlink ref="P6" r:id="rId6" display="http://meteo.unican.es/datasets/spain02"/>
     <hyperlink ref="P7" r:id="rId7" display="http://meteo.unican.es/datasets/spain02"/>
-    <hyperlink ref="P12" r:id="rId8" display="https://github.com/VeruGHub/easyclimate"/>
-    <hyperlink ref="P13" r:id="rId9" display="https://fluxnet.org/"/>
-    <hyperlink ref="S13" r:id="rId10" display="https://doi.org/10.1175/1520-0477(2001)082&lt;2415:FANTTS&gt;2.3.CO;2"/>
-    <hyperlink ref="U13" r:id="rId11" display="https://github.com/aukkola/FluxnetLSM"/>
-    <hyperlink ref="P14" r:id="rId12" display="https://www.gleam.eu/"/>
-    <hyperlink ref="S14" r:id="rId13" display="https://doi.org/10.5194/gmd-10-1903-2017"/>
-    <hyperlink ref="P15" r:id="rId14" display="https://conservancy.umn.edu/handle/11299/197613"/>
-    <hyperlink ref="S15" r:id="rId15" display="https://doi.org/10.1029/2018GB005990"/>
-    <hyperlink ref="P16" r:id="rId16" display="https://www.bafg.de/GRDC/EN/Home/homepage_node.html"/>
-    <hyperlink ref="S19" r:id="rId17" display="https://dx.doi.org/10.1038/ncomms13603"/>
-    <hyperlink ref="P21" r:id="rId18" display="https://treenet.info/"/>
-    <hyperlink ref="S21" r:id="rId19" display="https://doi.org/10.3389/ffgc.2021.776905"/>
-    <hyperlink ref="P22" r:id="rId20" display="https://www.ncei.noaa.gov/products/paleoclimatology"/>
-    <hyperlink ref="P23" r:id="rId21" display="https://www.try-db.org/TryWeb/Home.php"/>
-    <hyperlink ref="S23" r:id="rId22" display="https://doi.org/10.1111/j.1365-2486.2011.02451.x"/>
-    <hyperlink ref="P24" r:id="rId23" display="https://roots.ornl.gov/"/>
-    <hyperlink ref="S24" r:id="rId24" display="https://doi.org/10.1111/nph.14486"/>
-    <hyperlink ref="P25" r:id="rId25" display="https://xylemfunctionaltraits.org/"/>
-    <hyperlink ref="P26" r:id="rId26" display="https://www.idiv.de/de/splot.html"/>
-    <hyperlink ref="P27" r:id="rId27" display="https://doi.org/10.25829/idiv.3474-40-3292"/>
-    <hyperlink ref="S27" r:id="rId28" display="https://doi.org/10.1111/geb.13346"/>
-    <hyperlink ref="P28" r:id="rId29" display="https://lotvs.csic.es/"/>
-    <hyperlink ref="S28" r:id="rId30" display="https://www.biorxiv.org/content/10.1101/2021.09.29.462383v1.full"/>
-    <hyperlink ref="P29" r:id="rId31" display="https://gfbinitiative.net/"/>
-    <hyperlink ref="P30" r:id="rId32" display="http://icp-forests.net/"/>
-    <hyperlink ref="P31" r:id="rId33" display="http://sapfluxnet.creaf.cat/"/>
-    <hyperlink ref="S31" r:id="rId34" display="https://doi.org/10.5194/essd-13-2607-2021"/>
-    <hyperlink ref="P33" r:id="rId35" location="/home" display="https://data.isric.org/geonetwork/srv/eng/catalog.search#/home"/>
-    <hyperlink ref="S33" r:id="rId36" display="https://doi.org/10.5194/essd-9-1-2017"/>
-    <hyperlink ref="P34" r:id="rId37" display="https://www.fao.org/soils-portal/data-hub/soil-maps-and-databases/harmonized-world-soil-database-v12/en/"/>
-    <hyperlink ref="P35" r:id="rId38" display="https://soilgrids.org/"/>
-    <hyperlink ref="P36" r:id="rId39" display="https://www.isric.org/explore/wise-databases"/>
-    <hyperlink ref="S36" r:id="rId40" display="https://doi.org/10.1016/j.geoderma.2016.01.034"/>
-    <hyperlink ref="P37" r:id="rId41" display="http://globalchange.bnu.edu.cn/research/data"/>
-    <hyperlink ref="S37" r:id="rId42" display="http://doi.wiley.com/10.1002/2013MS000293"/>
-    <hyperlink ref="P38" r:id="rId43" display="https://www.futurewater.eu/projects/hihydrosoil/"/>
-    <hyperlink ref="P39" r:id="rId44" display="https://ismn.earth/en/"/>
-    <hyperlink ref="S39" r:id="rId45" display="https://doi.org/10.5194/hess-2021-2"/>
-    <hyperlink ref="P40" r:id="rId46" display="https://doi.org/10.3334/ORNLDAAC/1827"/>
-    <hyperlink ref="S40" r:id="rId47" display="https://10.5194/bg-7-1915-2010"/>
-    <hyperlink ref="P41" r:id="rId48" display="https://doi.pangaea.de/10.1594/PANGAEA.788537"/>
-    <hyperlink ref="S41" r:id="rId49" display="https://doi.org/10.1029/2012GC004370"/>
-    <hyperlink ref="P42" r:id="rId50" display="https://dataverse.scholarsportal.info/dataset.xhtml"/>
-    <hyperlink ref="S42" r:id="rId51" display="https://doi.org/10.1002/2017GL075860"/>
-    <hyperlink ref="P43" r:id="rId52" display="https://biotime.st-andrews.ac.uk/"/>
-    <hyperlink ref="S43" r:id="rId53" display="https://doi.org/10.1111/geb.12729"/>
-    <hyperlink ref="P45" r:id="rId54" display="https://compadre-db.org/"/>
-    <hyperlink ref="S45" r:id="rId55" display="https://doi.org/10.1111/1365-2745.12334"/>
+    <hyperlink ref="P13" r:id="rId8" display="https://github.com/VeruGHub/easyclimate"/>
+    <hyperlink ref="P14" r:id="rId9" display="https://fluxnet.org/"/>
+    <hyperlink ref="S14" r:id="rId10" display="https://doi.org/10.1175/1520-0477(2001)082&lt;2415:FANTTS&gt;2.3.CO;2"/>
+    <hyperlink ref="U14" r:id="rId11" display="https://github.com/aukkola/FluxnetLSM"/>
+    <hyperlink ref="P15" r:id="rId12" display="https://www.gleam.eu/"/>
+    <hyperlink ref="S15" r:id="rId13" display="https://doi.org/10.5194/gmd-10-1903-2017"/>
+    <hyperlink ref="P16" r:id="rId14" display="https://conservancy.umn.edu/handle/11299/197613"/>
+    <hyperlink ref="S16" r:id="rId15" display="https://doi.org/10.1029/2018GB005990"/>
+    <hyperlink ref="P17" r:id="rId16" display="https://www.bafg.de/GRDC/EN/Home/homepage_node.html"/>
+    <hyperlink ref="S20" r:id="rId17" display="https://dx.doi.org/10.1038/ncomms13603"/>
+    <hyperlink ref="P22" r:id="rId18" display="https://treenet.info/"/>
+    <hyperlink ref="S22" r:id="rId19" display="https://doi.org/10.3389/ffgc.2021.776905"/>
+    <hyperlink ref="P23" r:id="rId20" display="https://www.ncei.noaa.gov/products/paleoclimatology"/>
+    <hyperlink ref="P24" r:id="rId21" display="https://www.try-db.org/TryWeb/Home.php"/>
+    <hyperlink ref="S24" r:id="rId22" display="https://doi.org/10.1111/j.1365-2486.2011.02451.x"/>
+    <hyperlink ref="P25" r:id="rId23" display="https://roots.ornl.gov/"/>
+    <hyperlink ref="S25" r:id="rId24" display="https://doi.org/10.1111/nph.14486"/>
+    <hyperlink ref="P26" r:id="rId25" display="https://xylemfunctionaltraits.org/"/>
+    <hyperlink ref="P27" r:id="rId26" display="https://www.idiv.de/de/splot.html"/>
+    <hyperlink ref="P28" r:id="rId27" display="https://doi.org/10.25829/idiv.3474-40-3292"/>
+    <hyperlink ref="S28" r:id="rId28" display="https://doi.org/10.1111/geb.13346"/>
+    <hyperlink ref="P29" r:id="rId29" display="https://lotvs.csic.es/"/>
+    <hyperlink ref="S29" r:id="rId30" display="https://www.biorxiv.org/content/10.1101/2021.09.29.462383v1.full"/>
+    <hyperlink ref="P30" r:id="rId31" display="https://gfbinitiative.net/"/>
+    <hyperlink ref="P31" r:id="rId32" display="http://icp-forests.net/"/>
+    <hyperlink ref="P32" r:id="rId33" display="http://sapfluxnet.creaf.cat/"/>
+    <hyperlink ref="S32" r:id="rId34" display="https://doi.org/10.5194/essd-13-2607-2021"/>
+    <hyperlink ref="P34" r:id="rId35" location="/home" display="https://data.isric.org/geonetwork/srv/eng/catalog.search#/home"/>
+    <hyperlink ref="S34" r:id="rId36" display="https://doi.org/10.5194/essd-9-1-2017"/>
+    <hyperlink ref="P35" r:id="rId37" display="https://www.fao.org/soils-portal/data-hub/soil-maps-and-databases/harmonized-world-soil-database-v12/en/"/>
+    <hyperlink ref="P36" r:id="rId38" display="https://soilgrids.org/"/>
+    <hyperlink ref="P37" r:id="rId39" display="https://www.isric.org/explore/wise-databases"/>
+    <hyperlink ref="S37" r:id="rId40" display="https://doi.org/10.1016/j.geoderma.2016.01.034"/>
+    <hyperlink ref="P38" r:id="rId41" display="http://globalchange.bnu.edu.cn/research/data"/>
+    <hyperlink ref="S38" r:id="rId42" display="http://doi.wiley.com/10.1002/2013MS000293"/>
+    <hyperlink ref="P39" r:id="rId43" display="https://www.futurewater.eu/projects/hihydrosoil/"/>
+    <hyperlink ref="P40" r:id="rId44" display="https://ismn.earth/en/"/>
+    <hyperlink ref="S40" r:id="rId45" display="https://doi.org/10.5194/hess-2021-2"/>
+    <hyperlink ref="P41" r:id="rId46" display="https://doi.org/10.3334/ORNLDAAC/1827"/>
+    <hyperlink ref="S41" r:id="rId47" display="https://10.5194/bg-7-1915-2010"/>
+    <hyperlink ref="P42" r:id="rId48" display="https://doi.pangaea.de/10.1594/PANGAEA.788537"/>
+    <hyperlink ref="S42" r:id="rId49" display="https://doi.org/10.1029/2012GC004370"/>
+    <hyperlink ref="P43" r:id="rId50" display="https://dataverse.scholarsportal.info/dataset.xhtml"/>
+    <hyperlink ref="S43" r:id="rId51" display="https://doi.org/10.1002/2017GL075860"/>
+    <hyperlink ref="P44" r:id="rId52" display="https://biotime.st-andrews.ac.uk/"/>
+    <hyperlink ref="S44" r:id="rId53" display="https://doi.org/10.1111/geb.12729"/>
+    <hyperlink ref="P46" r:id="rId54" display="https://compadre-db.org/"/>
+    <hyperlink ref="S46" r:id="rId55" display="https://doi.org/10.1111/1365-2745.12334"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -3950,22 +3997,22 @@
       <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.2890625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.30078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
     </row>
   </sheetData>

--- a/ExternalDataSources.xlsx
+++ b/ExternalDataSources.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="333">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -314,22 +314,22 @@
     <t xml:space="preserve">https://www.avamet.org/</t>
   </si>
   <si>
-    <t xml:space="preserve">easyclimate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Easyclimate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">High-resolution (1 km) daily climate data (precipitation, minimum and maximum temperatures) for Europe from the European climatic database</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1950-2020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/VeruGHub/easyclimate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Precipitation, Min temp, Max temp</t>
+    <t xml:space="preserve">AdapteCCA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AdapteCCA climate change scenario visualisation tool</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tool to visualize and download climate change projections for Spain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 km</t>
+  </si>
+  <si>
+    <t xml:space="preserve">multiple</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://escenarios.adaptecca.es</t>
   </si>
   <si>
     <t xml:space="preserve">FLUXNET</t>
@@ -1798,7 +1798,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1848,6 +1848,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1931,11 +1935,11 @@
   </sheetPr>
   <dimension ref="A1:U46"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="O1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R12" activeCellId="0" sqref="R12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.30078125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.30859375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="25.28"/>
@@ -2503,7 +2507,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
         <v>97</v>
       </c>
@@ -2511,16 +2515,16 @@
         <v>22</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D13" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" s="13" t="s">
         <v>99</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>27</v>
@@ -2529,26 +2533,22 @@
         <v>28</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>51</v>
+        <v>100</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="K13" s="3" t="s">
         <v>27</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="P13" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="Q13" s="11"/>
-      <c r="R13" s="0" t="s">
+      <c r="P13" s="0" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
         <v>103</v>
       </c>
@@ -3927,54 +3927,53 @@
     <hyperlink ref="S5" r:id="rId5" display="https://doi.org/10.1038/sdata.2017.122"/>
     <hyperlink ref="P6" r:id="rId6" display="http://meteo.unican.es/datasets/spain02"/>
     <hyperlink ref="P7" r:id="rId7" display="http://meteo.unican.es/datasets/spain02"/>
-    <hyperlink ref="P13" r:id="rId8" display="https://github.com/VeruGHub/easyclimate"/>
-    <hyperlink ref="P14" r:id="rId9" display="https://fluxnet.org/"/>
-    <hyperlink ref="S14" r:id="rId10" display="https://doi.org/10.1175/1520-0477(2001)082&lt;2415:FANTTS&gt;2.3.CO;2"/>
-    <hyperlink ref="U14" r:id="rId11" display="https://github.com/aukkola/FluxnetLSM"/>
-    <hyperlink ref="P15" r:id="rId12" display="https://www.gleam.eu/"/>
-    <hyperlink ref="S15" r:id="rId13" display="https://doi.org/10.5194/gmd-10-1903-2017"/>
-    <hyperlink ref="P16" r:id="rId14" display="https://conservancy.umn.edu/handle/11299/197613"/>
-    <hyperlink ref="S16" r:id="rId15" display="https://doi.org/10.1029/2018GB005990"/>
-    <hyperlink ref="P17" r:id="rId16" display="https://www.bafg.de/GRDC/EN/Home/homepage_node.html"/>
-    <hyperlink ref="S20" r:id="rId17" display="https://dx.doi.org/10.1038/ncomms13603"/>
-    <hyperlink ref="P22" r:id="rId18" display="https://treenet.info/"/>
-    <hyperlink ref="S22" r:id="rId19" display="https://doi.org/10.3389/ffgc.2021.776905"/>
-    <hyperlink ref="P23" r:id="rId20" display="https://www.ncei.noaa.gov/products/paleoclimatology"/>
-    <hyperlink ref="P24" r:id="rId21" display="https://www.try-db.org/TryWeb/Home.php"/>
-    <hyperlink ref="S24" r:id="rId22" display="https://doi.org/10.1111/j.1365-2486.2011.02451.x"/>
-    <hyperlink ref="P25" r:id="rId23" display="https://roots.ornl.gov/"/>
-    <hyperlink ref="S25" r:id="rId24" display="https://doi.org/10.1111/nph.14486"/>
-    <hyperlink ref="P26" r:id="rId25" display="https://xylemfunctionaltraits.org/"/>
-    <hyperlink ref="P27" r:id="rId26" display="https://www.idiv.de/de/splot.html"/>
-    <hyperlink ref="P28" r:id="rId27" display="https://doi.org/10.25829/idiv.3474-40-3292"/>
-    <hyperlink ref="S28" r:id="rId28" display="https://doi.org/10.1111/geb.13346"/>
-    <hyperlink ref="P29" r:id="rId29" display="https://lotvs.csic.es/"/>
-    <hyperlink ref="S29" r:id="rId30" display="https://www.biorxiv.org/content/10.1101/2021.09.29.462383v1.full"/>
-    <hyperlink ref="P30" r:id="rId31" display="https://gfbinitiative.net/"/>
-    <hyperlink ref="P31" r:id="rId32" display="http://icp-forests.net/"/>
-    <hyperlink ref="P32" r:id="rId33" display="http://sapfluxnet.creaf.cat/"/>
-    <hyperlink ref="S32" r:id="rId34" display="https://doi.org/10.5194/essd-13-2607-2021"/>
-    <hyperlink ref="P34" r:id="rId35" location="/home" display="https://data.isric.org/geonetwork/srv/eng/catalog.search#/home"/>
-    <hyperlink ref="S34" r:id="rId36" display="https://doi.org/10.5194/essd-9-1-2017"/>
-    <hyperlink ref="P35" r:id="rId37" display="https://www.fao.org/soils-portal/data-hub/soil-maps-and-databases/harmonized-world-soil-database-v12/en/"/>
-    <hyperlink ref="P36" r:id="rId38" display="https://soilgrids.org/"/>
-    <hyperlink ref="P37" r:id="rId39" display="https://www.isric.org/explore/wise-databases"/>
-    <hyperlink ref="S37" r:id="rId40" display="https://doi.org/10.1016/j.geoderma.2016.01.034"/>
-    <hyperlink ref="P38" r:id="rId41" display="http://globalchange.bnu.edu.cn/research/data"/>
-    <hyperlink ref="S38" r:id="rId42" display="http://doi.wiley.com/10.1002/2013MS000293"/>
-    <hyperlink ref="P39" r:id="rId43" display="https://www.futurewater.eu/projects/hihydrosoil/"/>
-    <hyperlink ref="P40" r:id="rId44" display="https://ismn.earth/en/"/>
-    <hyperlink ref="S40" r:id="rId45" display="https://doi.org/10.5194/hess-2021-2"/>
-    <hyperlink ref="P41" r:id="rId46" display="https://doi.org/10.3334/ORNLDAAC/1827"/>
-    <hyperlink ref="S41" r:id="rId47" display="https://10.5194/bg-7-1915-2010"/>
-    <hyperlink ref="P42" r:id="rId48" display="https://doi.pangaea.de/10.1594/PANGAEA.788537"/>
-    <hyperlink ref="S42" r:id="rId49" display="https://doi.org/10.1029/2012GC004370"/>
-    <hyperlink ref="P43" r:id="rId50" display="https://dataverse.scholarsportal.info/dataset.xhtml"/>
-    <hyperlink ref="S43" r:id="rId51" display="https://doi.org/10.1002/2017GL075860"/>
-    <hyperlink ref="P44" r:id="rId52" display="https://biotime.st-andrews.ac.uk/"/>
-    <hyperlink ref="S44" r:id="rId53" display="https://doi.org/10.1111/geb.12729"/>
-    <hyperlink ref="P46" r:id="rId54" display="https://compadre-db.org/"/>
-    <hyperlink ref="S46" r:id="rId55" display="https://doi.org/10.1111/1365-2745.12334"/>
+    <hyperlink ref="P14" r:id="rId8" display="https://fluxnet.org/"/>
+    <hyperlink ref="S14" r:id="rId9" display="https://doi.org/10.1175/1520-0477(2001)082&lt;2415:FANTTS&gt;2.3.CO;2"/>
+    <hyperlink ref="U14" r:id="rId10" display="https://github.com/aukkola/FluxnetLSM"/>
+    <hyperlink ref="P15" r:id="rId11" display="https://www.gleam.eu/"/>
+    <hyperlink ref="S15" r:id="rId12" display="https://doi.org/10.5194/gmd-10-1903-2017"/>
+    <hyperlink ref="P16" r:id="rId13" display="https://conservancy.umn.edu/handle/11299/197613"/>
+    <hyperlink ref="S16" r:id="rId14" display="https://doi.org/10.1029/2018GB005990"/>
+    <hyperlink ref="P17" r:id="rId15" display="https://www.bafg.de/GRDC/EN/Home/homepage_node.html"/>
+    <hyperlink ref="S20" r:id="rId16" display="https://dx.doi.org/10.1038/ncomms13603"/>
+    <hyperlink ref="P22" r:id="rId17" display="https://treenet.info/"/>
+    <hyperlink ref="S22" r:id="rId18" display="https://doi.org/10.3389/ffgc.2021.776905"/>
+    <hyperlink ref="P23" r:id="rId19" display="https://www.ncei.noaa.gov/products/paleoclimatology"/>
+    <hyperlink ref="P24" r:id="rId20" display="https://www.try-db.org/TryWeb/Home.php"/>
+    <hyperlink ref="S24" r:id="rId21" display="https://doi.org/10.1111/j.1365-2486.2011.02451.x"/>
+    <hyperlink ref="P25" r:id="rId22" display="https://roots.ornl.gov/"/>
+    <hyperlink ref="S25" r:id="rId23" display="https://doi.org/10.1111/nph.14486"/>
+    <hyperlink ref="P26" r:id="rId24" display="https://xylemfunctionaltraits.org/"/>
+    <hyperlink ref="P27" r:id="rId25" display="https://www.idiv.de/de/splot.html"/>
+    <hyperlink ref="P28" r:id="rId26" display="https://doi.org/10.25829/idiv.3474-40-3292"/>
+    <hyperlink ref="S28" r:id="rId27" display="https://doi.org/10.1111/geb.13346"/>
+    <hyperlink ref="P29" r:id="rId28" display="https://lotvs.csic.es/"/>
+    <hyperlink ref="S29" r:id="rId29" display="https://www.biorxiv.org/content/10.1101/2021.09.29.462383v1.full"/>
+    <hyperlink ref="P30" r:id="rId30" display="https://gfbinitiative.net/"/>
+    <hyperlink ref="P31" r:id="rId31" display="http://icp-forests.net/"/>
+    <hyperlink ref="P32" r:id="rId32" display="http://sapfluxnet.creaf.cat/"/>
+    <hyperlink ref="S32" r:id="rId33" display="https://doi.org/10.5194/essd-13-2607-2021"/>
+    <hyperlink ref="P34" r:id="rId34" location="/home" display="https://data.isric.org/geonetwork/srv/eng/catalog.search#/home"/>
+    <hyperlink ref="S34" r:id="rId35" display="https://doi.org/10.5194/essd-9-1-2017"/>
+    <hyperlink ref="P35" r:id="rId36" display="https://www.fao.org/soils-portal/data-hub/soil-maps-and-databases/harmonized-world-soil-database-v12/en/"/>
+    <hyperlink ref="P36" r:id="rId37" display="https://soilgrids.org/"/>
+    <hyperlink ref="P37" r:id="rId38" display="https://www.isric.org/explore/wise-databases"/>
+    <hyperlink ref="S37" r:id="rId39" display="https://doi.org/10.1016/j.geoderma.2016.01.034"/>
+    <hyperlink ref="P38" r:id="rId40" display="http://globalchange.bnu.edu.cn/research/data"/>
+    <hyperlink ref="S38" r:id="rId41" display="http://doi.wiley.com/10.1002/2013MS000293"/>
+    <hyperlink ref="P39" r:id="rId42" display="https://www.futurewater.eu/projects/hihydrosoil/"/>
+    <hyperlink ref="P40" r:id="rId43" display="https://ismn.earth/en/"/>
+    <hyperlink ref="S40" r:id="rId44" display="https://doi.org/10.5194/hess-2021-2"/>
+    <hyperlink ref="P41" r:id="rId45" display="https://doi.org/10.3334/ORNLDAAC/1827"/>
+    <hyperlink ref="S41" r:id="rId46" display="https://10.5194/bg-7-1915-2010"/>
+    <hyperlink ref="P42" r:id="rId47" display="https://doi.pangaea.de/10.1594/PANGAEA.788537"/>
+    <hyperlink ref="S42" r:id="rId48" display="https://doi.org/10.1029/2012GC004370"/>
+    <hyperlink ref="P43" r:id="rId49" display="https://dataverse.scholarsportal.info/dataset.xhtml"/>
+    <hyperlink ref="S43" r:id="rId50" display="https://doi.org/10.1002/2017GL075860"/>
+    <hyperlink ref="P44" r:id="rId51" display="https://biotime.st-andrews.ac.uk/"/>
+    <hyperlink ref="S44" r:id="rId52" display="https://doi.org/10.1111/geb.12729"/>
+    <hyperlink ref="P46" r:id="rId53" display="https://compadre-db.org/"/>
+    <hyperlink ref="S46" r:id="rId54" display="https://doi.org/10.1111/1365-2745.12334"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -3997,7 +3996,7 @@
       <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.30078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.30859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">

--- a/ExternalDataSources.xlsx
+++ b/ExternalDataSources.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="344">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -939,6 +939,39 @@
   </si>
   <si>
     <t xml:space="preserve">https://doi.org/10.5194/essd-2021-25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PhenoCam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phenology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PhenoCam: An ecosystem phenology camera network</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The PhenoCam Network is a cooperative continental-scale phenological observatory that uses imagery from networked digital cameras to track vegetation phenology in a diverse range of ecosystems across North America and around the World. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2000 – present</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ecosystem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://phenocam.sr.unh.edu/webcam/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RGB data, canopy greenness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.3334/ORNLDAAC/1689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Richardson, A. D., K. Hufkens, T. Milliman, D. M. Aubrecht, M. Chen, J. M. Gray, M. R. Johnston, T. F. Keenan, S. T. Klosterman, M. Kosmala, E. K. Melaas, M. A. Friedl, and S. Frolking. 2018. Tracking vegetation phenology across diverse North American biomes using PhenoCam imagery. Scientific Data 5:1–24.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">phenocamr</t>
   </si>
   <si>
     <t xml:space="preserve">WoSIS</t>
@@ -1798,7 +1831,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1852,6 +1885,14 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1933,13 +1974,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:U46"/>
+  <dimension ref="A1:U47"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="Q1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="V34" activeCellId="0" sqref="V34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.30859375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.31640625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="25.28"/>
@@ -3365,21 +3406,21 @@
       <c r="Q33" s="11"/>
       <c r="S33" s="11"/>
     </row>
-    <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
         <v>234</v>
       </c>
       <c r="B34" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="D34" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="E34" s="1" t="s">
         <v>237</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>238</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>50</v>
@@ -3390,35 +3431,50 @@
       <c r="H34" s="2" t="s">
         <v>84</v>
       </c>
+      <c r="J34" s="3" t="s">
+        <v>238</v>
+      </c>
       <c r="K34" s="3" t="s">
-        <v>139</v>
+        <v>27</v>
+      </c>
+      <c r="L34" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="M34" s="4" t="s">
+        <v>239</v>
       </c>
       <c r="P34" s="11" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q34" s="11"/>
-      <c r="S34" s="11" t="s">
-        <v>240</v>
+      <c r="R34" s="0" t="s">
+        <v>241</v>
+      </c>
+      <c r="S34" s="14" t="s">
+        <v>242</v>
       </c>
       <c r="T34" s="0" t="s">
-        <v>241</v>
+        <v>243</v>
+      </c>
+      <c r="U34" s="15" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>235</v>
+        <v>246</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>50</v>
@@ -3427,31 +3483,37 @@
         <v>27</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>28</v>
+        <v>84</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>139</v>
       </c>
       <c r="P35" s="11" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="Q35" s="11"/>
+      <c r="S35" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="T35" s="0" t="s">
+        <v>252</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>235</v>
+        <v>246</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>243</v>
+        <v>254</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>50</v>
@@ -3462,35 +3524,29 @@
       <c r="H36" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I36" s="2" t="s">
-        <v>249</v>
-      </c>
       <c r="K36" s="3" t="s">
         <v>139</v>
       </c>
       <c r="P36" s="11" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="Q36" s="11"/>
-      <c r="U36" s="0" t="s">
-        <v>251</v>
-      </c>
     </row>
     <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>235</v>
+        <v>246</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>243</v>
+        <v>254</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>50</v>
@@ -3502,37 +3558,34 @@
         <v>28</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="K37" s="3" t="s">
         <v>139</v>
       </c>
       <c r="P37" s="11" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="Q37" s="11"/>
-      <c r="R37" s="0" t="s">
-        <v>256</v>
-      </c>
-      <c r="S37" s="11" t="s">
-        <v>257</v>
-      </c>
-      <c r="T37" s="0" t="s">
-        <v>258</v>
+      <c r="U37" s="0" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>235</v>
+        <v>246</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>243</v>
+        <v>254</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>264</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>50</v>
@@ -3544,40 +3597,37 @@
         <v>28</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>254</v>
+        <v>265</v>
       </c>
       <c r="K38" s="3" t="s">
         <v>139</v>
       </c>
       <c r="P38" s="11" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="Q38" s="11"/>
       <c r="R38" s="0" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="S38" s="11" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="T38" s="0" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>235</v>
+        <v>246</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>50</v>
@@ -3589,37 +3639,40 @@
         <v>28</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>51</v>
+        <v>265</v>
       </c>
       <c r="K39" s="3" t="s">
         <v>139</v>
       </c>
       <c r="P39" s="11" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="Q39" s="11"/>
+      <c r="R39" s="0" t="s">
+        <v>273</v>
+      </c>
+      <c r="S39" s="11" t="s">
+        <v>274</v>
+      </c>
       <c r="T39" s="0" t="s">
-        <v>269</v>
-      </c>
-      <c r="U39" s="0" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>235</v>
+        <v>246</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>50</v>
@@ -3628,40 +3681,40 @@
         <v>27</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>84</v>
+        <v>28</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="K40" s="3" t="s">
         <v>139</v>
       </c>
       <c r="P40" s="11" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="Q40" s="11"/>
-      <c r="R40" s="0" t="s">
-        <v>276</v>
-      </c>
-      <c r="S40" s="11" t="s">
-        <v>277</v>
-      </c>
       <c r="T40" s="0" t="s">
-        <v>278</v>
+        <v>280</v>
+      </c>
+      <c r="U40" s="0" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>235</v>
+        <v>246</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>50</v>
@@ -3672,21 +3725,13 @@
       <c r="H41" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>283</v>
-      </c>
       <c r="K41" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="L41" s="3" t="s">
-        <v>284</v>
+        <v>139</v>
       </c>
       <c r="P41" s="11" t="s">
-        <v>285</v>
-      </c>
-      <c r="Q41" s="0" t="s">
         <v>286</v>
       </c>
+      <c r="Q41" s="11"/>
       <c r="R41" s="0" t="s">
         <v>287</v>
       </c>
@@ -3702,16 +3747,16 @@
         <v>290</v>
       </c>
       <c r="B42" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="D42" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="E42" s="1" t="s">
         <v>293</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>294</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>50</v>
@@ -3720,37 +3765,48 @@
         <v>27</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>134</v>
+        <v>84</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>294</v>
       </c>
       <c r="K42" s="3" t="s">
-        <v>139</v>
+        <v>27</v>
+      </c>
+      <c r="L42" s="3" t="s">
+        <v>295</v>
       </c>
       <c r="P42" s="11" t="s">
-        <v>295</v>
-      </c>
-      <c r="Q42" s="11"/>
+        <v>296</v>
+      </c>
+      <c r="Q42" s="0" t="s">
+        <v>297</v>
+      </c>
+      <c r="R42" s="0" t="s">
+        <v>298</v>
+      </c>
       <c r="S42" s="11" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="T42" s="0" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>291</v>
+        <v>302</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>50</v>
@@ -3761,39 +3817,35 @@
       <c r="H43" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="I43" s="2" t="s">
-        <v>302</v>
-      </c>
       <c r="K43" s="3" t="s">
         <v>139</v>
       </c>
       <c r="P43" s="11" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="Q43" s="11"/>
-      <c r="R43" s="0" t="s">
-        <v>304</v>
-      </c>
       <c r="S43" s="11" t="s">
-        <v>305</v>
-      </c>
-      <c r="T43" s="11"/>
+        <v>307</v>
+      </c>
+      <c r="T43" s="0" t="s">
+        <v>308</v>
+      </c>
     </row>
     <row r="44" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>50</v>
@@ -3802,52 +3854,41 @@
         <v>27</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>84</v>
+        <v>134</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="J44" s="3" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="K44" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="L44" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="M44" s="4" t="s">
-        <v>311</v>
+        <v>139</v>
       </c>
       <c r="P44" s="11" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Q44" s="11"/>
       <c r="R44" s="0" t="s">
-        <v>196</v>
+        <v>315</v>
       </c>
       <c r="S44" s="11" t="s">
-        <v>313</v>
-      </c>
-      <c r="T44" s="0" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>316</v>
+      </c>
+      <c r="T44" s="11"/>
+    </row>
+    <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>307</v>
+        <v>318</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>50</v>
@@ -3858,31 +3899,50 @@
       <c r="H45" s="2" t="s">
         <v>84</v>
       </c>
+      <c r="I45" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>321</v>
+      </c>
       <c r="K45" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="P45" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="L45" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="M45" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="P45" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="Q45" s="11"/>
+      <c r="R45" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="S45" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="T45" s="0" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="s">
+        <v>326</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="U45" s="0" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="s">
-        <v>320</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>307</v>
-      </c>
       <c r="C46" s="1" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>50</v>
@@ -3894,28 +3954,63 @@
         <v>84</v>
       </c>
       <c r="K46" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="L46" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="P46" s="0" t="s">
+        <v>329</v>
+      </c>
+      <c r="U46" s="0" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="s">
+        <v>331</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="K47" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L47" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="M46" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="P46" s="11" t="s">
-        <v>324</v>
-      </c>
-      <c r="R46" s="0" t="s">
-        <v>325</v>
-      </c>
-      <c r="S46" s="11" t="s">
-        <v>326</v>
-      </c>
-      <c r="T46" s="0" t="s">
-        <v>327</v>
-      </c>
-      <c r="U46" s="0" t="s">
-        <v>328</v>
+      <c r="M47" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="P47" s="11" t="s">
+        <v>335</v>
+      </c>
+      <c r="R47" s="0" t="s">
+        <v>336</v>
+      </c>
+      <c r="S47" s="11" t="s">
+        <v>337</v>
+      </c>
+      <c r="T47" s="0" t="s">
+        <v>338</v>
+      </c>
+      <c r="U47" s="0" t="s">
+        <v>339</v>
       </c>
     </row>
   </sheetData>
@@ -3953,27 +4048,27 @@
     <hyperlink ref="P31" r:id="rId31" display="http://icp-forests.net/"/>
     <hyperlink ref="P32" r:id="rId32" display="http://sapfluxnet.creaf.cat/"/>
     <hyperlink ref="S32" r:id="rId33" display="https://doi.org/10.5194/essd-13-2607-2021"/>
-    <hyperlink ref="P34" r:id="rId34" location="/home" display="https://data.isric.org/geonetwork/srv/eng/catalog.search#/home"/>
-    <hyperlink ref="S34" r:id="rId35" display="https://doi.org/10.5194/essd-9-1-2017"/>
-    <hyperlink ref="P35" r:id="rId36" display="https://www.fao.org/soils-portal/data-hub/soil-maps-and-databases/harmonized-world-soil-database-v12/en/"/>
-    <hyperlink ref="P36" r:id="rId37" display="https://soilgrids.org/"/>
-    <hyperlink ref="P37" r:id="rId38" display="https://www.isric.org/explore/wise-databases"/>
-    <hyperlink ref="S37" r:id="rId39" display="https://doi.org/10.1016/j.geoderma.2016.01.034"/>
-    <hyperlink ref="P38" r:id="rId40" display="http://globalchange.bnu.edu.cn/research/data"/>
-    <hyperlink ref="S38" r:id="rId41" display="http://doi.wiley.com/10.1002/2013MS000293"/>
-    <hyperlink ref="P39" r:id="rId42" display="https://www.futurewater.eu/projects/hihydrosoil/"/>
-    <hyperlink ref="P40" r:id="rId43" display="https://ismn.earth/en/"/>
-    <hyperlink ref="S40" r:id="rId44" display="https://doi.org/10.5194/hess-2021-2"/>
-    <hyperlink ref="P41" r:id="rId45" display="https://doi.org/10.3334/ORNLDAAC/1827"/>
-    <hyperlink ref="S41" r:id="rId46" display="https://10.5194/bg-7-1915-2010"/>
-    <hyperlink ref="P42" r:id="rId47" display="https://doi.pangaea.de/10.1594/PANGAEA.788537"/>
-    <hyperlink ref="S42" r:id="rId48" display="https://doi.org/10.1029/2012GC004370"/>
-    <hyperlink ref="P43" r:id="rId49" display="https://dataverse.scholarsportal.info/dataset.xhtml"/>
-    <hyperlink ref="S43" r:id="rId50" display="https://doi.org/10.1002/2017GL075860"/>
-    <hyperlink ref="P44" r:id="rId51" display="https://biotime.st-andrews.ac.uk/"/>
-    <hyperlink ref="S44" r:id="rId52" display="https://doi.org/10.1111/geb.12729"/>
-    <hyperlink ref="P46" r:id="rId53" display="https://compadre-db.org/"/>
-    <hyperlink ref="S46" r:id="rId54" display="https://doi.org/10.1111/1365-2745.12334"/>
+    <hyperlink ref="P35" r:id="rId34" location="/home" display="https://data.isric.org/geonetwork/srv/eng/catalog.search#/home"/>
+    <hyperlink ref="S35" r:id="rId35" display="https://doi.org/10.5194/essd-9-1-2017"/>
+    <hyperlink ref="P36" r:id="rId36" display="https://www.fao.org/soils-portal/data-hub/soil-maps-and-databases/harmonized-world-soil-database-v12/en/"/>
+    <hyperlink ref="P37" r:id="rId37" display="https://soilgrids.org/"/>
+    <hyperlink ref="P38" r:id="rId38" display="https://www.isric.org/explore/wise-databases"/>
+    <hyperlink ref="S38" r:id="rId39" display="https://doi.org/10.1016/j.geoderma.2016.01.034"/>
+    <hyperlink ref="P39" r:id="rId40" display="http://globalchange.bnu.edu.cn/research/data"/>
+    <hyperlink ref="S39" r:id="rId41" display="http://doi.wiley.com/10.1002/2013MS000293"/>
+    <hyperlink ref="P40" r:id="rId42" display="https://www.futurewater.eu/projects/hihydrosoil/"/>
+    <hyperlink ref="P41" r:id="rId43" display="https://ismn.earth/en/"/>
+    <hyperlink ref="S41" r:id="rId44" display="https://doi.org/10.5194/hess-2021-2"/>
+    <hyperlink ref="P42" r:id="rId45" display="https://doi.org/10.3334/ORNLDAAC/1827"/>
+    <hyperlink ref="S42" r:id="rId46" display="https://10.5194/bg-7-1915-2010"/>
+    <hyperlink ref="P43" r:id="rId47" display="https://doi.pangaea.de/10.1594/PANGAEA.788537"/>
+    <hyperlink ref="S43" r:id="rId48" display="https://doi.org/10.1029/2012GC004370"/>
+    <hyperlink ref="P44" r:id="rId49" display="https://dataverse.scholarsportal.info/dataset.xhtml"/>
+    <hyperlink ref="S44" r:id="rId50" display="https://doi.org/10.1002/2017GL075860"/>
+    <hyperlink ref="P45" r:id="rId51" display="https://biotime.st-andrews.ac.uk/"/>
+    <hyperlink ref="S45" r:id="rId52" display="https://doi.org/10.1111/geb.12729"/>
+    <hyperlink ref="P47" r:id="rId53" display="https://compadre-db.org/"/>
+    <hyperlink ref="S47" r:id="rId54" display="https://doi.org/10.1111/1365-2745.12334"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -3996,22 +4091,22 @@
       <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.30859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.31640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>329</v>
+        <v>340</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>330</v>
+        <v>341</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>331</v>
+        <v>342</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>332</v>
+        <v>343</v>
       </c>
     </row>
   </sheetData>

--- a/ExternalDataSources.xlsx
+++ b/ExternalDataSources.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="354">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -38,6 +38,9 @@
     <t xml:space="preserve">Description</t>
   </si>
   <si>
+    <t xml:space="preserve">Added</t>
+  </si>
+  <si>
     <t xml:space="preserve">SpatialDomain</t>
   </si>
   <si>
@@ -825,6 +828,33 @@
   </si>
   <si>
     <t xml:space="preserve">Level I (annual defoliation, foliar nutrients), Level II (crown condition, foliar chemistry, soil chemistry, tree growth, atmospheric deposition, meteorology, phenology, litterfall)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rGEDI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GEDI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Global Ecosystem Dynamics Investigation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">High resolution laser ranging of Earth’s forests and topography from the International Space Station (ISS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25 m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://gedi.umd.edu/data/products/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Canopy height, canopy profile, aboveground carbon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1016/j.srs.2020.100002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dubayah, R., J. B. Blair, S. Goetz, L. Fatoyinbo, M. Hansen, S. Healey, M. Hofton, G. Hurtt, J. Kellner, S. Luthcke, J. Armston, H. Tang, L. Duncanson, S. Hancock, P. Jantz, S. Marselis, P. L. Patterson, W. Qi, and C. Silva. 2020. The Global Ecosystem Dynamics Investigation: High-resolution laser ranging of the Earth’s forests and topography. Science of Remote Sensing 1:100002.</t>
   </si>
   <si>
     <t xml:space="preserve">SAPFLUXNET</t>
@@ -1704,8 +1734,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="mm/dd/yy"/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -1831,7 +1862,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1888,7 +1919,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1974,29 +2013,30 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:U47"/>
+  <dimension ref="A1:V48"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="Q1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="V34" activeCellId="0" sqref="V34"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="R1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Y31" activeCellId="0" sqref="Y31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.31640625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.328125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="25.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="39.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="43.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="2" width="19.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="7.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="24.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="10" style="3" width="13.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="4" width="13.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="14.69"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="35.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="11.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="60.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="43.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="82.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="19.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="2" width="19.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="7.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="24.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="11" style="3" width="13.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="4" width="13.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="14.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="35.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="11.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="60.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="43.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="82.28"/>
   </cols>
   <sheetData>
     <row r="1" s="10" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2015,7 +2055,7 @@
       <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="7" t="s">
@@ -2027,7 +2067,7 @@
       <c r="I1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="7" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="8" t="s">
@@ -2036,10 +2076,10 @@
       <c r="L1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="M1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="N1" s="9" t="s">
         <v>13</v>
       </c>
       <c r="O1" s="5" t="s">
@@ -2063,24 +2103,24 @@
       <c r="U1" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="V1" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" s="2" t="s">
         <v>26</v>
       </c>
       <c r="G2" s="2" t="s">
@@ -2092,47 +2132,47 @@
       <c r="I2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="2" t="s">
         <v>30</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="N2" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="M2" s="3" t="s">
         <v>32</v>
       </c>
       <c r="O2" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="P2" s="11" t="s">
+      <c r="P2" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="Q2" s="11"/>
-      <c r="R2" s="0" t="s">
+      <c r="Q2" s="11" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="R2" s="11"/>
+      <c r="S2" s="0" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>27</v>
@@ -2143,47 +2183,47 @@
       <c r="I3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="2" t="s">
         <v>30</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="N3" s="0" t="s">
-        <v>32</v>
+        <v>28</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="O3" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="P3" s="11" t="s">
+      <c r="P3" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="Q3" s="11"/>
-      <c r="R3" s="0" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q3" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="R3" s="11"/>
+      <c r="S3" s="0" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>27</v>
@@ -2192,94 +2232,94 @@
         <v>28</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="N4" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="M4" s="3" t="s">
         <v>32</v>
       </c>
       <c r="O4" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="P4" s="11" t="s">
+      <c r="P4" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="Q4" s="11"/>
-      <c r="R4" s="0" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q4" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="R4" s="11"/>
+      <c r="S4" s="0" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q5" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="R5" s="11"/>
+      <c r="T5" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="U5" s="0" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="P5" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q5" s="11"/>
-      <c r="S5" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="T5" s="0" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="C6" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>27</v>
@@ -2288,49 +2328,49 @@
         <v>28</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>59</v>
+        <v>29</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="N6" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="M6" s="3" t="s">
         <v>32</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="P6" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="P6" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="0" t="s">
+      <c r="Q6" s="11" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="R6" s="11"/>
+      <c r="S6" s="0" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>27</v>
@@ -2339,1736 +2379,1792 @@
         <v>28</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>59</v>
+        <v>29</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="N7" s="0" t="s">
-        <v>32</v>
+        <v>28</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>66</v>
       </c>
       <c r="O7" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="P7" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="P7" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="Q7" s="11"/>
-      <c r="R7" s="0" t="s">
+      <c r="Q7" s="11" t="s">
         <v>62</v>
+      </c>
+      <c r="R7" s="11"/>
+      <c r="S7" s="0" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M8" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="N8" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="P8" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="R8" s="0" t="s">
+      <c r="O8" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q8" s="0" t="s">
         <v>73</v>
+      </c>
+      <c r="S8" s="0" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F9" s="2" t="s">
         <v>77</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>27</v>
+        <v>78</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>27</v>
+      <c r="I9" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="O9" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="R9" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="P9" s="12" t="s">
         <v>79</v>
+      </c>
+      <c r="S9" s="0" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>27</v>
+        <v>78</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="P10" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="U10" s="0" t="s">
+      <c r="L10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q10" s="0" t="s">
         <v>86</v>
+      </c>
+      <c r="V10" s="0" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q11" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="V11" s="0" t="s">
         <v>87</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="P11" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="U11" s="0" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F12" s="2" t="s">
         <v>95</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>27</v>
+        <v>96</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="P12" s="0" t="s">
-        <v>96</v>
+        <v>28</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q12" s="0" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>90</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="F13" s="13"/>
       <c r="G13" s="2" t="s">
-        <v>27</v>
+        <v>91</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>28</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>71</v>
+        <v>29</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>101</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>27</v>
+        <v>72</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="P13" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="M13" s="3" t="s">
         <v>102</v>
+      </c>
+      <c r="Q13" s="0" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>103</v>
-      </c>
       <c r="E14" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>50</v>
+        <v>106</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="P14" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q14" s="11"/>
-      <c r="S14" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q14" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="T14" s="0" t="s">
+      <c r="R14" s="11"/>
+      <c r="T14" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="U14" s="11" t="s">
+      <c r="U14" s="0" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="V14" s="11" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>110</v>
-      </c>
       <c r="E15" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>50</v>
+        <v>113</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="J15" s="3" t="s">
-        <v>113</v>
+      <c r="I15" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>27</v>
+        <v>114</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="P15" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q15" s="11"/>
-      <c r="S15" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q15" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="T15" s="0" t="s">
+      <c r="R15" s="11"/>
+      <c r="T15" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="U15" s="11"/>
+      <c r="U15" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="V15" s="11"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>50</v>
+        <v>121</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>28</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="J16" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J16" s="2" t="s">
         <v>122</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>27</v>
+        <v>123</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="N16" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="M16" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="P16" s="11" t="s">
+      <c r="O16" s="0" t="s">
         <v>125</v>
       </c>
-      <c r="Q16" s="11"/>
-      <c r="R16" s="0" t="s">
+      <c r="Q16" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="S16" s="11" t="s">
+      <c r="R16" s="11"/>
+      <c r="S16" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="T16" s="0" t="s">
+      <c r="T16" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="U16" s="11"/>
-    </row>
-    <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U16" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="V16" s="11"/>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>50</v>
+        <v>134</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="P17" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="I17" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="Q17" s="11"/>
+      <c r="L17" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q17" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="R17" s="11"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C18" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>136</v>
-      </c>
       <c r="E18" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>50</v>
+        <v>139</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="P18" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="L18" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="Q18" s="11"/>
-      <c r="T18" s="0" t="s">
+      <c r="Q18" s="11" t="s">
         <v>141</v>
+      </c>
+      <c r="R18" s="11"/>
+      <c r="U18" s="0" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>50</v>
+        <v>144</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="K19" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="P19" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="I19" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="Q19" s="11"/>
+      <c r="L19" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q19" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="R19" s="11"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>50</v>
+        <v>148</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="P20" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q20" s="11"/>
-      <c r="S20" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q20" s="11" t="s">
         <v>149</v>
       </c>
+      <c r="R20" s="11"/>
       <c r="T20" s="0" t="s">
         <v>150</v>
       </c>
+      <c r="U20" s="0" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>50</v>
+        <v>153</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>28</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="P21" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="J21" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="Q21" s="11"/>
-      <c r="S21" s="0" t="s">
+      <c r="L21" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q21" s="11" t="s">
         <v>155</v>
       </c>
+      <c r="R21" s="11"/>
       <c r="T21" s="0" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U21" s="0" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="E22" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q22" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="R22" s="11"/>
+      <c r="S22" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="T22" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="U22" s="11"/>
+      <c r="V22" s="0" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="E22" s="1" t="s">
+      <c r="C23" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="F22" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="P22" s="11" t="s">
-        <v>165</v>
-      </c>
-      <c r="Q22" s="11"/>
-      <c r="R22" s="0" t="s">
-        <v>166</v>
-      </c>
-      <c r="S22" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="T22" s="11"/>
-      <c r="U22" s="0" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
-        <v>169</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="C23" s="1" t="s">
+      <c r="D23" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q23" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="R23" s="11"/>
+      <c r="S23" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="T23" s="11"/>
+      <c r="U23" s="11"/>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="N24" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q24" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="R24" s="11"/>
+      <c r="T24" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="U24" s="11"/>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="L25" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q25" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="R25" s="11"/>
+      <c r="T25" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="U25" s="11"/>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="L26" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="N26" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q26" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="R26" s="11"/>
+      <c r="T26" s="11"/>
+      <c r="U26" s="0" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="L27" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="N27" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q27" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="R27" s="11"/>
+      <c r="S27" s="0" t="s">
+        <v>197</v>
+      </c>
+      <c r="T27" s="11"/>
+      <c r="U27" s="11"/>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="K28" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="L28" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q28" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="R28" s="11"/>
+      <c r="S28" s="0" t="s">
+        <v>197</v>
+      </c>
+      <c r="T28" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="U28" s="0" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q29" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="R29" s="11"/>
+      <c r="T29" s="11" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="L30" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q30" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="R30" s="11"/>
+      <c r="T30" s="11"/>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="K31" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="L31" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M31" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q31" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="R31" s="11"/>
+      <c r="S31" s="0" t="s">
+        <v>220</v>
+      </c>
+      <c r="T31" s="11"/>
+      <c r="V31" s="0" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>222</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="D23" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="K23" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="P23" s="11" t="s">
-        <v>172</v>
-      </c>
-      <c r="Q23" s="11"/>
-      <c r="R23" s="0" t="s">
-        <v>173</v>
-      </c>
-      <c r="S23" s="11"/>
-      <c r="T23" s="11"/>
-    </row>
-    <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
-        <v>174</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="K24" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="M24" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="P24" s="11" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q24" s="11"/>
-      <c r="S24" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="T24" s="11"/>
-    </row>
-    <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
-        <v>181</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="K25" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="P25" s="11" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q25" s="11"/>
-      <c r="S25" s="11" t="s">
-        <v>185</v>
-      </c>
-      <c r="T25" s="11"/>
-    </row>
-    <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
-        <v>186</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="K26" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="M26" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="P26" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="Q26" s="11"/>
-      <c r="S26" s="11"/>
-      <c r="T26" s="0" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
-        <v>191</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="K27" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="M27" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="P27" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q27" s="11"/>
-      <c r="R27" s="0" t="s">
-        <v>196</v>
-      </c>
-      <c r="S27" s="11"/>
-      <c r="T27" s="11"/>
-    </row>
-    <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
-        <v>197</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="J28" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="K28" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="P28" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="Q28" s="11"/>
-      <c r="R28" s="0" t="s">
-        <v>196</v>
-      </c>
-      <c r="S28" s="11" t="s">
-        <v>201</v>
-      </c>
-      <c r="T28" s="0" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
-        <v>203</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="P29" s="11" t="s">
-        <v>206</v>
-      </c>
-      <c r="Q29" s="11"/>
-      <c r="S29" s="11" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
-        <v>208</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="K30" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="P30" s="11" t="s">
-        <v>212</v>
-      </c>
-      <c r="Q30" s="11"/>
-      <c r="S30" s="11"/>
-    </row>
-    <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
-        <v>213</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="D31" s="1" t="s">
+      <c r="C32" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="E31" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="J31" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="K31" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="L31" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="P31" s="11" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q31" s="11"/>
-      <c r="R31" s="0" t="s">
-        <v>219</v>
-      </c>
-      <c r="S31" s="11"/>
-    </row>
-    <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
-        <v>220</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>221</v>
-      </c>
       <c r="D32" s="1" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>50</v>
+        <v>224</v>
+      </c>
+      <c r="F32" s="14" t="n">
+        <v>44779</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="K32" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="L32" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="O32" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="P32" s="11" t="s">
-        <v>224</v>
-      </c>
-      <c r="Q32" s="11"/>
-      <c r="R32" s="0" t="s">
-        <v>225</v>
-      </c>
-      <c r="S32" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q32" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="T32" s="0" t="s">
+      <c r="R32" s="11"/>
+      <c r="S32" s="0" t="s">
         <v>227</v>
       </c>
+      <c r="T32" s="15" t="s">
+        <v>228</v>
+      </c>
       <c r="U32" s="0" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C33" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="D33" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="D33" s="1" t="s">
-        <v>229</v>
-      </c>
       <c r="E33" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>50</v>
+        <v>232</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="H33" s="2" t="s">
         <v>28</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="K33" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="P33" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="L33" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M33" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="Q33" s="11"/>
-      <c r="S33" s="11"/>
+      <c r="P33" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q33" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="R33" s="11"/>
+      <c r="S33" s="0" t="s">
+        <v>235</v>
+      </c>
+      <c r="T33" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="U33" s="0" t="s">
+        <v>237</v>
+      </c>
+      <c r="V33" s="0" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>50</v>
+        <v>241</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="J34" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="K34" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>242</v>
       </c>
       <c r="L34" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="M34" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="P34" s="11" t="s">
-        <v>240</v>
-      </c>
-      <c r="Q34" s="11"/>
-      <c r="R34" s="0" t="s">
-        <v>241</v>
-      </c>
-      <c r="S34" s="14" t="s">
-        <v>242</v>
-      </c>
-      <c r="T34" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q34" s="11" t="s">
         <v>243</v>
       </c>
-      <c r="U34" s="15" t="s">
+      <c r="R34" s="11"/>
+      <c r="T34" s="11"/>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
+      <c r="B35" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="D35" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="E35" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="G35" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="K35" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="E35" s="1" t="s">
+      <c r="L35" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M35" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="N35" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="F35" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H35" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="K35" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="P35" s="11" t="s">
+      <c r="Q35" s="11" t="s">
         <v>250</v>
       </c>
-      <c r="Q35" s="11"/>
-      <c r="S35" s="11" t="s">
+      <c r="R35" s="11"/>
+      <c r="S35" s="0" t="s">
         <v>251</v>
       </c>
-      <c r="T35" s="0" t="s">
+      <c r="T35" s="16" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U35" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="V35" s="17" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="E36" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="L36" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q36" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="R36" s="11"/>
+      <c r="T36" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="U36" s="0" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
+        <v>263</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="F36" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H36" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K36" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="P36" s="11" t="s">
-        <v>257</v>
-      </c>
-      <c r="Q36" s="11"/>
-    </row>
-    <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
-        <v>258</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>246</v>
-      </c>
       <c r="C37" s="1" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>50</v>
+        <v>266</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="H37" s="2" t="s">
         <v>28</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="K37" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="P37" s="11" t="s">
-        <v>261</v>
-      </c>
-      <c r="Q37" s="11"/>
-      <c r="U37" s="0" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>29</v>
+      </c>
+      <c r="L37" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q37" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="R37" s="11"/>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="E38" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="L38" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q38" s="11" t="s">
+        <v>271</v>
+      </c>
+      <c r="R38" s="11"/>
+      <c r="V38" s="0" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
+        <v>273</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="F38" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H38" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I38" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="K38" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="P38" s="11" t="s">
-        <v>266</v>
-      </c>
-      <c r="Q38" s="11"/>
-      <c r="R38" s="0" t="s">
-        <v>267</v>
-      </c>
-      <c r="S38" s="11" t="s">
-        <v>268</v>
-      </c>
-      <c r="T38" s="0" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
-        <v>270</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>254</v>
-      </c>
       <c r="D39" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>50</v>
+        <v>273</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>274</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="H39" s="2" t="s">
         <v>28</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="K39" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="P39" s="11" t="s">
-        <v>272</v>
-      </c>
-      <c r="Q39" s="11"/>
-      <c r="R39" s="0" t="s">
-        <v>273</v>
-      </c>
-      <c r="S39" s="11" t="s">
-        <v>274</v>
-      </c>
-      <c r="T39" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="J39" s="2" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L39" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q39" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="R39" s="11"/>
+      <c r="S39" s="0" t="s">
+        <v>277</v>
+      </c>
+      <c r="T39" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="U39" s="0" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>50</v>
+        <v>281</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="H40" s="2" t="s">
         <v>28</v>
       </c>
       <c r="I40" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="L40" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q40" s="11" t="s">
+        <v>282</v>
+      </c>
+      <c r="R40" s="11"/>
+      <c r="S40" s="0" t="s">
+        <v>283</v>
+      </c>
+      <c r="T40" s="11" t="s">
+        <v>284</v>
+      </c>
+      <c r="U40" s="0" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="s">
+        <v>286</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="G41" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="K40" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="P40" s="11" t="s">
-        <v>279</v>
-      </c>
-      <c r="Q40" s="11"/>
-      <c r="T40" s="0" t="s">
-        <v>280</v>
-      </c>
-      <c r="U40" s="0" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
-        <v>282</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="H41" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="K41" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="P41" s="11" t="s">
-        <v>286</v>
-      </c>
-      <c r="Q41" s="11"/>
-      <c r="R41" s="0" t="s">
-        <v>287</v>
-      </c>
-      <c r="S41" s="11" t="s">
-        <v>288</v>
-      </c>
-      <c r="T41" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="L41" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q41" s="11" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="R41" s="11"/>
+      <c r="U41" s="0" t="s">
+        <v>290</v>
+      </c>
+      <c r="V41" s="0" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>50</v>
+        <v>295</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="K42" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>85</v>
       </c>
       <c r="L42" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="P42" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q42" s="11" t="s">
         <v>296</v>
       </c>
-      <c r="Q42" s="0" t="s">
+      <c r="R42" s="11"/>
+      <c r="S42" s="0" t="s">
         <v>297</v>
       </c>
-      <c r="R42" s="0" t="s">
+      <c r="T42" s="11" t="s">
         <v>298</v>
       </c>
-      <c r="S42" s="11" t="s">
+      <c r="U42" s="0" t="s">
         <v>299</v>
       </c>
-      <c r="T42" s="0" t="s">
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="s">
+      <c r="B43" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="D43" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="E43" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="G43" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="K43" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="E43" s="1" t="s">
+      <c r="L43" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M43" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="F43" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H43" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="K43" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="P43" s="11" t="s">
+      <c r="Q43" s="11" t="s">
         <v>306</v>
       </c>
-      <c r="Q43" s="11"/>
-      <c r="S43" s="11" t="s">
+      <c r="R43" s="0" t="s">
         <v>307</v>
       </c>
-      <c r="T43" s="0" t="s">
+      <c r="S43" s="0" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="44" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="T43" s="11" t="s">
+        <v>309</v>
+      </c>
+      <c r="U43" s="0" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>302</v>
+        <v>312</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="E44" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="L44" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q44" s="11" t="s">
+        <v>316</v>
+      </c>
+      <c r="R44" s="11"/>
+      <c r="T44" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="U44" s="0" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="s">
+        <v>319</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="F44" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="G44" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H44" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="I44" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="K44" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="P44" s="11" t="s">
-        <v>314</v>
-      </c>
-      <c r="Q44" s="11"/>
-      <c r="R44" s="0" t="s">
-        <v>315</v>
-      </c>
-      <c r="S44" s="11" t="s">
-        <v>316</v>
-      </c>
-      <c r="T44" s="11"/>
-    </row>
-    <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="s">
-        <v>317</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>318</v>
-      </c>
       <c r="C45" s="1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>50</v>
+        <v>322</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>84</v>
+        <v>28</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="K45" s="3" t="s">
-        <v>27</v>
+        <v>135</v>
+      </c>
+      <c r="J45" s="2" t="s">
+        <v>323</v>
       </c>
       <c r="L45" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="M45" s="4" t="s">
-        <v>322</v>
-      </c>
-      <c r="P45" s="11" t="s">
-        <v>323</v>
-      </c>
-      <c r="Q45" s="11"/>
-      <c r="R45" s="0" t="s">
-        <v>196</v>
-      </c>
-      <c r="S45" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q45" s="11" t="s">
         <v>324</v>
       </c>
-      <c r="T45" s="0" t="s">
+      <c r="R45" s="11"/>
+      <c r="S45" s="0" t="s">
         <v>325</v>
       </c>
+      <c r="T45" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="U45" s="11"/>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>318</v>
+        <v>328</v>
       </c>
       <c r="C46" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="D46" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="D46" s="1" t="s">
-        <v>326</v>
-      </c>
       <c r="E46" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="J46" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="K46" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="L46" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M46" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="N46" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="Q46" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="R46" s="11"/>
+      <c r="S46" s="0" t="s">
+        <v>197</v>
+      </c>
+      <c r="T46" s="11" t="s">
+        <v>334</v>
+      </c>
+      <c r="U46" s="0" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="s">
+        <v>336</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="F46" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="G46" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H46" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="K46" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="P46" s="0" t="s">
-        <v>329</v>
-      </c>
-      <c r="U46" s="0" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="s">
-        <v>331</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>318</v>
-      </c>
       <c r="C47" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="L47" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q47" s="0" t="s">
+        <v>339</v>
+      </c>
+      <c r="V47" s="0" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="s">
+        <v>341</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="L48" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M48" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="N48" s="4" t="s">
         <v>332</v>
       </c>
-      <c r="D47" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="G47" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H47" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="K47" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="L47" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="M47" s="4" t="s">
-        <v>322</v>
-      </c>
-      <c r="P47" s="11" t="s">
-        <v>335</v>
-      </c>
-      <c r="R47" s="0" t="s">
-        <v>336</v>
-      </c>
-      <c r="S47" s="11" t="s">
-        <v>337</v>
-      </c>
-      <c r="T47" s="0" t="s">
-        <v>338</v>
-      </c>
-      <c r="U47" s="0" t="s">
-        <v>339</v>
+      <c r="Q48" s="11" t="s">
+        <v>345</v>
+      </c>
+      <c r="S48" s="0" t="s">
+        <v>346</v>
+      </c>
+      <c r="T48" s="11" t="s">
+        <v>347</v>
+      </c>
+      <c r="U48" s="0" t="s">
+        <v>348</v>
+      </c>
+      <c r="V48" s="0" t="s">
+        <v>349</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="P2" r:id="rId1" display="https://cds.climate.copernicus.eu"/>
-    <hyperlink ref="P3" r:id="rId2" display="https://cds.climate.copernicus.eu"/>
-    <hyperlink ref="P4" r:id="rId3" display="https://cds.climate.copernicus.eu"/>
-    <hyperlink ref="P5" r:id="rId4" display="https://chelsa-climate.org/downloads/"/>
-    <hyperlink ref="S5" r:id="rId5" display="https://doi.org/10.1038/sdata.2017.122"/>
-    <hyperlink ref="P6" r:id="rId6" display="http://meteo.unican.es/datasets/spain02"/>
-    <hyperlink ref="P7" r:id="rId7" display="http://meteo.unican.es/datasets/spain02"/>
-    <hyperlink ref="P14" r:id="rId8" display="https://fluxnet.org/"/>
-    <hyperlink ref="S14" r:id="rId9" display="https://doi.org/10.1175/1520-0477(2001)082&lt;2415:FANTTS&gt;2.3.CO;2"/>
-    <hyperlink ref="U14" r:id="rId10" display="https://github.com/aukkola/FluxnetLSM"/>
-    <hyperlink ref="P15" r:id="rId11" display="https://www.gleam.eu/"/>
-    <hyperlink ref="S15" r:id="rId12" display="https://doi.org/10.5194/gmd-10-1903-2017"/>
-    <hyperlink ref="P16" r:id="rId13" display="https://conservancy.umn.edu/handle/11299/197613"/>
-    <hyperlink ref="S16" r:id="rId14" display="https://doi.org/10.1029/2018GB005990"/>
-    <hyperlink ref="P17" r:id="rId15" display="https://www.bafg.de/GRDC/EN/Home/homepage_node.html"/>
-    <hyperlink ref="S20" r:id="rId16" display="https://dx.doi.org/10.1038/ncomms13603"/>
-    <hyperlink ref="P22" r:id="rId17" display="https://treenet.info/"/>
-    <hyperlink ref="S22" r:id="rId18" display="https://doi.org/10.3389/ffgc.2021.776905"/>
-    <hyperlink ref="P23" r:id="rId19" display="https://www.ncei.noaa.gov/products/paleoclimatology"/>
-    <hyperlink ref="P24" r:id="rId20" display="https://www.try-db.org/TryWeb/Home.php"/>
-    <hyperlink ref="S24" r:id="rId21" display="https://doi.org/10.1111/j.1365-2486.2011.02451.x"/>
-    <hyperlink ref="P25" r:id="rId22" display="https://roots.ornl.gov/"/>
-    <hyperlink ref="S25" r:id="rId23" display="https://doi.org/10.1111/nph.14486"/>
-    <hyperlink ref="P26" r:id="rId24" display="https://xylemfunctionaltraits.org/"/>
-    <hyperlink ref="P27" r:id="rId25" display="https://www.idiv.de/de/splot.html"/>
-    <hyperlink ref="P28" r:id="rId26" display="https://doi.org/10.25829/idiv.3474-40-3292"/>
-    <hyperlink ref="S28" r:id="rId27" display="https://doi.org/10.1111/geb.13346"/>
-    <hyperlink ref="P29" r:id="rId28" display="https://lotvs.csic.es/"/>
-    <hyperlink ref="S29" r:id="rId29" display="https://www.biorxiv.org/content/10.1101/2021.09.29.462383v1.full"/>
-    <hyperlink ref="P30" r:id="rId30" display="https://gfbinitiative.net/"/>
-    <hyperlink ref="P31" r:id="rId31" display="http://icp-forests.net/"/>
-    <hyperlink ref="P32" r:id="rId32" display="http://sapfluxnet.creaf.cat/"/>
-    <hyperlink ref="S32" r:id="rId33" display="https://doi.org/10.5194/essd-13-2607-2021"/>
-    <hyperlink ref="P35" r:id="rId34" location="/home" display="https://data.isric.org/geonetwork/srv/eng/catalog.search#/home"/>
-    <hyperlink ref="S35" r:id="rId35" display="https://doi.org/10.5194/essd-9-1-2017"/>
-    <hyperlink ref="P36" r:id="rId36" display="https://www.fao.org/soils-portal/data-hub/soil-maps-and-databases/harmonized-world-soil-database-v12/en/"/>
-    <hyperlink ref="P37" r:id="rId37" display="https://soilgrids.org/"/>
-    <hyperlink ref="P38" r:id="rId38" display="https://www.isric.org/explore/wise-databases"/>
-    <hyperlink ref="S38" r:id="rId39" display="https://doi.org/10.1016/j.geoderma.2016.01.034"/>
-    <hyperlink ref="P39" r:id="rId40" display="http://globalchange.bnu.edu.cn/research/data"/>
-    <hyperlink ref="S39" r:id="rId41" display="http://doi.wiley.com/10.1002/2013MS000293"/>
-    <hyperlink ref="P40" r:id="rId42" display="https://www.futurewater.eu/projects/hihydrosoil/"/>
-    <hyperlink ref="P41" r:id="rId43" display="https://ismn.earth/en/"/>
-    <hyperlink ref="S41" r:id="rId44" display="https://doi.org/10.5194/hess-2021-2"/>
-    <hyperlink ref="P42" r:id="rId45" display="https://doi.org/10.3334/ORNLDAAC/1827"/>
-    <hyperlink ref="S42" r:id="rId46" display="https://10.5194/bg-7-1915-2010"/>
-    <hyperlink ref="P43" r:id="rId47" display="https://doi.pangaea.de/10.1594/PANGAEA.788537"/>
-    <hyperlink ref="S43" r:id="rId48" display="https://doi.org/10.1029/2012GC004370"/>
-    <hyperlink ref="P44" r:id="rId49" display="https://dataverse.scholarsportal.info/dataset.xhtml"/>
-    <hyperlink ref="S44" r:id="rId50" display="https://doi.org/10.1002/2017GL075860"/>
-    <hyperlink ref="P45" r:id="rId51" display="https://biotime.st-andrews.ac.uk/"/>
-    <hyperlink ref="S45" r:id="rId52" display="https://doi.org/10.1111/geb.12729"/>
-    <hyperlink ref="P47" r:id="rId53" display="https://compadre-db.org/"/>
-    <hyperlink ref="S47" r:id="rId54" display="https://doi.org/10.1111/1365-2745.12334"/>
+    <hyperlink ref="Q2" r:id="rId1" display="https://cds.climate.copernicus.eu"/>
+    <hyperlink ref="Q3" r:id="rId2" display="https://cds.climate.copernicus.eu"/>
+    <hyperlink ref="Q4" r:id="rId3" display="https://cds.climate.copernicus.eu"/>
+    <hyperlink ref="Q5" r:id="rId4" display="https://chelsa-climate.org/downloads/"/>
+    <hyperlink ref="T5" r:id="rId5" display="https://doi.org/10.1038/sdata.2017.122"/>
+    <hyperlink ref="Q6" r:id="rId6" display="http://meteo.unican.es/datasets/spain02"/>
+    <hyperlink ref="Q7" r:id="rId7" display="http://meteo.unican.es/datasets/spain02"/>
+    <hyperlink ref="Q14" r:id="rId8" display="https://fluxnet.org/"/>
+    <hyperlink ref="T14" r:id="rId9" display="https://doi.org/10.1175/1520-0477(2001)082&lt;2415:FANTTS&gt;2.3.CO;2"/>
+    <hyperlink ref="V14" r:id="rId10" display="https://github.com/aukkola/FluxnetLSM"/>
+    <hyperlink ref="Q15" r:id="rId11" display="https://www.gleam.eu/"/>
+    <hyperlink ref="T15" r:id="rId12" display="https://doi.org/10.5194/gmd-10-1903-2017"/>
+    <hyperlink ref="Q16" r:id="rId13" display="https://conservancy.umn.edu/handle/11299/197613"/>
+    <hyperlink ref="T16" r:id="rId14" display="https://doi.org/10.1029/2018GB005990"/>
+    <hyperlink ref="Q17" r:id="rId15" display="https://www.bafg.de/GRDC/EN/Home/homepage_node.html"/>
+    <hyperlink ref="T20" r:id="rId16" display="https://dx.doi.org/10.1038/ncomms13603"/>
+    <hyperlink ref="Q22" r:id="rId17" display="https://treenet.info/"/>
+    <hyperlink ref="T22" r:id="rId18" display="https://doi.org/10.3389/ffgc.2021.776905"/>
+    <hyperlink ref="Q23" r:id="rId19" display="https://www.ncei.noaa.gov/products/paleoclimatology"/>
+    <hyperlink ref="Q24" r:id="rId20" display="https://www.try-db.org/TryWeb/Home.php"/>
+    <hyperlink ref="T24" r:id="rId21" display="https://doi.org/10.1111/j.1365-2486.2011.02451.x"/>
+    <hyperlink ref="Q25" r:id="rId22" display="https://roots.ornl.gov/"/>
+    <hyperlink ref="T25" r:id="rId23" display="https://doi.org/10.1111/nph.14486"/>
+    <hyperlink ref="Q26" r:id="rId24" display="https://xylemfunctionaltraits.org/"/>
+    <hyperlink ref="Q27" r:id="rId25" display="https://www.idiv.de/de/splot.html"/>
+    <hyperlink ref="Q28" r:id="rId26" display="https://doi.org/10.25829/idiv.3474-40-3292"/>
+    <hyperlink ref="T28" r:id="rId27" display="https://doi.org/10.1111/geb.13346"/>
+    <hyperlink ref="Q29" r:id="rId28" display="https://lotvs.csic.es/"/>
+    <hyperlink ref="T29" r:id="rId29" display="https://www.biorxiv.org/content/10.1101/2021.09.29.462383v1.full"/>
+    <hyperlink ref="Q30" r:id="rId30" display="https://gfbinitiative.net/"/>
+    <hyperlink ref="Q31" r:id="rId31" display="http://icp-forests.net/"/>
+    <hyperlink ref="T32" r:id="rId32" display="https://doi.org/10.1016/j.srs.2020.100002"/>
+    <hyperlink ref="Q33" r:id="rId33" display="http://sapfluxnet.creaf.cat/"/>
+    <hyperlink ref="T33" r:id="rId34" display="https://doi.org/10.5194/essd-13-2607-2021"/>
+    <hyperlink ref="Q36" r:id="rId35" location="/home" display="https://data.isric.org/geonetwork/srv/eng/catalog.search#/home"/>
+    <hyperlink ref="T36" r:id="rId36" display="https://doi.org/10.5194/essd-9-1-2017"/>
+    <hyperlink ref="Q37" r:id="rId37" display="https://www.fao.org/soils-portal/data-hub/soil-maps-and-databases/harmonized-world-soil-database-v12/en/"/>
+    <hyperlink ref="Q38" r:id="rId38" display="https://soilgrids.org/"/>
+    <hyperlink ref="Q39" r:id="rId39" display="https://www.isric.org/explore/wise-databases"/>
+    <hyperlink ref="T39" r:id="rId40" display="https://doi.org/10.1016/j.geoderma.2016.01.034"/>
+    <hyperlink ref="Q40" r:id="rId41" display="http://globalchange.bnu.edu.cn/research/data"/>
+    <hyperlink ref="T40" r:id="rId42" display="http://doi.wiley.com/10.1002/2013MS000293"/>
+    <hyperlink ref="Q41" r:id="rId43" display="https://www.futurewater.eu/projects/hihydrosoil/"/>
+    <hyperlink ref="Q42" r:id="rId44" display="https://ismn.earth/en/"/>
+    <hyperlink ref="T42" r:id="rId45" display="https://doi.org/10.5194/hess-2021-2"/>
+    <hyperlink ref="Q43" r:id="rId46" display="https://doi.org/10.3334/ORNLDAAC/1827"/>
+    <hyperlink ref="T43" r:id="rId47" display="https://10.5194/bg-7-1915-2010"/>
+    <hyperlink ref="Q44" r:id="rId48" display="https://doi.pangaea.de/10.1594/PANGAEA.788537"/>
+    <hyperlink ref="T44" r:id="rId49" display="https://doi.org/10.1029/2012GC004370"/>
+    <hyperlink ref="Q45" r:id="rId50" display="https://dataverse.scholarsportal.info/dataset.xhtml"/>
+    <hyperlink ref="T45" r:id="rId51" display="https://doi.org/10.1002/2017GL075860"/>
+    <hyperlink ref="Q46" r:id="rId52" display="https://biotime.st-andrews.ac.uk/"/>
+    <hyperlink ref="T46" r:id="rId53" display="https://doi.org/10.1111/geb.12729"/>
+    <hyperlink ref="Q48" r:id="rId54" display="https://compadre-db.org/"/>
+    <hyperlink ref="T48" r:id="rId55" display="https://doi.org/10.1111/1365-2745.12334"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -4091,22 +4187,22 @@
       <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.31640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.328125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>341</v>
+        <v>351</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
     </row>
   </sheetData>

--- a/ExternalDataSources.xlsx
+++ b/ExternalDataSources.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="363">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -1716,6 +1716,33 @@
   </si>
   <si>
     <t xml:space="preserve">Rage, Popdemo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NABBS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BirdCensus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">North American Breeding Bird Survey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The BBS is a cooperative effort between the U.S. Geological Survey's Patuxent Wildlife Research Center and Environment Canada's Canadian Wildlife Service to monitor the status and trends of North American bird populations. Following a rigorous protocol, BBS data are collected by thousands of dedicated participants along thousands of randomly established roadside routes throughout the continent. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">North America</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.pwrc.usgs.gov/bbs/index.cfm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Species counts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.pwrc.usgs.gov/bbs/bbsnews/Pubs/Birding-Article.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D. Ziolkowski, K. Pardieck, JR. Sauer. On the road again. For a bird survey that counts. Birding 42, 32-41 (2010)</t>
   </si>
   <si>
     <t xml:space="preserve">ILamb</t>
@@ -1862,7 +1889,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1920,10 +1947,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2013,13 +2036,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V48"/>
+  <dimension ref="A1:V49"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="R1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Y31" activeCellId="0" sqref="Y31"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="R13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="U49" activeCellId="0" sqref="U49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.328125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.3359375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="25.28"/>
@@ -3545,13 +3568,13 @@
       <c r="S35" s="0" t="s">
         <v>251</v>
       </c>
-      <c r="T35" s="16" t="s">
+      <c r="T35" s="15" t="s">
         <v>252</v>
       </c>
       <c r="U35" s="0" t="s">
         <v>253</v>
       </c>
-      <c r="V35" s="17" t="s">
+      <c r="V35" s="16" t="s">
         <v>254</v>
       </c>
     </row>
@@ -4106,6 +4129,50 @@
       </c>
       <c r="V48" s="0" t="s">
         <v>349</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="s">
+        <v>350</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="L49" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M49" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q49" s="0" t="s">
+        <v>355</v>
+      </c>
+      <c r="S49" s="0" t="s">
+        <v>356</v>
+      </c>
+      <c r="T49" s="0" t="s">
+        <v>357</v>
+      </c>
+      <c r="U49" s="0" t="s">
+        <v>358</v>
       </c>
     </row>
   </sheetData>
@@ -4187,22 +4254,22 @@
       <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.328125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.3359375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>350</v>
+        <v>359</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>351</v>
+        <v>360</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>352</v>
+        <v>361</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>353</v>
+        <v>362</v>
       </c>
     </row>
   </sheetData>

--- a/ExternalDataSources.xlsx
+++ b/ExternalDataSources.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="371">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -224,12 +224,39 @@
     <t xml:space="preserve">daily</t>
   </si>
   <si>
+    <t xml:space="preserve">RCP database</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Projections</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The RCP database aims at documenting the emissions, concentrations, and land-cover change projections of the so-called "Representative Concentration Pathways" (RCPs). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">21/07/2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No</t>
+  </si>
+  <si>
+    <t xml:space="preserve">annually</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://tntcat.iiasa.ac.at/RcpDb/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CO2, BC, OC, CH4, Sulfur, Nox, VOC, CO and NH3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1007/s10584-011-0156-z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meinshausen, M., S. J. Smith, K. Calvin, J. S. Daniel, M. L. T. Kainuma, J. Lamarque, K. Matsumoto, S. A. Montzka, S. C. B. Raper, K. Riahi, A. Thomson, G. J. M. Velders, and D. P. P. van Vuuren. 2011. The RCP greenhouse gas concentrations and their extensions from 1765 to 2300. Climatic Change 109:213–241.</t>
+  </si>
+  <si>
     <t xml:space="preserve">EURO_CORDEX</t>
   </si>
   <si>
-    <t xml:space="preserve">Projections</t>
-  </si>
-  <si>
     <t xml:space="preserve">EURO-CORDEX</t>
   </si>
   <si>
@@ -513,9 +540,6 @@
   </si>
   <si>
     <t xml:space="preserve">HydroBASINS is a series of polygon layers that depict watershed boundaries and sub-basin delineations at a global scale.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.hydrosheds.org/page/hydrobasins</t>
@@ -1938,15 +1962,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2036,13 +2060,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V49"/>
+  <dimension ref="A1:V50"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="R13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="U49" activeCellId="0" sqref="U49"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F33" activeCellId="0" sqref="F33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.3359375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.34375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="25.28"/>
@@ -2441,57 +2465,60 @@
         <v>68</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="12" t="s">
         <v>70</v>
       </c>
       <c r="G8" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H8" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="H8" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="K8" s="3" t="s">
+      <c r="L8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M8" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="L8" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="M8" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="O8" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q8" s="0" t="s">
+      <c r="Q8" s="11" t="s">
         <v>73</v>
+      </c>
+      <c r="R8" s="0" t="n">
+        <v>2.05</v>
       </c>
       <c r="S8" s="0" t="s">
         <v>74</v>
       </c>
+      <c r="T8" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="U8" s="0" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>79</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>28</v>
@@ -2499,220 +2526,222 @@
       <c r="I9" s="2" t="s">
         <v>29</v>
       </c>
+      <c r="J9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>81</v>
+      </c>
       <c r="L9" s="3" t="s">
         <v>28</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="P9" s="12" t="s">
-        <v>79</v>
+        <v>66</v>
+      </c>
+      <c r="O9" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q9" s="0" t="s">
+        <v>82</v>
       </c>
       <c r="S9" s="0" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>28</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>85</v>
+        <v>29</v>
       </c>
       <c r="L10" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="Q10" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="V10" s="0" t="s">
-        <v>87</v>
+      <c r="M10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="P10" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="S10" s="0" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>28</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="L11" s="3" t="s">
         <v>28</v>
       </c>
       <c r="Q11" s="0" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="V11" s="0" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="D12" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I12" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="G12" s="2" t="s">
+      <c r="L12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q12" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="V12" s="0" t="s">
         <v>96</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="L12" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q12" s="0" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="E13" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="F13" s="13"/>
+        <v>91</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>104</v>
+      </c>
       <c r="G13" s="2" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>28</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="K13" s="3" t="s">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="L13" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="M13" s="3" t="s">
-        <v>102</v>
-      </c>
       <c r="Q13" s="0" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>106</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="F14" s="14"/>
       <c r="G14" s="2" t="s">
-        <v>51</v>
+        <v>100</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>28</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>85</v>
+        <v>29</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>81</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="Q14" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="R14" s="11"/>
-      <c r="T14" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="U14" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="V14" s="11" t="s">
-        <v>110</v>
+      <c r="M14" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q14" s="0" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>51</v>
@@ -2721,44 +2750,40 @@
         <v>28</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="L15" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="M15" s="3" t="s">
-        <v>66</v>
-      </c>
       <c r="Q15" s="11" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="R15" s="11"/>
       <c r="T15" s="11" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="U15" s="0" t="s">
-        <v>117</v>
-      </c>
-      <c r="V15" s="11"/>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>118</v>
+      </c>
+      <c r="V15" s="11" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>120</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>51</v>
@@ -2769,9 +2794,6 @@
       <c r="I16" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="J16" s="2" t="s">
-        <v>122</v>
-      </c>
       <c r="K16" s="3" t="s">
         <v>123</v>
       </c>
@@ -2779,41 +2801,35 @@
         <v>28</v>
       </c>
       <c r="M16" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q16" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="O16" s="0" t="s">
+      <c r="R16" s="11"/>
+      <c r="T16" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="Q16" s="11" t="s">
+      <c r="U16" s="0" t="s">
         <v>126</v>
       </c>
-      <c r="R16" s="11"/>
-      <c r="S16" s="0" t="s">
+      <c r="V16" s="11"/>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="T16" s="11" t="s">
+      <c r="B17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="U16" s="0" t="s">
+      <c r="D17" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="V16" s="11"/>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+      <c r="E17" s="1" t="s">
         <v>130</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>134</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>51</v>
@@ -2822,31 +2838,53 @@
         <v>28</v>
       </c>
       <c r="I17" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="O17" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q17" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q17" s="11" t="s">
+      <c r="R17" s="11"/>
+      <c r="S17" s="0" t="s">
         <v>136</v>
       </c>
-      <c r="R17" s="11"/>
+      <c r="T17" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="U17" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="V17" s="11"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>51</v>
@@ -2855,34 +2893,31 @@
         <v>28</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>140</v>
+        <v>28</v>
       </c>
       <c r="Q18" s="11" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="R18" s="11"/>
-      <c r="U18" s="0" t="s">
-        <v>142</v>
-      </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>51</v>
@@ -2891,31 +2926,34 @@
         <v>28</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>140</v>
+        <v>71</v>
       </c>
       <c r="Q19" s="11" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="R19" s="11"/>
+      <c r="U19" s="0" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>138</v>
-      </c>
       <c r="D20" s="1" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>51</v>
@@ -2924,37 +2962,31 @@
         <v>28</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>140</v>
+        <v>71</v>
       </c>
       <c r="Q20" s="11" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="R20" s="11"/>
-      <c r="T20" s="0" t="s">
-        <v>150</v>
-      </c>
-      <c r="U20" s="0" t="s">
-        <v>151</v>
-      </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>51</v>
@@ -2963,282 +2995,277 @@
         <v>28</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J21" s="2" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>140</v>
+        <v>71</v>
       </c>
       <c r="Q21" s="11" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="R21" s="11"/>
       <c r="T21" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="U21" s="0" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
       <c r="C22" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>160</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>158</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>161</v>
       </c>
       <c r="G22" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J22" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="H22" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="J22" s="2" t="s">
+      <c r="L22" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q22" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="K22" s="3" t="s">
+      <c r="R22" s="11"/>
+      <c r="T22" s="0" t="s">
         <v>164</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="M22" s="3" t="s">
+      <c r="U22" s="0" t="s">
         <v>165</v>
-      </c>
-      <c r="Q22" s="11" t="s">
-        <v>166</v>
-      </c>
-      <c r="R22" s="11"/>
-      <c r="S22" s="0" t="s">
-        <v>167</v>
-      </c>
-      <c r="T22" s="11" t="s">
-        <v>168</v>
-      </c>
-      <c r="U22" s="11"/>
-      <c r="V22" s="0" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="G23" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="D23" s="1" t="s">
+      <c r="H23" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="J23" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="K23" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="G23" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="L23" s="3" t="s">
         <v>28</v>
       </c>
+      <c r="M23" s="3" t="s">
+        <v>173</v>
+      </c>
       <c r="Q23" s="11" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="R23" s="11"/>
       <c r="S23" s="0" t="s">
-        <v>174</v>
-      </c>
-      <c r="T23" s="11"/>
+        <v>175</v>
+      </c>
+      <c r="T23" s="11" t="s">
+        <v>176</v>
+      </c>
       <c r="U23" s="11"/>
+      <c r="V23" s="0" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>51</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>140</v>
+        <v>28</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="N24" s="4" t="s">
-        <v>179</v>
+        <v>28</v>
       </c>
       <c r="Q24" s="11" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="R24" s="11"/>
-      <c r="T24" s="11" t="s">
-        <v>181</v>
-      </c>
+      <c r="S24" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="T24" s="11"/>
       <c r="U24" s="11"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>183</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>51</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>140</v>
+        <v>71</v>
       </c>
       <c r="L25" s="3" t="s">
-        <v>140</v>
+        <v>71</v>
+      </c>
+      <c r="N25" s="4" t="s">
+        <v>187</v>
       </c>
       <c r="Q25" s="11" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="R25" s="11"/>
       <c r="T25" s="11" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="U25" s="11"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>51</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>140</v>
+        <v>71</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="N26" s="4" t="s">
-        <v>179</v>
+        <v>71</v>
       </c>
       <c r="Q26" s="11" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="R26" s="11"/>
-      <c r="T26" s="11"/>
-      <c r="U26" s="0" t="s">
-        <v>191</v>
-      </c>
+      <c r="T26" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="U26" s="11"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>51</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="J27" s="2" t="s">
-        <v>195</v>
+        <v>71</v>
       </c>
       <c r="L27" s="3" t="s">
-        <v>140</v>
+        <v>71</v>
       </c>
       <c r="N27" s="4" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="Q27" s="11" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="R27" s="11"/>
-      <c r="S27" s="0" t="s">
-        <v>197</v>
-      </c>
       <c r="T27" s="11"/>
-      <c r="U27" s="11"/>
+      <c r="U27" s="0" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>51</v>
@@ -3247,46 +3274,42 @@
         <v>28</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="K28" s="3" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="L28" s="3" t="s">
-        <v>140</v>
+        <v>71</v>
+      </c>
+      <c r="N28" s="4" t="s">
+        <v>187</v>
       </c>
       <c r="Q28" s="11" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="R28" s="11"/>
       <c r="S28" s="0" t="s">
-        <v>197</v>
-      </c>
-      <c r="T28" s="11" t="s">
-        <v>202</v>
-      </c>
-      <c r="U28" s="0" t="s">
-        <v>203</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="T28" s="11"/>
+      <c r="U28" s="11"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>51</v>
@@ -3295,34 +3318,46 @@
         <v>28</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>85</v>
+        <v>94</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>208</v>
       </c>
       <c r="L29" s="3" t="s">
-        <v>28</v>
+        <v>71</v>
       </c>
       <c r="Q29" s="11" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="R29" s="11"/>
+      <c r="S29" s="0" t="s">
+        <v>205</v>
+      </c>
       <c r="T29" s="11" t="s">
-        <v>208</v>
+        <v>210</v>
+      </c>
+      <c r="U29" s="0" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>51</v>
@@ -3331,108 +3366,96 @@
         <v>28</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="L30" s="3" t="s">
-        <v>140</v>
+        <v>28</v>
       </c>
       <c r="Q30" s="11" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="R30" s="11"/>
-      <c r="T30" s="11"/>
+      <c r="T30" s="11" t="s">
+        <v>216</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="G31" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="L31" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="H31" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I31" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="K31" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="L31" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="M31" s="3" t="s">
-        <v>195</v>
-      </c>
       <c r="Q31" s="11" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="R31" s="11"/>
-      <c r="S31" s="0" t="s">
-        <v>220</v>
-      </c>
       <c r="T31" s="11"/>
-      <c r="V31" s="0" t="s">
-        <v>221</v>
-      </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
         <v>222</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>159</v>
+        <v>184</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="F32" s="14" t="n">
-        <v>44779</v>
+        <v>225</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="H32" s="2" t="s">
         <v>28</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J32" s="2" t="s">
-        <v>225</v>
+        <v>94</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>226</v>
       </c>
       <c r="L32" s="3" t="s">
         <v>28</v>
       </c>
+      <c r="M32" s="3" t="s">
+        <v>203</v>
+      </c>
       <c r="Q32" s="11" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="R32" s="11"/>
       <c r="S32" s="0" t="s">
-        <v>227</v>
-      </c>
-      <c r="T32" s="15" t="s">
         <v>228</v>
       </c>
-      <c r="U32" s="0" t="s">
+      <c r="T32" s="11"/>
+      <c r="V32" s="0" t="s">
         <v>229</v>
       </c>
     </row>
@@ -3441,17 +3464,20 @@
         <v>230</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="C33" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D33" s="1" t="s">
         <v>231</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>230</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>232</v>
       </c>
+      <c r="F33" s="12" t="n">
+        <v>44779</v>
+      </c>
       <c r="G33" s="2" t="s">
         <v>51</v>
       </c>
@@ -3459,16 +3485,13 @@
         <v>28</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>85</v>
+        <v>29</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>233</v>
       </c>
       <c r="L33" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="M33" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="P33" s="0" t="s">
-        <v>79</v>
       </c>
       <c r="Q33" s="11" t="s">
         <v>234</v>
@@ -3477,31 +3500,28 @@
       <c r="S33" s="0" t="s">
         <v>235</v>
       </c>
-      <c r="T33" s="11" t="s">
+      <c r="T33" s="15" t="s">
         <v>236</v>
       </c>
       <c r="U33" s="0" t="s">
         <v>237</v>
       </c>
-      <c r="V33" s="0" t="s">
-        <v>238</v>
-      </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
+        <v>238</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="C34" s="1" t="s">
+      <c r="D34" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="E34" s="1" t="s">
         <v>240</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>241</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>51</v>
@@ -3510,35 +3530,49 @@
         <v>28</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J34" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="L34" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M34" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="P34" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q34" s="11" t="s">
         <v>242</v>
       </c>
-      <c r="L34" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q34" s="11" t="s">
+      <c r="R34" s="11"/>
+      <c r="S34" s="0" t="s">
         <v>243</v>
       </c>
-      <c r="R34" s="11"/>
-      <c r="T34" s="11"/>
+      <c r="T34" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="U34" s="0" t="s">
+        <v>245</v>
+      </c>
+      <c r="V34" s="0" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>159</v>
+        <v>184</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>51</v>
@@ -3547,52 +3581,35 @@
         <v>28</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="K35" s="3" t="s">
-        <v>248</v>
+        <v>29</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>250</v>
       </c>
       <c r="L35" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="M35" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="N35" s="4" t="s">
-        <v>249</v>
+        <v>71</v>
       </c>
       <c r="Q35" s="11" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="R35" s="11"/>
-      <c r="S35" s="0" t="s">
-        <v>251</v>
-      </c>
-      <c r="T35" s="15" t="s">
-        <v>252</v>
-      </c>
-      <c r="U35" s="0" t="s">
-        <v>253</v>
-      </c>
-      <c r="V35" s="16" t="s">
-        <v>254</v>
-      </c>
+      <c r="T35" s="11"/>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="E36" s="1" t="s">
         <v>255</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>259</v>
       </c>
       <c r="G36" s="2" t="s">
         <v>51</v>
@@ -3601,19 +3618,34 @@
         <v>28</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>85</v>
+        <v>94</v>
+      </c>
+      <c r="K36" s="3" t="s">
+        <v>256</v>
       </c>
       <c r="L36" s="3" t="s">
-        <v>140</v>
+        <v>28</v>
+      </c>
+      <c r="M36" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="N36" s="4" t="s">
+        <v>257</v>
       </c>
       <c r="Q36" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="R36" s="11"/>
+      <c r="S36" s="0" t="s">
+        <v>259</v>
+      </c>
+      <c r="T36" s="15" t="s">
         <v>260</v>
       </c>
-      <c r="R36" s="11"/>
-      <c r="T36" s="11" t="s">
+      <c r="U36" s="0" t="s">
         <v>261</v>
       </c>
-      <c r="U36" s="0" t="s">
+      <c r="V36" s="16" t="s">
         <v>262</v>
       </c>
     </row>
@@ -3622,16 +3654,16 @@
         <v>263</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="G37" s="2" t="s">
         <v>51</v>
@@ -3640,31 +3672,37 @@
         <v>28</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>29</v>
+        <v>94</v>
       </c>
       <c r="L37" s="3" t="s">
-        <v>140</v>
+        <v>71</v>
       </c>
       <c r="Q37" s="11" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="R37" s="11"/>
+      <c r="T37" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="U37" s="0" t="s">
+        <v>270</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>51</v>
@@ -3675,35 +3713,29 @@
       <c r="I38" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="J38" s="2" t="s">
-        <v>270</v>
-      </c>
       <c r="L38" s="3" t="s">
-        <v>140</v>
+        <v>71</v>
       </c>
       <c r="Q38" s="11" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="R38" s="11"/>
-      <c r="V38" s="0" t="s">
-        <v>272</v>
-      </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="G39" s="2" t="s">
         <v>51</v>
@@ -3715,38 +3747,35 @@
         <v>29</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="L39" s="3" t="s">
-        <v>140</v>
+        <v>71</v>
       </c>
       <c r="Q39" s="11" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="R39" s="11"/>
-      <c r="S39" s="0" t="s">
-        <v>277</v>
-      </c>
-      <c r="T39" s="11" t="s">
-        <v>278</v>
-      </c>
-      <c r="U39" s="0" t="s">
-        <v>279</v>
+      <c r="V39" s="0" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>281</v>
       </c>
+      <c r="E40" s="1" t="s">
+        <v>282</v>
+      </c>
       <c r="G40" s="2" t="s">
         <v>51</v>
       </c>
@@ -3757,40 +3786,37 @@
         <v>29</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="L40" s="3" t="s">
-        <v>140</v>
+        <v>71</v>
       </c>
       <c r="Q40" s="11" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="R40" s="11"/>
       <c r="S40" s="0" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="T40" s="11" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="U40" s="0" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>287</v>
+        <v>272</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="G41" s="2" t="s">
         <v>51</v>
@@ -3802,37 +3828,40 @@
         <v>29</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>52</v>
+        <v>283</v>
       </c>
       <c r="L41" s="3" t="s">
-        <v>140</v>
+        <v>71</v>
       </c>
       <c r="Q41" s="11" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="R41" s="11"/>
+      <c r="S41" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="T41" s="11" t="s">
+        <v>292</v>
+      </c>
       <c r="U41" s="0" t="s">
-        <v>290</v>
-      </c>
-      <c r="V41" s="0" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>294</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="G42" s="2" t="s">
         <v>51</v>
@@ -3841,22 +3870,22 @@
         <v>28</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>85</v>
+        <v>29</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>52</v>
       </c>
       <c r="L42" s="3" t="s">
-        <v>140</v>
+        <v>71</v>
       </c>
       <c r="Q42" s="11" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="R42" s="11"/>
-      <c r="S42" s="0" t="s">
-        <v>297</v>
-      </c>
-      <c r="T42" s="11" t="s">
+      <c r="U42" s="0" t="s">
         <v>298</v>
       </c>
-      <c r="U42" s="0" t="s">
+      <c r="V42" s="0" t="s">
         <v>299</v>
       </c>
     </row>
@@ -3865,7 +3894,7 @@
         <v>300</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>301</v>
@@ -3883,48 +3912,40 @@
         <v>28</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="K43" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="L43" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q43" s="11" t="s">
         <v>304</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="M43" s="3" t="s">
+      <c r="R43" s="11"/>
+      <c r="S43" s="0" t="s">
         <v>305</v>
       </c>
-      <c r="Q43" s="11" t="s">
+      <c r="T43" s="11" t="s">
         <v>306</v>
       </c>
-      <c r="R43" s="0" t="s">
+      <c r="U43" s="0" t="s">
         <v>307</v>
-      </c>
-      <c r="S43" s="0" t="s">
-        <v>308</v>
-      </c>
-      <c r="T43" s="11" t="s">
-        <v>309</v>
-      </c>
-      <c r="U43" s="0" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
+        <v>308</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="E44" s="1" t="s">
         <v>311</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>315</v>
       </c>
       <c r="G44" s="2" t="s">
         <v>51</v>
@@ -3933,15 +3954,26 @@
         <v>28</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>135</v>
+        <v>94</v>
+      </c>
+      <c r="K44" s="3" t="s">
+        <v>312</v>
       </c>
       <c r="L44" s="3" t="s">
-        <v>140</v>
+        <v>28</v>
+      </c>
+      <c r="M44" s="3" t="s">
+        <v>313</v>
       </c>
       <c r="Q44" s="11" t="s">
+        <v>314</v>
+      </c>
+      <c r="R44" s="0" t="s">
+        <v>315</v>
+      </c>
+      <c r="S44" s="0" t="s">
         <v>316</v>
       </c>
-      <c r="R44" s="11"/>
       <c r="T44" s="11" t="s">
         <v>317</v>
       </c>
@@ -3954,16 +3986,16 @@
         <v>319</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="G45" s="2" t="s">
         <v>51</v>
@@ -3972,38 +4004,34 @@
         <v>28</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="J45" s="2" t="s">
-        <v>323</v>
+        <v>144</v>
       </c>
       <c r="L45" s="3" t="s">
-        <v>140</v>
+        <v>71</v>
       </c>
       <c r="Q45" s="11" t="s">
         <v>324</v>
       </c>
       <c r="R45" s="11"/>
-      <c r="S45" s="0" t="s">
+      <c r="T45" s="11" t="s">
         <v>325</v>
       </c>
-      <c r="T45" s="11" t="s">
+      <c r="U45" s="0" t="s">
         <v>326</v>
       </c>
-      <c r="U45" s="11"/>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
         <v>327</v>
       </c>
       <c r="B46" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="C46" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="D46" s="1" t="s">
         <v>329</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>327</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>330</v>
@@ -4015,49 +4043,38 @@
         <v>28</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>85</v>
+        <v>144</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="K46" s="3" t="s">
         <v>331</v>
       </c>
       <c r="L46" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="M46" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="N46" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q46" s="11" t="s">
         <v>332</v>
-      </c>
-      <c r="Q46" s="11" t="s">
-        <v>333</v>
       </c>
       <c r="R46" s="11"/>
       <c r="S46" s="0" t="s">
-        <v>197</v>
+        <v>333</v>
       </c>
       <c r="T46" s="11" t="s">
         <v>334</v>
       </c>
-      <c r="U46" s="0" t="s">
-        <v>335</v>
-      </c>
+      <c r="U46" s="11"/>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
+        <v>335</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>336</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>328</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>337</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>338</v>
@@ -4069,33 +4086,52 @@
         <v>28</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>85</v>
+        <v>94</v>
+      </c>
+      <c r="J47" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="K47" s="3" t="s">
+        <v>339</v>
       </c>
       <c r="L47" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q47" s="0" t="s">
-        <v>339</v>
-      </c>
-      <c r="V47" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="M47" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="N47" s="4" t="s">
         <v>340</v>
+      </c>
+      <c r="Q47" s="11" t="s">
+        <v>341</v>
+      </c>
+      <c r="R47" s="11"/>
+      <c r="S47" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="T47" s="11" t="s">
+        <v>342</v>
+      </c>
+      <c r="U47" s="0" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="G48" s="2" t="s">
         <v>51</v>
@@ -4104,75 +4140,110 @@
         <v>28</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="L48" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="M48" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="N48" s="4" t="s">
-        <v>332</v>
-      </c>
-      <c r="Q48" s="11" t="s">
-        <v>345</v>
-      </c>
-      <c r="S48" s="0" t="s">
-        <v>346</v>
-      </c>
-      <c r="T48" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q48" s="0" t="s">
         <v>347</v>
       </c>
-      <c r="U48" s="0" t="s">
+      <c r="V48" s="0" t="s">
         <v>348</v>
-      </c>
-      <c r="V48" s="0" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
+        <v>349</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="C49" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="B49" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="C49" s="1" t="s">
+      <c r="D49" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="E49" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="E49" s="1" t="s">
+      <c r="G49" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="L49" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M49" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="N49" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="Q49" s="11" t="s">
         <v>353</v>
       </c>
-      <c r="G49" s="2" t="s">
+      <c r="S49" s="0" t="s">
         <v>354</v>
       </c>
-      <c r="H49" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I49" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="L49" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="M49" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q49" s="0" t="s">
+      <c r="T49" s="11" t="s">
         <v>355</v>
       </c>
-      <c r="S49" s="0" t="s">
+      <c r="U49" s="0" t="s">
         <v>356</v>
       </c>
-      <c r="T49" s="0" t="s">
+      <c r="V49" s="0" t="s">
         <v>357</v>
       </c>
-      <c r="U49" s="0" t="s">
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="s">
         <v>358</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="L50" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M50" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q50" s="0" t="s">
+        <v>363</v>
+      </c>
+      <c r="S50" s="0" t="s">
+        <v>364</v>
+      </c>
+      <c r="T50" s="0" t="s">
+        <v>365</v>
+      </c>
+      <c r="U50" s="0" t="s">
+        <v>366</v>
       </c>
     </row>
   </sheetData>
@@ -4184,54 +4255,55 @@
     <hyperlink ref="T5" r:id="rId5" display="https://doi.org/10.1038/sdata.2017.122"/>
     <hyperlink ref="Q6" r:id="rId6" display="http://meteo.unican.es/datasets/spain02"/>
     <hyperlink ref="Q7" r:id="rId7" display="http://meteo.unican.es/datasets/spain02"/>
-    <hyperlink ref="Q14" r:id="rId8" display="https://fluxnet.org/"/>
-    <hyperlink ref="T14" r:id="rId9" display="https://doi.org/10.1175/1520-0477(2001)082&lt;2415:FANTTS&gt;2.3.CO;2"/>
-    <hyperlink ref="V14" r:id="rId10" display="https://github.com/aukkola/FluxnetLSM"/>
-    <hyperlink ref="Q15" r:id="rId11" display="https://www.gleam.eu/"/>
-    <hyperlink ref="T15" r:id="rId12" display="https://doi.org/10.5194/gmd-10-1903-2017"/>
-    <hyperlink ref="Q16" r:id="rId13" display="https://conservancy.umn.edu/handle/11299/197613"/>
-    <hyperlink ref="T16" r:id="rId14" display="https://doi.org/10.1029/2018GB005990"/>
-    <hyperlink ref="Q17" r:id="rId15" display="https://www.bafg.de/GRDC/EN/Home/homepage_node.html"/>
-    <hyperlink ref="T20" r:id="rId16" display="https://dx.doi.org/10.1038/ncomms13603"/>
-    <hyperlink ref="Q22" r:id="rId17" display="https://treenet.info/"/>
-    <hyperlink ref="T22" r:id="rId18" display="https://doi.org/10.3389/ffgc.2021.776905"/>
-    <hyperlink ref="Q23" r:id="rId19" display="https://www.ncei.noaa.gov/products/paleoclimatology"/>
-    <hyperlink ref="Q24" r:id="rId20" display="https://www.try-db.org/TryWeb/Home.php"/>
-    <hyperlink ref="T24" r:id="rId21" display="https://doi.org/10.1111/j.1365-2486.2011.02451.x"/>
-    <hyperlink ref="Q25" r:id="rId22" display="https://roots.ornl.gov/"/>
-    <hyperlink ref="T25" r:id="rId23" display="https://doi.org/10.1111/nph.14486"/>
-    <hyperlink ref="Q26" r:id="rId24" display="https://xylemfunctionaltraits.org/"/>
-    <hyperlink ref="Q27" r:id="rId25" display="https://www.idiv.de/de/splot.html"/>
-    <hyperlink ref="Q28" r:id="rId26" display="https://doi.org/10.25829/idiv.3474-40-3292"/>
-    <hyperlink ref="T28" r:id="rId27" display="https://doi.org/10.1111/geb.13346"/>
-    <hyperlink ref="Q29" r:id="rId28" display="https://lotvs.csic.es/"/>
-    <hyperlink ref="T29" r:id="rId29" display="https://www.biorxiv.org/content/10.1101/2021.09.29.462383v1.full"/>
-    <hyperlink ref="Q30" r:id="rId30" display="https://gfbinitiative.net/"/>
-    <hyperlink ref="Q31" r:id="rId31" display="http://icp-forests.net/"/>
-    <hyperlink ref="T32" r:id="rId32" display="https://doi.org/10.1016/j.srs.2020.100002"/>
-    <hyperlink ref="Q33" r:id="rId33" display="http://sapfluxnet.creaf.cat/"/>
-    <hyperlink ref="T33" r:id="rId34" display="https://doi.org/10.5194/essd-13-2607-2021"/>
-    <hyperlink ref="Q36" r:id="rId35" location="/home" display="https://data.isric.org/geonetwork/srv/eng/catalog.search#/home"/>
-    <hyperlink ref="T36" r:id="rId36" display="https://doi.org/10.5194/essd-9-1-2017"/>
-    <hyperlink ref="Q37" r:id="rId37" display="https://www.fao.org/soils-portal/data-hub/soil-maps-and-databases/harmonized-world-soil-database-v12/en/"/>
-    <hyperlink ref="Q38" r:id="rId38" display="https://soilgrids.org/"/>
-    <hyperlink ref="Q39" r:id="rId39" display="https://www.isric.org/explore/wise-databases"/>
-    <hyperlink ref="T39" r:id="rId40" display="https://doi.org/10.1016/j.geoderma.2016.01.034"/>
-    <hyperlink ref="Q40" r:id="rId41" display="http://globalchange.bnu.edu.cn/research/data"/>
-    <hyperlink ref="T40" r:id="rId42" display="http://doi.wiley.com/10.1002/2013MS000293"/>
-    <hyperlink ref="Q41" r:id="rId43" display="https://www.futurewater.eu/projects/hihydrosoil/"/>
-    <hyperlink ref="Q42" r:id="rId44" display="https://ismn.earth/en/"/>
-    <hyperlink ref="T42" r:id="rId45" display="https://doi.org/10.5194/hess-2021-2"/>
-    <hyperlink ref="Q43" r:id="rId46" display="https://doi.org/10.3334/ORNLDAAC/1827"/>
-    <hyperlink ref="T43" r:id="rId47" display="https://10.5194/bg-7-1915-2010"/>
-    <hyperlink ref="Q44" r:id="rId48" display="https://doi.pangaea.de/10.1594/PANGAEA.788537"/>
-    <hyperlink ref="T44" r:id="rId49" display="https://doi.org/10.1029/2012GC004370"/>
-    <hyperlink ref="Q45" r:id="rId50" display="https://dataverse.scholarsportal.info/dataset.xhtml"/>
-    <hyperlink ref="T45" r:id="rId51" display="https://doi.org/10.1002/2017GL075860"/>
-    <hyperlink ref="Q46" r:id="rId52" display="https://biotime.st-andrews.ac.uk/"/>
-    <hyperlink ref="T46" r:id="rId53" display="https://doi.org/10.1111/geb.12729"/>
-    <hyperlink ref="Q48" r:id="rId54" display="https://compadre-db.org/"/>
-    <hyperlink ref="T48" r:id="rId55" display="https://doi.org/10.1111/1365-2745.12334"/>
+    <hyperlink ref="T8" r:id="rId8" display="https://doi.org/10.1007/s10584-011-0156-z"/>
+    <hyperlink ref="Q15" r:id="rId9" display="https://fluxnet.org/"/>
+    <hyperlink ref="T15" r:id="rId10" display="https://doi.org/10.1175/1520-0477(2001)082&lt;2415:FANTTS&gt;2.3.CO;2"/>
+    <hyperlink ref="V15" r:id="rId11" display="https://github.com/aukkola/FluxnetLSM"/>
+    <hyperlink ref="Q16" r:id="rId12" display="https://www.gleam.eu/"/>
+    <hyperlink ref="T16" r:id="rId13" display="https://doi.org/10.5194/gmd-10-1903-2017"/>
+    <hyperlink ref="Q17" r:id="rId14" display="https://conservancy.umn.edu/handle/11299/197613"/>
+    <hyperlink ref="T17" r:id="rId15" display="https://doi.org/10.1029/2018GB005990"/>
+    <hyperlink ref="Q18" r:id="rId16" display="https://www.bafg.de/GRDC/EN/Home/homepage_node.html"/>
+    <hyperlink ref="T21" r:id="rId17" display="https://dx.doi.org/10.1038/ncomms13603"/>
+    <hyperlink ref="Q23" r:id="rId18" display="https://treenet.info/"/>
+    <hyperlink ref="T23" r:id="rId19" display="https://doi.org/10.3389/ffgc.2021.776905"/>
+    <hyperlink ref="Q24" r:id="rId20" display="https://www.ncei.noaa.gov/products/paleoclimatology"/>
+    <hyperlink ref="Q25" r:id="rId21" display="https://www.try-db.org/TryWeb/Home.php"/>
+    <hyperlink ref="T25" r:id="rId22" display="https://doi.org/10.1111/j.1365-2486.2011.02451.x"/>
+    <hyperlink ref="Q26" r:id="rId23" display="https://roots.ornl.gov/"/>
+    <hyperlink ref="T26" r:id="rId24" display="https://doi.org/10.1111/nph.14486"/>
+    <hyperlink ref="Q27" r:id="rId25" display="https://xylemfunctionaltraits.org/"/>
+    <hyperlink ref="Q28" r:id="rId26" display="https://www.idiv.de/de/splot.html"/>
+    <hyperlink ref="Q29" r:id="rId27" display="https://doi.org/10.25829/idiv.3474-40-3292"/>
+    <hyperlink ref="T29" r:id="rId28" display="https://doi.org/10.1111/geb.13346"/>
+    <hyperlink ref="Q30" r:id="rId29" display="https://lotvs.csic.es/"/>
+    <hyperlink ref="T30" r:id="rId30" display="https://www.biorxiv.org/content/10.1101/2021.09.29.462383v1.full"/>
+    <hyperlink ref="Q31" r:id="rId31" display="https://gfbinitiative.net/"/>
+    <hyperlink ref="Q32" r:id="rId32" display="http://icp-forests.net/"/>
+    <hyperlink ref="T33" r:id="rId33" display="https://doi.org/10.1016/j.srs.2020.100002"/>
+    <hyperlink ref="Q34" r:id="rId34" display="http://sapfluxnet.creaf.cat/"/>
+    <hyperlink ref="T34" r:id="rId35" display="https://doi.org/10.5194/essd-13-2607-2021"/>
+    <hyperlink ref="Q37" r:id="rId36" location="/home" display="https://data.isric.org/geonetwork/srv/eng/catalog.search#/home"/>
+    <hyperlink ref="T37" r:id="rId37" display="https://doi.org/10.5194/essd-9-1-2017"/>
+    <hyperlink ref="Q38" r:id="rId38" display="https://www.fao.org/soils-portal/data-hub/soil-maps-and-databases/harmonized-world-soil-database-v12/en/"/>
+    <hyperlink ref="Q39" r:id="rId39" display="https://soilgrids.org/"/>
+    <hyperlink ref="Q40" r:id="rId40" display="https://www.isric.org/explore/wise-databases"/>
+    <hyperlink ref="T40" r:id="rId41" display="https://doi.org/10.1016/j.geoderma.2016.01.034"/>
+    <hyperlink ref="Q41" r:id="rId42" display="http://globalchange.bnu.edu.cn/research/data"/>
+    <hyperlink ref="T41" r:id="rId43" display="http://doi.wiley.com/10.1002/2013MS000293"/>
+    <hyperlink ref="Q42" r:id="rId44" display="https://www.futurewater.eu/projects/hihydrosoil/"/>
+    <hyperlink ref="Q43" r:id="rId45" display="https://ismn.earth/en/"/>
+    <hyperlink ref="T43" r:id="rId46" display="https://doi.org/10.5194/hess-2021-2"/>
+    <hyperlink ref="Q44" r:id="rId47" display="https://doi.org/10.3334/ORNLDAAC/1827"/>
+    <hyperlink ref="T44" r:id="rId48" display="https://10.5194/bg-7-1915-2010"/>
+    <hyperlink ref="Q45" r:id="rId49" display="https://doi.pangaea.de/10.1594/PANGAEA.788537"/>
+    <hyperlink ref="T45" r:id="rId50" display="https://doi.org/10.1029/2012GC004370"/>
+    <hyperlink ref="Q46" r:id="rId51" display="https://dataverse.scholarsportal.info/dataset.xhtml"/>
+    <hyperlink ref="T46" r:id="rId52" display="https://doi.org/10.1002/2017GL075860"/>
+    <hyperlink ref="Q47" r:id="rId53" display="https://biotime.st-andrews.ac.uk/"/>
+    <hyperlink ref="T47" r:id="rId54" display="https://doi.org/10.1111/geb.12729"/>
+    <hyperlink ref="Q49" r:id="rId55" display="https://compadre-db.org/"/>
+    <hyperlink ref="T49" r:id="rId56" display="https://doi.org/10.1111/1365-2745.12334"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -4254,22 +4326,22 @@
       <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.3359375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.34375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
     </row>
   </sheetData>

--- a/ExternalDataSources.xlsx
+++ b/ExternalDataSources.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="372">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -224,10 +224,13 @@
     <t xml:space="preserve">daily</t>
   </si>
   <si>
+    <t xml:space="preserve">RCP_database</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Projections</t>
+  </si>
+  <si>
     <t xml:space="preserve">RCP database</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Projections</t>
   </si>
   <si>
     <t xml:space="preserve">The RCP database aims at documenting the emissions, concentrations, and land-cover change projections of the so-called "Representative Concentration Pathways" (RCPs). </t>
@@ -2063,10 +2066,10 @@
   <dimension ref="A1:V50"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F33" activeCellId="0" sqref="F33"/>
+      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.34375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.35546875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="25.28"/>
@@ -2465,45 +2468,45 @@
         <v>68</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>51</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L8" s="3" t="s">
         <v>28</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q8" s="11" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R8" s="0" t="n">
         <v>2.05</v>
       </c>
       <c r="S8" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T8" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U8" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>23</v>
@@ -2512,13 +2515,13 @@
         <v>68</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>28</v>
@@ -2530,7 +2533,7 @@
         <v>46</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L9" s="3" t="s">
         <v>28</v>
@@ -2542,27 +2545,27 @@
         <v>33</v>
       </c>
       <c r="Q9" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="S9" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>28</v>
@@ -2577,117 +2580,117 @@
         <v>32</v>
       </c>
       <c r="P10" s="13" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="S10" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>28</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L11" s="3" t="s">
         <v>28</v>
       </c>
       <c r="Q11" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="V11" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>28</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L12" s="3" t="s">
         <v>28</v>
       </c>
       <c r="Q12" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="V12" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>28</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L13" s="3" t="s">
         <v>28</v>
       </c>
       <c r="Q13" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>23</v>
@@ -2696,14 +2699,14 @@
         <v>68</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F14" s="14"/>
       <c r="G14" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>28</v>
@@ -2712,36 +2715,36 @@
         <v>29</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>28</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q14" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>113</v>
-      </c>
       <c r="E15" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>51</v>
@@ -2750,40 +2753,40 @@
         <v>28</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L15" s="3" t="s">
         <v>28</v>
       </c>
       <c r="Q15" s="11" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="R15" s="11"/>
       <c r="T15" s="11" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="U15" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="V15" s="11" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>120</v>
-      </c>
       <c r="E16" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>51</v>
@@ -2795,7 +2798,7 @@
         <v>29</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L16" s="3" t="s">
         <v>28</v>
@@ -2804,32 +2807,32 @@
         <v>66</v>
       </c>
       <c r="Q16" s="11" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="R16" s="11"/>
       <c r="T16" s="11" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="U16" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="V16" s="11"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>51</v>
@@ -2841,50 +2844,50 @@
         <v>29</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L17" s="3" t="s">
         <v>28</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O17" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q17" s="11" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="R17" s="11"/>
       <c r="S17" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="T17" s="11" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="U17" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="V17" s="11"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>51</v>
@@ -2893,31 +2896,31 @@
         <v>28</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L18" s="3" t="s">
         <v>28</v>
       </c>
       <c r="Q18" s="11" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="R18" s="11"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C19" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>146</v>
-      </c>
       <c r="E19" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>51</v>
@@ -2926,34 +2929,34 @@
         <v>28</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Q19" s="11" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="R19" s="11"/>
       <c r="U19" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>51</v>
@@ -2962,31 +2965,31 @@
         <v>28</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Q20" s="11" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="R20" s="11"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>51</v>
@@ -2995,37 +2998,37 @@
         <v>28</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Q21" s="11" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="R21" s="11"/>
       <c r="T21" s="0" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="U21" s="0" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>51</v>
@@ -3037,89 +3040,89 @@
         <v>29</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Q22" s="11" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="R22" s="11"/>
       <c r="T22" s="0" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="U22" s="0" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>166</v>
-      </c>
       <c r="E23" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>28</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L23" s="3" t="s">
         <v>28</v>
       </c>
       <c r="M23" s="3" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q23" s="11" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="R23" s="11"/>
       <c r="S23" s="0" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="T23" s="11" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="U23" s="11"/>
       <c r="V23" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>51</v>
@@ -3128,144 +3131,144 @@
         <v>28</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L24" s="3" t="s">
         <v>28</v>
       </c>
       <c r="Q24" s="11" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="R24" s="11"/>
       <c r="S24" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="T24" s="11"/>
       <c r="U24" s="11"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>183</v>
-      </c>
       <c r="E25" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>51</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L25" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="N25" s="4" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q25" s="11" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="R25" s="11"/>
       <c r="T25" s="11" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="U25" s="11"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>51</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Q26" s="11" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="R26" s="11"/>
       <c r="T26" s="11" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="U26" s="11"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>51</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L27" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="N27" s="4" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q27" s="11" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="R27" s="11"/>
       <c r="T27" s="11"/>
       <c r="U27" s="0" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C28" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="D28" s="1" t="s">
-        <v>200</v>
-      </c>
       <c r="E28" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>51</v>
@@ -3274,42 +3277,42 @@
         <v>28</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L28" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="N28" s="4" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q28" s="11" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="R28" s="11"/>
       <c r="S28" s="0" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="T28" s="11"/>
       <c r="U28" s="11"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>51</v>
@@ -3318,46 +3321,46 @@
         <v>28</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L29" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Q29" s="11" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="R29" s="11"/>
       <c r="S29" s="0" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="T29" s="11" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="U29" s="0" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>51</v>
@@ -3366,34 +3369,34 @@
         <v>28</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L30" s="3" t="s">
         <v>28</v>
       </c>
       <c r="Q30" s="11" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="R30" s="11"/>
       <c r="T30" s="11" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>51</v>
@@ -3402,78 +3405,78 @@
         <v>28</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L31" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Q31" s="11" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="R31" s="11"/>
       <c r="T31" s="11"/>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H32" s="2" t="s">
         <v>28</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L32" s="3" t="s">
         <v>28</v>
       </c>
       <c r="M32" s="3" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q32" s="11" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="R32" s="11"/>
       <c r="S32" s="0" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="T32" s="11"/>
       <c r="V32" s="0" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F33" s="12" t="n">
         <v>44779</v>
@@ -3488,40 +3491,40 @@
         <v>29</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L33" s="3" t="s">
         <v>28</v>
       </c>
       <c r="Q33" s="11" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="R33" s="11"/>
       <c r="S33" s="0" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="T33" s="15" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="U33" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C34" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="D34" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="D34" s="1" t="s">
-        <v>238</v>
-      </c>
       <c r="E34" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>51</v>
@@ -3530,49 +3533,49 @@
         <v>28</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L34" s="3" t="s">
         <v>28</v>
       </c>
       <c r="M34" s="3" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="P34" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Q34" s="11" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="R34" s="11"/>
       <c r="S34" s="0" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="T34" s="11" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="U34" s="0" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="V34" s="0" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C35" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="D35" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="D35" s="1" t="s">
-        <v>247</v>
-      </c>
       <c r="E35" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>51</v>
@@ -3584,32 +3587,32 @@
         <v>29</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L35" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Q35" s="11" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="R35" s="11"/>
       <c r="T35" s="11"/>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="G36" s="2" t="s">
         <v>51</v>
@@ -3618,10 +3621,10 @@
         <v>28</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L36" s="3" t="s">
         <v>28</v>
@@ -3630,40 +3633,40 @@
         <v>66</v>
       </c>
       <c r="N36" s="4" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q36" s="11" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="R36" s="11"/>
       <c r="S36" s="0" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="T36" s="15" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="U36" s="0" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="V36" s="16" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="G37" s="2" t="s">
         <v>51</v>
@@ -3672,37 +3675,37 @@
         <v>28</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L37" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Q37" s="11" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="R37" s="11"/>
       <c r="T37" s="11" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="U37" s="0" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>51</v>
@@ -3714,28 +3717,28 @@
         <v>29</v>
       </c>
       <c r="L38" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Q38" s="11" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="R38" s="11"/>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="G39" s="2" t="s">
         <v>51</v>
@@ -3747,34 +3750,34 @@
         <v>29</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="L39" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Q39" s="11" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="R39" s="11"/>
       <c r="V39" s="0" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="G40" s="2" t="s">
         <v>51</v>
@@ -3786,37 +3789,37 @@
         <v>29</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="L40" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Q40" s="11" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="R40" s="11"/>
       <c r="S40" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="T40" s="11" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="U40" s="0" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="G41" s="2" t="s">
         <v>51</v>
@@ -3828,40 +3831,40 @@
         <v>29</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="L41" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Q41" s="11" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="R41" s="11"/>
       <c r="S41" s="0" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="T41" s="11" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="U41" s="0" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C42" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="D42" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="D42" s="1" t="s">
-        <v>294</v>
-      </c>
       <c r="E42" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="G42" s="2" t="s">
         <v>51</v>
@@ -3876,34 +3879,34 @@
         <v>52</v>
       </c>
       <c r="L42" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Q42" s="11" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="R42" s="11"/>
       <c r="U42" s="0" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="V42" s="0" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="G43" s="2" t="s">
         <v>51</v>
@@ -3912,40 +3915,40 @@
         <v>28</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L43" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Q43" s="11" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="R43" s="11"/>
       <c r="S43" s="0" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="T43" s="11" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="U43" s="0" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="G44" s="2" t="s">
         <v>51</v>
@@ -3954,48 +3957,48 @@
         <v>28</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K44" s="3" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="L44" s="3" t="s">
         <v>28</v>
       </c>
       <c r="M44" s="3" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q44" s="11" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="R44" s="0" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="S44" s="0" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="T44" s="11" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="U44" s="0" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="G45" s="2" t="s">
         <v>51</v>
@@ -4004,37 +4007,37 @@
         <v>28</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L45" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Q45" s="11" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="R45" s="11"/>
       <c r="T45" s="11" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="U45" s="0" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="G46" s="2" t="s">
         <v>51</v>
@@ -4043,41 +4046,41 @@
         <v>28</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="L46" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Q46" s="11" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="R46" s="11"/>
       <c r="S46" s="0" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="T46" s="11" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="U46" s="11"/>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B47" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="D47" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="C47" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>335</v>
-      </c>
       <c r="E47" s="1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="G47" s="2" t="s">
         <v>51</v>
@@ -4086,52 +4089,52 @@
         <v>28</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="L47" s="3" t="s">
         <v>28</v>
       </c>
       <c r="M47" s="3" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="N47" s="4" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q47" s="11" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="R47" s="11"/>
       <c r="S47" s="0" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="T47" s="11" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="U47" s="0" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C48" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="D48" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="D48" s="1" t="s">
-        <v>344</v>
-      </c>
       <c r="E48" s="1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="G48" s="2" t="s">
         <v>51</v>
@@ -4140,33 +4143,33 @@
         <v>28</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L48" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Q48" s="0" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="V48" s="0" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="G49" s="2" t="s">
         <v>51</v>
@@ -4175,75 +4178,75 @@
         <v>28</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L49" s="3" t="s">
         <v>28</v>
       </c>
       <c r="M49" s="3" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="N49" s="4" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q49" s="11" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="S49" s="0" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="T49" s="11" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="U49" s="0" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="V49" s="0" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="H50" s="2" t="s">
         <v>28</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L50" s="3" t="s">
         <v>28</v>
       </c>
       <c r="M50" s="3" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q50" s="0" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="S50" s="0" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="T50" s="0" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="U50" s="0" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
   </sheetData>
@@ -4326,22 +4329,22 @@
       <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.34375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.35546875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
   </sheetData>

--- a/ExternalDataSources.xlsx
+++ b/ExternalDataSources.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="384">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -189,6 +189,42 @@
   </si>
   <si>
     <t xml:space="preserve">Karger, D.N., Conrad, O., Böhner, J., Kawohl, T., Kreft, H., Soria-Auza, R.W., Zimmermann, N.E., Linder, P., Kessler, M. (2017). Climatologies at high resolution for the Earth land surface areas. Scientific Data. 4 170122.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PaleoClim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HistoricSimulation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">High-resolution paleoclimate data for use in biological modeling and GIS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14/09/2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 km / 1 km</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3Ma bp – Present</t>
+  </si>
+  <si>
+    <t xml:space="preserve">geological periods</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TIFF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.paleoclim.org/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Standard bioclimatic variables</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1038/sdata.2018.254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brown, Hill, Dolan, Carnaval, Haywood (2018) PaleoClim, high spatial resolution paleoclimate surfaces for global land areas.  Nature – Scientific Data. 5:180254</t>
   </si>
   <si>
     <t xml:space="preserve">spain02_v5_monthly</t>
@@ -2063,13 +2099,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V50"/>
+  <dimension ref="A1:V51"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O6" activeCellId="0" sqref="O6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.35546875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.37109375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="25.28"/>
@@ -2366,13 +2402,16 @@
         <v>57</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>59</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>28</v>
@@ -2381,46 +2420,49 @@
         <v>29</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L6" s="3" t="s">
         <v>28</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="P6" s="0" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="Q6" s="11" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="R6" s="11"/>
       <c r="S6" s="0" t="s">
-        <v>63</v>
+        <v>65</v>
+      </c>
+      <c r="T6" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="U6" s="0" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>27</v>
@@ -2435,137 +2477,144 @@
         <v>46</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="L7" s="3" t="s">
         <v>28</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="O7" s="0" t="s">
         <v>33</v>
       </c>
       <c r="P7" s="0" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="Q7" s="11" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="R7" s="11"/>
       <c r="S7" s="0" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="H8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K8" s="3" t="s">
         <v>72</v>
       </c>
       <c r="L8" s="3" t="s">
         <v>28</v>
       </c>
       <c r="M8" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="O8" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="P8" s="0" t="s">
         <v>73</v>
       </c>
       <c r="Q8" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="R8" s="0" t="n">
-        <v>2.05</v>
-      </c>
+      <c r="R8" s="11"/>
       <c r="S8" s="0" t="s">
         <v>75</v>
       </c>
-      <c r="T8" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="U8" s="0" t="s">
-        <v>77</v>
-      </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>83</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="L9" s="3" t="s">
         <v>28</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="O9" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q9" s="0" t="s">
-        <v>83</v>
+        <v>85</v>
+      </c>
+      <c r="Q9" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="R9" s="0" t="n">
+        <v>2.05</v>
       </c>
       <c r="S9" s="0" t="s">
-        <v>84</v>
+        <v>87</v>
+      </c>
+      <c r="T9" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="U9" s="0" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>28</v>
@@ -2573,220 +2622,222 @@
       <c r="I10" s="2" t="s">
         <v>29</v>
       </c>
+      <c r="J10" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>94</v>
+      </c>
       <c r="L10" s="3" t="s">
         <v>28</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="P10" s="13" t="s">
-        <v>89</v>
+        <v>78</v>
+      </c>
+      <c r="O10" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q10" s="0" t="s">
+        <v>95</v>
       </c>
       <c r="S10" s="0" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>28</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>95</v>
+        <v>29</v>
       </c>
       <c r="L11" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="Q11" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="V11" s="0" t="s">
-        <v>97</v>
+      <c r="M11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="P11" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="S11" s="0" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="E12" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G12" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="G12" s="2" t="s">
-        <v>101</v>
-      </c>
       <c r="H12" s="2" t="s">
         <v>28</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="L12" s="3" t="s">
         <v>28</v>
       </c>
       <c r="Q12" s="0" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="V12" s="0" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>28</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="L13" s="3" t="s">
         <v>28</v>
       </c>
       <c r="Q13" s="0" t="s">
-        <v>107</v>
+        <v>114</v>
+      </c>
+      <c r="V13" s="0" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="E14" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="F14" s="14"/>
+        <v>104</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>117</v>
+      </c>
       <c r="G14" s="2" t="s">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>28</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>82</v>
+        <v>107</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>112</v>
-      </c>
       <c r="Q14" s="0" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>116</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="F15" s="14"/>
       <c r="G15" s="2" t="s">
-        <v>51</v>
+        <v>113</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>28</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>95</v>
+        <v>29</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>94</v>
       </c>
       <c r="L15" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="Q15" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="R15" s="11"/>
-      <c r="T15" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="U15" s="0" t="s">
-        <v>119</v>
-      </c>
-      <c r="V15" s="11" t="s">
-        <v>120</v>
+      <c r="M15" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q15" s="0" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>51</v>
@@ -2795,44 +2846,40 @@
         <v>28</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K16" s="3" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="L16" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="M16" s="3" t="s">
-        <v>66</v>
-      </c>
       <c r="Q16" s="11" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="R16" s="11"/>
       <c r="T16" s="11" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="U16" s="0" t="s">
-        <v>127</v>
-      </c>
-      <c r="V16" s="11"/>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>131</v>
+      </c>
+      <c r="V16" s="11" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>51</v>
@@ -2843,28 +2890,19 @@
       <c r="I17" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="J17" s="2" t="s">
-        <v>132</v>
-      </c>
       <c r="K17" s="3" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="L17" s="3" t="s">
         <v>28</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="O17" s="0" t="s">
-        <v>135</v>
+        <v>78</v>
       </c>
       <c r="Q17" s="11" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="R17" s="11"/>
-      <c r="S17" s="0" t="s">
-        <v>137</v>
-      </c>
       <c r="T17" s="11" t="s">
         <v>138</v>
       </c>
@@ -2873,21 +2911,21 @@
       </c>
       <c r="V17" s="11"/>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
         <v>140</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="E18" s="1" t="s">
         <v>143</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>144</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>51</v>
@@ -2896,31 +2934,53 @@
         <v>28</v>
       </c>
       <c r="I18" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="K18" s="3" t="s">
         <v>145</v>
       </c>
       <c r="L18" s="3" t="s">
         <v>28</v>
       </c>
+      <c r="M18" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="O18" s="0" t="s">
+        <v>147</v>
+      </c>
       <c r="Q18" s="11" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="R18" s="11"/>
+      <c r="S18" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="T18" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="U18" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="V18" s="11"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>51</v>
@@ -2929,34 +2989,31 @@
         <v>28</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>72</v>
+        <v>28</v>
       </c>
       <c r="Q19" s="11" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="R19" s="11"/>
-      <c r="U19" s="0" t="s">
-        <v>151</v>
-      </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>51</v>
@@ -2965,31 +3022,34 @@
         <v>28</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="Q20" s="11" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="R20" s="11"/>
+      <c r="U20" s="0" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>51</v>
@@ -2998,37 +3058,31 @@
         <v>28</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="Q21" s="11" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="R21" s="11"/>
-      <c r="T21" s="0" t="s">
-        <v>159</v>
-      </c>
-      <c r="U21" s="0" t="s">
-        <v>160</v>
-      </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>51</v>
@@ -3037,74 +3091,61 @@
         <v>28</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J22" s="2" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="Q22" s="11" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="R22" s="11"/>
       <c r="T22" s="0" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="U22" s="0" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>171</v>
+        <v>51</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>28</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>95</v>
+        <v>29</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="K23" s="3" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="L23" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="M23" s="3" t="s">
-        <v>174</v>
+        <v>84</v>
       </c>
       <c r="Q23" s="11" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="R23" s="11"/>
-      <c r="S23" s="0" t="s">
-        <v>176</v>
-      </c>
-      <c r="T23" s="11" t="s">
+      <c r="T23" s="0" t="s">
         <v>177</v>
       </c>
-      <c r="U23" s="11"/>
-      <c r="V23" s="0" t="s">
+      <c r="U23" s="0" t="s">
         <v>178</v>
       </c>
     </row>
@@ -3113,206 +3154,214 @@
         <v>179</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>51</v>
+        <v>183</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>28</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>95</v>
+        <v>107</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>185</v>
       </c>
       <c r="L24" s="3" t="s">
         <v>28</v>
       </c>
+      <c r="M24" s="3" t="s">
+        <v>186</v>
+      </c>
       <c r="Q24" s="11" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="R24" s="11"/>
       <c r="S24" s="0" t="s">
-        <v>183</v>
-      </c>
-      <c r="T24" s="11"/>
+        <v>188</v>
+      </c>
+      <c r="T24" s="11" t="s">
+        <v>189</v>
+      </c>
       <c r="U24" s="11"/>
+      <c r="V24" s="0" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>51</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>72</v>
+        <v>28</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>107</v>
       </c>
       <c r="L25" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="N25" s="4" t="s">
-        <v>188</v>
+        <v>28</v>
       </c>
       <c r="Q25" s="11" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="R25" s="11"/>
-      <c r="T25" s="11" t="s">
-        <v>190</v>
-      </c>
+      <c r="S25" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="T25" s="11"/>
       <c r="U25" s="11"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>185</v>
+        <v>197</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>186</v>
+        <v>198</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>51</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>72</v>
+        <v>84</v>
+      </c>
+      <c r="N26" s="4" t="s">
+        <v>200</v>
       </c>
       <c r="Q26" s="11" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="R26" s="11"/>
       <c r="T26" s="11" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="U26" s="11"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>185</v>
+        <v>197</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>186</v>
+        <v>198</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>51</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="L27" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="N27" s="4" t="s">
-        <v>188</v>
+        <v>84</v>
       </c>
       <c r="Q27" s="11" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="R27" s="11"/>
-      <c r="T27" s="11"/>
-      <c r="U27" s="0" t="s">
-        <v>200</v>
-      </c>
+      <c r="T27" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="U27" s="11"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>185</v>
+        <v>197</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>51</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="J28" s="2" t="s">
-        <v>204</v>
+        <v>84</v>
       </c>
       <c r="L28" s="3" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="N28" s="4" t="s">
-        <v>188</v>
+        <v>200</v>
       </c>
       <c r="Q28" s="11" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="R28" s="11"/>
-      <c r="S28" s="0" t="s">
-        <v>206</v>
-      </c>
       <c r="T28" s="11"/>
-      <c r="U28" s="11"/>
+      <c r="U28" s="0" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>185</v>
+        <v>197</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>51</v>
@@ -3321,46 +3370,42 @@
         <v>28</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="L29" s="3" t="s">
-        <v>72</v>
+        <v>84</v>
+      </c>
+      <c r="N29" s="4" t="s">
+        <v>200</v>
       </c>
       <c r="Q29" s="11" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="R29" s="11"/>
       <c r="S29" s="0" t="s">
-        <v>206</v>
-      </c>
-      <c r="T29" s="11" t="s">
-        <v>211</v>
-      </c>
-      <c r="U29" s="0" t="s">
-        <v>212</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="T29" s="11"/>
+      <c r="U29" s="11"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>185</v>
+        <v>197</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>51</v>
@@ -3369,34 +3414,46 @@
         <v>28</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>95</v>
+        <v>107</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="K30" s="3" t="s">
+        <v>221</v>
       </c>
       <c r="L30" s="3" t="s">
-        <v>28</v>
+        <v>84</v>
       </c>
       <c r="Q30" s="11" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="R30" s="11"/>
+      <c r="S30" s="0" t="s">
+        <v>218</v>
+      </c>
       <c r="T30" s="11" t="s">
-        <v>217</v>
+        <v>223</v>
+      </c>
+      <c r="U30" s="0" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>185</v>
+        <v>197</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>51</v>
@@ -3405,126 +3462,117 @@
         <v>28</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="L31" s="3" t="s">
-        <v>72</v>
+        <v>28</v>
       </c>
       <c r="Q31" s="11" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="R31" s="11"/>
-      <c r="T31" s="11"/>
+      <c r="T31" s="11" t="s">
+        <v>229</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>185</v>
+        <v>197</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="H32" s="2" t="s">
         <v>28</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="K32" s="3" t="s">
-        <v>227</v>
+        <v>107</v>
       </c>
       <c r="L32" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="M32" s="3" t="s">
-        <v>204</v>
+        <v>84</v>
       </c>
       <c r="Q32" s="11" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="R32" s="11"/>
-      <c r="S32" s="0" t="s">
-        <v>229</v>
-      </c>
       <c r="T32" s="11"/>
-      <c r="V32" s="0" t="s">
-        <v>230</v>
-      </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>168</v>
+        <v>197</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="F33" s="12" t="n">
-        <v>44779</v>
+        <v>238</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>51</v>
+        <v>93</v>
       </c>
       <c r="H33" s="2" t="s">
         <v>28</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J33" s="2" t="s">
-        <v>234</v>
+        <v>107</v>
+      </c>
+      <c r="K33" s="3" t="s">
+        <v>239</v>
       </c>
       <c r="L33" s="3" t="s">
         <v>28</v>
       </c>
+      <c r="M33" s="3" t="s">
+        <v>216</v>
+      </c>
       <c r="Q33" s="11" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="R33" s="11"/>
       <c r="S33" s="0" t="s">
-        <v>236</v>
-      </c>
-      <c r="T33" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="U33" s="0" t="s">
-        <v>238</v>
+        <v>241</v>
+      </c>
+      <c r="T33" s="11"/>
+      <c r="V33" s="0" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>241</v>
+        <v>245</v>
+      </c>
+      <c r="F34" s="12" t="n">
+        <v>44779</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>51</v>
@@ -3533,49 +3581,43 @@
         <v>28</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>95</v>
+        <v>29</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>246</v>
       </c>
       <c r="L34" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="M34" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="P34" s="0" t="s">
-        <v>89</v>
-      </c>
       <c r="Q34" s="11" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="R34" s="11"/>
       <c r="S34" s="0" t="s">
-        <v>244</v>
-      </c>
-      <c r="T34" s="11" t="s">
-        <v>245</v>
+        <v>248</v>
+      </c>
+      <c r="T34" s="15" t="s">
+        <v>249</v>
       </c>
       <c r="U34" s="0" t="s">
-        <v>246</v>
-      </c>
-      <c r="V34" s="0" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>185</v>
+        <v>197</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>51</v>
@@ -3584,35 +3626,49 @@
         <v>28</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J35" s="2" t="s">
-        <v>251</v>
+        <v>107</v>
       </c>
       <c r="L35" s="3" t="s">
-        <v>72</v>
+        <v>28</v>
+      </c>
+      <c r="M35" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="P35" s="0" t="s">
+        <v>101</v>
       </c>
       <c r="Q35" s="11" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="R35" s="11"/>
-      <c r="T35" s="11"/>
+      <c r="S35" s="0" t="s">
+        <v>256</v>
+      </c>
+      <c r="T35" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="U35" s="0" t="s">
+        <v>258</v>
+      </c>
+      <c r="V35" s="0" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>168</v>
+        <v>197</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="G36" s="2" t="s">
         <v>51</v>
@@ -3621,43 +3677,26 @@
         <v>28</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="K36" s="3" t="s">
-        <v>257</v>
+        <v>29</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>263</v>
       </c>
       <c r="L36" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="M36" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="N36" s="4" t="s">
-        <v>258</v>
+        <v>84</v>
       </c>
       <c r="Q36" s="11" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="R36" s="11"/>
-      <c r="S36" s="0" t="s">
-        <v>260</v>
-      </c>
-      <c r="T36" s="15" t="s">
-        <v>261</v>
-      </c>
-      <c r="U36" s="0" t="s">
-        <v>262</v>
-      </c>
-      <c r="V36" s="16" t="s">
-        <v>263</v>
-      </c>
+      <c r="T36" s="11"/>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>265</v>
+        <v>180</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>266</v>
@@ -3675,37 +3714,52 @@
         <v>28</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>95</v>
+        <v>107</v>
+      </c>
+      <c r="K37" s="3" t="s">
+        <v>269</v>
       </c>
       <c r="L37" s="3" t="s">
-        <v>72</v>
+        <v>28</v>
+      </c>
+      <c r="M37" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="N37" s="4" t="s">
+        <v>270</v>
       </c>
       <c r="Q37" s="11" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="R37" s="11"/>
-      <c r="T37" s="11" t="s">
-        <v>270</v>
+      <c r="S37" s="0" t="s">
+        <v>272</v>
+      </c>
+      <c r="T37" s="15" t="s">
+        <v>273</v>
       </c>
       <c r="U37" s="0" t="s">
-        <v>271</v>
+        <v>274</v>
+      </c>
+      <c r="V37" s="16" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>265</v>
+        <v>277</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>51</v>
@@ -3714,31 +3768,37 @@
         <v>28</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>29</v>
+        <v>107</v>
       </c>
       <c r="L38" s="3" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="Q38" s="11" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="R38" s="11"/>
+      <c r="T38" s="11" t="s">
+        <v>282</v>
+      </c>
+      <c r="U38" s="0" t="s">
+        <v>283</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
+        <v>284</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>265</v>
-      </c>
       <c r="C39" s="1" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="G39" s="2" t="s">
         <v>51</v>
@@ -3749,35 +3809,29 @@
       <c r="I39" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="J39" s="2" t="s">
-        <v>279</v>
-      </c>
       <c r="L39" s="3" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="Q39" s="11" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="R39" s="11"/>
-      <c r="V39" s="0" t="s">
-        <v>281</v>
-      </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>265</v>
+        <v>277</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="G40" s="2" t="s">
         <v>51</v>
@@ -3789,37 +3843,34 @@
         <v>29</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="L40" s="3" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="Q40" s="11" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="R40" s="11"/>
-      <c r="S40" s="0" t="s">
-        <v>286</v>
-      </c>
-      <c r="T40" s="11" t="s">
-        <v>287</v>
-      </c>
-      <c r="U40" s="0" t="s">
-        <v>288</v>
+      <c r="V40" s="0" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>265</v>
+        <v>277</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>290</v>
+        <v>294</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>295</v>
       </c>
       <c r="G41" s="2" t="s">
         <v>51</v>
@@ -3831,40 +3882,37 @@
         <v>29</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>284</v>
+        <v>296</v>
       </c>
       <c r="L41" s="3" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="Q41" s="11" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="R41" s="11"/>
       <c r="S41" s="0" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="T41" s="11" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="U41" s="0" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>265</v>
+        <v>277</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="G42" s="2" t="s">
         <v>51</v>
@@ -3876,37 +3924,40 @@
         <v>29</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>52</v>
+        <v>296</v>
       </c>
       <c r="L42" s="3" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="Q42" s="11" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="R42" s="11"/>
+      <c r="S42" s="0" t="s">
+        <v>304</v>
+      </c>
+      <c r="T42" s="11" t="s">
+        <v>305</v>
+      </c>
       <c r="U42" s="0" t="s">
-        <v>299</v>
-      </c>
-      <c r="V42" s="0" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>265</v>
+        <v>277</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="G43" s="2" t="s">
         <v>51</v>
@@ -3915,40 +3966,40 @@
         <v>28</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>95</v>
+        <v>29</v>
+      </c>
+      <c r="J43" s="2" t="s">
+        <v>52</v>
       </c>
       <c r="L43" s="3" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="Q43" s="11" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="R43" s="11"/>
-      <c r="S43" s="0" t="s">
-        <v>306</v>
-      </c>
-      <c r="T43" s="11" t="s">
-        <v>307</v>
-      </c>
       <c r="U43" s="0" t="s">
-        <v>308</v>
+        <v>311</v>
+      </c>
+      <c r="V43" s="0" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>265</v>
+        <v>277</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="G44" s="2" t="s">
         <v>51</v>
@@ -3957,39 +4008,31 @@
         <v>28</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="K44" s="3" t="s">
-        <v>313</v>
+        <v>107</v>
       </c>
       <c r="L44" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="M44" s="3" t="s">
-        <v>314</v>
+        <v>84</v>
       </c>
       <c r="Q44" s="11" t="s">
-        <v>315</v>
-      </c>
-      <c r="R44" s="0" t="s">
-        <v>316</v>
-      </c>
+        <v>317</v>
+      </c>
+      <c r="R44" s="11"/>
       <c r="S44" s="0" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="T44" s="11" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="U44" s="0" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>321</v>
+        <v>277</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>322</v>
@@ -4007,37 +4050,48 @@
         <v>28</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>145</v>
+        <v>107</v>
+      </c>
+      <c r="K45" s="3" t="s">
+        <v>325</v>
       </c>
       <c r="L45" s="3" t="s">
-        <v>72</v>
+        <v>28</v>
+      </c>
+      <c r="M45" s="3" t="s">
+        <v>326</v>
       </c>
       <c r="Q45" s="11" t="s">
-        <v>325</v>
-      </c>
-      <c r="R45" s="11"/>
+        <v>327</v>
+      </c>
+      <c r="R45" s="0" t="s">
+        <v>328</v>
+      </c>
+      <c r="S45" s="0" t="s">
+        <v>329</v>
+      </c>
       <c r="T45" s="11" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="U45" s="0" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>321</v>
+        <v>333</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="G46" s="2" t="s">
         <v>51</v>
@@ -4046,41 +4100,37 @@
         <v>28</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="J46" s="2" t="s">
-        <v>332</v>
+        <v>157</v>
       </c>
       <c r="L46" s="3" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="Q46" s="11" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="R46" s="11"/>
-      <c r="S46" s="0" t="s">
-        <v>334</v>
-      </c>
       <c r="T46" s="11" t="s">
-        <v>335</v>
-      </c>
-      <c r="U46" s="11"/>
+        <v>338</v>
+      </c>
+      <c r="U46" s="0" t="s">
+        <v>339</v>
+      </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="G47" s="2" t="s">
         <v>51</v>
@@ -4089,52 +4139,41 @@
         <v>28</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>95</v>
+        <v>157</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="K47" s="3" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="L47" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="M47" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="N47" s="4" t="s">
-        <v>341</v>
+        <v>84</v>
       </c>
       <c r="Q47" s="11" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="R47" s="11"/>
       <c r="S47" s="0" t="s">
-        <v>206</v>
+        <v>346</v>
       </c>
       <c r="T47" s="11" t="s">
-        <v>343</v>
-      </c>
-      <c r="U47" s="0" t="s">
-        <v>344</v>
-      </c>
+        <v>347</v>
+      </c>
+      <c r="U47" s="11"/>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="G48" s="2" t="s">
         <v>51</v>
@@ -4143,33 +4182,52 @@
         <v>28</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>95</v>
+        <v>107</v>
+      </c>
+      <c r="J48" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="K48" s="3" t="s">
+        <v>352</v>
       </c>
       <c r="L48" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q48" s="0" t="s">
-        <v>348</v>
-      </c>
-      <c r="V48" s="0" t="s">
-        <v>349</v>
+        <v>28</v>
+      </c>
+      <c r="M48" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="N48" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="Q48" s="11" t="s">
+        <v>354</v>
+      </c>
+      <c r="R48" s="11"/>
+      <c r="S48" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="T48" s="11" t="s">
+        <v>355</v>
+      </c>
+      <c r="U48" s="0" t="s">
+        <v>356</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="G49" s="2" t="s">
         <v>51</v>
@@ -4178,75 +4236,110 @@
         <v>28</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="L49" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="M49" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="N49" s="4" t="s">
-        <v>341</v>
-      </c>
-      <c r="Q49" s="11" t="s">
-        <v>354</v>
-      </c>
-      <c r="S49" s="0" t="s">
-        <v>355</v>
-      </c>
-      <c r="T49" s="11" t="s">
-        <v>356</v>
-      </c>
-      <c r="U49" s="0" t="s">
-        <v>357</v>
+        <v>84</v>
+      </c>
+      <c r="Q49" s="0" t="s">
+        <v>360</v>
       </c>
       <c r="V49" s="0" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>363</v>
+        <v>51</v>
       </c>
       <c r="H50" s="2" t="s">
         <v>28</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="L50" s="3" t="s">
         <v>28</v>
       </c>
       <c r="M50" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q50" s="0" t="s">
-        <v>364</v>
+        <v>216</v>
+      </c>
+      <c r="N50" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="Q50" s="11" t="s">
+        <v>366</v>
       </c>
       <c r="S50" s="0" t="s">
-        <v>365</v>
-      </c>
-      <c r="T50" s="0" t="s">
-        <v>366</v>
+        <v>367</v>
+      </c>
+      <c r="T50" s="11" t="s">
+        <v>368</v>
       </c>
       <c r="U50" s="0" t="s">
-        <v>367</v>
+        <v>369</v>
+      </c>
+      <c r="V50" s="0" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="s">
+        <v>371</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="L51" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M51" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q51" s="0" t="s">
+        <v>376</v>
+      </c>
+      <c r="S51" s="0" t="s">
+        <v>377</v>
+      </c>
+      <c r="T51" s="0" t="s">
+        <v>378</v>
+      </c>
+      <c r="U51" s="0" t="s">
+        <v>379</v>
       </c>
     </row>
   </sheetData>
@@ -4256,61 +4349,62 @@
     <hyperlink ref="Q4" r:id="rId3" display="https://cds.climate.copernicus.eu"/>
     <hyperlink ref="Q5" r:id="rId4" display="https://chelsa-climate.org/downloads/"/>
     <hyperlink ref="T5" r:id="rId5" display="https://doi.org/10.1038/sdata.2017.122"/>
-    <hyperlink ref="Q6" r:id="rId6" display="http://meteo.unican.es/datasets/spain02"/>
+    <hyperlink ref="T6" r:id="rId6" display="https://doi.org/10.1038/sdata.2018.254"/>
     <hyperlink ref="Q7" r:id="rId7" display="http://meteo.unican.es/datasets/spain02"/>
-    <hyperlink ref="T8" r:id="rId8" display="https://doi.org/10.1007/s10584-011-0156-z"/>
-    <hyperlink ref="Q15" r:id="rId9" display="https://fluxnet.org/"/>
-    <hyperlink ref="T15" r:id="rId10" display="https://doi.org/10.1175/1520-0477(2001)082&lt;2415:FANTTS&gt;2.3.CO;2"/>
-    <hyperlink ref="V15" r:id="rId11" display="https://github.com/aukkola/FluxnetLSM"/>
-    <hyperlink ref="Q16" r:id="rId12" display="https://www.gleam.eu/"/>
-    <hyperlink ref="T16" r:id="rId13" display="https://doi.org/10.5194/gmd-10-1903-2017"/>
-    <hyperlink ref="Q17" r:id="rId14" display="https://conservancy.umn.edu/handle/11299/197613"/>
-    <hyperlink ref="T17" r:id="rId15" display="https://doi.org/10.1029/2018GB005990"/>
-    <hyperlink ref="Q18" r:id="rId16" display="https://www.bafg.de/GRDC/EN/Home/homepage_node.html"/>
-    <hyperlink ref="T21" r:id="rId17" display="https://dx.doi.org/10.1038/ncomms13603"/>
-    <hyperlink ref="Q23" r:id="rId18" display="https://treenet.info/"/>
-    <hyperlink ref="T23" r:id="rId19" display="https://doi.org/10.3389/ffgc.2021.776905"/>
-    <hyperlink ref="Q24" r:id="rId20" display="https://www.ncei.noaa.gov/products/paleoclimatology"/>
-    <hyperlink ref="Q25" r:id="rId21" display="https://www.try-db.org/TryWeb/Home.php"/>
-    <hyperlink ref="T25" r:id="rId22" display="https://doi.org/10.1111/j.1365-2486.2011.02451.x"/>
-    <hyperlink ref="Q26" r:id="rId23" display="https://roots.ornl.gov/"/>
-    <hyperlink ref="T26" r:id="rId24" display="https://doi.org/10.1111/nph.14486"/>
-    <hyperlink ref="Q27" r:id="rId25" display="https://xylemfunctionaltraits.org/"/>
-    <hyperlink ref="Q28" r:id="rId26" display="https://www.idiv.de/de/splot.html"/>
-    <hyperlink ref="Q29" r:id="rId27" display="https://doi.org/10.25829/idiv.3474-40-3292"/>
-    <hyperlink ref="T29" r:id="rId28" display="https://doi.org/10.1111/geb.13346"/>
-    <hyperlink ref="Q30" r:id="rId29" display="https://lotvs.csic.es/"/>
-    <hyperlink ref="T30" r:id="rId30" display="https://www.biorxiv.org/content/10.1101/2021.09.29.462383v1.full"/>
-    <hyperlink ref="Q31" r:id="rId31" display="https://gfbinitiative.net/"/>
-    <hyperlink ref="Q32" r:id="rId32" display="http://icp-forests.net/"/>
-    <hyperlink ref="T33" r:id="rId33" display="https://doi.org/10.1016/j.srs.2020.100002"/>
-    <hyperlink ref="Q34" r:id="rId34" display="http://sapfluxnet.creaf.cat/"/>
-    <hyperlink ref="T34" r:id="rId35" display="https://doi.org/10.5194/essd-13-2607-2021"/>
-    <hyperlink ref="Q37" r:id="rId36" location="/home" display="https://data.isric.org/geonetwork/srv/eng/catalog.search#/home"/>
-    <hyperlink ref="T37" r:id="rId37" display="https://doi.org/10.5194/essd-9-1-2017"/>
-    <hyperlink ref="Q38" r:id="rId38" display="https://www.fao.org/soils-portal/data-hub/soil-maps-and-databases/harmonized-world-soil-database-v12/en/"/>
-    <hyperlink ref="Q39" r:id="rId39" display="https://soilgrids.org/"/>
-    <hyperlink ref="Q40" r:id="rId40" display="https://www.isric.org/explore/wise-databases"/>
-    <hyperlink ref="T40" r:id="rId41" display="https://doi.org/10.1016/j.geoderma.2016.01.034"/>
-    <hyperlink ref="Q41" r:id="rId42" display="http://globalchange.bnu.edu.cn/research/data"/>
-    <hyperlink ref="T41" r:id="rId43" display="http://doi.wiley.com/10.1002/2013MS000293"/>
-    <hyperlink ref="Q42" r:id="rId44" display="https://www.futurewater.eu/projects/hihydrosoil/"/>
-    <hyperlink ref="Q43" r:id="rId45" display="https://ismn.earth/en/"/>
-    <hyperlink ref="T43" r:id="rId46" display="https://doi.org/10.5194/hess-2021-2"/>
-    <hyperlink ref="Q44" r:id="rId47" display="https://doi.org/10.3334/ORNLDAAC/1827"/>
-    <hyperlink ref="T44" r:id="rId48" display="https://10.5194/bg-7-1915-2010"/>
-    <hyperlink ref="Q45" r:id="rId49" display="https://doi.pangaea.de/10.1594/PANGAEA.788537"/>
-    <hyperlink ref="T45" r:id="rId50" display="https://doi.org/10.1029/2012GC004370"/>
-    <hyperlink ref="Q46" r:id="rId51" display="https://dataverse.scholarsportal.info/dataset.xhtml"/>
-    <hyperlink ref="T46" r:id="rId52" display="https://doi.org/10.1002/2017GL075860"/>
-    <hyperlink ref="Q47" r:id="rId53" display="https://biotime.st-andrews.ac.uk/"/>
-    <hyperlink ref="T47" r:id="rId54" display="https://doi.org/10.1111/geb.12729"/>
-    <hyperlink ref="Q49" r:id="rId55" display="https://compadre-db.org/"/>
-    <hyperlink ref="T49" r:id="rId56" display="https://doi.org/10.1111/1365-2745.12334"/>
+    <hyperlink ref="Q8" r:id="rId8" display="http://meteo.unican.es/datasets/spain02"/>
+    <hyperlink ref="T9" r:id="rId9" display="https://doi.org/10.1007/s10584-011-0156-z"/>
+    <hyperlink ref="Q16" r:id="rId10" display="https://fluxnet.org/"/>
+    <hyperlink ref="T16" r:id="rId11" display="https://doi.org/10.1175/1520-0477(2001)082&lt;2415:FANTTS&gt;2.3.CO;2"/>
+    <hyperlink ref="V16" r:id="rId12" display="https://github.com/aukkola/FluxnetLSM"/>
+    <hyperlink ref="Q17" r:id="rId13" display="https://www.gleam.eu/"/>
+    <hyperlink ref="T17" r:id="rId14" display="https://doi.org/10.5194/gmd-10-1903-2017"/>
+    <hyperlink ref="Q18" r:id="rId15" display="https://conservancy.umn.edu/handle/11299/197613"/>
+    <hyperlink ref="T18" r:id="rId16" display="https://doi.org/10.1029/2018GB005990"/>
+    <hyperlink ref="Q19" r:id="rId17" display="https://www.bafg.de/GRDC/EN/Home/homepage_node.html"/>
+    <hyperlink ref="T22" r:id="rId18" display="https://dx.doi.org/10.1038/ncomms13603"/>
+    <hyperlink ref="Q24" r:id="rId19" display="https://treenet.info/"/>
+    <hyperlink ref="T24" r:id="rId20" display="https://doi.org/10.3389/ffgc.2021.776905"/>
+    <hyperlink ref="Q25" r:id="rId21" display="https://www.ncei.noaa.gov/products/paleoclimatology"/>
+    <hyperlink ref="Q26" r:id="rId22" display="https://www.try-db.org/TryWeb/Home.php"/>
+    <hyperlink ref="T26" r:id="rId23" display="https://doi.org/10.1111/j.1365-2486.2011.02451.x"/>
+    <hyperlink ref="Q27" r:id="rId24" display="https://roots.ornl.gov/"/>
+    <hyperlink ref="T27" r:id="rId25" display="https://doi.org/10.1111/nph.14486"/>
+    <hyperlink ref="Q28" r:id="rId26" display="https://xylemfunctionaltraits.org/"/>
+    <hyperlink ref="Q29" r:id="rId27" display="https://www.idiv.de/de/splot.html"/>
+    <hyperlink ref="Q30" r:id="rId28" display="https://doi.org/10.25829/idiv.3474-40-3292"/>
+    <hyperlink ref="T30" r:id="rId29" display="https://doi.org/10.1111/geb.13346"/>
+    <hyperlink ref="Q31" r:id="rId30" display="https://lotvs.csic.es/"/>
+    <hyperlink ref="T31" r:id="rId31" display="https://www.biorxiv.org/content/10.1101/2021.09.29.462383v1.full"/>
+    <hyperlink ref="Q32" r:id="rId32" display="https://gfbinitiative.net/"/>
+    <hyperlink ref="Q33" r:id="rId33" display="http://icp-forests.net/"/>
+    <hyperlink ref="T34" r:id="rId34" display="https://doi.org/10.1016/j.srs.2020.100002"/>
+    <hyperlink ref="Q35" r:id="rId35" display="http://sapfluxnet.creaf.cat/"/>
+    <hyperlink ref="T35" r:id="rId36" display="https://doi.org/10.5194/essd-13-2607-2021"/>
+    <hyperlink ref="Q38" r:id="rId37" location="/home" display="https://data.isric.org/geonetwork/srv/eng/catalog.search#/home"/>
+    <hyperlink ref="T38" r:id="rId38" display="https://doi.org/10.5194/essd-9-1-2017"/>
+    <hyperlink ref="Q39" r:id="rId39" display="https://www.fao.org/soils-portal/data-hub/soil-maps-and-databases/harmonized-world-soil-database-v12/en/"/>
+    <hyperlink ref="Q40" r:id="rId40" display="https://soilgrids.org/"/>
+    <hyperlink ref="Q41" r:id="rId41" display="https://www.isric.org/explore/wise-databases"/>
+    <hyperlink ref="T41" r:id="rId42" display="https://doi.org/10.1016/j.geoderma.2016.01.034"/>
+    <hyperlink ref="Q42" r:id="rId43" display="http://globalchange.bnu.edu.cn/research/data"/>
+    <hyperlink ref="T42" r:id="rId44" display="http://doi.wiley.com/10.1002/2013MS000293"/>
+    <hyperlink ref="Q43" r:id="rId45" display="https://www.futurewater.eu/projects/hihydrosoil/"/>
+    <hyperlink ref="Q44" r:id="rId46" display="https://ismn.earth/en/"/>
+    <hyperlink ref="T44" r:id="rId47" display="https://doi.org/10.5194/hess-2021-2"/>
+    <hyperlink ref="Q45" r:id="rId48" display="https://doi.org/10.3334/ORNLDAAC/1827"/>
+    <hyperlink ref="T45" r:id="rId49" display="https://10.5194/bg-7-1915-2010"/>
+    <hyperlink ref="Q46" r:id="rId50" display="https://doi.pangaea.de/10.1594/PANGAEA.788537"/>
+    <hyperlink ref="T46" r:id="rId51" display="https://doi.org/10.1029/2012GC004370"/>
+    <hyperlink ref="Q47" r:id="rId52" display="https://dataverse.scholarsportal.info/dataset.xhtml"/>
+    <hyperlink ref="T47" r:id="rId53" display="https://doi.org/10.1002/2017GL075860"/>
+    <hyperlink ref="Q48" r:id="rId54" display="https://biotime.st-andrews.ac.uk/"/>
+    <hyperlink ref="T48" r:id="rId55" display="https://doi.org/10.1111/geb.12729"/>
+    <hyperlink ref="Q50" r:id="rId56" display="https://compadre-db.org/"/>
+    <hyperlink ref="T50" r:id="rId57" display="https://doi.org/10.1111/1365-2745.12334"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -4329,22 +4423,22 @@
       <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.35546875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.37109375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>368</v>
+        <v>380</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>369</v>
+        <v>381</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>370</v>
+        <v>382</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>371</v>
+        <v>383</v>
       </c>
     </row>
   </sheetData>
@@ -4353,8 +4447,8 @@
     <hyperlink ref="C3" r:id="rId2" display="https://cran.r-project.org/web/packages/ProfoundData/vignettes/PROFOUNDdatabase.html"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>

--- a/ExternalDataSources.xlsx
+++ b/ExternalDataSources.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="395">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -1608,6 +1608,39 @@
   </si>
   <si>
     <t xml:space="preserve">https://doi.org/10.1002/2017GL075860</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PaleoFire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SedimentaryDatabase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Global Paleofire Database</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The aim of the Global Paleofire Database (GPD) is to provide the scientific community with a global paleofire dataset for research and archiving sedimentary records of fire.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15/09/2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50 kyr bp – present</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.paleofire.org/index.php</t>
+  </si>
+  <si>
+    <t xml:space="preserve">charcoal records</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1016/j.cageo.2014.07.020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blarquez et al. 2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">paleofire</t>
   </si>
   <si>
     <t xml:space="preserve">BioTIME</t>
@@ -1952,7 +1985,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2018,6 +2051,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2099,13 +2136,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V51"/>
+  <dimension ref="A1:V52"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O6" activeCellId="0" sqref="O6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="5" ySplit="1" topLeftCell="G23" activePane="bottomRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topRight" activeCell="G1" activeCellId="0" sqref="G1"/>
+      <selection pane="bottomLeft" activeCell="B23" activeCellId="0" sqref="B23"/>
+      <selection pane="bottomRight" activeCell="A48" activeCellId="0" sqref="A48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.37109375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.3828125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="25.28"/>
@@ -4164,17 +4205,20 @@
         <v>348</v>
       </c>
       <c r="B48" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="C48" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="D48" s="1" t="s">
         <v>350</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>348</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>351</v>
       </c>
+      <c r="F48" s="1" t="s">
+        <v>352</v>
+      </c>
       <c r="G48" s="2" t="s">
         <v>51</v>
       </c>
@@ -4184,50 +4228,44 @@
       <c r="I48" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="J48" s="2" t="s">
-        <v>216</v>
-      </c>
       <c r="K48" s="3" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="L48" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="M48" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="N48" s="4" t="s">
-        <v>353</v>
+        <v>84</v>
       </c>
       <c r="Q48" s="11" t="s">
         <v>354</v>
       </c>
       <c r="R48" s="11"/>
       <c r="S48" s="0" t="s">
-        <v>218</v>
-      </c>
-      <c r="T48" s="11" t="s">
         <v>355</v>
       </c>
+      <c r="T48" s="17" t="s">
+        <v>356</v>
+      </c>
       <c r="U48" s="0" t="s">
-        <v>356</v>
+        <v>357</v>
+      </c>
+      <c r="V48" s="0" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>349</v>
+        <v>360</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="G49" s="2" t="s">
         <v>51</v>
@@ -4238,31 +4276,50 @@
       <c r="I49" s="2" t="s">
         <v>107</v>
       </c>
+      <c r="J49" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="K49" s="3" t="s">
+        <v>363</v>
+      </c>
       <c r="L49" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q49" s="0" t="s">
-        <v>360</v>
-      </c>
-      <c r="V49" s="0" t="s">
-        <v>361</v>
+        <v>28</v>
+      </c>
+      <c r="M49" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="N49" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="Q49" s="11" t="s">
+        <v>365</v>
+      </c>
+      <c r="R49" s="11"/>
+      <c r="S49" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="T49" s="11" t="s">
+        <v>366</v>
+      </c>
+      <c r="U49" s="0" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>349</v>
+        <v>360</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="G50" s="2" t="s">
         <v>51</v>
@@ -4274,48 +4331,33 @@
         <v>107</v>
       </c>
       <c r="L50" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="M50" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="N50" s="4" t="s">
-        <v>353</v>
-      </c>
-      <c r="Q50" s="11" t="s">
-        <v>366</v>
-      </c>
-      <c r="S50" s="0" t="s">
-        <v>367</v>
-      </c>
-      <c r="T50" s="11" t="s">
-        <v>368</v>
-      </c>
-      <c r="U50" s="0" t="s">
-        <v>369</v>
+        <v>84</v>
+      </c>
+      <c r="Q50" s="0" t="s">
+        <v>371</v>
       </c>
       <c r="V50" s="0" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>349</v>
+        <v>360</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>375</v>
+        <v>51</v>
       </c>
       <c r="H51" s="2" t="s">
         <v>28</v>
@@ -4327,19 +4369,69 @@
         <v>28</v>
       </c>
       <c r="M51" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="N51" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="Q51" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="S51" s="0" t="s">
+        <v>378</v>
+      </c>
+      <c r="T51" s="11" t="s">
+        <v>379</v>
+      </c>
+      <c r="U51" s="0" t="s">
+        <v>380</v>
+      </c>
+      <c r="V51" s="0" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="s">
+        <v>382</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="L52" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M52" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="Q51" s="0" t="s">
-        <v>376</v>
-      </c>
-      <c r="S51" s="0" t="s">
-        <v>377</v>
-      </c>
-      <c r="T51" s="0" t="s">
-        <v>378</v>
-      </c>
-      <c r="U51" s="0" t="s">
-        <v>379</v>
+      <c r="Q52" s="0" t="s">
+        <v>387</v>
+      </c>
+      <c r="S52" s="0" t="s">
+        <v>388</v>
+      </c>
+      <c r="T52" s="0" t="s">
+        <v>389</v>
+      </c>
+      <c r="U52" s="0" t="s">
+        <v>390</v>
       </c>
     </row>
   </sheetData>
@@ -4397,10 +4489,11 @@
     <hyperlink ref="T46" r:id="rId51" display="https://doi.org/10.1029/2012GC004370"/>
     <hyperlink ref="Q47" r:id="rId52" display="https://dataverse.scholarsportal.info/dataset.xhtml"/>
     <hyperlink ref="T47" r:id="rId53" display="https://doi.org/10.1002/2017GL075860"/>
-    <hyperlink ref="Q48" r:id="rId54" display="https://biotime.st-andrews.ac.uk/"/>
-    <hyperlink ref="T48" r:id="rId55" display="https://doi.org/10.1111/geb.12729"/>
-    <hyperlink ref="Q50" r:id="rId56" display="https://compadre-db.org/"/>
-    <hyperlink ref="T50" r:id="rId57" display="https://doi.org/10.1111/1365-2745.12334"/>
+    <hyperlink ref="T48" r:id="rId54" display="https://doi.org/10.1016/j.cageo.2014.07.020"/>
+    <hyperlink ref="Q49" r:id="rId55" display="https://biotime.st-andrews.ac.uk/"/>
+    <hyperlink ref="T49" r:id="rId56" display="https://doi.org/10.1111/geb.12729"/>
+    <hyperlink ref="Q51" r:id="rId57" display="https://compadre-db.org/"/>
+    <hyperlink ref="T51" r:id="rId58" display="https://doi.org/10.1111/1365-2745.12334"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -4423,22 +4516,22 @@
       <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.37109375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.3828125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>380</v>
+        <v>391</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>381</v>
+        <v>392</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>382</v>
+        <v>393</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>383</v>
+        <v>394</v>
       </c>
     </row>
   </sheetData>

--- a/ExternalDataSources.xlsx
+++ b/ExternalDataSources.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="403">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -1065,6 +1065,30 @@
   </si>
   <si>
     <t xml:space="preserve">phenocamr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BioclimaticDatabase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ClimPlant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Realized climatic niches of vascular plants in European forest understoreys</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 arc-min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1970-2000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://figshare.com/articles/dataset/ClimPlant_realized_climatic_niches_of_vascular_plants_in_European_forest_understoreys/12199628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1111/geb.13303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vangansbeke P, Máliš F, Hédl R, et al. ClimPlant: Realized climatic niches of vascular plants in European forest understoreys. Global Ecol Biogeogr. 2021;30:1183–1190</t>
   </si>
   <si>
     <t xml:space="preserve">WoSIS</t>
@@ -2054,7 +2078,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2136,17 +2160,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V52"/>
+  <dimension ref="A1:V53"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="G23" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="T14" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="topRight" activeCell="G1" activeCellId="0" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="B23" activeCellId="0" sqref="B23"/>
-      <selection pane="bottomRight" activeCell="A48" activeCellId="0" sqref="A48"/>
+      <selection pane="topRight" activeCell="T1" activeCellId="0" sqref="T1"/>
+      <selection pane="bottomLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
+      <selection pane="bottomRight" activeCell="T39" activeCellId="0" sqref="T39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.3828125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.390625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="25.28"/>
@@ -3787,59 +3811,71 @@
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
+      <c r="B38" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="D38" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="E38" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="G38" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J38" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="E38" s="1" t="s">
+      <c r="K38" s="3" t="s">
         <v>280</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="H38" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I38" s="2" t="s">
-        <v>107</v>
       </c>
       <c r="L38" s="3" t="s">
         <v>84</v>
       </c>
+      <c r="N38" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="O38" s="0" t="s">
+        <v>147</v>
+      </c>
       <c r="Q38" s="11" t="s">
         <v>281</v>
       </c>
-      <c r="R38" s="11"/>
-      <c r="T38" s="11" t="s">
+      <c r="R38" s="17" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="T38" s="15" t="s">
         <v>282</v>
       </c>
       <c r="U38" s="0" t="s">
         <v>283</v>
       </c>
+      <c r="V38" s="16"/>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
         <v>284</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="G39" s="2" t="s">
         <v>51</v>
@@ -3848,31 +3884,37 @@
         <v>28</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>29</v>
+        <v>107</v>
       </c>
       <c r="L39" s="3" t="s">
         <v>84</v>
       </c>
       <c r="Q39" s="11" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="R39" s="11"/>
+      <c r="T39" s="11" t="s">
+        <v>290</v>
+      </c>
+      <c r="U39" s="0" t="s">
+        <v>291</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="G40" s="2" t="s">
         <v>51</v>
@@ -3883,35 +3925,29 @@
       <c r="I40" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="J40" s="2" t="s">
-        <v>291</v>
-      </c>
       <c r="L40" s="3" t="s">
         <v>84</v>
       </c>
       <c r="Q40" s="11" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="R40" s="11"/>
-      <c r="V40" s="0" t="s">
-        <v>293</v>
-      </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="G41" s="2" t="s">
         <v>51</v>
@@ -3923,38 +3959,35 @@
         <v>29</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="L41" s="3" t="s">
         <v>84</v>
       </c>
       <c r="Q41" s="11" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="R41" s="11"/>
-      <c r="S41" s="0" t="s">
-        <v>298</v>
-      </c>
-      <c r="T41" s="11" t="s">
-        <v>299</v>
-      </c>
-      <c r="U41" s="0" t="s">
-        <v>300</v>
+      <c r="V41" s="0" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>302</v>
       </c>
+      <c r="E42" s="1" t="s">
+        <v>303</v>
+      </c>
       <c r="G42" s="2" t="s">
         <v>51</v>
       </c>
@@ -3965,40 +3998,37 @@
         <v>29</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="L42" s="3" t="s">
         <v>84</v>
       </c>
       <c r="Q42" s="11" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="R42" s="11"/>
       <c r="S42" s="0" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="T42" s="11" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="U42" s="0" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>308</v>
+        <v>293</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="G43" s="2" t="s">
         <v>51</v>
@@ -4010,37 +4040,40 @@
         <v>29</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>52</v>
+        <v>304</v>
       </c>
       <c r="L43" s="3" t="s">
         <v>84</v>
       </c>
       <c r="Q43" s="11" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="R43" s="11"/>
+      <c r="S43" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="T43" s="11" t="s">
+        <v>313</v>
+      </c>
       <c r="U43" s="0" t="s">
-        <v>311</v>
-      </c>
-      <c r="V43" s="0" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>315</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="G44" s="2" t="s">
         <v>51</v>
@@ -4049,22 +4082,22 @@
         <v>28</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>107</v>
+        <v>29</v>
+      </c>
+      <c r="J44" s="2" t="s">
+        <v>52</v>
       </c>
       <c r="L44" s="3" t="s">
         <v>84</v>
       </c>
       <c r="Q44" s="11" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="R44" s="11"/>
-      <c r="S44" s="0" t="s">
-        <v>318</v>
-      </c>
-      <c r="T44" s="11" t="s">
+      <c r="U44" s="0" t="s">
         <v>319</v>
       </c>
-      <c r="U44" s="0" t="s">
+      <c r="V44" s="0" t="s">
         <v>320</v>
       </c>
     </row>
@@ -4073,7 +4106,7 @@
         <v>321</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>322</v>
@@ -4093,46 +4126,38 @@
       <c r="I45" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="K45" s="3" t="s">
+      <c r="L45" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q45" s="11" t="s">
         <v>325</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="M45" s="3" t="s">
+      <c r="R45" s="11"/>
+      <c r="S45" s="0" t="s">
         <v>326</v>
       </c>
-      <c r="Q45" s="11" t="s">
+      <c r="T45" s="11" t="s">
         <v>327</v>
       </c>
-      <c r="R45" s="0" t="s">
+      <c r="U45" s="0" t="s">
         <v>328</v>
-      </c>
-      <c r="S45" s="0" t="s">
-        <v>329</v>
-      </c>
-      <c r="T45" s="11" t="s">
-        <v>330</v>
-      </c>
-      <c r="U45" s="0" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
+        <v>329</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="E46" s="1" t="s">
         <v>332</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>336</v>
       </c>
       <c r="G46" s="2" t="s">
         <v>51</v>
@@ -4141,15 +4166,26 @@
         <v>28</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>157</v>
+        <v>107</v>
+      </c>
+      <c r="K46" s="3" t="s">
+        <v>333</v>
       </c>
       <c r="L46" s="3" t="s">
-        <v>84</v>
+        <v>28</v>
+      </c>
+      <c r="M46" s="3" t="s">
+        <v>334</v>
       </c>
       <c r="Q46" s="11" t="s">
+        <v>335</v>
+      </c>
+      <c r="R46" s="0" t="s">
+        <v>336</v>
+      </c>
+      <c r="S46" s="0" t="s">
         <v>337</v>
       </c>
-      <c r="R46" s="11"/>
       <c r="T46" s="11" t="s">
         <v>338</v>
       </c>
@@ -4162,16 +4198,16 @@
         <v>340</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="G47" s="2" t="s">
         <v>51</v>
@@ -4182,9 +4218,6 @@
       <c r="I47" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="J47" s="2" t="s">
-        <v>344</v>
-      </c>
       <c r="L47" s="3" t="s">
         <v>84</v>
       </c>
@@ -4192,20 +4225,19 @@
         <v>345</v>
       </c>
       <c r="R47" s="11"/>
-      <c r="S47" s="0" t="s">
+      <c r="T47" s="11" t="s">
         <v>346</v>
       </c>
-      <c r="T47" s="11" t="s">
+      <c r="U47" s="0" t="s">
         <v>347</v>
       </c>
-      <c r="U47" s="11"/>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
         <v>348</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>349</v>
@@ -4216,9 +4248,6 @@
       <c r="E48" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="F48" s="1" t="s">
-        <v>352</v>
-      </c>
       <c r="G48" s="2" t="s">
         <v>51</v>
       </c>
@@ -4226,46 +4255,44 @@
         <v>28</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="K48" s="3" t="s">
-        <v>353</v>
+        <v>157</v>
+      </c>
+      <c r="J48" s="2" t="s">
+        <v>352</v>
       </c>
       <c r="L48" s="3" t="s">
         <v>84</v>
       </c>
       <c r="Q48" s="11" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="R48" s="11"/>
       <c r="S48" s="0" t="s">
+        <v>354</v>
+      </c>
+      <c r="T48" s="11" t="s">
         <v>355</v>
       </c>
-      <c r="T48" s="17" t="s">
-        <v>356</v>
-      </c>
-      <c r="U48" s="0" t="s">
-        <v>357</v>
-      </c>
-      <c r="V48" s="0" t="s">
-        <v>358</v>
-      </c>
+      <c r="U48" s="11"/>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
+        <v>356</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="E49" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="F49" s="1" t="s">
         <v>360</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>362</v>
       </c>
       <c r="G49" s="2" t="s">
         <v>51</v>
@@ -4276,47 +4303,41 @@
       <c r="I49" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="J49" s="2" t="s">
-        <v>216</v>
-      </c>
       <c r="K49" s="3" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="L49" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="M49" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="N49" s="4" t="s">
-        <v>364</v>
+        <v>84</v>
       </c>
       <c r="Q49" s="11" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="R49" s="11"/>
       <c r="S49" s="0" t="s">
-        <v>218</v>
-      </c>
-      <c r="T49" s="11" t="s">
+        <v>363</v>
+      </c>
+      <c r="T49" s="15" t="s">
+        <v>364</v>
+      </c>
+      <c r="U49" s="0" t="s">
+        <v>365</v>
+      </c>
+      <c r="V49" s="0" t="s">
         <v>366</v>
-      </c>
-      <c r="U49" s="0" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
+        <v>367</v>
+      </c>
+      <c r="B50" s="1" t="s">
         <v>368</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>360</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>369</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>370</v>
@@ -4330,31 +4351,50 @@
       <c r="I50" s="2" t="s">
         <v>107</v>
       </c>
+      <c r="J50" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="K50" s="3" t="s">
+        <v>371</v>
+      </c>
       <c r="L50" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q50" s="0" t="s">
-        <v>371</v>
-      </c>
-      <c r="V50" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="M50" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="N50" s="4" t="s">
         <v>372</v>
+      </c>
+      <c r="Q50" s="11" t="s">
+        <v>373</v>
+      </c>
+      <c r="R50" s="11"/>
+      <c r="S50" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="T50" s="11" t="s">
+        <v>374</v>
+      </c>
+      <c r="U50" s="0" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="G51" s="2" t="s">
         <v>51</v>
@@ -4366,48 +4406,33 @@
         <v>107</v>
       </c>
       <c r="L51" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="M51" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="N51" s="4" t="s">
-        <v>364</v>
-      </c>
-      <c r="Q51" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="S51" s="0" t="s">
-        <v>378</v>
-      </c>
-      <c r="T51" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q51" s="0" t="s">
         <v>379</v>
       </c>
-      <c r="U51" s="0" t="s">
+      <c r="V51" s="0" t="s">
         <v>380</v>
-      </c>
-      <c r="V51" s="0" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
+        <v>381</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="C52" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="B52" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="C52" s="1" t="s">
+      <c r="D52" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="D52" s="1" t="s">
+      <c r="E52" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="E52" s="1" t="s">
-        <v>385</v>
-      </c>
       <c r="G52" s="2" t="s">
-        <v>386</v>
+        <v>51</v>
       </c>
       <c r="H52" s="2" t="s">
         <v>28</v>
@@ -4419,19 +4444,69 @@
         <v>28</v>
       </c>
       <c r="M52" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="N52" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="Q52" s="11" t="s">
+        <v>385</v>
+      </c>
+      <c r="S52" s="0" t="s">
+        <v>386</v>
+      </c>
+      <c r="T52" s="11" t="s">
+        <v>387</v>
+      </c>
+      <c r="U52" s="0" t="s">
+        <v>388</v>
+      </c>
+      <c r="V52" s="0" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0" t="s">
+        <v>390</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="L53" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M53" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="Q52" s="0" t="s">
-        <v>387</v>
-      </c>
-      <c r="S52" s="0" t="s">
-        <v>388</v>
-      </c>
-      <c r="T52" s="0" t="s">
-        <v>389</v>
-      </c>
-      <c r="U52" s="0" t="s">
-        <v>390</v>
+      <c r="Q53" s="0" t="s">
+        <v>395</v>
+      </c>
+      <c r="S53" s="0" t="s">
+        <v>396</v>
+      </c>
+      <c r="T53" s="0" t="s">
+        <v>397</v>
+      </c>
+      <c r="U53" s="0" t="s">
+        <v>398</v>
       </c>
     </row>
   </sheetData>
@@ -4472,28 +4547,28 @@
     <hyperlink ref="T34" r:id="rId34" display="https://doi.org/10.1016/j.srs.2020.100002"/>
     <hyperlink ref="Q35" r:id="rId35" display="http://sapfluxnet.creaf.cat/"/>
     <hyperlink ref="T35" r:id="rId36" display="https://doi.org/10.5194/essd-13-2607-2021"/>
-    <hyperlink ref="Q38" r:id="rId37" location="/home" display="https://data.isric.org/geonetwork/srv/eng/catalog.search#/home"/>
-    <hyperlink ref="T38" r:id="rId38" display="https://doi.org/10.5194/essd-9-1-2017"/>
-    <hyperlink ref="Q39" r:id="rId39" display="https://www.fao.org/soils-portal/data-hub/soil-maps-and-databases/harmonized-world-soil-database-v12/en/"/>
-    <hyperlink ref="Q40" r:id="rId40" display="https://soilgrids.org/"/>
-    <hyperlink ref="Q41" r:id="rId41" display="https://www.isric.org/explore/wise-databases"/>
-    <hyperlink ref="T41" r:id="rId42" display="https://doi.org/10.1016/j.geoderma.2016.01.034"/>
-    <hyperlink ref="Q42" r:id="rId43" display="http://globalchange.bnu.edu.cn/research/data"/>
-    <hyperlink ref="T42" r:id="rId44" display="http://doi.wiley.com/10.1002/2013MS000293"/>
-    <hyperlink ref="Q43" r:id="rId45" display="https://www.futurewater.eu/projects/hihydrosoil/"/>
-    <hyperlink ref="Q44" r:id="rId46" display="https://ismn.earth/en/"/>
-    <hyperlink ref="T44" r:id="rId47" display="https://doi.org/10.5194/hess-2021-2"/>
-    <hyperlink ref="Q45" r:id="rId48" display="https://doi.org/10.3334/ORNLDAAC/1827"/>
-    <hyperlink ref="T45" r:id="rId49" display="https://10.5194/bg-7-1915-2010"/>
-    <hyperlink ref="Q46" r:id="rId50" display="https://doi.pangaea.de/10.1594/PANGAEA.788537"/>
-    <hyperlink ref="T46" r:id="rId51" display="https://doi.org/10.1029/2012GC004370"/>
-    <hyperlink ref="Q47" r:id="rId52" display="https://dataverse.scholarsportal.info/dataset.xhtml"/>
-    <hyperlink ref="T47" r:id="rId53" display="https://doi.org/10.1002/2017GL075860"/>
-    <hyperlink ref="T48" r:id="rId54" display="https://doi.org/10.1016/j.cageo.2014.07.020"/>
-    <hyperlink ref="Q49" r:id="rId55" display="https://biotime.st-andrews.ac.uk/"/>
-    <hyperlink ref="T49" r:id="rId56" display="https://doi.org/10.1111/geb.12729"/>
-    <hyperlink ref="Q51" r:id="rId57" display="https://compadre-db.org/"/>
-    <hyperlink ref="T51" r:id="rId58" display="https://doi.org/10.1111/1365-2745.12334"/>
+    <hyperlink ref="Q39" r:id="rId37" location="/home" display="https://data.isric.org/geonetwork/srv/eng/catalog.search#/home"/>
+    <hyperlink ref="T39" r:id="rId38" display="https://doi.org/10.5194/essd-9-1-2017"/>
+    <hyperlink ref="Q40" r:id="rId39" display="https://www.fao.org/soils-portal/data-hub/soil-maps-and-databases/harmonized-world-soil-database-v12/en/"/>
+    <hyperlink ref="Q41" r:id="rId40" display="https://soilgrids.org/"/>
+    <hyperlink ref="Q42" r:id="rId41" display="https://www.isric.org/explore/wise-databases"/>
+    <hyperlink ref="T42" r:id="rId42" display="https://doi.org/10.1016/j.geoderma.2016.01.034"/>
+    <hyperlink ref="Q43" r:id="rId43" display="http://globalchange.bnu.edu.cn/research/data"/>
+    <hyperlink ref="T43" r:id="rId44" display="http://doi.wiley.com/10.1002/2013MS000293"/>
+    <hyperlink ref="Q44" r:id="rId45" display="https://www.futurewater.eu/projects/hihydrosoil/"/>
+    <hyperlink ref="Q45" r:id="rId46" display="https://ismn.earth/en/"/>
+    <hyperlink ref="T45" r:id="rId47" display="https://doi.org/10.5194/hess-2021-2"/>
+    <hyperlink ref="Q46" r:id="rId48" display="https://doi.org/10.3334/ORNLDAAC/1827"/>
+    <hyperlink ref="T46" r:id="rId49" display="https://10.5194/bg-7-1915-2010"/>
+    <hyperlink ref="Q47" r:id="rId50" display="https://doi.pangaea.de/10.1594/PANGAEA.788537"/>
+    <hyperlink ref="T47" r:id="rId51" display="https://doi.org/10.1029/2012GC004370"/>
+    <hyperlink ref="Q48" r:id="rId52" display="https://dataverse.scholarsportal.info/dataset.xhtml"/>
+    <hyperlink ref="T48" r:id="rId53" display="https://doi.org/10.1002/2017GL075860"/>
+    <hyperlink ref="T49" r:id="rId54" display="https://doi.org/10.1016/j.cageo.2014.07.020"/>
+    <hyperlink ref="Q50" r:id="rId55" display="https://biotime.st-andrews.ac.uk/"/>
+    <hyperlink ref="T50" r:id="rId56" display="https://doi.org/10.1111/geb.12729"/>
+    <hyperlink ref="Q52" r:id="rId57" display="https://compadre-db.org/"/>
+    <hyperlink ref="T52" r:id="rId58" display="https://doi.org/10.1111/1365-2745.12334"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -4516,22 +4591,22 @@
       <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.3828125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>392</v>
+        <v>400</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>393</v>
+        <v>401</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>394</v>
+        <v>402</v>
       </c>
     </row>
   </sheetData>

--- a/ExternalDataSources.xlsx
+++ b/ExternalDataSources.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="414">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -918,6 +918,39 @@
   </si>
   <si>
     <t xml:space="preserve">Dubayah, R., J. B. Blair, S. Goetz, L. Fatoyinbo, M. Hansen, S. Healey, M. Hofton, G. Hurtt, J. Kellner, S. Luthcke, J. Armston, H. Tang, L. Duncanson, S. Hancock, P. Jantz, S. Marselis, P. L. Patterson, W. Qi, and C. Silva. 2020. The Global Ecosystem Dynamics Investigation: High-resolution laser ranging of the Earth’s forests and topography. Science of Remote Sensing 1:100002.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Forest Inventory and Analysis (FIA)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The FIA program delivers current, consistent, and credible information about the status of the United States’ forests.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19/04/2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">United States</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6000 acres</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1930-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 years</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.fia.fs.usda.gov/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Forest structure and composition, soil characteristics, forest health</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LaBau, V. J. 2007. A history of the forest survey in the United States: 1830–2004. – U.S. Dept of Agriculture, Forest Service. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FIESTA</t>
   </si>
   <si>
     <t xml:space="preserve">SAPFLUXNET</t>
@@ -2160,17 +2193,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V53"/>
+  <dimension ref="A1:V54"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="T14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="R2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="topRight" activeCell="T1" activeCellId="0" sqref="T1"/>
-      <selection pane="bottomLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
-      <selection pane="bottomRight" activeCell="T39" activeCellId="0" sqref="T39"/>
+      <selection pane="topRight" activeCell="R1" activeCellId="0" sqref="R1"/>
+      <selection pane="bottomLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="S35" activeCellId="0" sqref="S35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.390625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.40625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="25.28"/>
@@ -3669,71 +3702,78 @@
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
-        <v>251</v>
-      </c>
       <c r="B35" s="1" t="s">
-        <v>197</v>
+        <v>180</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>251</v>
       </c>
       <c r="E35" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="F35" s="12" t="s">
         <v>253</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>51</v>
+        <v>254</v>
       </c>
       <c r="H35" s="2" t="s">
         <v>28</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>107</v>
+        <v>29</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="K35" s="3" t="s">
+        <v>256</v>
       </c>
       <c r="L35" s="3" t="s">
         <v>28</v>
       </c>
       <c r="M35" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="P35" s="0" t="s">
-        <v>101</v>
+        <v>257</v>
+      </c>
+      <c r="N35" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="O35" s="0" t="s">
+        <v>147</v>
       </c>
       <c r="Q35" s="11" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="R35" s="11"/>
       <c r="S35" s="0" t="s">
-        <v>256</v>
-      </c>
-      <c r="T35" s="11" t="s">
-        <v>257</v>
-      </c>
+        <v>259</v>
+      </c>
+      <c r="T35" s="15"/>
       <c r="U35" s="0" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="V35" s="0" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>197</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="G36" s="2" t="s">
         <v>51</v>
@@ -3742,35 +3782,49 @@
         <v>28</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J36" s="2" t="s">
-        <v>263</v>
+        <v>107</v>
       </c>
       <c r="L36" s="3" t="s">
-        <v>84</v>
+        <v>28</v>
+      </c>
+      <c r="M36" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="P36" s="0" t="s">
+        <v>101</v>
       </c>
       <c r="Q36" s="11" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="R36" s="11"/>
-      <c r="T36" s="11"/>
+      <c r="S36" s="0" t="s">
+        <v>267</v>
+      </c>
+      <c r="T36" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="U36" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="V36" s="0" t="s">
+        <v>270</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="G37" s="2" t="s">
         <v>51</v>
@@ -3779,142 +3833,140 @@
         <v>28</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="K37" s="3" t="s">
-        <v>269</v>
+        <v>29</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>274</v>
       </c>
       <c r="L37" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="M37" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="N37" s="4" t="s">
-        <v>270</v>
+        <v>84</v>
       </c>
       <c r="Q37" s="11" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="R37" s="11"/>
-      <c r="S37" s="0" t="s">
-        <v>272</v>
-      </c>
-      <c r="T37" s="15" t="s">
-        <v>273</v>
-      </c>
-      <c r="U37" s="0" t="s">
-        <v>274</v>
-      </c>
-      <c r="V37" s="16" t="s">
-        <v>275</v>
-      </c>
+      <c r="T37" s="11"/>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
+        <v>276</v>
+      </c>
       <c r="B38" s="1" t="s">
         <v>180</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>93</v>
+        <v>51</v>
       </c>
       <c r="H38" s="2" t="s">
         <v>28</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J38" s="2" t="s">
-        <v>279</v>
+        <v>107</v>
       </c>
       <c r="K38" s="3" t="s">
         <v>280</v>
       </c>
       <c r="L38" s="3" t="s">
-        <v>84</v>
+        <v>28</v>
+      </c>
+      <c r="M38" s="3" t="s">
+        <v>78</v>
       </c>
       <c r="N38" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="O38" s="0" t="s">
-        <v>147</v>
+        <v>281</v>
       </c>
       <c r="Q38" s="11" t="s">
-        <v>281</v>
-      </c>
-      <c r="R38" s="17" t="n">
-        <v>1.2</v>
+        <v>282</v>
+      </c>
+      <c r="R38" s="11"/>
+      <c r="S38" s="0" t="s">
+        <v>283</v>
       </c>
       <c r="T38" s="15" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="U38" s="0" t="s">
-        <v>283</v>
-      </c>
-      <c r="V38" s="16"/>
+        <v>285</v>
+      </c>
+      <c r="V38" s="16" t="s">
+        <v>286</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
-        <v>284</v>
-      </c>
       <c r="B39" s="1" t="s">
-        <v>285</v>
+        <v>180</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>51</v>
+        <v>93</v>
       </c>
       <c r="H39" s="2" t="s">
         <v>28</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>107</v>
+        <v>29</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="K39" s="3" t="s">
+        <v>291</v>
       </c>
       <c r="L39" s="3" t="s">
         <v>84</v>
       </c>
+      <c r="N39" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="O39" s="0" t="s">
+        <v>147</v>
+      </c>
       <c r="Q39" s="11" t="s">
-        <v>289</v>
-      </c>
-      <c r="R39" s="11"/>
-      <c r="T39" s="11" t="s">
-        <v>290</v>
+        <v>292</v>
+      </c>
+      <c r="R39" s="17" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="T39" s="15" t="s">
+        <v>293</v>
       </c>
       <c r="U39" s="0" t="s">
-        <v>291</v>
-      </c>
+        <v>294</v>
+      </c>
+      <c r="V39" s="16"/>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>285</v>
+        <v>296</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="G40" s="2" t="s">
         <v>51</v>
@@ -3923,31 +3975,37 @@
         <v>28</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>29</v>
+        <v>107</v>
       </c>
       <c r="L40" s="3" t="s">
         <v>84</v>
       </c>
       <c r="Q40" s="11" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="R40" s="11"/>
+      <c r="T40" s="11" t="s">
+        <v>301</v>
+      </c>
+      <c r="U40" s="0" t="s">
+        <v>302</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>285</v>
+        <v>296</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>293</v>
+        <v>304</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="G41" s="2" t="s">
         <v>51</v>
@@ -3958,35 +4016,29 @@
       <c r="I41" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="J41" s="2" t="s">
-        <v>299</v>
-      </c>
       <c r="L41" s="3" t="s">
         <v>84</v>
       </c>
       <c r="Q41" s="11" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="R41" s="11"/>
-      <c r="V41" s="0" t="s">
-        <v>301</v>
-      </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>285</v>
+        <v>296</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>293</v>
+        <v>304</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="G42" s="2" t="s">
         <v>51</v>
@@ -3998,37 +4050,34 @@
         <v>29</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="L42" s="3" t="s">
         <v>84</v>
       </c>
       <c r="Q42" s="11" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="R42" s="11"/>
-      <c r="S42" s="0" t="s">
-        <v>306</v>
-      </c>
-      <c r="T42" s="11" t="s">
-        <v>307</v>
-      </c>
-      <c r="U42" s="0" t="s">
-        <v>308</v>
+      <c r="V42" s="0" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>285</v>
+        <v>296</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>293</v>
+        <v>304</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>310</v>
+        <v>313</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>314</v>
       </c>
       <c r="G43" s="2" t="s">
         <v>51</v>
@@ -4040,40 +4089,37 @@
         <v>29</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>304</v>
+        <v>315</v>
       </c>
       <c r="L43" s="3" t="s">
         <v>84</v>
       </c>
       <c r="Q43" s="11" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="R43" s="11"/>
       <c r="S43" s="0" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="T43" s="11" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="U43" s="0" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>285</v>
+        <v>296</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="G44" s="2" t="s">
         <v>51</v>
@@ -4085,37 +4131,40 @@
         <v>29</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>52</v>
+        <v>315</v>
       </c>
       <c r="L44" s="3" t="s">
         <v>84</v>
       </c>
       <c r="Q44" s="11" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="R44" s="11"/>
+      <c r="S44" s="0" t="s">
+        <v>323</v>
+      </c>
+      <c r="T44" s="11" t="s">
+        <v>324</v>
+      </c>
       <c r="U44" s="0" t="s">
-        <v>319</v>
-      </c>
-      <c r="V44" s="0" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>285</v>
+        <v>296</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="G45" s="2" t="s">
         <v>51</v>
@@ -4124,40 +4173,40 @@
         <v>28</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>107</v>
+        <v>29</v>
+      </c>
+      <c r="J45" s="2" t="s">
+        <v>52</v>
       </c>
       <c r="L45" s="3" t="s">
         <v>84</v>
       </c>
       <c r="Q45" s="11" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="R45" s="11"/>
-      <c r="S45" s="0" t="s">
-        <v>326</v>
-      </c>
-      <c r="T45" s="11" t="s">
-        <v>327</v>
-      </c>
       <c r="U45" s="0" t="s">
-        <v>328</v>
+        <v>330</v>
+      </c>
+      <c r="V45" s="0" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>285</v>
+        <v>296</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="G46" s="2" t="s">
         <v>51</v>
@@ -4168,21 +4217,13 @@
       <c r="I46" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>333</v>
-      </c>
       <c r="L46" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="M46" s="3" t="s">
-        <v>334</v>
+        <v>84</v>
       </c>
       <c r="Q46" s="11" t="s">
-        <v>335</v>
-      </c>
-      <c r="R46" s="0" t="s">
         <v>336</v>
       </c>
+      <c r="R46" s="11"/>
       <c r="S46" s="0" t="s">
         <v>337</v>
       </c>
@@ -4198,16 +4239,16 @@
         <v>340</v>
       </c>
       <c r="B47" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C47" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="D47" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="E47" s="1" t="s">
         <v>343</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>344</v>
       </c>
       <c r="G47" s="2" t="s">
         <v>51</v>
@@ -4216,37 +4257,48 @@
         <v>28</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>157</v>
+        <v>107</v>
+      </c>
+      <c r="K47" s="3" t="s">
+        <v>344</v>
       </c>
       <c r="L47" s="3" t="s">
-        <v>84</v>
+        <v>28</v>
+      </c>
+      <c r="M47" s="3" t="s">
+        <v>345</v>
       </c>
       <c r="Q47" s="11" t="s">
-        <v>345</v>
-      </c>
-      <c r="R47" s="11"/>
+        <v>346</v>
+      </c>
+      <c r="R47" s="0" t="s">
+        <v>347</v>
+      </c>
+      <c r="S47" s="0" t="s">
+        <v>348</v>
+      </c>
       <c r="T47" s="11" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="U47" s="0" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>341</v>
+        <v>352</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="G48" s="2" t="s">
         <v>51</v>
@@ -4257,42 +4309,35 @@
       <c r="I48" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="J48" s="2" t="s">
-        <v>352</v>
-      </c>
       <c r="L48" s="3" t="s">
         <v>84</v>
       </c>
       <c r="Q48" s="11" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="R48" s="11"/>
-      <c r="S48" s="0" t="s">
-        <v>354</v>
-      </c>
       <c r="T48" s="11" t="s">
-        <v>355</v>
-      </c>
-      <c r="U48" s="11"/>
+        <v>357</v>
+      </c>
+      <c r="U48" s="0" t="s">
+        <v>358</v>
+      </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>341</v>
+        <v>352</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="G49" s="2" t="s">
         <v>51</v>
@@ -4301,47 +4346,45 @@
         <v>28</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="K49" s="3" t="s">
-        <v>361</v>
+        <v>157</v>
+      </c>
+      <c r="J49" s="2" t="s">
+        <v>363</v>
       </c>
       <c r="L49" s="3" t="s">
         <v>84</v>
       </c>
       <c r="Q49" s="11" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="R49" s="11"/>
       <c r="S49" s="0" t="s">
-        <v>363</v>
-      </c>
-      <c r="T49" s="15" t="s">
-        <v>364</v>
-      </c>
-      <c r="U49" s="0" t="s">
         <v>365</v>
       </c>
-      <c r="V49" s="0" t="s">
+      <c r="T49" s="11" t="s">
         <v>366</v>
       </c>
+      <c r="U49" s="11"/>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
         <v>367</v>
       </c>
       <c r="B50" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="C50" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="D50" s="1" t="s">
         <v>369</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>367</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>370</v>
       </c>
+      <c r="F50" s="1" t="s">
+        <v>371</v>
+      </c>
       <c r="G50" s="2" t="s">
         <v>51</v>
       </c>
@@ -4351,50 +4394,44 @@
       <c r="I50" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="J50" s="2" t="s">
-        <v>216</v>
-      </c>
       <c r="K50" s="3" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="L50" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="M50" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="N50" s="4" t="s">
-        <v>372</v>
+        <v>84</v>
       </c>
       <c r="Q50" s="11" t="s">
         <v>373</v>
       </c>
       <c r="R50" s="11"/>
       <c r="S50" s="0" t="s">
-        <v>218</v>
-      </c>
-      <c r="T50" s="11" t="s">
         <v>374</v>
       </c>
+      <c r="T50" s="15" t="s">
+        <v>375</v>
+      </c>
       <c r="U50" s="0" t="s">
-        <v>375</v>
+        <v>376</v>
+      </c>
+      <c r="V50" s="0" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>368</v>
+        <v>379</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="G51" s="2" t="s">
         <v>51</v>
@@ -4405,31 +4442,50 @@
       <c r="I51" s="2" t="s">
         <v>107</v>
       </c>
+      <c r="J51" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="K51" s="3" t="s">
+        <v>382</v>
+      </c>
       <c r="L51" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q51" s="0" t="s">
-        <v>379</v>
-      </c>
-      <c r="V51" s="0" t="s">
-        <v>380</v>
+        <v>28</v>
+      </c>
+      <c r="M51" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="N51" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="Q51" s="11" t="s">
+        <v>384</v>
+      </c>
+      <c r="R51" s="11"/>
+      <c r="S51" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="T51" s="11" t="s">
+        <v>385</v>
+      </c>
+      <c r="U51" s="0" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>368</v>
+        <v>379</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="G52" s="2" t="s">
         <v>51</v>
@@ -4441,48 +4497,33 @@
         <v>107</v>
       </c>
       <c r="L52" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="M52" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="N52" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="Q52" s="11" t="s">
-        <v>385</v>
-      </c>
-      <c r="S52" s="0" t="s">
-        <v>386</v>
-      </c>
-      <c r="T52" s="11" t="s">
-        <v>387</v>
-      </c>
-      <c r="U52" s="0" t="s">
-        <v>388</v>
+        <v>84</v>
+      </c>
+      <c r="Q52" s="0" t="s">
+        <v>390</v>
       </c>
       <c r="V52" s="0" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>368</v>
+        <v>379</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>394</v>
+        <v>51</v>
       </c>
       <c r="H53" s="2" t="s">
         <v>28</v>
@@ -4494,19 +4535,69 @@
         <v>28</v>
       </c>
       <c r="M53" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="N53" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="Q53" s="11" t="s">
+        <v>396</v>
+      </c>
+      <c r="S53" s="0" t="s">
+        <v>397</v>
+      </c>
+      <c r="T53" s="11" t="s">
+        <v>398</v>
+      </c>
+      <c r="U53" s="0" t="s">
+        <v>399</v>
+      </c>
+      <c r="V53" s="0" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="0" t="s">
+        <v>401</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I54" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="L54" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M54" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="Q53" s="0" t="s">
-        <v>395</v>
-      </c>
-      <c r="S53" s="0" t="s">
-        <v>396</v>
-      </c>
-      <c r="T53" s="0" t="s">
-        <v>397</v>
-      </c>
-      <c r="U53" s="0" t="s">
-        <v>398</v>
+      <c r="Q54" s="0" t="s">
+        <v>406</v>
+      </c>
+      <c r="S54" s="0" t="s">
+        <v>407</v>
+      </c>
+      <c r="T54" s="0" t="s">
+        <v>408</v>
+      </c>
+      <c r="U54" s="0" t="s">
+        <v>409</v>
       </c>
     </row>
   </sheetData>
@@ -4545,30 +4636,30 @@
     <hyperlink ref="Q32" r:id="rId32" display="https://gfbinitiative.net/"/>
     <hyperlink ref="Q33" r:id="rId33" display="http://icp-forests.net/"/>
     <hyperlink ref="T34" r:id="rId34" display="https://doi.org/10.1016/j.srs.2020.100002"/>
-    <hyperlink ref="Q35" r:id="rId35" display="http://sapfluxnet.creaf.cat/"/>
-    <hyperlink ref="T35" r:id="rId36" display="https://doi.org/10.5194/essd-13-2607-2021"/>
-    <hyperlink ref="Q39" r:id="rId37" location="/home" display="https://data.isric.org/geonetwork/srv/eng/catalog.search#/home"/>
-    <hyperlink ref="T39" r:id="rId38" display="https://doi.org/10.5194/essd-9-1-2017"/>
-    <hyperlink ref="Q40" r:id="rId39" display="https://www.fao.org/soils-portal/data-hub/soil-maps-and-databases/harmonized-world-soil-database-v12/en/"/>
-    <hyperlink ref="Q41" r:id="rId40" display="https://soilgrids.org/"/>
-    <hyperlink ref="Q42" r:id="rId41" display="https://www.isric.org/explore/wise-databases"/>
-    <hyperlink ref="T42" r:id="rId42" display="https://doi.org/10.1016/j.geoderma.2016.01.034"/>
-    <hyperlink ref="Q43" r:id="rId43" display="http://globalchange.bnu.edu.cn/research/data"/>
-    <hyperlink ref="T43" r:id="rId44" display="http://doi.wiley.com/10.1002/2013MS000293"/>
-    <hyperlink ref="Q44" r:id="rId45" display="https://www.futurewater.eu/projects/hihydrosoil/"/>
-    <hyperlink ref="Q45" r:id="rId46" display="https://ismn.earth/en/"/>
-    <hyperlink ref="T45" r:id="rId47" display="https://doi.org/10.5194/hess-2021-2"/>
-    <hyperlink ref="Q46" r:id="rId48" display="https://doi.org/10.3334/ORNLDAAC/1827"/>
-    <hyperlink ref="T46" r:id="rId49" display="https://10.5194/bg-7-1915-2010"/>
-    <hyperlink ref="Q47" r:id="rId50" display="https://doi.pangaea.de/10.1594/PANGAEA.788537"/>
-    <hyperlink ref="T47" r:id="rId51" display="https://doi.org/10.1029/2012GC004370"/>
-    <hyperlink ref="Q48" r:id="rId52" display="https://dataverse.scholarsportal.info/dataset.xhtml"/>
-    <hyperlink ref="T48" r:id="rId53" display="https://doi.org/10.1002/2017GL075860"/>
-    <hyperlink ref="T49" r:id="rId54" display="https://doi.org/10.1016/j.cageo.2014.07.020"/>
-    <hyperlink ref="Q50" r:id="rId55" display="https://biotime.st-andrews.ac.uk/"/>
-    <hyperlink ref="T50" r:id="rId56" display="https://doi.org/10.1111/geb.12729"/>
-    <hyperlink ref="Q52" r:id="rId57" display="https://compadre-db.org/"/>
-    <hyperlink ref="T52" r:id="rId58" display="https://doi.org/10.1111/1365-2745.12334"/>
+    <hyperlink ref="Q36" r:id="rId35" display="http://sapfluxnet.creaf.cat/"/>
+    <hyperlink ref="T36" r:id="rId36" display="https://doi.org/10.5194/essd-13-2607-2021"/>
+    <hyperlink ref="Q40" r:id="rId37" location="/home" display="https://data.isric.org/geonetwork/srv/eng/catalog.search#/home"/>
+    <hyperlink ref="T40" r:id="rId38" display="https://doi.org/10.5194/essd-9-1-2017"/>
+    <hyperlink ref="Q41" r:id="rId39" display="https://www.fao.org/soils-portal/data-hub/soil-maps-and-databases/harmonized-world-soil-database-v12/en/"/>
+    <hyperlink ref="Q42" r:id="rId40" display="https://soilgrids.org/"/>
+    <hyperlink ref="Q43" r:id="rId41" display="https://www.isric.org/explore/wise-databases"/>
+    <hyperlink ref="T43" r:id="rId42" display="https://doi.org/10.1016/j.geoderma.2016.01.034"/>
+    <hyperlink ref="Q44" r:id="rId43" display="http://globalchange.bnu.edu.cn/research/data"/>
+    <hyperlink ref="T44" r:id="rId44" display="http://doi.wiley.com/10.1002/2013MS000293"/>
+    <hyperlink ref="Q45" r:id="rId45" display="https://www.futurewater.eu/projects/hihydrosoil/"/>
+    <hyperlink ref="Q46" r:id="rId46" display="https://ismn.earth/en/"/>
+    <hyperlink ref="T46" r:id="rId47" display="https://doi.org/10.5194/hess-2021-2"/>
+    <hyperlink ref="Q47" r:id="rId48" display="https://doi.org/10.3334/ORNLDAAC/1827"/>
+    <hyperlink ref="T47" r:id="rId49" display="https://10.5194/bg-7-1915-2010"/>
+    <hyperlink ref="Q48" r:id="rId50" display="https://doi.pangaea.de/10.1594/PANGAEA.788537"/>
+    <hyperlink ref="T48" r:id="rId51" display="https://doi.org/10.1029/2012GC004370"/>
+    <hyperlink ref="Q49" r:id="rId52" display="https://dataverse.scholarsportal.info/dataset.xhtml"/>
+    <hyperlink ref="T49" r:id="rId53" display="https://doi.org/10.1002/2017GL075860"/>
+    <hyperlink ref="T50" r:id="rId54" display="https://doi.org/10.1016/j.cageo.2014.07.020"/>
+    <hyperlink ref="Q51" r:id="rId55" display="https://biotime.st-andrews.ac.uk/"/>
+    <hyperlink ref="T51" r:id="rId56" display="https://doi.org/10.1111/geb.12729"/>
+    <hyperlink ref="Q53" r:id="rId57" display="https://compadre-db.org/"/>
+    <hyperlink ref="T53" r:id="rId58" display="https://doi.org/10.1111/1365-2745.12334"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -4591,22 +4682,22 @@
       <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.40625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>399</v>
+        <v>410</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>400</v>
+        <v>411</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>401</v>
+        <v>412</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>402</v>
+        <v>413</v>
       </c>
     </row>
   </sheetData>

--- a/ExternalDataSources.xlsx
+++ b/ExternalDataSources.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="420">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -1896,6 +1896,24 @@
   </si>
   <si>
     <t xml:space="preserve">D. Ziolkowski, K. Pardieck, JR. Sauer. On the road again. For a bird survey that counts. Birding 42, 32-41 (2010)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Global Naturalized Alien Flora</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GloNAF (Global Naturalized Alien Flora) is a living database project about naturalized alien plant species and became a synonym for many related projects dealing with all kinds of scientific and policy relevant questions and studies about alien species (also other taxa) and related data.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://glonaf.org/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Species lists</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1002/ecy.2542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">van Kleunen M, Pyšek P, Dawson W, Essl F, Kreft H, Pergl J, Weigelt P, Stein A, Dullinger S, König C, Lenzner B, Maurel N, Moser D, Seebens H, Kartesz J, Nishino M, Aleksanyan A, Ansong M, Antonova LA, Barcelona JF, Breckle SW, Brundu G, Cabezas FJ, Cárdenas D, Cárdenas-Toro J, Castaño N, Chacón E, Chatelain C, Conn B, de Sá Dechoum M, Dufour-Dror JM, Ebel AL, Figueiredo E, Fragman-Sapir O, Fuentes N, Groom QJ, Henderson L, Inderjit, Jogan N, Krestov P, Kupriyanov A, Masciadri S, Meerman J, Morozova O, Nickrent D, Nowak A, Patzelt A, Pelser PB, Shu W sheng, Thomas J, Uludag A, Velayos M, Verkhosina A, Villaseñor JL, Weber E, Wieringa JJ, Yazlık A, Zeddam A, Zykova E, Winter M (2019) The Global Naturalized Alien Flora (GloNAF) database. Ecology 100: 1–2. </t>
   </si>
   <si>
     <t xml:space="preserve">ILamb</t>
@@ -2193,17 +2211,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V54"/>
+  <dimension ref="A1:V55"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="R2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="H23" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="topRight" activeCell="R1" activeCellId="0" sqref="R1"/>
-      <selection pane="bottomLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
-      <selection pane="bottomRight" activeCell="S35" activeCellId="0" sqref="S35"/>
+      <selection pane="topRight" activeCell="H1" activeCellId="0" sqref="H1"/>
+      <selection pane="bottomLeft" activeCell="B23" activeCellId="0" sqref="B23"/>
+      <selection pane="bottomRight" activeCell="L55" activeCellId="0" sqref="L55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.40625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.41796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="25.28"/>
@@ -4598,6 +4616,47 @@
       </c>
       <c r="U54" s="0" t="s">
         <v>409</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B55" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="L55" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="N55" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="Q55" s="0" t="s">
+        <v>412</v>
+      </c>
+      <c r="S55" s="0" t="s">
+        <v>413</v>
+      </c>
+      <c r="T55" s="0" t="s">
+        <v>414</v>
+      </c>
+      <c r="U55" s="0" t="s">
+        <v>415</v>
       </c>
     </row>
   </sheetData>
@@ -4682,22 +4741,22 @@
       <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.40625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.41796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
     </row>
   </sheetData>

--- a/ExternalDataSources.xlsx
+++ b/ExternalDataSources.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="420">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="421">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -1107,6 +1107,9 @@
   </si>
   <si>
     <t xml:space="preserve">Realized climatic niches of vascular plants in European forest understoreys</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14/03/2023</t>
   </si>
   <si>
     <t xml:space="preserve">10 arc-min</t>
@@ -2060,7 +2063,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2105,12 +2108,16 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -2119,6 +2126,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
@@ -2131,6 +2142,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -2214,14 +2229,14 @@
   <dimension ref="A1:V55"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="H23" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="topRight" activeCell="H1" activeCellId="0" sqref="H1"/>
-      <selection pane="bottomLeft" activeCell="B23" activeCellId="0" sqref="B23"/>
-      <selection pane="bottomRight" activeCell="L55" activeCellId="0" sqref="L55"/>
+      <selection pane="topRight" activeCell="G1" activeCellId="0" sqref="G1"/>
+      <selection pane="bottomLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="F35" activeCellId="0" sqref="F35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.41796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="25.28"/>
@@ -2325,6 +2340,7 @@
       <c r="E2" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="F2" s="11"/>
       <c r="G2" s="2" t="s">
         <v>27</v>
       </c>
@@ -2352,10 +2368,10 @@
       <c r="P2" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="Q2" s="11" t="s">
+      <c r="Q2" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="R2" s="11"/>
+      <c r="R2" s="12"/>
       <c r="S2" s="0" t="s">
         <v>36</v>
       </c>
@@ -2376,6 +2392,7 @@
       <c r="E3" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="F3" s="11"/>
       <c r="G3" s="2" t="s">
         <v>27</v>
       </c>
@@ -2403,10 +2420,10 @@
       <c r="P3" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="Q3" s="11" t="s">
+      <c r="Q3" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="R3" s="11"/>
+      <c r="R3" s="12"/>
       <c r="S3" s="0" t="s">
         <v>41</v>
       </c>
@@ -2427,6 +2444,7 @@
       <c r="E4" s="1" t="s">
         <v>45</v>
       </c>
+      <c r="F4" s="11"/>
       <c r="G4" s="2" t="s">
         <v>27</v>
       </c>
@@ -2454,10 +2472,10 @@
       <c r="P4" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="Q4" s="11" t="s">
+      <c r="Q4" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="R4" s="11"/>
+      <c r="R4" s="12"/>
       <c r="S4" s="0" t="s">
         <v>47</v>
       </c>
@@ -2478,6 +2496,7 @@
       <c r="E5" s="1" t="s">
         <v>50</v>
       </c>
+      <c r="F5" s="11"/>
       <c r="G5" s="2" t="s">
         <v>51</v>
       </c>
@@ -2496,11 +2515,11 @@
       <c r="M5" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="Q5" s="11" t="s">
+      <c r="Q5" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="R5" s="11"/>
-      <c r="T5" s="11" t="s">
+      <c r="R5" s="12"/>
+      <c r="T5" s="12" t="s">
         <v>54</v>
       </c>
       <c r="U5" s="0" t="s">
@@ -2523,7 +2542,7 @@
       <c r="E6" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="11" t="s">
         <v>59</v>
       </c>
       <c r="G6" s="2" t="s">
@@ -2550,14 +2569,14 @@
       <c r="O6" s="0" t="s">
         <v>63</v>
       </c>
-      <c r="Q6" s="11" t="s">
+      <c r="Q6" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="R6" s="11"/>
+      <c r="R6" s="12"/>
       <c r="S6" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="T6" s="11" t="s">
+      <c r="T6" s="12" t="s">
         <v>66</v>
       </c>
       <c r="U6" s="0" t="s">
@@ -2580,6 +2599,7 @@
       <c r="E7" s="1" t="s">
         <v>71</v>
       </c>
+      <c r="F7" s="11"/>
       <c r="G7" s="2" t="s">
         <v>27</v>
       </c>
@@ -2607,10 +2627,10 @@
       <c r="P7" s="0" t="s">
         <v>73</v>
       </c>
-      <c r="Q7" s="11" t="s">
+      <c r="Q7" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="R7" s="11"/>
+      <c r="R7" s="12"/>
       <c r="S7" s="0" t="s">
         <v>75</v>
       </c>
@@ -2631,6 +2651,7 @@
       <c r="E8" s="1" t="s">
         <v>77</v>
       </c>
+      <c r="F8" s="11"/>
       <c r="G8" s="2" t="s">
         <v>27</v>
       </c>
@@ -2658,10 +2679,10 @@
       <c r="P8" s="0" t="s">
         <v>73</v>
       </c>
-      <c r="Q8" s="11" t="s">
+      <c r="Q8" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="R8" s="11"/>
+      <c r="R8" s="12"/>
       <c r="S8" s="0" t="s">
         <v>75</v>
       </c>
@@ -2682,7 +2703,7 @@
       <c r="E9" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="F9" s="13" t="s">
         <v>83</v>
       </c>
       <c r="G9" s="2" t="s">
@@ -2697,7 +2718,7 @@
       <c r="M9" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="Q9" s="11" t="s">
+      <c r="Q9" s="12" t="s">
         <v>86</v>
       </c>
       <c r="R9" s="0" t="n">
@@ -2729,6 +2750,7 @@
       <c r="E10" s="1" t="s">
         <v>92</v>
       </c>
+      <c r="F10" s="11"/>
       <c r="G10" s="2" t="s">
         <v>93</v>
       </c>
@@ -2773,6 +2795,7 @@
       <c r="D11" s="1" t="s">
         <v>99</v>
       </c>
+      <c r="F11" s="11"/>
       <c r="G11" s="2" t="s">
         <v>100</v>
       </c>
@@ -2788,7 +2811,7 @@
       <c r="M11" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="P11" s="13" t="s">
+      <c r="P11" s="14" t="s">
         <v>101</v>
       </c>
       <c r="S11" s="0" t="s">
@@ -2811,6 +2834,7 @@
       <c r="E12" s="1" t="s">
         <v>106</v>
       </c>
+      <c r="F12" s="11"/>
       <c r="G12" s="2" t="s">
         <v>100</v>
       </c>
@@ -2846,6 +2870,7 @@
       <c r="E13" s="1" t="s">
         <v>112</v>
       </c>
+      <c r="F13" s="11"/>
       <c r="G13" s="2" t="s">
         <v>113</v>
       </c>
@@ -2881,6 +2906,7 @@
       <c r="E14" s="1" t="s">
         <v>117</v>
       </c>
+      <c r="F14" s="11"/>
       <c r="G14" s="2" t="s">
         <v>118</v>
       </c>
@@ -2907,13 +2933,13 @@
       <c r="C15" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="D15" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="E15" s="14" t="s">
+      <c r="E15" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="F15" s="14"/>
+      <c r="F15" s="16"/>
       <c r="G15" s="2" t="s">
         <v>113</v>
       </c>
@@ -2955,6 +2981,7 @@
       <c r="E16" s="1" t="s">
         <v>128</v>
       </c>
+      <c r="F16" s="11"/>
       <c r="G16" s="2" t="s">
         <v>51</v>
       </c>
@@ -2967,17 +2994,17 @@
       <c r="L16" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="Q16" s="11" t="s">
+      <c r="Q16" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="R16" s="11"/>
-      <c r="T16" s="11" t="s">
+      <c r="R16" s="12"/>
+      <c r="T16" s="12" t="s">
         <v>130</v>
       </c>
       <c r="U16" s="0" t="s">
         <v>131</v>
       </c>
-      <c r="V16" s="11" t="s">
+      <c r="V16" s="12" t="s">
         <v>132</v>
       </c>
     </row>
@@ -2997,6 +3024,7 @@
       <c r="E17" s="1" t="s">
         <v>135</v>
       </c>
+      <c r="F17" s="11"/>
       <c r="G17" s="2" t="s">
         <v>51</v>
       </c>
@@ -3015,17 +3043,17 @@
       <c r="M17" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="Q17" s="11" t="s">
+      <c r="Q17" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="R17" s="11"/>
-      <c r="T17" s="11" t="s">
+      <c r="R17" s="12"/>
+      <c r="T17" s="12" t="s">
         <v>138</v>
       </c>
       <c r="U17" s="0" t="s">
         <v>139</v>
       </c>
-      <c r="V17" s="11"/>
+      <c r="V17" s="12"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
@@ -3043,6 +3071,7 @@
       <c r="E18" s="1" t="s">
         <v>143</v>
       </c>
+      <c r="F18" s="11"/>
       <c r="G18" s="2" t="s">
         <v>51</v>
       </c>
@@ -3067,20 +3096,20 @@
       <c r="O18" s="0" t="s">
         <v>147</v>
       </c>
-      <c r="Q18" s="11" t="s">
+      <c r="Q18" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="R18" s="11"/>
+      <c r="R18" s="12"/>
       <c r="S18" s="0" t="s">
         <v>149</v>
       </c>
-      <c r="T18" s="11" t="s">
+      <c r="T18" s="12" t="s">
         <v>150</v>
       </c>
       <c r="U18" s="0" t="s">
         <v>151</v>
       </c>
-      <c r="V18" s="11"/>
+      <c r="V18" s="12"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
@@ -3098,6 +3127,7 @@
       <c r="E19" s="1" t="s">
         <v>156</v>
       </c>
+      <c r="F19" s="11"/>
       <c r="G19" s="2" t="s">
         <v>51</v>
       </c>
@@ -3110,10 +3140,10 @@
       <c r="L19" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="Q19" s="11" t="s">
+      <c r="Q19" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="R19" s="11"/>
+      <c r="R19" s="12"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
@@ -3131,6 +3161,7 @@
       <c r="E20" s="1" t="s">
         <v>161</v>
       </c>
+      <c r="F20" s="11"/>
       <c r="G20" s="2" t="s">
         <v>51</v>
       </c>
@@ -3143,10 +3174,10 @@
       <c r="L20" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="Q20" s="11" t="s">
+      <c r="Q20" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="R20" s="11"/>
+      <c r="R20" s="12"/>
       <c r="U20" s="0" t="s">
         <v>163</v>
       </c>
@@ -3167,6 +3198,7 @@
       <c r="E21" s="1" t="s">
         <v>165</v>
       </c>
+      <c r="F21" s="11"/>
       <c r="G21" s="2" t="s">
         <v>51</v>
       </c>
@@ -3179,10 +3211,10 @@
       <c r="L21" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="Q21" s="11" t="s">
+      <c r="Q21" s="12" t="s">
         <v>167</v>
       </c>
-      <c r="R21" s="11"/>
+      <c r="R21" s="12"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
@@ -3200,6 +3232,7 @@
       <c r="E22" s="1" t="s">
         <v>169</v>
       </c>
+      <c r="F22" s="11"/>
       <c r="G22" s="2" t="s">
         <v>51</v>
       </c>
@@ -3212,10 +3245,10 @@
       <c r="L22" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="Q22" s="11" t="s">
+      <c r="Q22" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="R22" s="11"/>
+      <c r="R22" s="12"/>
       <c r="T22" s="0" t="s">
         <v>171</v>
       </c>
@@ -3239,6 +3272,7 @@
       <c r="E23" s="1" t="s">
         <v>174</v>
       </c>
+      <c r="F23" s="11"/>
       <c r="G23" s="2" t="s">
         <v>51</v>
       </c>
@@ -3254,10 +3288,10 @@
       <c r="L23" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="Q23" s="11" t="s">
+      <c r="Q23" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="R23" s="11"/>
+      <c r="R23" s="12"/>
       <c r="T23" s="0" t="s">
         <v>177</v>
       </c>
@@ -3281,6 +3315,7 @@
       <c r="E24" s="1" t="s">
         <v>182</v>
       </c>
+      <c r="F24" s="11"/>
       <c r="G24" s="2" t="s">
         <v>183</v>
       </c>
@@ -3302,17 +3337,17 @@
       <c r="M24" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="Q24" s="11" t="s">
+      <c r="Q24" s="12" t="s">
         <v>187</v>
       </c>
-      <c r="R24" s="11"/>
+      <c r="R24" s="12"/>
       <c r="S24" s="0" t="s">
         <v>188</v>
       </c>
-      <c r="T24" s="11" t="s">
+      <c r="T24" s="12" t="s">
         <v>189</v>
       </c>
-      <c r="U24" s="11"/>
+      <c r="U24" s="12"/>
       <c r="V24" s="0" t="s">
         <v>190</v>
       </c>
@@ -3333,6 +3368,7 @@
       <c r="E25" s="1" t="s">
         <v>193</v>
       </c>
+      <c r="F25" s="11"/>
       <c r="G25" s="2" t="s">
         <v>51</v>
       </c>
@@ -3345,15 +3381,15 @@
       <c r="L25" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="Q25" s="11" t="s">
+      <c r="Q25" s="12" t="s">
         <v>194</v>
       </c>
-      <c r="R25" s="11"/>
+      <c r="R25" s="12"/>
       <c r="S25" s="0" t="s">
         <v>195</v>
       </c>
-      <c r="T25" s="11"/>
-      <c r="U25" s="11"/>
+      <c r="T25" s="12"/>
+      <c r="U25" s="12"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
@@ -3371,6 +3407,7 @@
       <c r="E26" s="1" t="s">
         <v>199</v>
       </c>
+      <c r="F26" s="11"/>
       <c r="G26" s="2" t="s">
         <v>51</v>
       </c>
@@ -3383,14 +3420,14 @@
       <c r="N26" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="Q26" s="11" t="s">
+      <c r="Q26" s="12" t="s">
         <v>201</v>
       </c>
-      <c r="R26" s="11"/>
-      <c r="T26" s="11" t="s">
+      <c r="R26" s="12"/>
+      <c r="T26" s="12" t="s">
         <v>202</v>
       </c>
-      <c r="U26" s="11"/>
+      <c r="U26" s="12"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
@@ -3408,6 +3445,7 @@
       <c r="E27" s="1" t="s">
         <v>205</v>
       </c>
+      <c r="F27" s="11"/>
       <c r="G27" s="2" t="s">
         <v>51</v>
       </c>
@@ -3417,14 +3455,14 @@
       <c r="L27" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="Q27" s="11" t="s">
+      <c r="Q27" s="12" t="s">
         <v>206</v>
       </c>
-      <c r="R27" s="11"/>
-      <c r="T27" s="11" t="s">
+      <c r="R27" s="12"/>
+      <c r="T27" s="12" t="s">
         <v>207</v>
       </c>
-      <c r="U27" s="11"/>
+      <c r="U27" s="12"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
@@ -3442,6 +3480,7 @@
       <c r="E28" s="1" t="s">
         <v>210</v>
       </c>
+      <c r="F28" s="11"/>
       <c r="G28" s="2" t="s">
         <v>51</v>
       </c>
@@ -3454,11 +3493,11 @@
       <c r="N28" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="Q28" s="11" t="s">
+      <c r="Q28" s="12" t="s">
         <v>211</v>
       </c>
-      <c r="R28" s="11"/>
-      <c r="T28" s="11"/>
+      <c r="R28" s="12"/>
+      <c r="T28" s="12"/>
       <c r="U28" s="0" t="s">
         <v>212</v>
       </c>
@@ -3479,6 +3518,7 @@
       <c r="E29" s="1" t="s">
         <v>215</v>
       </c>
+      <c r="F29" s="11"/>
       <c r="G29" s="2" t="s">
         <v>51</v>
       </c>
@@ -3497,15 +3537,15 @@
       <c r="N29" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="Q29" s="11" t="s">
+      <c r="Q29" s="12" t="s">
         <v>217</v>
       </c>
-      <c r="R29" s="11"/>
+      <c r="R29" s="12"/>
       <c r="S29" s="0" t="s">
         <v>218</v>
       </c>
-      <c r="T29" s="11"/>
-      <c r="U29" s="11"/>
+      <c r="T29" s="12"/>
+      <c r="U29" s="12"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
@@ -3523,6 +3563,7 @@
       <c r="E30" s="1" t="s">
         <v>220</v>
       </c>
+      <c r="F30" s="11"/>
       <c r="G30" s="2" t="s">
         <v>51</v>
       </c>
@@ -3541,14 +3582,14 @@
       <c r="L30" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="Q30" s="11" t="s">
+      <c r="Q30" s="12" t="s">
         <v>222</v>
       </c>
-      <c r="R30" s="11"/>
+      <c r="R30" s="12"/>
       <c r="S30" s="0" t="s">
         <v>218</v>
       </c>
-      <c r="T30" s="11" t="s">
+      <c r="T30" s="12" t="s">
         <v>223</v>
       </c>
       <c r="U30" s="0" t="s">
@@ -3571,6 +3612,7 @@
       <c r="E31" s="1" t="s">
         <v>227</v>
       </c>
+      <c r="F31" s="11"/>
       <c r="G31" s="2" t="s">
         <v>51</v>
       </c>
@@ -3583,11 +3625,11 @@
       <c r="L31" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="Q31" s="11" t="s">
+      <c r="Q31" s="12" t="s">
         <v>228</v>
       </c>
-      <c r="R31" s="11"/>
-      <c r="T31" s="11" t="s">
+      <c r="R31" s="12"/>
+      <c r="T31" s="12" t="s">
         <v>229</v>
       </c>
     </row>
@@ -3607,6 +3649,7 @@
       <c r="E32" s="1" t="s">
         <v>233</v>
       </c>
+      <c r="F32" s="11"/>
       <c r="G32" s="2" t="s">
         <v>51</v>
       </c>
@@ -3619,11 +3662,11 @@
       <c r="L32" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="Q32" s="11" t="s">
+      <c r="Q32" s="12" t="s">
         <v>234</v>
       </c>
-      <c r="R32" s="11"/>
-      <c r="T32" s="11"/>
+      <c r="R32" s="12"/>
+      <c r="T32" s="12"/>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
@@ -3641,6 +3684,7 @@
       <c r="E33" s="1" t="s">
         <v>238</v>
       </c>
+      <c r="F33" s="11"/>
       <c r="G33" s="2" t="s">
         <v>93</v>
       </c>
@@ -3659,14 +3703,14 @@
       <c r="M33" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="Q33" s="11" t="s">
+      <c r="Q33" s="12" t="s">
         <v>240</v>
       </c>
-      <c r="R33" s="11"/>
+      <c r="R33" s="12"/>
       <c r="S33" s="0" t="s">
         <v>241</v>
       </c>
-      <c r="T33" s="11"/>
+      <c r="T33" s="12"/>
       <c r="V33" s="0" t="s">
         <v>242</v>
       </c>
@@ -3687,7 +3731,7 @@
       <c r="E34" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="F34" s="12" t="n">
+      <c r="F34" s="13" t="n">
         <v>44779</v>
       </c>
       <c r="G34" s="2" t="s">
@@ -3705,14 +3749,14 @@
       <c r="L34" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="Q34" s="11" t="s">
+      <c r="Q34" s="12" t="s">
         <v>247</v>
       </c>
-      <c r="R34" s="11"/>
+      <c r="R34" s="12"/>
       <c r="S34" s="0" t="s">
         <v>248</v>
       </c>
-      <c r="T34" s="15" t="s">
+      <c r="T34" s="17" t="s">
         <v>249</v>
       </c>
       <c r="U34" s="0" t="s">
@@ -3732,7 +3776,7 @@
       <c r="E35" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="F35" s="12" t="s">
+      <c r="F35" s="13" t="s">
         <v>253</v>
       </c>
       <c r="G35" s="2" t="s">
@@ -3762,14 +3806,14 @@
       <c r="O35" s="0" t="s">
         <v>147</v>
       </c>
-      <c r="Q35" s="11" t="s">
+      <c r="Q35" s="12" t="s">
         <v>258</v>
       </c>
-      <c r="R35" s="11"/>
+      <c r="R35" s="12"/>
       <c r="S35" s="0" t="s">
         <v>259</v>
       </c>
-      <c r="T35" s="15"/>
+      <c r="T35" s="17"/>
       <c r="U35" s="0" t="s">
         <v>260</v>
       </c>
@@ -3793,6 +3837,7 @@
       <c r="E36" s="1" t="s">
         <v>264</v>
       </c>
+      <c r="F36" s="11"/>
       <c r="G36" s="2" t="s">
         <v>51</v>
       </c>
@@ -3811,14 +3856,14 @@
       <c r="P36" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="Q36" s="11" t="s">
+      <c r="Q36" s="12" t="s">
         <v>266</v>
       </c>
-      <c r="R36" s="11"/>
+      <c r="R36" s="12"/>
       <c r="S36" s="0" t="s">
         <v>267</v>
       </c>
-      <c r="T36" s="11" t="s">
+      <c r="T36" s="12" t="s">
         <v>268</v>
       </c>
       <c r="U36" s="0" t="s">
@@ -3844,6 +3889,7 @@
       <c r="E37" s="1" t="s">
         <v>273</v>
       </c>
+      <c r="F37" s="11"/>
       <c r="G37" s="2" t="s">
         <v>51</v>
       </c>
@@ -3859,11 +3905,11 @@
       <c r="L37" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="Q37" s="11" t="s">
+      <c r="Q37" s="12" t="s">
         <v>275</v>
       </c>
-      <c r="R37" s="11"/>
-      <c r="T37" s="11"/>
+      <c r="R37" s="12"/>
+      <c r="T37" s="12"/>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
@@ -3881,6 +3927,7 @@
       <c r="E38" s="1" t="s">
         <v>279</v>
       </c>
+      <c r="F38" s="11"/>
       <c r="G38" s="2" t="s">
         <v>51</v>
       </c>
@@ -3902,20 +3949,20 @@
       <c r="N38" s="4" t="s">
         <v>281</v>
       </c>
-      <c r="Q38" s="11" t="s">
+      <c r="Q38" s="12" t="s">
         <v>282</v>
       </c>
-      <c r="R38" s="11"/>
+      <c r="R38" s="12"/>
       <c r="S38" s="0" t="s">
         <v>283</v>
       </c>
-      <c r="T38" s="15" t="s">
+      <c r="T38" s="17" t="s">
         <v>284</v>
       </c>
       <c r="U38" s="0" t="s">
         <v>285</v>
       </c>
-      <c r="V38" s="16" t="s">
+      <c r="V38" s="18" t="s">
         <v>286</v>
       </c>
     </row>
@@ -3932,6 +3979,9 @@
       <c r="E39" s="1" t="s">
         <v>289</v>
       </c>
+      <c r="F39" s="11" t="s">
+        <v>290</v>
+      </c>
       <c r="G39" s="2" t="s">
         <v>93</v>
       </c>
@@ -3942,10 +3992,10 @@
         <v>29</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="L39" s="3" t="s">
         <v>84</v>
@@ -3956,36 +4006,37 @@
       <c r="O39" s="0" t="s">
         <v>147</v>
       </c>
-      <c r="Q39" s="11" t="s">
-        <v>292</v>
-      </c>
-      <c r="R39" s="17" t="n">
+      <c r="Q39" s="12" t="s">
+        <v>293</v>
+      </c>
+      <c r="R39" s="19" t="n">
         <v>1.2</v>
       </c>
-      <c r="T39" s="15" t="s">
-        <v>293</v>
+      <c r="T39" s="17" t="s">
+        <v>294</v>
       </c>
       <c r="U39" s="0" t="s">
-        <v>294</v>
-      </c>
-      <c r="V39" s="16"/>
+        <v>295</v>
+      </c>
+      <c r="V39" s="18"/>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>299</v>
-      </c>
+        <v>300</v>
+      </c>
+      <c r="F40" s="11"/>
       <c r="G40" s="2" t="s">
         <v>51</v>
       </c>
@@ -3998,33 +4049,34 @@
       <c r="L40" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="Q40" s="11" t="s">
-        <v>300</v>
-      </c>
-      <c r="R40" s="11"/>
-      <c r="T40" s="11" t="s">
+      <c r="Q40" s="12" t="s">
         <v>301</v>
       </c>
+      <c r="R40" s="12"/>
+      <c r="T40" s="12" t="s">
+        <v>302</v>
+      </c>
       <c r="U40" s="0" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>306</v>
-      </c>
+        <v>307</v>
+      </c>
+      <c r="F41" s="11"/>
       <c r="G41" s="2" t="s">
         <v>51</v>
       </c>
@@ -4037,27 +4089,28 @@
       <c r="L41" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="Q41" s="11" t="s">
-        <v>307</v>
-      </c>
-      <c r="R41" s="11"/>
+      <c r="Q41" s="12" t="s">
+        <v>308</v>
+      </c>
+      <c r="R41" s="12"/>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>309</v>
-      </c>
+        <v>310</v>
+      </c>
+      <c r="F42" s="11"/>
       <c r="G42" s="2" t="s">
         <v>51</v>
       </c>
@@ -4068,35 +4121,36 @@
         <v>29</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="L42" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="Q42" s="11" t="s">
-        <v>311</v>
-      </c>
-      <c r="R42" s="11"/>
+      <c r="Q42" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="R42" s="12"/>
       <c r="V42" s="0" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>314</v>
-      </c>
+        <v>315</v>
+      </c>
+      <c r="F43" s="11"/>
       <c r="G43" s="2" t="s">
         <v>51</v>
       </c>
@@ -4107,38 +4161,39 @@
         <v>29</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="L43" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="Q43" s="11" t="s">
-        <v>316</v>
-      </c>
-      <c r="R43" s="11"/>
+      <c r="Q43" s="12" t="s">
+        <v>317</v>
+      </c>
+      <c r="R43" s="12"/>
       <c r="S43" s="0" t="s">
-        <v>317</v>
-      </c>
-      <c r="T43" s="11" t="s">
         <v>318</v>
       </c>
+      <c r="T43" s="12" t="s">
+        <v>319</v>
+      </c>
       <c r="U43" s="0" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>321</v>
-      </c>
+        <v>322</v>
+      </c>
+      <c r="F44" s="11"/>
       <c r="G44" s="2" t="s">
         <v>51</v>
       </c>
@@ -4149,41 +4204,42 @@
         <v>29</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="L44" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="Q44" s="11" t="s">
-        <v>322</v>
-      </c>
-      <c r="R44" s="11"/>
+      <c r="Q44" s="12" t="s">
+        <v>323</v>
+      </c>
+      <c r="R44" s="12"/>
       <c r="S44" s="0" t="s">
-        <v>323</v>
-      </c>
-      <c r="T44" s="11" t="s">
         <v>324</v>
       </c>
+      <c r="T44" s="12" t="s">
+        <v>325</v>
+      </c>
       <c r="U44" s="0" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C45" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="D45" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="D45" s="1" t="s">
-        <v>326</v>
-      </c>
       <c r="E45" s="1" t="s">
-        <v>328</v>
-      </c>
+        <v>329</v>
+      </c>
+      <c r="F45" s="11"/>
       <c r="G45" s="2" t="s">
         <v>51</v>
       </c>
@@ -4199,33 +4255,34 @@
       <c r="L45" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="Q45" s="11" t="s">
-        <v>329</v>
-      </c>
-      <c r="R45" s="11"/>
+      <c r="Q45" s="12" t="s">
+        <v>330</v>
+      </c>
+      <c r="R45" s="12"/>
       <c r="U45" s="0" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="V45" s="0" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>335</v>
-      </c>
+        <v>336</v>
+      </c>
+      <c r="F46" s="11"/>
       <c r="G46" s="2" t="s">
         <v>51</v>
       </c>
@@ -4238,36 +4295,37 @@
       <c r="L46" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="Q46" s="11" t="s">
-        <v>336</v>
-      </c>
-      <c r="R46" s="11"/>
+      <c r="Q46" s="12" t="s">
+        <v>337</v>
+      </c>
+      <c r="R46" s="12"/>
       <c r="S46" s="0" t="s">
-        <v>337</v>
-      </c>
-      <c r="T46" s="11" t="s">
         <v>338</v>
       </c>
+      <c r="T46" s="12" t="s">
+        <v>339</v>
+      </c>
       <c r="U46" s="0" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>343</v>
-      </c>
+        <v>344</v>
+      </c>
+      <c r="F47" s="11"/>
       <c r="G47" s="2" t="s">
         <v>51</v>
       </c>
@@ -4278,46 +4336,47 @@
         <v>107</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="L47" s="3" t="s">
         <v>28</v>
       </c>
       <c r="M47" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="Q47" s="11" t="s">
         <v>346</v>
       </c>
+      <c r="Q47" s="12" t="s">
+        <v>347</v>
+      </c>
       <c r="R47" s="0" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="S47" s="0" t="s">
-        <v>348</v>
-      </c>
-      <c r="T47" s="11" t="s">
         <v>349</v>
       </c>
+      <c r="T47" s="12" t="s">
+        <v>350</v>
+      </c>
       <c r="U47" s="0" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>355</v>
-      </c>
+        <v>356</v>
+      </c>
+      <c r="F48" s="11"/>
       <c r="G48" s="2" t="s">
         <v>51</v>
       </c>
@@ -4330,33 +4389,34 @@
       <c r="L48" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="Q48" s="11" t="s">
-        <v>356</v>
-      </c>
-      <c r="R48" s="11"/>
-      <c r="T48" s="11" t="s">
+      <c r="Q48" s="12" t="s">
         <v>357</v>
       </c>
+      <c r="R48" s="12"/>
+      <c r="T48" s="12" t="s">
+        <v>358</v>
+      </c>
       <c r="U48" s="0" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>362</v>
-      </c>
+        <v>363</v>
+      </c>
+      <c r="F49" s="11"/>
       <c r="G49" s="2" t="s">
         <v>51</v>
       </c>
@@ -4367,41 +4427,41 @@
         <v>157</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="L49" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="Q49" s="11" t="s">
-        <v>364</v>
-      </c>
-      <c r="R49" s="11"/>
+      <c r="Q49" s="12" t="s">
+        <v>365</v>
+      </c>
+      <c r="R49" s="12"/>
       <c r="S49" s="0" t="s">
-        <v>365</v>
-      </c>
-      <c r="T49" s="11" t="s">
         <v>366</v>
       </c>
-      <c r="U49" s="11"/>
+      <c r="T49" s="12" t="s">
+        <v>367</v>
+      </c>
+      <c r="U49" s="12"/>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="F50" s="1" t="s">
         <v>371</v>
+      </c>
+      <c r="F50" s="11" t="s">
+        <v>372</v>
       </c>
       <c r="G50" s="2" t="s">
         <v>51</v>
@@ -4413,44 +4473,45 @@
         <v>107</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="L50" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="Q50" s="11" t="s">
-        <v>373</v>
-      </c>
-      <c r="R50" s="11"/>
+      <c r="Q50" s="12" t="s">
+        <v>374</v>
+      </c>
+      <c r="R50" s="12"/>
       <c r="S50" s="0" t="s">
-        <v>374</v>
-      </c>
-      <c r="T50" s="15" t="s">
         <v>375</v>
       </c>
+      <c r="T50" s="17" t="s">
+        <v>376</v>
+      </c>
       <c r="U50" s="0" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="V50" s="0" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B51" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="D51" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="C51" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>378</v>
-      </c>
       <c r="E51" s="1" t="s">
-        <v>381</v>
-      </c>
+        <v>382</v>
+      </c>
+      <c r="F51" s="11"/>
       <c r="G51" s="2" t="s">
         <v>51</v>
       </c>
@@ -4464,7 +4525,7 @@
         <v>216</v>
       </c>
       <c r="K51" s="3" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="L51" s="3" t="s">
         <v>28</v>
@@ -4473,38 +4534,39 @@
         <v>216</v>
       </c>
       <c r="N51" s="4" t="s">
-        <v>383</v>
-      </c>
-      <c r="Q51" s="11" t="s">
         <v>384</v>
       </c>
-      <c r="R51" s="11"/>
+      <c r="Q51" s="12" t="s">
+        <v>385</v>
+      </c>
+      <c r="R51" s="12"/>
       <c r="S51" s="0" t="s">
         <v>218</v>
       </c>
-      <c r="T51" s="11" t="s">
-        <v>385</v>
+      <c r="T51" s="12" t="s">
+        <v>386</v>
       </c>
       <c r="U51" s="0" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C52" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="D52" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="D52" s="1" t="s">
-        <v>387</v>
-      </c>
       <c r="E52" s="1" t="s">
-        <v>389</v>
-      </c>
+        <v>390</v>
+      </c>
+      <c r="F52" s="11"/>
       <c r="G52" s="2" t="s">
         <v>51</v>
       </c>
@@ -4518,28 +4580,29 @@
         <v>84</v>
       </c>
       <c r="Q52" s="0" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="V52" s="0" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>395</v>
-      </c>
+        <v>396</v>
+      </c>
+      <c r="F53" s="11"/>
       <c r="G53" s="2" t="s">
         <v>51</v>
       </c>
@@ -4556,42 +4619,43 @@
         <v>216</v>
       </c>
       <c r="N53" s="4" t="s">
-        <v>383</v>
-      </c>
-      <c r="Q53" s="11" t="s">
-        <v>396</v>
+        <v>384</v>
+      </c>
+      <c r="Q53" s="12" t="s">
+        <v>397</v>
       </c>
       <c r="S53" s="0" t="s">
-        <v>397</v>
-      </c>
-      <c r="T53" s="11" t="s">
         <v>398</v>
       </c>
+      <c r="T53" s="12" t="s">
+        <v>399</v>
+      </c>
       <c r="U53" s="0" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="V53" s="0" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>404</v>
-      </c>
+        <v>405</v>
+      </c>
+      <c r="F54" s="11"/>
       <c r="G54" s="2" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="H54" s="2" t="s">
         <v>28</v>
@@ -4606,30 +4670,33 @@
         <v>146</v>
       </c>
       <c r="Q54" s="0" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="S54" s="0" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="T54" s="0" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="U54" s="0" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B55" s="1" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>411</v>
+        <v>412</v>
+      </c>
+      <c r="F55" s="20" t="n">
+        <v>45235</v>
       </c>
       <c r="G55" s="2" t="s">
         <v>51</v>
@@ -4644,19 +4711,19 @@
         <v>84</v>
       </c>
       <c r="N55" s="4" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="Q55" s="0" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="S55" s="0" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="T55" s="0" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="U55" s="0" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
   </sheetData>
@@ -4741,22 +4808,22 @@
       <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.41796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>416</v>
-      </c>
-      <c r="B2" s="11" t="s">
         <v>417</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>418</v>
-      </c>
-      <c r="C3" s="11" t="s">
         <v>419</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>420</v>
       </c>
     </row>
   </sheetData>

--- a/ExternalDataSources.xlsx
+++ b/ExternalDataSources.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="755" uniqueCount="423">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -920,6 +920,9 @@
     <t xml:space="preserve">Dubayah, R., J. B. Blair, S. Goetz, L. Fatoyinbo, M. Hansen, S. Healey, M. Hofton, G. Hurtt, J. Kellner, S. Luthcke, J. Armston, H. Tang, L. Duncanson, S. Hancock, P. Jantz, S. Marselis, P. L. Patterson, W. Qi, and C. Silva. 2020. The Global Ecosystem Dynamics Investigation: High-resolution laser ranging of the Earth’s forests and topography. Science of Remote Sensing 1:100002.</t>
   </si>
   <si>
+    <t xml:space="preserve">FIA</t>
+  </si>
+  <si>
     <t xml:space="preserve">Forest Inventory and Analysis (FIA)</t>
   </si>
   <si>
@@ -1100,12 +1103,12 @@
     <t xml:space="preserve">phenocamr</t>
   </si>
   <si>
+    <t xml:space="preserve">ClimPlant</t>
+  </si>
+  <si>
     <t xml:space="preserve">BioclimaticDatabase</t>
   </si>
   <si>
-    <t xml:space="preserve">ClimPlant</t>
-  </si>
-  <si>
     <t xml:space="preserve">Realized climatic niches of vascular plants in European forest understoreys</t>
   </si>
   <si>
@@ -1899,6 +1902,9 @@
   </si>
   <si>
     <t xml:space="preserve">D. Ziolkowski, K. Pardieck, JR. Sauer. On the road again. For a bird survey that counts. Birding 42, 32-41 (2010)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GloNAF</t>
   </si>
   <si>
     <t xml:space="preserve">Global Naturalized Alien Flora</t>
@@ -2068,47 +2074,51 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2116,27 +2126,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2144,7 +2150,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2222,2508 +2228,2515 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:V55"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="topRight" activeCell="G1" activeCellId="0" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
-      <selection pane="bottomRight" activeCell="F35" activeCellId="0" sqref="F35"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="G24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A55" activeCellId="0" sqref="A55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.4296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="25.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="39.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="43.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="19.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="2" width="19.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="7.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="24.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="11" style="3" width="13.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="4" width="13.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="14.69"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="35.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="11.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="60.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="43.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="82.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="25.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="2" width="25.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="39.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="234.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="19.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="3" width="19.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="3" width="7.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="3" width="24.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="11" style="4" width="13.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="5" width="13.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="14.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="35.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="11.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="60.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="43.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="82.28"/>
   </cols>
   <sheetData>
-    <row r="1" s="10" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="5" t="s">
+    <row r="1" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="L1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="M1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="N1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="O1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="P1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="Q1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="R1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="S1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="T1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="U1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="V1" s="6" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="11"/>
-      <c r="G2" s="2" t="s">
+      <c r="F2" s="12"/>
+      <c r="G2" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I2" s="2" t="s">
+      <c r="H2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="L2" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="M2" s="3" t="s">
+      <c r="L2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M2" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="O2" s="0" t="s">
+      <c r="O2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="P2" s="0" t="s">
+      <c r="P2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="Q2" s="12" t="s">
+      <c r="Q2" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="R2" s="12"/>
-      <c r="S2" s="0" t="s">
+      <c r="R2" s="13"/>
+      <c r="S2" s="1" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F3" s="11"/>
-      <c r="G3" s="2" t="s">
+      <c r="F3" s="12"/>
+      <c r="G3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I3" s="2" t="s">
+      <c r="H3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J3" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="L3" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="M3" s="3" t="s">
+      <c r="L3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M3" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="O3" s="0" t="s">
+      <c r="O3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="P3" s="0" t="s">
+      <c r="P3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="Q3" s="12" t="s">
+      <c r="Q3" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="R3" s="12"/>
-      <c r="S3" s="0" t="s">
+      <c r="R3" s="13"/>
+      <c r="S3" s="1" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F4" s="11"/>
-      <c r="G4" s="2" t="s">
+      <c r="F4" s="12"/>
+      <c r="G4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="H4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I4" s="2" t="s">
+      <c r="H4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="J4" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="L4" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="M4" s="3" t="s">
+      <c r="L4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M4" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="O4" s="0" t="s">
+      <c r="O4" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="P4" s="0" t="s">
+      <c r="P4" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="Q4" s="12" t="s">
+      <c r="Q4" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="R4" s="12"/>
-      <c r="S4" s="0" t="s">
+      <c r="R4" s="13"/>
+      <c r="S4" s="1" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F5" s="11"/>
-      <c r="G5" s="2" t="s">
+      <c r="F5" s="12"/>
+      <c r="G5" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="H5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I5" s="2" t="s">
+      <c r="H5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="J5" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="L5" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="M5" s="3" t="s">
+      <c r="L5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M5" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="Q5" s="12" t="s">
+      <c r="Q5" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="R5" s="12"/>
-      <c r="T5" s="12" t="s">
+      <c r="R5" s="13"/>
+      <c r="T5" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="U5" s="0" t="s">
+      <c r="U5" s="1" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="F6" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="H6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I6" s="2" t="s">
+      <c r="H6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="J6" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="K6" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="L6" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="M6" s="3" t="s">
+      <c r="L6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M6" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="O6" s="0" t="s">
+      <c r="O6" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="Q6" s="12" t="s">
+      <c r="Q6" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="R6" s="12"/>
-      <c r="S6" s="0" t="s">
+      <c r="R6" s="13"/>
+      <c r="S6" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="T6" s="12" t="s">
+      <c r="T6" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="U6" s="0" t="s">
+      <c r="U6" s="1" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="F7" s="11"/>
-      <c r="G7" s="2" t="s">
+      <c r="F7" s="12"/>
+      <c r="G7" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I7" s="2" t="s">
+      <c r="H7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="J7" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="K7" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="L7" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="M7" s="3" t="s">
+      <c r="L7" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M7" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="O7" s="0" t="s">
+      <c r="O7" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="P7" s="0" t="s">
+      <c r="P7" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="Q7" s="12" t="s">
+      <c r="Q7" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="R7" s="12"/>
-      <c r="S7" s="0" t="s">
+      <c r="R7" s="13"/>
+      <c r="S7" s="1" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="F8" s="11"/>
-      <c r="G8" s="2" t="s">
+      <c r="F8" s="12"/>
+      <c r="G8" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="H8" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I8" s="2" t="s">
+      <c r="H8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="J8" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="K8" s="3" t="s">
+      <c r="K8" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="L8" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="M8" s="3" t="s">
+      <c r="L8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M8" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="O8" s="0" t="s">
+      <c r="O8" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="P8" s="0" t="s">
+      <c r="P8" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="Q8" s="12" t="s">
+      <c r="Q8" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="R8" s="12"/>
-      <c r="S8" s="0" t="s">
+      <c r="R8" s="13"/>
+      <c r="S8" s="1" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="A9" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="F9" s="13" t="s">
+      <c r="F9" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G9" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="H9" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="M9" s="3" t="s">
+      <c r="L9" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M9" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="Q9" s="12" t="s">
+      <c r="Q9" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="R9" s="0" t="n">
+      <c r="R9" s="1" t="n">
         <v>2.05</v>
       </c>
-      <c r="S9" s="0" t="s">
+      <c r="S9" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="T9" s="0" t="s">
+      <c r="T9" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="U9" s="0" t="s">
+      <c r="U9" s="1" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="A10" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="F10" s="11"/>
-      <c r="G10" s="2" t="s">
+      <c r="F10" s="12"/>
+      <c r="G10" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="H10" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I10" s="2" t="s">
+      <c r="H10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="J10" s="2" t="s">
+      <c r="J10" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="K10" s="3" t="s">
+      <c r="K10" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="M10" s="3" t="s">
+      <c r="L10" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M10" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="O10" s="0" t="s">
+      <c r="O10" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="Q10" s="0" t="s">
+      <c r="Q10" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="S10" s="0" t="s">
+      <c r="S10" s="1" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="A11" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="F11" s="11"/>
-      <c r="G11" s="2" t="s">
+      <c r="F11" s="12"/>
+      <c r="G11" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="H11" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I11" s="2" t="s">
+      <c r="H11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="L11" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="M11" s="3" t="s">
+      <c r="L11" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M11" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="P11" s="14" t="s">
+      <c r="P11" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="S11" s="0" t="s">
+      <c r="S11" s="1" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="A12" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="F12" s="11"/>
-      <c r="G12" s="2" t="s">
+      <c r="F12" s="12"/>
+      <c r="G12" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="H12" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I12" s="2" t="s">
+      <c r="H12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I12" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="L12" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q12" s="0" t="s">
+      <c r="L12" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q12" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="V12" s="0" t="s">
+      <c r="V12" s="1" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c r="A13" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="F13" s="11"/>
-      <c r="G13" s="2" t="s">
+      <c r="F13" s="12"/>
+      <c r="G13" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="H13" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I13" s="2" t="s">
+      <c r="H13" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="L13" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q13" s="0" t="s">
+      <c r="L13" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q13" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="V13" s="0" t="s">
+      <c r="V13" s="1" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+      <c r="A14" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="F14" s="11"/>
-      <c r="G14" s="2" t="s">
+      <c r="F14" s="12"/>
+      <c r="G14" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="H14" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I14" s="2" t="s">
+      <c r="H14" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I14" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q14" s="0" t="s">
+      <c r="L14" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q14" s="1" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+      <c r="A15" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D15" s="15" t="s">
+      <c r="D15" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="E15" s="15" t="s">
+      <c r="E15" s="16" t="s">
         <v>122</v>
       </c>
-      <c r="F15" s="16"/>
-      <c r="G15" s="2" t="s">
+      <c r="F15" s="17"/>
+      <c r="G15" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="H15" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I15" s="2" t="s">
+      <c r="H15" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I15" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="J15" s="2" t="s">
+      <c r="J15" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="K15" s="3" t="s">
+      <c r="K15" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="L15" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="M15" s="3" t="s">
+      <c r="L15" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M15" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="Q15" s="0" t="s">
+      <c r="Q15" s="1" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+      <c r="A16" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E16" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="F16" s="11"/>
-      <c r="G16" s="2" t="s">
+      <c r="F16" s="12"/>
+      <c r="G16" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="H16" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I16" s="2" t="s">
+      <c r="H16" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I16" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="L16" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q16" s="12" t="s">
+      <c r="L16" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q16" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="R16" s="12"/>
-      <c r="T16" s="12" t="s">
+      <c r="R16" s="13"/>
+      <c r="T16" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="U16" s="0" t="s">
+      <c r="U16" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="V16" s="12" t="s">
+      <c r="V16" s="13" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+      <c r="A17" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E17" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="F17" s="11"/>
-      <c r="G17" s="2" t="s">
+      <c r="F17" s="12"/>
+      <c r="G17" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="H17" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I17" s="2" t="s">
+      <c r="H17" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I17" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="K17" s="3" t="s">
+      <c r="K17" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="M17" s="3" t="s">
+      <c r="L17" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M17" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="Q17" s="12" t="s">
+      <c r="Q17" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="R17" s="12"/>
-      <c r="T17" s="12" t="s">
+      <c r="R17" s="13"/>
+      <c r="T17" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="U17" s="0" t="s">
+      <c r="U17" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="V17" s="12"/>
+      <c r="V17" s="13"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+      <c r="A18" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E18" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="F18" s="11"/>
-      <c r="G18" s="2" t="s">
+      <c r="F18" s="12"/>
+      <c r="G18" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="H18" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I18" s="2" t="s">
+      <c r="H18" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I18" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="J18" s="2" t="s">
+      <c r="J18" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="K18" s="3" t="s">
+      <c r="K18" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="M18" s="3" t="s">
+      <c r="L18" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M18" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="O18" s="0" t="s">
+      <c r="O18" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="Q18" s="12" t="s">
+      <c r="Q18" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="R18" s="12"/>
-      <c r="S18" s="0" t="s">
+      <c r="R18" s="13"/>
+      <c r="S18" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="T18" s="12" t="s">
+      <c r="T18" s="13" t="s">
         <v>150</v>
       </c>
-      <c r="U18" s="0" t="s">
+      <c r="U18" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="V18" s="12"/>
+      <c r="V18" s="13"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+      <c r="A19" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E19" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="F19" s="11"/>
-      <c r="G19" s="2" t="s">
+      <c r="F19" s="12"/>
+      <c r="G19" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="H19" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I19" s="2" t="s">
+      <c r="H19" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I19" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="L19" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q19" s="12" t="s">
+      <c r="L19" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q19" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="R19" s="12"/>
+      <c r="R19" s="13"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+      <c r="A20" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E20" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="F20" s="11"/>
-      <c r="G20" s="2" t="s">
+      <c r="F20" s="12"/>
+      <c r="G20" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="H20" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I20" s="2" t="s">
+      <c r="H20" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I20" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="L20" s="3" t="s">
+      <c r="L20" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="Q20" s="12" t="s">
+      <c r="Q20" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="R20" s="12"/>
-      <c r="U20" s="0" t="s">
+      <c r="R20" s="13"/>
+      <c r="U20" s="1" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+      <c r="A21" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E21" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="F21" s="11"/>
-      <c r="G21" s="2" t="s">
+      <c r="F21" s="12"/>
+      <c r="G21" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="H21" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I21" s="2" t="s">
+      <c r="H21" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I21" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="L21" s="3" t="s">
+      <c r="L21" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="Q21" s="12" t="s">
+      <c r="Q21" s="13" t="s">
         <v>167</v>
       </c>
-      <c r="R21" s="12"/>
+      <c r="R21" s="13"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+      <c r="A22" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="E22" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="F22" s="11"/>
-      <c r="G22" s="2" t="s">
+      <c r="F22" s="12"/>
+      <c r="G22" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="H22" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I22" s="2" t="s">
+      <c r="H22" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I22" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="L22" s="3" t="s">
+      <c r="L22" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="Q22" s="12" t="s">
+      <c r="Q22" s="13" t="s">
         <v>170</v>
       </c>
-      <c r="R22" s="12"/>
-      <c r="T22" s="0" t="s">
+      <c r="R22" s="13"/>
+      <c r="T22" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="U22" s="0" t="s">
+      <c r="U22" s="1" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+      <c r="A23" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="E23" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="F23" s="11"/>
-      <c r="G23" s="2" t="s">
+      <c r="F23" s="12"/>
+      <c r="G23" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="H23" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I23" s="2" t="s">
+      <c r="H23" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I23" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="J23" s="2" t="s">
+      <c r="J23" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="L23" s="3" t="s">
+      <c r="L23" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="Q23" s="12" t="s">
+      <c r="Q23" s="13" t="s">
         <v>176</v>
       </c>
-      <c r="R23" s="12"/>
-      <c r="T23" s="0" t="s">
+      <c r="R23" s="13"/>
+      <c r="T23" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="U23" s="0" t="s">
+      <c r="U23" s="1" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+      <c r="A24" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="E24" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="F24" s="11"/>
-      <c r="G24" s="2" t="s">
+      <c r="F24" s="12"/>
+      <c r="G24" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="H24" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I24" s="2" t="s">
+      <c r="H24" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I24" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="J24" s="2" t="s">
+      <c r="J24" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="K24" s="3" t="s">
+      <c r="K24" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="M24" s="3" t="s">
+      <c r="L24" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M24" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="Q24" s="12" t="s">
+      <c r="Q24" s="13" t="s">
         <v>187</v>
       </c>
-      <c r="R24" s="12"/>
-      <c r="S24" s="0" t="s">
+      <c r="R24" s="13"/>
+      <c r="S24" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="T24" s="12" t="s">
+      <c r="T24" s="13" t="s">
         <v>189</v>
       </c>
-      <c r="U24" s="12"/>
-      <c r="V24" s="0" t="s">
+      <c r="U24" s="13"/>
+      <c r="V24" s="1" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
+      <c r="A25" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D25" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="E25" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="F25" s="11"/>
-      <c r="G25" s="2" t="s">
+      <c r="F25" s="12"/>
+      <c r="G25" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="H25" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I25" s="2" t="s">
+      <c r="H25" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I25" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="L25" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q25" s="12" t="s">
+      <c r="L25" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q25" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="R25" s="12"/>
-      <c r="S25" s="0" t="s">
+      <c r="R25" s="13"/>
+      <c r="S25" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="T25" s="12"/>
-      <c r="U25" s="12"/>
+      <c r="T25" s="13"/>
+      <c r="U25" s="13"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
+      <c r="A26" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D26" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="E26" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="F26" s="11"/>
-      <c r="G26" s="2" t="s">
+      <c r="F26" s="12"/>
+      <c r="G26" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="H26" s="2" t="s">
+      <c r="H26" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="L26" s="3" t="s">
+      <c r="L26" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="N26" s="4" t="s">
+      <c r="N26" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="Q26" s="12" t="s">
+      <c r="Q26" s="13" t="s">
         <v>201</v>
       </c>
-      <c r="R26" s="12"/>
-      <c r="T26" s="12" t="s">
+      <c r="R26" s="13"/>
+      <c r="T26" s="13" t="s">
         <v>202</v>
       </c>
-      <c r="U26" s="12"/>
+      <c r="U26" s="13"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
+      <c r="A27" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D27" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="E27" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="F27" s="11"/>
-      <c r="G27" s="2" t="s">
+      <c r="F27" s="12"/>
+      <c r="G27" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="H27" s="2" t="s">
+      <c r="H27" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="L27" s="3" t="s">
+      <c r="L27" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="Q27" s="12" t="s">
+      <c r="Q27" s="13" t="s">
         <v>206</v>
       </c>
-      <c r="R27" s="12"/>
-      <c r="T27" s="12" t="s">
+      <c r="R27" s="13"/>
+      <c r="T27" s="13" t="s">
         <v>207</v>
       </c>
-      <c r="U27" s="12"/>
+      <c r="U27" s="13"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
+      <c r="A28" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="E28" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="F28" s="11"/>
-      <c r="G28" s="2" t="s">
+      <c r="F28" s="12"/>
+      <c r="G28" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="H28" s="2" t="s">
+      <c r="H28" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="L28" s="3" t="s">
+      <c r="L28" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="N28" s="4" t="s">
+      <c r="N28" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="Q28" s="12" t="s">
+      <c r="Q28" s="13" t="s">
         <v>211</v>
       </c>
-      <c r="R28" s="12"/>
-      <c r="T28" s="12"/>
-      <c r="U28" s="0" t="s">
+      <c r="R28" s="13"/>
+      <c r="T28" s="13"/>
+      <c r="U28" s="1" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
+      <c r="A29" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D29" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="E29" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="F29" s="11"/>
-      <c r="G29" s="2" t="s">
+      <c r="F29" s="12"/>
+      <c r="G29" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="H29" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I29" s="2" t="s">
+      <c r="H29" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I29" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="J29" s="2" t="s">
+      <c r="J29" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="L29" s="3" t="s">
+      <c r="L29" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="N29" s="4" t="s">
+      <c r="N29" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="Q29" s="12" t="s">
+      <c r="Q29" s="13" t="s">
         <v>217</v>
       </c>
-      <c r="R29" s="12"/>
-      <c r="S29" s="0" t="s">
+      <c r="R29" s="13"/>
+      <c r="S29" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="T29" s="12"/>
-      <c r="U29" s="12"/>
+      <c r="T29" s="13"/>
+      <c r="U29" s="13"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
+      <c r="A30" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D30" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="E30" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="F30" s="11"/>
-      <c r="G30" s="2" t="s">
+      <c r="F30" s="12"/>
+      <c r="G30" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="H30" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I30" s="2" t="s">
+      <c r="H30" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I30" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="J30" s="2" t="s">
+      <c r="J30" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="K30" s="3" t="s">
+      <c r="K30" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="L30" s="3" t="s">
+      <c r="L30" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="Q30" s="12" t="s">
+      <c r="Q30" s="13" t="s">
         <v>222</v>
       </c>
-      <c r="R30" s="12"/>
-      <c r="S30" s="0" t="s">
+      <c r="R30" s="13"/>
+      <c r="S30" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="T30" s="12" t="s">
+      <c r="T30" s="13" t="s">
         <v>223</v>
       </c>
-      <c r="U30" s="0" t="s">
+      <c r="U30" s="1" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
+      <c r="A31" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D31" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="E31" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="F31" s="11"/>
-      <c r="G31" s="2" t="s">
+      <c r="F31" s="12"/>
+      <c r="G31" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="H31" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I31" s="2" t="s">
+      <c r="H31" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I31" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="L31" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q31" s="12" t="s">
+      <c r="L31" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q31" s="13" t="s">
         <v>228</v>
       </c>
-      <c r="R31" s="12"/>
-      <c r="T31" s="12" t="s">
+      <c r="R31" s="13"/>
+      <c r="T31" s="13" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
+      <c r="A32" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D32" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="E32" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="F32" s="11"/>
-      <c r="G32" s="2" t="s">
+      <c r="F32" s="12"/>
+      <c r="G32" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="H32" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I32" s="2" t="s">
+      <c r="H32" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I32" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="L32" s="3" t="s">
+      <c r="L32" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="Q32" s="12" t="s">
+      <c r="Q32" s="13" t="s">
         <v>234</v>
       </c>
-      <c r="R32" s="12"/>
-      <c r="T32" s="12"/>
+      <c r="R32" s="13"/>
+      <c r="T32" s="13"/>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
+      <c r="A33" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C33" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D33" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="E33" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="F33" s="11"/>
-      <c r="G33" s="2" t="s">
+      <c r="F33" s="12"/>
+      <c r="G33" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="H33" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I33" s="2" t="s">
+      <c r="H33" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I33" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="K33" s="3" t="s">
+      <c r="K33" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="M33" s="3" t="s">
+      <c r="L33" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M33" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="Q33" s="12" t="s">
+      <c r="Q33" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="R33" s="12"/>
-      <c r="S33" s="0" t="s">
+      <c r="R33" s="13"/>
+      <c r="S33" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="T33" s="12"/>
-      <c r="V33" s="0" t="s">
+      <c r="T33" s="13"/>
+      <c r="V33" s="1" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
+      <c r="A34" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C34" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D34" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="E34" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="F34" s="13" t="n">
+      <c r="F34" s="14" t="n">
         <v>44779</v>
       </c>
-      <c r="G34" s="2" t="s">
+      <c r="G34" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="H34" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I34" s="2" t="s">
+      <c r="H34" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I34" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="J34" s="2" t="s">
+      <c r="J34" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="L34" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q34" s="12" t="s">
+      <c r="L34" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q34" s="13" t="s">
         <v>247</v>
       </c>
-      <c r="R34" s="12"/>
-      <c r="S34" s="0" t="s">
+      <c r="R34" s="13"/>
+      <c r="S34" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="T34" s="17" t="s">
+      <c r="T34" s="13" t="s">
         <v>249</v>
       </c>
-      <c r="U34" s="0" t="s">
+      <c r="U34" s="1" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="1" t="s">
+      <c r="A35" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C35" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="D35" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="E35" s="1" t="s">
+      <c r="D35" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="F35" s="13" t="s">
+      <c r="E35" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="G35" s="2" t="s">
+      <c r="F35" s="14" t="s">
         <v>254</v>
       </c>
-      <c r="H35" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I35" s="2" t="s">
+      <c r="G35" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I35" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="J35" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="K35" s="3" t="s">
+      <c r="J35" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="M35" s="3" t="s">
+      <c r="K35" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="N35" s="4" t="s">
+      <c r="L35" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M35" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="N35" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="O35" s="0" t="s">
+      <c r="O35" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="Q35" s="12" t="s">
-        <v>258</v>
-      </c>
-      <c r="R35" s="12"/>
-      <c r="S35" s="0" t="s">
+      <c r="Q35" s="13" t="s">
         <v>259</v>
       </c>
-      <c r="T35" s="17"/>
-      <c r="U35" s="0" t="s">
+      <c r="R35" s="13"/>
+      <c r="S35" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="V35" s="0" t="s">
+      <c r="T35" s="13"/>
+      <c r="U35" s="1" t="s">
         <v>261</v>
       </c>
+      <c r="V35" s="1" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
-        <v>262</v>
-      </c>
-      <c r="B36" s="1" t="s">
+      <c r="A36" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C36" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="D36" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="D36" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="F36" s="11"/>
-      <c r="G36" s="2" t="s">
+      <c r="E36" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="F36" s="12"/>
+      <c r="G36" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="H36" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I36" s="2" t="s">
+      <c r="H36" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I36" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="L36" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="M36" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="P36" s="0" t="s">
+      <c r="L36" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M36" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="P36" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="Q36" s="12" t="s">
-        <v>266</v>
-      </c>
-      <c r="R36" s="12"/>
-      <c r="S36" s="0" t="s">
+      <c r="Q36" s="13" t="s">
         <v>267</v>
       </c>
-      <c r="T36" s="12" t="s">
+      <c r="R36" s="13"/>
+      <c r="S36" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="U36" s="0" t="s">
+      <c r="T36" s="13" t="s">
         <v>269</v>
       </c>
-      <c r="V36" s="0" t="s">
+      <c r="U36" s="1" t="s">
         <v>270</v>
       </c>
+      <c r="V36" s="1" t="s">
+        <v>271</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
-        <v>271</v>
-      </c>
-      <c r="B37" s="1" t="s">
+      <c r="A37" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C37" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="D37" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="D37" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="F37" s="11"/>
-      <c r="G37" s="2" t="s">
+      <c r="E37" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="F37" s="12"/>
+      <c r="G37" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="H37" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I37" s="2" t="s">
+      <c r="H37" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I37" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="J37" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="L37" s="3" t="s">
+      <c r="J37" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="L37" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="Q37" s="12" t="s">
-        <v>275</v>
-      </c>
-      <c r="R37" s="12"/>
-      <c r="T37" s="12"/>
+      <c r="Q37" s="13" t="s">
+        <v>276</v>
+      </c>
+      <c r="R37" s="13"/>
+      <c r="T37" s="13"/>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
-        <v>276</v>
-      </c>
-      <c r="B38" s="1" t="s">
+      <c r="A38" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="C38" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="D38" s="1" t="s">
+      <c r="C38" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="E38" s="1" t="s">
+      <c r="D38" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="F38" s="11"/>
-      <c r="G38" s="2" t="s">
+      <c r="E38" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="F38" s="12"/>
+      <c r="G38" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="H38" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I38" s="2" t="s">
+      <c r="H38" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I38" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="K38" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="L38" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="M38" s="3" t="s">
+      <c r="K38" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="L38" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M38" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="N38" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="Q38" s="12" t="s">
+      <c r="N38" s="5" t="s">
         <v>282</v>
       </c>
-      <c r="R38" s="12"/>
-      <c r="S38" s="0" t="s">
+      <c r="Q38" s="13" t="s">
         <v>283</v>
       </c>
-      <c r="T38" s="17" t="s">
+      <c r="R38" s="13"/>
+      <c r="S38" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="U38" s="0" t="s">
+      <c r="T38" s="13" t="s">
         <v>285</v>
       </c>
+      <c r="U38" s="1" t="s">
+        <v>286</v>
+      </c>
       <c r="V38" s="18" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="1" t="s">
+      <c r="A39" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="C39" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="D39" s="1" t="s">
+      <c r="C39" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="D39" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="E39" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="F39" s="11" t="s">
+      <c r="E39" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="G39" s="2" t="s">
+      <c r="F39" s="12" t="s">
+        <v>291</v>
+      </c>
+      <c r="G39" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="H39" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I39" s="2" t="s">
+      <c r="H39" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I39" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="J39" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="K39" s="3" t="s">
+      <c r="J39" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="L39" s="3" t="s">
+      <c r="K39" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="L39" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="N39" s="4" t="s">
+      <c r="N39" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="O39" s="0" t="s">
+      <c r="O39" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="Q39" s="12" t="s">
-        <v>293</v>
+      <c r="Q39" s="13" t="s">
+        <v>294</v>
       </c>
       <c r="R39" s="19" t="n">
         <v>1.2</v>
       </c>
-      <c r="T39" s="17" t="s">
-        <v>294</v>
-      </c>
-      <c r="U39" s="0" t="s">
+      <c r="T39" s="13" t="s">
         <v>295</v>
       </c>
+      <c r="U39" s="1" t="s">
+        <v>296</v>
+      </c>
       <c r="V39" s="18"/>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
-        <v>296</v>
-      </c>
-      <c r="B40" s="1" t="s">
+      <c r="A40" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="B40" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="C40" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="E40" s="1" t="s">
+      <c r="D40" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="F40" s="11"/>
-      <c r="G40" s="2" t="s">
+      <c r="E40" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="F40" s="12"/>
+      <c r="G40" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="H40" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I40" s="2" t="s">
+      <c r="H40" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I40" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="L40" s="3" t="s">
+      <c r="L40" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="Q40" s="12" t="s">
-        <v>301</v>
-      </c>
-      <c r="R40" s="12"/>
-      <c r="T40" s="12" t="s">
+      <c r="Q40" s="13" t="s">
         <v>302</v>
       </c>
-      <c r="U40" s="0" t="s">
+      <c r="R40" s="13"/>
+      <c r="T40" s="13" t="s">
         <v>303</v>
       </c>
+      <c r="U40" s="1" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
-        <v>304</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="C41" s="1" t="s">
+      <c r="A41" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="B41" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="C41" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="E41" s="1" t="s">
+      <c r="D41" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="F41" s="11"/>
-      <c r="G41" s="2" t="s">
+      <c r="E41" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="F41" s="12"/>
+      <c r="G41" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="H41" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I41" s="2" t="s">
+      <c r="H41" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I41" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="L41" s="3" t="s">
+      <c r="L41" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="Q41" s="12" t="s">
-        <v>308</v>
-      </c>
-      <c r="R41" s="12"/>
+      <c r="Q41" s="13" t="s">
+        <v>309</v>
+      </c>
+      <c r="R41" s="13"/>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
-        <v>309</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="E42" s="1" t="s">
+      <c r="A42" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="F42" s="11"/>
-      <c r="G42" s="2" t="s">
+      <c r="B42" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="F42" s="12"/>
+      <c r="G42" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="H42" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I42" s="2" t="s">
+      <c r="H42" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I42" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="J42" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="L42" s="3" t="s">
+      <c r="J42" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="L42" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="Q42" s="12" t="s">
-        <v>312</v>
-      </c>
-      <c r="R42" s="12"/>
-      <c r="V42" s="0" t="s">
+      <c r="Q42" s="13" t="s">
         <v>313</v>
       </c>
+      <c r="R42" s="13"/>
+      <c r="V42" s="1" t="s">
+        <v>314</v>
+      </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="s">
-        <v>314</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="E43" s="1" t="s">
+      <c r="A43" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="F43" s="11"/>
-      <c r="G43" s="2" t="s">
+      <c r="B43" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="F43" s="12"/>
+      <c r="G43" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="H43" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I43" s="2" t="s">
+      <c r="H43" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I43" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="J43" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="L43" s="3" t="s">
+      <c r="J43" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="L43" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="Q43" s="12" t="s">
+      <c r="Q43" s="13" t="s">
+        <v>318</v>
+      </c>
+      <c r="R43" s="13"/>
+      <c r="S43" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="T43" s="13" t="s">
+        <v>320</v>
+      </c>
+      <c r="U43" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="F44" s="12"/>
+      <c r="G44" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J44" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="R43" s="12"/>
-      <c r="S43" s="0" t="s">
-        <v>318</v>
-      </c>
-      <c r="T43" s="12" t="s">
-        <v>319</v>
-      </c>
-      <c r="U43" s="0" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="s">
-        <v>321</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="F44" s="11"/>
-      <c r="G44" s="2" t="s">
+      <c r="L44" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q44" s="13" t="s">
+        <v>324</v>
+      </c>
+      <c r="R44" s="13"/>
+      <c r="S44" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="T44" s="13" t="s">
+        <v>326</v>
+      </c>
+      <c r="U44" s="1" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="F45" s="12"/>
+      <c r="G45" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="H44" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I44" s="2" t="s">
+      <c r="H45" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I45" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="J44" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="L44" s="3" t="s">
+      <c r="J45" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="L45" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="Q44" s="12" t="s">
-        <v>323</v>
-      </c>
-      <c r="R44" s="12"/>
-      <c r="S44" s="0" t="s">
-        <v>324</v>
-      </c>
-      <c r="T44" s="12" t="s">
-        <v>325</v>
-      </c>
-      <c r="U44" s="0" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="s">
-        <v>327</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="F45" s="11"/>
-      <c r="G45" s="2" t="s">
+      <c r="Q45" s="13" t="s">
+        <v>331</v>
+      </c>
+      <c r="R45" s="13"/>
+      <c r="U45" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="V45" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="F46" s="12"/>
+      <c r="G46" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="H45" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I45" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J45" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="L45" s="3" t="s">
+      <c r="H46" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="L46" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="Q45" s="12" t="s">
-        <v>330</v>
-      </c>
-      <c r="R45" s="12"/>
-      <c r="U45" s="0" t="s">
-        <v>331</v>
-      </c>
-      <c r="V45" s="0" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="s">
-        <v>333</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="F46" s="11"/>
-      <c r="G46" s="2" t="s">
+      <c r="Q46" s="13" t="s">
+        <v>338</v>
+      </c>
+      <c r="R46" s="13"/>
+      <c r="S46" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="T46" s="13" t="s">
+        <v>340</v>
+      </c>
+      <c r="U46" s="1" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="F47" s="12"/>
+      <c r="G47" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="H46" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I46" s="2" t="s">
+      <c r="H47" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I47" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="L46" s="3" t="s">
+      <c r="K47" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="L47" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M47" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="Q47" s="13" t="s">
+        <v>348</v>
+      </c>
+      <c r="R47" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="S47" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="T47" s="13" t="s">
+        <v>351</v>
+      </c>
+      <c r="U47" s="1" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="F48" s="12"/>
+      <c r="G48" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="L48" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="Q46" s="12" t="s">
-        <v>337</v>
-      </c>
-      <c r="R46" s="12"/>
-      <c r="S46" s="0" t="s">
-        <v>338</v>
-      </c>
-      <c r="T46" s="12" t="s">
-        <v>339</v>
-      </c>
-      <c r="U46" s="0" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="s">
-        <v>341</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="F47" s="11"/>
-      <c r="G47" s="2" t="s">
+      <c r="Q48" s="13" t="s">
+        <v>358</v>
+      </c>
+      <c r="R48" s="13"/>
+      <c r="T48" s="13" t="s">
+        <v>359</v>
+      </c>
+      <c r="U48" s="1" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="F49" s="12"/>
+      <c r="G49" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="H47" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I47" s="2" t="s">
+      <c r="H49" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="L49" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q49" s="13" t="s">
+        <v>366</v>
+      </c>
+      <c r="R49" s="13"/>
+      <c r="S49" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="T49" s="13" t="s">
+        <v>368</v>
+      </c>
+      <c r="U49" s="13"/>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="F50" s="12" t="s">
+        <v>373</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H50" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I50" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="L47" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="M47" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="Q47" s="12" t="s">
-        <v>347</v>
-      </c>
-      <c r="R47" s="0" t="s">
-        <v>348</v>
-      </c>
-      <c r="S47" s="0" t="s">
-        <v>349</v>
-      </c>
-      <c r="T47" s="12" t="s">
-        <v>350</v>
-      </c>
-      <c r="U47" s="0" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="s">
-        <v>352</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="F48" s="11"/>
-      <c r="G48" s="2" t="s">
+      <c r="K50" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="L50" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q50" s="13" t="s">
+        <v>375</v>
+      </c>
+      <c r="R50" s="13"/>
+      <c r="S50" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="T50" s="13" t="s">
+        <v>377</v>
+      </c>
+      <c r="U50" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="V50" s="1" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="F51" s="12"/>
+      <c r="G51" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="H48" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I48" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="L48" s="3" t="s">
+      <c r="H51" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I51" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="J51" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="K51" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="L51" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M51" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="N51" s="5" t="s">
+        <v>385</v>
+      </c>
+      <c r="Q51" s="13" t="s">
+        <v>386</v>
+      </c>
+      <c r="R51" s="13"/>
+      <c r="S51" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="T51" s="13" t="s">
+        <v>387</v>
+      </c>
+      <c r="U51" s="1" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="F52" s="12"/>
+      <c r="G52" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="L52" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="Q48" s="12" t="s">
-        <v>357</v>
-      </c>
-      <c r="R48" s="12"/>
-      <c r="T48" s="12" t="s">
-        <v>358</v>
-      </c>
-      <c r="U48" s="0" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="s">
-        <v>360</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="F49" s="11"/>
-      <c r="G49" s="2" t="s">
+      <c r="Q52" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="V52" s="1" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="F53" s="12"/>
+      <c r="G53" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="H49" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I49" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="J49" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="L49" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q49" s="12" t="s">
-        <v>365</v>
-      </c>
-      <c r="R49" s="12"/>
-      <c r="S49" s="0" t="s">
-        <v>366</v>
-      </c>
-      <c r="T49" s="12" t="s">
-        <v>367</v>
-      </c>
-      <c r="U49" s="12"/>
-    </row>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="s">
-        <v>368</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="F50" s="11" t="s">
-        <v>372</v>
-      </c>
-      <c r="G50" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="H50" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I50" s="2" t="s">
+      <c r="H53" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I53" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="K50" s="3" t="s">
-        <v>373</v>
-      </c>
-      <c r="L50" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q50" s="12" t="s">
-        <v>374</v>
-      </c>
-      <c r="R50" s="12"/>
-      <c r="S50" s="0" t="s">
-        <v>375</v>
-      </c>
-      <c r="T50" s="17" t="s">
-        <v>376</v>
-      </c>
-      <c r="U50" s="0" t="s">
-        <v>377</v>
-      </c>
-      <c r="V50" s="0" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="s">
-        <v>379</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="C51" s="1" t="s">
+      <c r="L53" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M53" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="N53" s="5" t="s">
+        <v>385</v>
+      </c>
+      <c r="Q53" s="13" t="s">
+        <v>398</v>
+      </c>
+      <c r="S53" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="T53" s="13" t="s">
+        <v>400</v>
+      </c>
+      <c r="U53" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="V53" s="1" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="B54" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="D51" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="F51" s="11"/>
-      <c r="G51" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="H51" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I51" s="2" t="s">
+      <c r="C54" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="F54" s="12"/>
+      <c r="G54" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I54" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="J51" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="K51" s="3" t="s">
-        <v>383</v>
-      </c>
-      <c r="L51" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="M51" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="N51" s="4" t="s">
-        <v>384</v>
-      </c>
-      <c r="Q51" s="12" t="s">
-        <v>385</v>
-      </c>
-      <c r="R51" s="12"/>
-      <c r="S51" s="0" t="s">
-        <v>218</v>
-      </c>
-      <c r="T51" s="12" t="s">
-        <v>386</v>
-      </c>
-      <c r="U51" s="0" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="0" t="s">
-        <v>388</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="E52" s="1" t="s">
+      <c r="L54" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M54" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q54" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="S54" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="T54" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="U54" s="1" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="C55" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="F52" s="11"/>
-      <c r="G52" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="H52" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I52" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="L52" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q52" s="0" t="s">
-        <v>391</v>
-      </c>
-      <c r="V52" s="0" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0" t="s">
-        <v>393</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="F53" s="11"/>
-      <c r="G53" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="H53" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I53" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="L53" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="M53" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="N53" s="4" t="s">
-        <v>384</v>
-      </c>
-      <c r="Q53" s="12" t="s">
-        <v>397</v>
-      </c>
-      <c r="S53" s="0" t="s">
-        <v>398</v>
-      </c>
-      <c r="T53" s="12" t="s">
-        <v>399</v>
-      </c>
-      <c r="U53" s="0" t="s">
-        <v>400</v>
-      </c>
-      <c r="V53" s="0" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="0" t="s">
-        <v>402</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="F54" s="11"/>
-      <c r="G54" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="H54" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I54" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="L54" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="M54" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q54" s="0" t="s">
-        <v>407</v>
-      </c>
-      <c r="S54" s="0" t="s">
-        <v>408</v>
-      </c>
-      <c r="T54" s="0" t="s">
-        <v>409</v>
-      </c>
-      <c r="U54" s="0" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B55" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>412</v>
+      <c r="D55" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>414</v>
       </c>
       <c r="F55" s="20" t="n">
         <v>45235</v>
       </c>
-      <c r="G55" s="2" t="s">
+      <c r="G55" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="H55" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I55" s="2" t="s">
+      <c r="H55" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I55" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="L55" s="3" t="s">
+      <c r="L55" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="N55" s="4" t="s">
-        <v>384</v>
-      </c>
-      <c r="Q55" s="0" t="s">
-        <v>413</v>
-      </c>
-      <c r="S55" s="0" t="s">
-        <v>414</v>
-      </c>
-      <c r="T55" s="0" t="s">
+      <c r="N55" s="5" t="s">
+        <v>385</v>
+      </c>
+      <c r="Q55" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="U55" s="0" t="s">
+      <c r="S55" s="1" t="s">
         <v>416</v>
+      </c>
+      <c r="T55" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="U55" s="1" t="s">
+        <v>418</v>
       </c>
     </row>
   </sheetData>
@@ -4798,7 +4811,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -4808,22 +4821,22 @@
       <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.4296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>417</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>418</v>
+      <c r="A2" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>419</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>420</v>
+      <c r="A3" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>422</v>
       </c>
     </row>
   </sheetData>

--- a/ExternalDataSources.xlsx
+++ b/ExternalDataSources.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="755" uniqueCount="423">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="431">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -732,6 +732,30 @@
   </si>
   <si>
     <t xml:space="preserve">Choat B., Jansen S., Brodribb T.J., Cochard H., Delzon S., Bhaskar R., Bucci S., Feild T.S., Gleason S.M., Hacke U.G., Jacobsen A.L., Lens F., Maherali H., Martinez-Vilalta J., Mayr S., Mencuccini M., Mitchell P.J., Nardini A., Pittermann J., Pratt R.B., Sperry J.S., Westoby M., Wright I.J., Zanne A. (2012) Global convergence in the vulnerability of forests to drought. Nature 491: 752-755.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RSIP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Root systems of individual plants</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contains 5,647 observations, to our knowledge the largest database describing the maximum rooting depth, lateral spread, and shoot size of terrestrial plants in the world</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XLSX, CSV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://pasta.lternet.edu/package/metadata/eml/knb-lter-hfr/426/1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rooting depth and spread, shoot height and width</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1111/nph.18031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tumber-Dávila, Shersingh Joseph and Schenk, H. Jochen and Du, Enzai and Jackson, Robert B. New Phytologist (2022) 235: 1032–1056</t>
   </si>
   <si>
     <t xml:space="preserve">sPlot</t>
@@ -1945,7 +1969,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1991,6 +2015,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="11"/>
+      <color rgb="FF0563C1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -2069,7 +2100,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2142,16 +2173,20 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -2228,19 +2263,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V55"/>
+  <dimension ref="A1:V1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="G24" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="G11" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A55" activeCellId="0" sqref="A55"/>
+      <selection pane="bottomLeft" activeCell="A29" activeCellId="0" sqref="A29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.4296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.4453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="25.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="2" width="25.28"/>
@@ -3511,18 +3546,20 @@
         <v>213</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>197</v>
+        <v>180</v>
       </c>
       <c r="C29" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D29" s="2" t="s">
         <v>214</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>213</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="F29" s="12"/>
+      <c r="F29" s="18" t="n">
+        <v>45118</v>
+      </c>
       <c r="G29" s="3" t="s">
         <v>51</v>
       </c>
@@ -3532,40 +3569,45 @@
       <c r="I29" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="J29" s="3" t="s">
-        <v>216</v>
-      </c>
       <c r="L29" s="4" t="s">
         <v>84</v>
       </c>
       <c r="N29" s="5" t="s">
         <v>200</v>
       </c>
+      <c r="O29" s="1" t="s">
+        <v>216</v>
+      </c>
       <c r="Q29" s="13" t="s">
         <v>217</v>
       </c>
-      <c r="R29" s="13"/>
+      <c r="R29" s="19"/>
       <c r="S29" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="T29" s="13"/>
-      <c r="U29" s="13"/>
+      <c r="T29" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="U29" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="V29" s="21"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>197</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="F30" s="12"/>
       <c r="G30" s="3" t="s">
@@ -3578,43 +3620,39 @@
         <v>107</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="K30" s="4" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="L30" s="4" t="s">
         <v>84</v>
       </c>
+      <c r="N30" s="5" t="s">
+        <v>200</v>
+      </c>
       <c r="Q30" s="13" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="R30" s="13"/>
       <c r="S30" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="T30" s="13" t="s">
-        <v>223</v>
-      </c>
-      <c r="U30" s="1" t="s">
-        <v>224</v>
-      </c>
+        <v>226</v>
+      </c>
+      <c r="T30" s="13"/>
+      <c r="U30" s="13"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>197</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F31" s="12"/>
       <c r="G31" s="3" t="s">
@@ -3626,32 +3664,44 @@
       <c r="I31" s="3" t="s">
         <v>107</v>
       </c>
+      <c r="J31" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="K31" s="4" t="s">
+        <v>229</v>
+      </c>
       <c r="L31" s="4" t="s">
-        <v>28</v>
+        <v>84</v>
       </c>
       <c r="Q31" s="13" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="R31" s="13"/>
+      <c r="S31" s="1" t="s">
+        <v>226</v>
+      </c>
       <c r="T31" s="13" t="s">
-        <v>229</v>
+        <v>231</v>
+      </c>
+      <c r="U31" s="1" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>197</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="F32" s="12"/>
       <c r="G32" s="3" t="s">
@@ -3664,33 +3714,35 @@
         <v>107</v>
       </c>
       <c r="L32" s="4" t="s">
-        <v>84</v>
+        <v>28</v>
       </c>
       <c r="Q32" s="13" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="R32" s="13"/>
-      <c r="T32" s="13"/>
+      <c r="T32" s="13" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>197</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="F33" s="12"/>
       <c r="G33" s="3" t="s">
-        <v>93</v>
+        <v>51</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>28</v>
@@ -3698,72 +3750,59 @@
       <c r="I33" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="K33" s="4" t="s">
-        <v>239</v>
-      </c>
       <c r="L33" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="M33" s="4" t="s">
-        <v>216</v>
+        <v>84</v>
       </c>
       <c r="Q33" s="13" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="R33" s="13"/>
-      <c r="S33" s="1" t="s">
-        <v>241</v>
-      </c>
       <c r="T33" s="13"/>
-      <c r="V33" s="1" t="s">
-        <v>242</v>
-      </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
         <v>243</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="F34" s="14" t="n">
-        <v>44779</v>
-      </c>
+        <v>246</v>
+      </c>
+      <c r="F34" s="12"/>
       <c r="G34" s="3" t="s">
-        <v>51</v>
+        <v>93</v>
       </c>
       <c r="H34" s="3" t="s">
         <v>28</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J34" s="3" t="s">
-        <v>246</v>
+        <v>107</v>
+      </c>
+      <c r="K34" s="4" t="s">
+        <v>247</v>
       </c>
       <c r="L34" s="4" t="s">
         <v>28</v>
       </c>
+      <c r="M34" s="4" t="s">
+        <v>224</v>
+      </c>
       <c r="Q34" s="13" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="R34" s="13"/>
       <c r="S34" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="T34" s="13" t="s">
         <v>249</v>
       </c>
-      <c r="U34" s="1" t="s">
+      <c r="T34" s="13"/>
+      <c r="V34" s="1" t="s">
         <v>250</v>
       </c>
     </row>
@@ -3775,7 +3814,7 @@
         <v>180</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>252</v>
@@ -3783,11 +3822,11 @@
       <c r="E35" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="F35" s="14" t="s">
-        <v>254</v>
+      <c r="F35" s="14" t="n">
+        <v>44779</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>255</v>
+        <v>51</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>28</v>
@@ -3796,63 +3835,58 @@
         <v>29</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="K35" s="4" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="L35" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="M35" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="N35" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="O35" s="1" t="s">
-        <v>147</v>
-      </c>
       <c r="Q35" s="13" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="R35" s="13"/>
       <c r="S35" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="T35" s="13"/>
+        <v>256</v>
+      </c>
+      <c r="T35" s="13" t="s">
+        <v>257</v>
+      </c>
       <c r="U35" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="V35" s="1" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="F36" s="14" t="s">
+        <v>262</v>
+      </c>
+      <c r="G36" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="B36" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="C36" s="2" t="s">
+      <c r="H36" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J36" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="D36" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="E36" s="2" t="s">
+      <c r="K36" s="4" t="s">
         <v>265</v>
-      </c>
-      <c r="F36" s="12"/>
-      <c r="G36" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="H36" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I36" s="3" t="s">
-        <v>107</v>
       </c>
       <c r="L36" s="4" t="s">
         <v>28</v>
@@ -3860,8 +3894,11 @@
       <c r="M36" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="P36" s="1" t="s">
-        <v>101</v>
+      <c r="N36" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="O36" s="1" t="s">
+        <v>147</v>
       </c>
       <c r="Q36" s="13" t="s">
         <v>267</v>
@@ -3870,31 +3907,29 @@
       <c r="S36" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="T36" s="13" t="s">
+      <c r="T36" s="13"/>
+      <c r="U36" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="U36" s="1" t="s">
+      <c r="V36" s="1" t="s">
         <v>270</v>
-      </c>
-      <c r="V36" s="1" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>197</v>
       </c>
       <c r="C37" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="E37" s="2" t="s">
         <v>273</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>274</v>
       </c>
       <c r="F37" s="12"/>
       <c r="G37" s="3" t="s">
@@ -3904,35 +3939,49 @@
         <v>28</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J37" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="L37" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M37" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="P37" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q37" s="13" t="s">
         <v>275</v>
       </c>
-      <c r="L37" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q37" s="13" t="s">
+      <c r="R37" s="13"/>
+      <c r="S37" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="R37" s="13"/>
-      <c r="T37" s="13"/>
+      <c r="T37" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="U37" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="V37" s="1" t="s">
+        <v>279</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="F38" s="12"/>
       <c r="G38" s="3" t="s">
@@ -3942,149 +3991,147 @@
         <v>28</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="K38" s="4" t="s">
-        <v>281</v>
+        <v>29</v>
+      </c>
+      <c r="J38" s="3" t="s">
+        <v>283</v>
       </c>
       <c r="L38" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="M38" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="N38" s="5" t="s">
-        <v>282</v>
+        <v>84</v>
       </c>
       <c r="Q38" s="13" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="R38" s="13"/>
-      <c r="S38" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="T38" s="13" t="s">
-        <v>285</v>
-      </c>
-      <c r="U38" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="V38" s="18" t="s">
-        <v>287</v>
-      </c>
+      <c r="T38" s="13"/>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>180</v>
       </c>
       <c r="C39" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="F39" s="12"/>
+      <c r="G39" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I39" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="K39" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="D39" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="E39" s="2" t="s">
+      <c r="L39" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M39" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="N39" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="F39" s="12" t="s">
+      <c r="Q39" s="13" t="s">
         <v>291</v>
       </c>
-      <c r="G39" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="H39" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I39" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J39" s="3" t="s">
+      <c r="R39" s="13"/>
+      <c r="S39" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="K39" s="4" t="s">
+      <c r="T39" s="13" t="s">
         <v>293</v>
       </c>
-      <c r="L39" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="N39" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="O39" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q39" s="13" t="s">
+      <c r="U39" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="R39" s="19" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="T39" s="13" t="s">
+      <c r="V39" s="21" t="s">
         <v>295</v>
       </c>
-      <c r="U39" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="V39" s="18"/>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C40" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="D40" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="E40" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="F40" s="12" t="s">
         <v>299</v>
       </c>
-      <c r="D40" s="2" t="s">
+      <c r="G40" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I40" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J40" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="E40" s="2" t="s">
+      <c r="K40" s="4" t="s">
         <v>301</v>
-      </c>
-      <c r="F40" s="12"/>
-      <c r="G40" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="H40" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I40" s="3" t="s">
-        <v>107</v>
       </c>
       <c r="L40" s="4" t="s">
         <v>84</v>
       </c>
+      <c r="N40" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="O40" s="1" t="s">
+        <v>147</v>
+      </c>
       <c r="Q40" s="13" t="s">
         <v>302</v>
       </c>
-      <c r="R40" s="13"/>
+      <c r="R40" s="19" t="n">
+        <v>1.2</v>
+      </c>
       <c r="T40" s="13" t="s">
         <v>303</v>
       </c>
       <c r="U40" s="1" t="s">
         <v>304</v>
       </c>
+      <c r="V40" s="21"/>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
         <v>305</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="F41" s="12"/>
       <c r="G41" s="3" t="s">
@@ -4094,31 +4141,37 @@
         <v>28</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>29</v>
+        <v>107</v>
       </c>
       <c r="L41" s="4" t="s">
         <v>84</v>
       </c>
       <c r="Q41" s="13" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="R41" s="13"/>
+      <c r="T41" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="U41" s="1" t="s">
+        <v>312</v>
+      </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="F42" s="12"/>
       <c r="G42" s="3" t="s">
@@ -4130,35 +4183,29 @@
       <c r="I42" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="J42" s="3" t="s">
-        <v>312</v>
-      </c>
       <c r="L42" s="4" t="s">
         <v>84</v>
       </c>
       <c r="Q42" s="13" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="R42" s="13"/>
-      <c r="V42" s="1" t="s">
-        <v>314</v>
-      </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="F43" s="12"/>
       <c r="G43" s="3" t="s">
@@ -4171,37 +4218,34 @@
         <v>29</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="L43" s="4" t="s">
         <v>84</v>
       </c>
       <c r="Q43" s="13" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="R43" s="13"/>
-      <c r="S43" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="T43" s="13" t="s">
-        <v>320</v>
-      </c>
-      <c r="U43" s="1" t="s">
-        <v>321</v>
+      <c r="V43" s="1" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>323</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>324</v>
       </c>
       <c r="F44" s="12"/>
       <c r="G44" s="3" t="s">
@@ -4214,40 +4258,37 @@
         <v>29</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="L44" s="4" t="s">
         <v>84</v>
       </c>
       <c r="Q44" s="13" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="R44" s="13"/>
       <c r="S44" s="1" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="T44" s="13" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="U44" s="1" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>329</v>
+        <v>314</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="F45" s="12"/>
       <c r="G45" s="3" t="s">
@@ -4260,37 +4301,40 @@
         <v>29</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>52</v>
+        <v>325</v>
       </c>
       <c r="L45" s="4" t="s">
         <v>84</v>
       </c>
       <c r="Q45" s="13" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="R45" s="13"/>
+      <c r="S45" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="T45" s="13" t="s">
+        <v>334</v>
+      </c>
       <c r="U45" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="V45" s="1" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>336</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="F46" s="12"/>
       <c r="G46" s="3" t="s">
@@ -4300,22 +4344,22 @@
         <v>28</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>107</v>
+        <v>29</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="L46" s="4" t="s">
         <v>84</v>
       </c>
       <c r="Q46" s="13" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="R46" s="13"/>
-      <c r="S46" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="T46" s="13" t="s">
+      <c r="U46" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="U46" s="1" t="s">
+      <c r="V46" s="1" t="s">
         <v>341</v>
       </c>
     </row>
@@ -4324,7 +4368,7 @@
         <v>342</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>343</v>
@@ -4345,46 +4389,38 @@
       <c r="I47" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="K47" s="4" t="s">
+      <c r="L47" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q47" s="13" t="s">
         <v>346</v>
       </c>
-      <c r="L47" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="M47" s="4" t="s">
+      <c r="R47" s="13"/>
+      <c r="S47" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="Q47" s="13" t="s">
+      <c r="T47" s="13" t="s">
         <v>348</v>
       </c>
-      <c r="R47" s="1" t="s">
+      <c r="U47" s="1" t="s">
         <v>349</v>
-      </c>
-      <c r="S47" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="T47" s="13" t="s">
-        <v>351</v>
-      </c>
-      <c r="U47" s="1" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>353</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>357</v>
       </c>
       <c r="F48" s="12"/>
       <c r="G48" s="3" t="s">
@@ -4394,15 +4430,26 @@
         <v>28</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>157</v>
+        <v>107</v>
+      </c>
+      <c r="K48" s="4" t="s">
+        <v>354</v>
       </c>
       <c r="L48" s="4" t="s">
-        <v>84</v>
+        <v>28</v>
+      </c>
+      <c r="M48" s="4" t="s">
+        <v>355</v>
       </c>
       <c r="Q48" s="13" t="s">
+        <v>356</v>
+      </c>
+      <c r="R48" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="S48" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="R48" s="13"/>
       <c r="T48" s="13" t="s">
         <v>359</v>
       </c>
@@ -4415,16 +4462,16 @@
         <v>361</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F49" s="12"/>
       <c r="G49" s="3" t="s">
@@ -4436,9 +4483,6 @@
       <c r="I49" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>365</v>
-      </c>
       <c r="L49" s="4" t="s">
         <v>84</v>
       </c>
@@ -4446,20 +4490,19 @@
         <v>366</v>
       </c>
       <c r="R49" s="13"/>
-      <c r="S49" s="1" t="s">
+      <c r="T49" s="13" t="s">
         <v>367</v>
       </c>
-      <c r="T49" s="13" t="s">
+      <c r="U49" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="U49" s="13"/>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
         <v>369</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>370</v>
@@ -4470,9 +4513,7 @@
       <c r="E50" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="F50" s="12" t="s">
-        <v>373</v>
-      </c>
+      <c r="F50" s="12"/>
       <c r="G50" s="3" t="s">
         <v>51</v>
       </c>
@@ -4480,48 +4521,45 @@
         <v>28</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="K50" s="4" t="s">
-        <v>374</v>
+        <v>157</v>
+      </c>
+      <c r="J50" s="3" t="s">
+        <v>373</v>
       </c>
       <c r="L50" s="4" t="s">
         <v>84</v>
       </c>
       <c r="Q50" s="13" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="R50" s="13"/>
       <c r="S50" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="T50" s="13" t="s">
         <v>376</v>
       </c>
-      <c r="T50" s="13" t="s">
-        <v>377</v>
-      </c>
-      <c r="U50" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="V50" s="1" t="s">
-        <v>379</v>
-      </c>
+      <c r="U50" s="13"/>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="E51" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="F51" s="12" t="s">
         <v>381</v>
       </c>
-      <c r="C51" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="F51" s="12"/>
       <c r="G51" s="3" t="s">
         <v>51</v>
       </c>
@@ -4531,47 +4569,41 @@
       <c r="I51" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="J51" s="3" t="s">
-        <v>216</v>
-      </c>
       <c r="K51" s="4" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="L51" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="M51" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="N51" s="5" t="s">
-        <v>385</v>
+        <v>84</v>
       </c>
       <c r="Q51" s="13" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="R51" s="13"/>
       <c r="S51" s="1" t="s">
-        <v>218</v>
+        <v>384</v>
       </c>
       <c r="T51" s="13" t="s">
+        <v>385</v>
+      </c>
+      <c r="U51" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="V51" s="1" t="s">
         <v>387</v>
-      </c>
-      <c r="U51" s="1" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="B52" s="2" t="s">
         <v>389</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>381</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>390</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>391</v>
@@ -4586,31 +4618,50 @@
       <c r="I52" s="3" t="s">
         <v>107</v>
       </c>
+      <c r="J52" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="K52" s="4" t="s">
+        <v>392</v>
+      </c>
       <c r="L52" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q52" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="V52" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M52" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="N52" s="5" t="s">
         <v>393</v>
+      </c>
+      <c r="Q52" s="13" t="s">
+        <v>394</v>
+      </c>
+      <c r="R52" s="13"/>
+      <c r="S52" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="T52" s="13" t="s">
+        <v>395</v>
+      </c>
+      <c r="U52" s="1" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="F53" s="12"/>
       <c r="G53" s="3" t="s">
@@ -4623,49 +4674,34 @@
         <v>107</v>
       </c>
       <c r="L53" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="M53" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="N53" s="5" t="s">
-        <v>385</v>
-      </c>
-      <c r="Q53" s="13" t="s">
-        <v>398</v>
-      </c>
-      <c r="S53" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="T53" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q53" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="U53" s="1" t="s">
+      <c r="V53" s="1" t="s">
         <v>401</v>
-      </c>
-      <c r="V53" s="1" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="C54" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="B54" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="C54" s="2" t="s">
+      <c r="D54" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="D54" s="2" t="s">
+      <c r="E54" s="2" t="s">
         <v>405</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>406</v>
       </c>
       <c r="F54" s="12"/>
       <c r="G54" s="3" t="s">
-        <v>407</v>
+        <v>51</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>28</v>
@@ -4677,30 +4713,36 @@
         <v>28</v>
       </c>
       <c r="M54" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q54" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="N54" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="Q54" s="13" t="s">
+        <v>406</v>
+      </c>
+      <c r="S54" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="T54" s="13" t="s">
         <v>408</v>
       </c>
-      <c r="S54" s="1" t="s">
+      <c r="U54" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="T54" s="1" t="s">
+      <c r="V54" s="1" t="s">
         <v>410</v>
-      </c>
-      <c r="U54" s="1" t="s">
-        <v>411</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="C55" s="2" t="s">
         <v>412</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>390</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>413</v>
@@ -4708,37 +4750,83 @@
       <c r="E55" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="F55" s="20" t="n">
+      <c r="F55" s="12"/>
+      <c r="G55" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="H55" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I55" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="L55" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M55" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q55" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="S55" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="T55" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="U55" s="1" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="F56" s="18" t="n">
         <v>45235</v>
       </c>
-      <c r="G55" s="3" t="s">
+      <c r="G56" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="H55" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I55" s="3" t="s">
+      <c r="H56" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I56" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="L55" s="4" t="s">
+      <c r="L56" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="N55" s="5" t="s">
-        <v>385</v>
-      </c>
-      <c r="Q55" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="S55" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="T55" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="U55" s="1" t="s">
-        <v>418</v>
-      </c>
-    </row>
+      <c r="N56" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="Q56" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="S56" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="T56" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="U56" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="Q2" r:id="rId1" display="https://cds.climate.copernicus.eu"/>
@@ -4767,38 +4855,40 @@
     <hyperlink ref="Q27" r:id="rId24" display="https://roots.ornl.gov/"/>
     <hyperlink ref="T27" r:id="rId25" display="https://doi.org/10.1111/nph.14486"/>
     <hyperlink ref="Q28" r:id="rId26" display="https://xylemfunctionaltraits.org/"/>
-    <hyperlink ref="Q29" r:id="rId27" display="https://www.idiv.de/de/splot.html"/>
-    <hyperlink ref="Q30" r:id="rId28" display="https://doi.org/10.25829/idiv.3474-40-3292"/>
-    <hyperlink ref="T30" r:id="rId29" display="https://doi.org/10.1111/geb.13346"/>
-    <hyperlink ref="Q31" r:id="rId30" display="https://lotvs.csic.es/"/>
-    <hyperlink ref="T31" r:id="rId31" display="https://www.biorxiv.org/content/10.1101/2021.09.29.462383v1.full"/>
-    <hyperlink ref="Q32" r:id="rId32" display="https://gfbinitiative.net/"/>
-    <hyperlink ref="Q33" r:id="rId33" display="http://icp-forests.net/"/>
-    <hyperlink ref="T34" r:id="rId34" display="https://doi.org/10.1016/j.srs.2020.100002"/>
-    <hyperlink ref="Q36" r:id="rId35" display="http://sapfluxnet.creaf.cat/"/>
-    <hyperlink ref="T36" r:id="rId36" display="https://doi.org/10.5194/essd-13-2607-2021"/>
-    <hyperlink ref="Q40" r:id="rId37" location="/home" display="https://data.isric.org/geonetwork/srv/eng/catalog.search#/home"/>
-    <hyperlink ref="T40" r:id="rId38" display="https://doi.org/10.5194/essd-9-1-2017"/>
-    <hyperlink ref="Q41" r:id="rId39" display="https://www.fao.org/soils-portal/data-hub/soil-maps-and-databases/harmonized-world-soil-database-v12/en/"/>
-    <hyperlink ref="Q42" r:id="rId40" display="https://soilgrids.org/"/>
-    <hyperlink ref="Q43" r:id="rId41" display="https://www.isric.org/explore/wise-databases"/>
-    <hyperlink ref="T43" r:id="rId42" display="https://doi.org/10.1016/j.geoderma.2016.01.034"/>
-    <hyperlink ref="Q44" r:id="rId43" display="http://globalchange.bnu.edu.cn/research/data"/>
-    <hyperlink ref="T44" r:id="rId44" display="http://doi.wiley.com/10.1002/2013MS000293"/>
-    <hyperlink ref="Q45" r:id="rId45" display="https://www.futurewater.eu/projects/hihydrosoil/"/>
-    <hyperlink ref="Q46" r:id="rId46" display="https://ismn.earth/en/"/>
-    <hyperlink ref="T46" r:id="rId47" display="https://doi.org/10.5194/hess-2021-2"/>
-    <hyperlink ref="Q47" r:id="rId48" display="https://doi.org/10.3334/ORNLDAAC/1827"/>
-    <hyperlink ref="T47" r:id="rId49" display="https://10.5194/bg-7-1915-2010"/>
-    <hyperlink ref="Q48" r:id="rId50" display="https://doi.pangaea.de/10.1594/PANGAEA.788537"/>
-    <hyperlink ref="T48" r:id="rId51" display="https://doi.org/10.1029/2012GC004370"/>
-    <hyperlink ref="Q49" r:id="rId52" display="https://dataverse.scholarsportal.info/dataset.xhtml"/>
-    <hyperlink ref="T49" r:id="rId53" display="https://doi.org/10.1002/2017GL075860"/>
-    <hyperlink ref="T50" r:id="rId54" display="https://doi.org/10.1016/j.cageo.2014.07.020"/>
-    <hyperlink ref="Q51" r:id="rId55" display="https://biotime.st-andrews.ac.uk/"/>
-    <hyperlink ref="T51" r:id="rId56" display="https://doi.org/10.1111/geb.12729"/>
-    <hyperlink ref="Q53" r:id="rId57" display="https://compadre-db.org/"/>
-    <hyperlink ref="T53" r:id="rId58" display="https://doi.org/10.1111/1365-2745.12334"/>
+    <hyperlink ref="Q29" r:id="rId27" display="https://pasta.lternet.edu/package/metadata/eml/knb-lter-hfr/426/1"/>
+    <hyperlink ref="T29" r:id="rId28" display="https://doi.org/10.1111/nph.18031"/>
+    <hyperlink ref="Q30" r:id="rId29" display="https://www.idiv.de/de/splot.html"/>
+    <hyperlink ref="Q31" r:id="rId30" display="https://doi.org/10.25829/idiv.3474-40-3292"/>
+    <hyperlink ref="T31" r:id="rId31" display="https://doi.org/10.1111/geb.13346"/>
+    <hyperlink ref="Q32" r:id="rId32" display="https://lotvs.csic.es/"/>
+    <hyperlink ref="T32" r:id="rId33" display="https://www.biorxiv.org/content/10.1101/2021.09.29.462383v1.full"/>
+    <hyperlink ref="Q33" r:id="rId34" display="https://gfbinitiative.net/"/>
+    <hyperlink ref="Q34" r:id="rId35" display="http://icp-forests.net/"/>
+    <hyperlink ref="T35" r:id="rId36" display="https://doi.org/10.1016/j.srs.2020.100002"/>
+    <hyperlink ref="Q37" r:id="rId37" display="http://sapfluxnet.creaf.cat/"/>
+    <hyperlink ref="T37" r:id="rId38" display="https://doi.org/10.5194/essd-13-2607-2021"/>
+    <hyperlink ref="Q41" r:id="rId39" location="/home" display="https://data.isric.org/geonetwork/srv/eng/catalog.search#/home"/>
+    <hyperlink ref="T41" r:id="rId40" display="https://doi.org/10.5194/essd-9-1-2017"/>
+    <hyperlink ref="Q42" r:id="rId41" display="https://www.fao.org/soils-portal/data-hub/soil-maps-and-databases/harmonized-world-soil-database-v12/en/"/>
+    <hyperlink ref="Q43" r:id="rId42" display="https://soilgrids.org/"/>
+    <hyperlink ref="Q44" r:id="rId43" display="https://www.isric.org/explore/wise-databases"/>
+    <hyperlink ref="T44" r:id="rId44" display="https://doi.org/10.1016/j.geoderma.2016.01.034"/>
+    <hyperlink ref="Q45" r:id="rId45" display="http://globalchange.bnu.edu.cn/research/data"/>
+    <hyperlink ref="T45" r:id="rId46" display="http://doi.wiley.com/10.1002/2013MS000293"/>
+    <hyperlink ref="Q46" r:id="rId47" display="https://www.futurewater.eu/projects/hihydrosoil/"/>
+    <hyperlink ref="Q47" r:id="rId48" display="https://ismn.earth/en/"/>
+    <hyperlink ref="T47" r:id="rId49" display="https://doi.org/10.5194/hess-2021-2"/>
+    <hyperlink ref="Q48" r:id="rId50" display="https://doi.org/10.3334/ORNLDAAC/1827"/>
+    <hyperlink ref="T48" r:id="rId51" display="https://10.5194/bg-7-1915-2010"/>
+    <hyperlink ref="Q49" r:id="rId52" display="https://doi.pangaea.de/10.1594/PANGAEA.788537"/>
+    <hyperlink ref="T49" r:id="rId53" display="https://doi.org/10.1029/2012GC004370"/>
+    <hyperlink ref="Q50" r:id="rId54" display="https://dataverse.scholarsportal.info/dataset.xhtml"/>
+    <hyperlink ref="T50" r:id="rId55" display="https://doi.org/10.1002/2017GL075860"/>
+    <hyperlink ref="T51" r:id="rId56" display="https://doi.org/10.1016/j.cageo.2014.07.020"/>
+    <hyperlink ref="Q52" r:id="rId57" display="https://biotime.st-andrews.ac.uk/"/>
+    <hyperlink ref="T52" r:id="rId58" display="https://doi.org/10.1111/geb.12729"/>
+    <hyperlink ref="Q54" r:id="rId59" display="https://compadre-db.org/"/>
+    <hyperlink ref="T54" r:id="rId60" display="https://doi.org/10.1111/1365-2745.12334"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -4811,7 +4901,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -4821,22 +4911,22 @@
       <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.4296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.4453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>419</v>
+        <v>427</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>420</v>
+        <v>428</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>421</v>
+        <v>429</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>422</v>
+        <v>430</v>
       </c>
     </row>
   </sheetData>

--- a/ExternalDataSources.xlsx
+++ b/ExternalDataSources.xlsx
@@ -8,8 +8,8 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Datasets" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="ModelBenchmarkProjects" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Datasets" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="ModelBenchmarkProjects" sheetId="2" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="431">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="439">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -1152,6 +1152,30 @@
   </si>
   <si>
     <t xml:space="preserve">Vangansbeke P, Máliš F, Hédl R, et al. ClimPlant: Realized climatic niches of vascular plants in European forest understoreys. Global Ecol Biogeogr. 2021;30:1183–1190</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GIFT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Global Inventory of Floras and Traits (GIFT)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Global Inventory of Floras and Traits - GIFT database is a global archive of regional plant checklists and floras and plant functional traits. It contains information about the floristic status of 368,580 species across 3,627 geographic regions. Functional trait information is available for 287,245 species and 109 traits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">API</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://gift.uni-goettingen.de/home</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1111/jbi.13623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weigelt, P., König, C. &amp; Kreft, H. (2020) GIFT – A Global Inventory of Floras and Traits for macroecology and biogeography. Journal of Biogeography, 47, 16-43</t>
   </si>
   <si>
     <t xml:space="preserve">WoSIS</t>
@@ -1965,11 +1989,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy"/>
+    <numFmt numFmtId="166" formatCode="dd/mm/yy"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2015,13 +2040,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <u val="single"/>
-      <sz val="11"/>
-      <color rgb="FF0563C1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -2181,12 +2199,12 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -2262,17 +2280,123 @@
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="LibreOffice">
+      <a:dk1>
+        <a:srgbClr val="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:srgbClr val="ffffff"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="000000"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="ffffff"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="18a303"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="0369a3"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="a33e03"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8e03a3"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="c99c00"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="c9211e"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000ee"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="551a8b"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme>
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V1048576"/>
+  <dimension ref="A1:V57"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="G11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A29" activeCellId="0" sqref="A29"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="G20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
+      <selection pane="bottomLeft" activeCell="F42" activeCellId="0" sqref="F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.4453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3585,13 +3709,13 @@
       <c r="S29" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="T29" s="20" t="s">
+      <c r="T29" s="13" t="s">
         <v>219</v>
       </c>
       <c r="U29" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="V29" s="21"/>
+      <c r="V29" s="20"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
@@ -4056,7 +4180,7 @@
       <c r="U39" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="V39" s="21" t="s">
+      <c r="V39" s="20" t="s">
         <v>295</v>
       </c>
     </row>
@@ -4115,25 +4239,27 @@
       <c r="U40" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="V40" s="21"/>
-    </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="V40" s="20"/>
+    </row>
+    <row r="41" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
         <v>305</v>
       </c>
       <c r="B41" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D41" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="E41" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="D41" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="F41" s="12"/>
+      <c r="F41" s="21" t="n">
+        <v>45264</v>
+      </c>
       <c r="G41" s="3" t="s">
         <v>51</v>
       </c>
@@ -4146,15 +4272,26 @@
       <c r="L41" s="4" t="s">
         <v>84</v>
       </c>
+      <c r="N41" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="O41" s="1" t="s">
+        <v>308</v>
+      </c>
       <c r="Q41" s="13" t="s">
+        <v>309</v>
+      </c>
+      <c r="R41" s="19" t="s">
         <v>310</v>
       </c>
-      <c r="R41" s="13"/>
       <c r="T41" s="13" t="s">
         <v>311</v>
       </c>
       <c r="U41" s="1" t="s">
         <v>312</v>
+      </c>
+      <c r="V41" s="20" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4162,16 +4299,16 @@
         <v>313</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F42" s="12"/>
       <c r="G42" s="3" t="s">
@@ -4181,31 +4318,37 @@
         <v>28</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>29</v>
+        <v>107</v>
       </c>
       <c r="L42" s="4" t="s">
         <v>84</v>
       </c>
       <c r="Q42" s="13" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="R42" s="13"/>
+      <c r="T42" s="13" t="s">
+        <v>319</v>
+      </c>
+      <c r="U42" s="1" t="s">
+        <v>320</v>
+      </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="F43" s="12"/>
       <c r="G43" s="3" t="s">
@@ -4217,35 +4360,29 @@
       <c r="I43" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>320</v>
-      </c>
       <c r="L43" s="4" t="s">
         <v>84</v>
       </c>
       <c r="Q43" s="13" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="R43" s="13"/>
-      <c r="V43" s="1" t="s">
-        <v>322</v>
-      </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="F44" s="12"/>
       <c r="G44" s="3" t="s">
@@ -4258,37 +4395,34 @@
         <v>29</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="L44" s="4" t="s">
         <v>84</v>
       </c>
       <c r="Q44" s="13" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="R44" s="13"/>
-      <c r="S44" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="T44" s="13" t="s">
-        <v>328</v>
-      </c>
-      <c r="U44" s="1" t="s">
-        <v>329</v>
+      <c r="V44" s="1" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>331</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>332</v>
       </c>
       <c r="F45" s="12"/>
       <c r="G45" s="3" t="s">
@@ -4301,40 +4435,37 @@
         <v>29</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="L45" s="4" t="s">
         <v>84</v>
       </c>
       <c r="Q45" s="13" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="R45" s="13"/>
       <c r="S45" s="1" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="T45" s="13" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="U45" s="1" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>337</v>
+        <v>322</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="F46" s="12"/>
       <c r="G46" s="3" t="s">
@@ -4347,37 +4478,40 @@
         <v>29</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>52</v>
+        <v>333</v>
       </c>
       <c r="L46" s="4" t="s">
         <v>84</v>
       </c>
       <c r="Q46" s="13" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="R46" s="13"/>
+      <c r="S46" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="T46" s="13" t="s">
+        <v>342</v>
+      </c>
       <c r="U46" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="V46" s="1" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>344</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="F47" s="12"/>
       <c r="G47" s="3" t="s">
@@ -4387,22 +4521,22 @@
         <v>28</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>107</v>
+        <v>29</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="L47" s="4" t="s">
         <v>84</v>
       </c>
       <c r="Q47" s="13" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="R47" s="13"/>
-      <c r="S47" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="T47" s="13" t="s">
+      <c r="U47" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="U47" s="1" t="s">
+      <c r="V47" s="1" t="s">
         <v>349</v>
       </c>
     </row>
@@ -4411,7 +4545,7 @@
         <v>350</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>351</v>
@@ -4432,46 +4566,38 @@
       <c r="I48" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="K48" s="4" t="s">
+      <c r="L48" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q48" s="13" t="s">
         <v>354</v>
       </c>
-      <c r="L48" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="M48" s="4" t="s">
+      <c r="R48" s="13"/>
+      <c r="S48" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="Q48" s="13" t="s">
+      <c r="T48" s="13" t="s">
         <v>356</v>
       </c>
-      <c r="R48" s="1" t="s">
+      <c r="U48" s="1" t="s">
         <v>357</v>
-      </c>
-      <c r="S48" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="T48" s="13" t="s">
-        <v>359</v>
-      </c>
-      <c r="U48" s="1" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="E49" s="2" t="s">
         <v>361</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>365</v>
       </c>
       <c r="F49" s="12"/>
       <c r="G49" s="3" t="s">
@@ -4481,15 +4607,26 @@
         <v>28</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>157</v>
+        <v>107</v>
+      </c>
+      <c r="K49" s="4" t="s">
+        <v>362</v>
       </c>
       <c r="L49" s="4" t="s">
-        <v>84</v>
+        <v>28</v>
+      </c>
+      <c r="M49" s="4" t="s">
+        <v>363</v>
       </c>
       <c r="Q49" s="13" t="s">
+        <v>364</v>
+      </c>
+      <c r="R49" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="S49" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="R49" s="13"/>
       <c r="T49" s="13" t="s">
         <v>367</v>
       </c>
@@ -4502,16 +4639,16 @@
         <v>369</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="F50" s="12"/>
       <c r="G50" s="3" t="s">
@@ -4523,9 +4660,6 @@
       <c r="I50" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="J50" s="3" t="s">
-        <v>373</v>
-      </c>
       <c r="L50" s="4" t="s">
         <v>84</v>
       </c>
@@ -4533,20 +4667,19 @@
         <v>374</v>
       </c>
       <c r="R50" s="13"/>
-      <c r="S50" s="1" t="s">
+      <c r="T50" s="13" t="s">
         <v>375</v>
       </c>
-      <c r="T50" s="13" t="s">
+      <c r="U50" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="U50" s="13"/>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
         <v>377</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>378</v>
@@ -4557,9 +4690,7 @@
       <c r="E51" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="F51" s="12" t="s">
-        <v>381</v>
-      </c>
+      <c r="F51" s="12"/>
       <c r="G51" s="3" t="s">
         <v>51</v>
       </c>
@@ -4567,48 +4698,45 @@
         <v>28</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="K51" s="4" t="s">
-        <v>382</v>
+        <v>157</v>
+      </c>
+      <c r="J51" s="3" t="s">
+        <v>381</v>
       </c>
       <c r="L51" s="4" t="s">
         <v>84</v>
       </c>
       <c r="Q51" s="13" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="R51" s="13"/>
       <c r="S51" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="T51" s="13" t="s">
         <v>384</v>
       </c>
-      <c r="T51" s="13" t="s">
-        <v>385</v>
-      </c>
-      <c r="U51" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="V51" s="1" t="s">
-        <v>387</v>
-      </c>
+      <c r="U51" s="13"/>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="E52" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="F52" s="12" t="s">
         <v>389</v>
       </c>
-      <c r="C52" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="F52" s="12"/>
       <c r="G52" s="3" t="s">
         <v>51</v>
       </c>
@@ -4618,47 +4746,41 @@
       <c r="I52" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>224</v>
-      </c>
       <c r="K52" s="4" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="L52" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="M52" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="N52" s="5" t="s">
-        <v>393</v>
+        <v>84</v>
       </c>
       <c r="Q52" s="13" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="R52" s="13"/>
       <c r="S52" s="1" t="s">
-        <v>226</v>
+        <v>392</v>
       </c>
       <c r="T52" s="13" t="s">
+        <v>393</v>
+      </c>
+      <c r="U52" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="V52" s="1" t="s">
         <v>395</v>
-      </c>
-      <c r="U52" s="1" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="B53" s="2" t="s">
         <v>397</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>389</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>398</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>399</v>
@@ -4673,31 +4795,50 @@
       <c r="I53" s="3" t="s">
         <v>107</v>
       </c>
+      <c r="J53" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="K53" s="4" t="s">
+        <v>400</v>
+      </c>
       <c r="L53" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q53" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="V53" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M53" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="N53" s="5" t="s">
         <v>401</v>
+      </c>
+      <c r="Q53" s="13" t="s">
+        <v>402</v>
+      </c>
+      <c r="R53" s="13"/>
+      <c r="S53" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="T53" s="13" t="s">
+        <v>403</v>
+      </c>
+      <c r="U53" s="1" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="F54" s="12"/>
       <c r="G54" s="3" t="s">
@@ -4710,49 +4851,34 @@
         <v>107</v>
       </c>
       <c r="L54" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="M54" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="N54" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="Q54" s="13" t="s">
-        <v>406</v>
-      </c>
-      <c r="S54" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="T54" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q54" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="U54" s="1" t="s">
+      <c r="V54" s="1" t="s">
         <v>409</v>
-      </c>
-      <c r="V54" s="1" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="C55" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="B55" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="C55" s="2" t="s">
+      <c r="D55" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="D55" s="2" t="s">
+      <c r="E55" s="2" t="s">
         <v>413</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>414</v>
       </c>
       <c r="F55" s="12"/>
       <c r="G55" s="3" t="s">
-        <v>415</v>
+        <v>51</v>
       </c>
       <c r="H55" s="3" t="s">
         <v>28</v>
@@ -4764,30 +4890,36 @@
         <v>28</v>
       </c>
       <c r="M55" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q55" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="N55" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="Q55" s="13" t="s">
+        <v>414</v>
+      </c>
+      <c r="S55" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="T55" s="13" t="s">
         <v>416</v>
       </c>
-      <c r="S55" s="1" t="s">
+      <c r="U55" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="T55" s="1" t="s">
+      <c r="V55" s="1" t="s">
         <v>418</v>
-      </c>
-      <c r="U55" s="1" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="C56" s="2" t="s">
         <v>420</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>398</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>421</v>
@@ -4795,38 +4927,82 @@
       <c r="E56" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="F56" s="18" t="n">
+      <c r="F56" s="12"/>
+      <c r="G56" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="H56" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I56" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="L56" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M56" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q56" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="S56" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="T56" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="U56" s="1" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="F57" s="18" t="n">
         <v>45235</v>
       </c>
-      <c r="G56" s="3" t="s">
+      <c r="G57" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="H56" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I56" s="3" t="s">
+      <c r="H57" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I57" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="L56" s="4" t="s">
+      <c r="L57" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="N56" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="Q56" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="S56" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="T56" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="U56" s="1" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="N57" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="Q57" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="S57" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="T57" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="U57" s="1" t="s">
+        <v>434</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="Q2" r:id="rId1" display="https://cds.climate.copernicus.eu"/>
@@ -4867,28 +5043,29 @@
     <hyperlink ref="T35" r:id="rId36" display="https://doi.org/10.1016/j.srs.2020.100002"/>
     <hyperlink ref="Q37" r:id="rId37" display="http://sapfluxnet.creaf.cat/"/>
     <hyperlink ref="T37" r:id="rId38" display="https://doi.org/10.5194/essd-13-2607-2021"/>
-    <hyperlink ref="Q41" r:id="rId39" location="/home" display="https://data.isric.org/geonetwork/srv/eng/catalog.search#/home"/>
-    <hyperlink ref="T41" r:id="rId40" display="https://doi.org/10.5194/essd-9-1-2017"/>
-    <hyperlink ref="Q42" r:id="rId41" display="https://www.fao.org/soils-portal/data-hub/soil-maps-and-databases/harmonized-world-soil-database-v12/en/"/>
-    <hyperlink ref="Q43" r:id="rId42" display="https://soilgrids.org/"/>
-    <hyperlink ref="Q44" r:id="rId43" display="https://www.isric.org/explore/wise-databases"/>
-    <hyperlink ref="T44" r:id="rId44" display="https://doi.org/10.1016/j.geoderma.2016.01.034"/>
-    <hyperlink ref="Q45" r:id="rId45" display="http://globalchange.bnu.edu.cn/research/data"/>
-    <hyperlink ref="T45" r:id="rId46" display="http://doi.wiley.com/10.1002/2013MS000293"/>
-    <hyperlink ref="Q46" r:id="rId47" display="https://www.futurewater.eu/projects/hihydrosoil/"/>
-    <hyperlink ref="Q47" r:id="rId48" display="https://ismn.earth/en/"/>
-    <hyperlink ref="T47" r:id="rId49" display="https://doi.org/10.5194/hess-2021-2"/>
-    <hyperlink ref="Q48" r:id="rId50" display="https://doi.org/10.3334/ORNLDAAC/1827"/>
-    <hyperlink ref="T48" r:id="rId51" display="https://10.5194/bg-7-1915-2010"/>
-    <hyperlink ref="Q49" r:id="rId52" display="https://doi.pangaea.de/10.1594/PANGAEA.788537"/>
-    <hyperlink ref="T49" r:id="rId53" display="https://doi.org/10.1029/2012GC004370"/>
-    <hyperlink ref="Q50" r:id="rId54" display="https://dataverse.scholarsportal.info/dataset.xhtml"/>
-    <hyperlink ref="T50" r:id="rId55" display="https://doi.org/10.1002/2017GL075860"/>
-    <hyperlink ref="T51" r:id="rId56" display="https://doi.org/10.1016/j.cageo.2014.07.020"/>
-    <hyperlink ref="Q52" r:id="rId57" display="https://biotime.st-andrews.ac.uk/"/>
-    <hyperlink ref="T52" r:id="rId58" display="https://doi.org/10.1111/geb.12729"/>
-    <hyperlink ref="Q54" r:id="rId59" display="https://compadre-db.org/"/>
-    <hyperlink ref="T54" r:id="rId60" display="https://doi.org/10.1111/1365-2745.12334"/>
+    <hyperlink ref="T41" r:id="rId39" display="https://doi.org/10.1111/jbi.13623"/>
+    <hyperlink ref="Q42" r:id="rId40" location="/home" display="https://data.isric.org/geonetwork/srv/eng/catalog.search#/home"/>
+    <hyperlink ref="T42" r:id="rId41" display="https://doi.org/10.5194/essd-9-1-2017"/>
+    <hyperlink ref="Q43" r:id="rId42" display="https://www.fao.org/soils-portal/data-hub/soil-maps-and-databases/harmonized-world-soil-database-v12/en/"/>
+    <hyperlink ref="Q44" r:id="rId43" display="https://soilgrids.org/"/>
+    <hyperlink ref="Q45" r:id="rId44" display="https://www.isric.org/explore/wise-databases"/>
+    <hyperlink ref="T45" r:id="rId45" display="https://doi.org/10.1016/j.geoderma.2016.01.034"/>
+    <hyperlink ref="Q46" r:id="rId46" display="http://globalchange.bnu.edu.cn/research/data"/>
+    <hyperlink ref="T46" r:id="rId47" display="http://doi.wiley.com/10.1002/2013MS000293"/>
+    <hyperlink ref="Q47" r:id="rId48" display="https://www.futurewater.eu/projects/hihydrosoil/"/>
+    <hyperlink ref="Q48" r:id="rId49" display="https://ismn.earth/en/"/>
+    <hyperlink ref="T48" r:id="rId50" display="https://doi.org/10.5194/hess-2021-2"/>
+    <hyperlink ref="Q49" r:id="rId51" display="https://doi.org/10.3334/ORNLDAAC/1827"/>
+    <hyperlink ref="T49" r:id="rId52" display="https://10.5194/bg-7-1915-2010"/>
+    <hyperlink ref="Q50" r:id="rId53" display="https://doi.pangaea.de/10.1594/PANGAEA.788537"/>
+    <hyperlink ref="T50" r:id="rId54" display="https://doi.org/10.1029/2012GC004370"/>
+    <hyperlink ref="Q51" r:id="rId55" display="https://dataverse.scholarsportal.info/dataset.xhtml"/>
+    <hyperlink ref="T51" r:id="rId56" display="https://doi.org/10.1002/2017GL075860"/>
+    <hyperlink ref="T52" r:id="rId57" display="https://doi.org/10.1016/j.cageo.2014.07.020"/>
+    <hyperlink ref="Q53" r:id="rId58" display="https://biotime.st-andrews.ac.uk/"/>
+    <hyperlink ref="T53" r:id="rId59" display="https://doi.org/10.1111/geb.12729"/>
+    <hyperlink ref="Q55" r:id="rId60" display="https://compadre-db.org/"/>
+    <hyperlink ref="T55" r:id="rId61" display="https://doi.org/10.1111/1365-2745.12334"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -4901,7 +5078,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -4915,18 +5092,18 @@
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>427</v>
+        <v>435</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>428</v>
+        <v>436</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>429</v>
+        <v>437</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>430</v>
+        <v>438</v>
       </c>
     </row>
   </sheetData>

--- a/ExternalDataSources.xlsx
+++ b/ExternalDataSources.xlsx
@@ -8,8 +8,8 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Datasets" sheetId="1" state="visible" r:id="rId3"/>
-    <sheet name="ModelBenchmarkProjects" sheetId="2" state="visible" r:id="rId4"/>
+    <sheet name="Datasets" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="ModelBenchmarkProjects" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="439">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="447">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -978,6 +978,30 @@
   </si>
   <si>
     <t xml:space="preserve">FIESTA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IFNAndorra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inventari Forestal Nacional d’Andorra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L’estiu del 2022 es va dur a terme el treball de camp per conèixer les principals variables silvo-dasomètriques que permeten la caracterització dels diferents tipus de boscos del Principat d’Andorra.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18/12/2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Andorra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ari-sostenibilitat.notion.site/1r-Inventari-Nacional-Forestal-d-Andorra-169c7041481549fdbc3a1590a9fef448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Forest structure and composition, dead wood</t>
   </si>
   <si>
     <t xml:space="preserve">SAPFLUXNET</t>
@@ -1994,7 +2018,7 @@
     <numFmt numFmtId="165" formatCode="mm/dd/yy"/>
     <numFmt numFmtId="166" formatCode="dd/mm/yy"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2040,6 +2064,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -2118,7 +2148,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2203,6 +2233,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2280,126 +2314,20 @@
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="LibreOffice">
-      <a:dk1>
-        <a:srgbClr val="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:srgbClr val="ffffff"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="000000"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="ffffff"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="18a303"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="0369a3"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="a33e03"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="8e03a3"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="c99c00"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="c9211e"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0000ee"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="551a8b"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
-        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
-        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
-        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
-        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme>
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:prstDash val="solid"/>
-          <a:miter/>
-        </a:ln>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:prstDash val="solid"/>
-          <a:miter/>
-        </a:ln>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:prstDash val="solid"/>
-          <a:miter/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V57"/>
+  <dimension ref="A1:V58"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="G20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="F42" activeCellId="0" sqref="F42"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="G23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="E37" activeCellId="0" sqref="E37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.4453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="25.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="2" width="25.28"/>
@@ -4044,68 +3972,66 @@
         <v>271</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>197</v>
+        <v>180</v>
       </c>
       <c r="C37" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="D37" s="21" t="s">
         <v>272</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>271</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="F37" s="12"/>
+      <c r="F37" s="14" t="s">
+        <v>274</v>
+      </c>
       <c r="G37" s="3" t="s">
-        <v>51</v>
+        <v>275</v>
       </c>
       <c r="H37" s="3" t="s">
         <v>28</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>107</v>
+        <v>29</v>
       </c>
       <c r="L37" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="M37" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="P37" s="1" t="s">
-        <v>101</v>
+        <v>84</v>
+      </c>
+      <c r="N37" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="O37" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="P37" s="0" t="s">
+        <v>276</v>
       </c>
       <c r="Q37" s="13" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="R37" s="13"/>
       <c r="S37" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="T37" s="13" t="s">
-        <v>277</v>
-      </c>
-      <c r="U37" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="V37" s="1" t="s">
-        <v>279</v>
-      </c>
+      <c r="T37" s="13"/>
+      <c r="V37" s="1"/>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>197</v>
       </c>
       <c r="C38" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="E38" s="2" t="s">
         <v>281</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>282</v>
       </c>
       <c r="F38" s="12"/>
       <c r="G38" s="3" t="s">
@@ -4115,35 +4041,49 @@
         <v>28</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J38" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="L38" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M38" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="P38" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q38" s="13" t="s">
         <v>283</v>
       </c>
-      <c r="L38" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q38" s="13" t="s">
+      <c r="R38" s="13"/>
+      <c r="S38" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="R38" s="13"/>
-      <c r="T38" s="13"/>
+      <c r="T38" s="13" t="s">
+        <v>285</v>
+      </c>
+      <c r="U38" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="V38" s="1" t="s">
+        <v>287</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="F39" s="12"/>
       <c r="G39" s="3" t="s">
@@ -4153,121 +4093,108 @@
         <v>28</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="K39" s="4" t="s">
-        <v>289</v>
+        <v>29</v>
+      </c>
+      <c r="J39" s="3" t="s">
+        <v>291</v>
       </c>
       <c r="L39" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="M39" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="N39" s="5" t="s">
-        <v>290</v>
+        <v>84</v>
       </c>
       <c r="Q39" s="13" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="R39" s="13"/>
-      <c r="S39" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="T39" s="13" t="s">
-        <v>293</v>
-      </c>
-      <c r="U39" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="V39" s="20" t="s">
-        <v>295</v>
-      </c>
+      <c r="T39" s="13"/>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>180</v>
       </c>
       <c r="C40" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="F40" s="12"/>
+      <c r="G40" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I40" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="K40" s="4" t="s">
         <v>297</v>
       </c>
-      <c r="D40" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="E40" s="2" t="s">
+      <c r="L40" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M40" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="N40" s="5" t="s">
         <v>298</v>
       </c>
-      <c r="F40" s="12" t="s">
+      <c r="Q40" s="13" t="s">
         <v>299</v>
       </c>
-      <c r="G40" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="H40" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I40" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J40" s="3" t="s">
+      <c r="R40" s="13"/>
+      <c r="S40" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="K40" s="4" t="s">
+      <c r="T40" s="13" t="s">
         <v>301</v>
       </c>
-      <c r="L40" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="N40" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="O40" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q40" s="13" t="s">
+      <c r="U40" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="R40" s="19" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="T40" s="13" t="s">
+      <c r="V40" s="20" t="s">
         <v>303</v>
       </c>
-      <c r="U40" s="1" t="s">
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="1" t="s">
         <v>304</v>
-      </c>
-      <c r="V40" s="20"/>
-    </row>
-    <row r="41" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="1" t="s">
-        <v>305</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>180</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>198</v>
+        <v>305</v>
       </c>
       <c r="D41" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="E41" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="E41" s="2" t="s">
+      <c r="F41" s="12" t="s">
         <v>307</v>
       </c>
-      <c r="F41" s="21" t="n">
-        <v>45264</v>
-      </c>
       <c r="G41" s="3" t="s">
-        <v>51</v>
+        <v>93</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>28</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>107</v>
+        <v>29</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="K41" s="4" t="s">
+        <v>309</v>
       </c>
       <c r="L41" s="4" t="s">
         <v>84</v>
@@ -4276,13 +4203,13 @@
         <v>200</v>
       </c>
       <c r="O41" s="1" t="s">
-        <v>308</v>
+        <v>147</v>
       </c>
       <c r="Q41" s="13" t="s">
-        <v>309</v>
-      </c>
-      <c r="R41" s="19" t="s">
         <v>310</v>
+      </c>
+      <c r="R41" s="19" t="n">
+        <v>1.2</v>
       </c>
       <c r="T41" s="13" t="s">
         <v>311</v>
@@ -4290,27 +4217,27 @@
       <c r="U41" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="V41" s="20" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="V41" s="20"/>
+    </row>
+    <row r="42" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
         <v>313</v>
       </c>
       <c r="B42" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D42" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="E42" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="D42" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="F42" s="12"/>
+      <c r="F42" s="22" t="n">
+        <v>45264</v>
+      </c>
       <c r="G42" s="3" t="s">
         <v>51</v>
       </c>
@@ -4323,15 +4250,26 @@
       <c r="L42" s="4" t="s">
         <v>84</v>
       </c>
+      <c r="N42" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="O42" s="1" t="s">
+        <v>316</v>
+      </c>
       <c r="Q42" s="13" t="s">
+        <v>317</v>
+      </c>
+      <c r="R42" s="19" t="s">
         <v>318</v>
       </c>
-      <c r="R42" s="13"/>
       <c r="T42" s="13" t="s">
         <v>319</v>
       </c>
       <c r="U42" s="1" t="s">
         <v>320</v>
+      </c>
+      <c r="V42" s="20" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4339,16 +4277,16 @@
         <v>321</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="F43" s="12"/>
       <c r="G43" s="3" t="s">
@@ -4358,31 +4296,37 @@
         <v>28</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>29</v>
+        <v>107</v>
       </c>
       <c r="L43" s="4" t="s">
         <v>84</v>
       </c>
       <c r="Q43" s="13" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="R43" s="13"/>
+      <c r="T43" s="13" t="s">
+        <v>327</v>
+      </c>
+      <c r="U43" s="1" t="s">
+        <v>328</v>
+      </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="F44" s="12"/>
       <c r="G44" s="3" t="s">
@@ -4394,35 +4338,29 @@
       <c r="I44" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="J44" s="3" t="s">
-        <v>328</v>
-      </c>
       <c r="L44" s="4" t="s">
         <v>84</v>
       </c>
       <c r="Q44" s="13" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="R44" s="13"/>
-      <c r="V44" s="1" t="s">
-        <v>330</v>
-      </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="F45" s="12"/>
       <c r="G45" s="3" t="s">
@@ -4435,37 +4373,34 @@
         <v>29</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="L45" s="4" t="s">
         <v>84</v>
       </c>
       <c r="Q45" s="13" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="R45" s="13"/>
-      <c r="S45" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="T45" s="13" t="s">
-        <v>336</v>
-      </c>
-      <c r="U45" s="1" t="s">
-        <v>337</v>
+      <c r="V45" s="1" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>339</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>340</v>
       </c>
       <c r="F46" s="12"/>
       <c r="G46" s="3" t="s">
@@ -4478,40 +4413,37 @@
         <v>29</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="L46" s="4" t="s">
         <v>84</v>
       </c>
       <c r="Q46" s="13" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="R46" s="13"/>
       <c r="S46" s="1" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="T46" s="13" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="U46" s="1" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>345</v>
+        <v>330</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="F47" s="12"/>
       <c r="G47" s="3" t="s">
@@ -4524,37 +4456,40 @@
         <v>29</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>52</v>
+        <v>341</v>
       </c>
       <c r="L47" s="4" t="s">
         <v>84</v>
       </c>
       <c r="Q47" s="13" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="R47" s="13"/>
+      <c r="S47" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="T47" s="13" t="s">
+        <v>350</v>
+      </c>
       <c r="U47" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="V47" s="1" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>352</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="F48" s="12"/>
       <c r="G48" s="3" t="s">
@@ -4564,22 +4499,22 @@
         <v>28</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>107</v>
+        <v>29</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="L48" s="4" t="s">
         <v>84</v>
       </c>
       <c r="Q48" s="13" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="R48" s="13"/>
-      <c r="S48" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="T48" s="13" t="s">
+      <c r="U48" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="U48" s="1" t="s">
+      <c r="V48" s="1" t="s">
         <v>357</v>
       </c>
     </row>
@@ -4588,7 +4523,7 @@
         <v>358</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>359</v>
@@ -4609,46 +4544,38 @@
       <c r="I49" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="K49" s="4" t="s">
+      <c r="L49" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q49" s="13" t="s">
         <v>362</v>
       </c>
-      <c r="L49" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="M49" s="4" t="s">
+      <c r="R49" s="13"/>
+      <c r="S49" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="Q49" s="13" t="s">
+      <c r="T49" s="13" t="s">
         <v>364</v>
       </c>
-      <c r="R49" s="1" t="s">
+      <c r="U49" s="1" t="s">
         <v>365</v>
-      </c>
-      <c r="S49" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="T49" s="13" t="s">
-        <v>367</v>
-      </c>
-      <c r="U49" s="1" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="E50" s="2" t="s">
         <v>369</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>373</v>
       </c>
       <c r="F50" s="12"/>
       <c r="G50" s="3" t="s">
@@ -4658,15 +4585,26 @@
         <v>28</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>157</v>
+        <v>107</v>
+      </c>
+      <c r="K50" s="4" t="s">
+        <v>370</v>
       </c>
       <c r="L50" s="4" t="s">
-        <v>84</v>
+        <v>28</v>
+      </c>
+      <c r="M50" s="4" t="s">
+        <v>371</v>
       </c>
       <c r="Q50" s="13" t="s">
+        <v>372</v>
+      </c>
+      <c r="R50" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="S50" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="R50" s="13"/>
       <c r="T50" s="13" t="s">
         <v>375</v>
       </c>
@@ -4679,16 +4617,16 @@
         <v>377</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="F51" s="12"/>
       <c r="G51" s="3" t="s">
@@ -4700,9 +4638,6 @@
       <c r="I51" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="J51" s="3" t="s">
-        <v>381</v>
-      </c>
       <c r="L51" s="4" t="s">
         <v>84</v>
       </c>
@@ -4710,20 +4645,19 @@
         <v>382</v>
       </c>
       <c r="R51" s="13"/>
-      <c r="S51" s="1" t="s">
+      <c r="T51" s="13" t="s">
         <v>383</v>
       </c>
-      <c r="T51" s="13" t="s">
+      <c r="U51" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="U51" s="13"/>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
         <v>385</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>386</v>
@@ -4734,9 +4668,7 @@
       <c r="E52" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="F52" s="12" t="s">
-        <v>389</v>
-      </c>
+      <c r="F52" s="12"/>
       <c r="G52" s="3" t="s">
         <v>51</v>
       </c>
@@ -4744,48 +4676,45 @@
         <v>28</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="K52" s="4" t="s">
-        <v>390</v>
+        <v>157</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>389</v>
       </c>
       <c r="L52" s="4" t="s">
         <v>84</v>
       </c>
       <c r="Q52" s="13" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="R52" s="13"/>
       <c r="S52" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="T52" s="13" t="s">
         <v>392</v>
       </c>
-      <c r="T52" s="13" t="s">
-        <v>393</v>
-      </c>
-      <c r="U52" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="V52" s="1" t="s">
-        <v>395</v>
-      </c>
+      <c r="U52" s="13"/>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="E53" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="F53" s="12" t="s">
         <v>397</v>
       </c>
-      <c r="C53" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="F53" s="12"/>
       <c r="G53" s="3" t="s">
         <v>51</v>
       </c>
@@ -4795,47 +4724,41 @@
       <c r="I53" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="J53" s="3" t="s">
-        <v>224</v>
-      </c>
       <c r="K53" s="4" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="L53" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="M53" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="N53" s="5" t="s">
-        <v>401</v>
+        <v>84</v>
       </c>
       <c r="Q53" s="13" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="R53" s="13"/>
       <c r="S53" s="1" t="s">
-        <v>226</v>
+        <v>400</v>
       </c>
       <c r="T53" s="13" t="s">
+        <v>401</v>
+      </c>
+      <c r="U53" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="V53" s="1" t="s">
         <v>403</v>
-      </c>
-      <c r="U53" s="1" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="B54" s="2" t="s">
         <v>405</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>397</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>406</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>407</v>
@@ -4850,31 +4773,50 @@
       <c r="I54" s="3" t="s">
         <v>107</v>
       </c>
+      <c r="J54" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="K54" s="4" t="s">
+        <v>408</v>
+      </c>
       <c r="L54" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q54" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="V54" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M54" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="N54" s="5" t="s">
         <v>409</v>
+      </c>
+      <c r="Q54" s="13" t="s">
+        <v>410</v>
+      </c>
+      <c r="R54" s="13"/>
+      <c r="S54" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="T54" s="13" t="s">
+        <v>411</v>
+      </c>
+      <c r="U54" s="1" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="F55" s="12"/>
       <c r="G55" s="3" t="s">
@@ -4887,49 +4829,34 @@
         <v>107</v>
       </c>
       <c r="L55" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="M55" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="N55" s="5" t="s">
-        <v>401</v>
-      </c>
-      <c r="Q55" s="13" t="s">
-        <v>414</v>
-      </c>
-      <c r="S55" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="T55" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q55" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="U55" s="1" t="s">
+      <c r="V55" s="1" t="s">
         <v>417</v>
-      </c>
-      <c r="V55" s="1" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="C56" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="B56" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="C56" s="2" t="s">
+      <c r="D56" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="D56" s="2" t="s">
+      <c r="E56" s="2" t="s">
         <v>421</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>422</v>
       </c>
       <c r="F56" s="12"/>
       <c r="G56" s="3" t="s">
-        <v>423</v>
+        <v>51</v>
       </c>
       <c r="H56" s="3" t="s">
         <v>28</v>
@@ -4941,30 +4868,36 @@
         <v>28</v>
       </c>
       <c r="M56" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q56" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="N56" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="Q56" s="13" t="s">
+        <v>422</v>
+      </c>
+      <c r="S56" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="T56" s="13" t="s">
         <v>424</v>
       </c>
-      <c r="S56" s="1" t="s">
+      <c r="U56" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="T56" s="1" t="s">
+      <c r="V56" s="1" t="s">
         <v>426</v>
-      </c>
-      <c r="U56" s="1" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="C57" s="2" t="s">
         <v>428</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>406</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>429</v>
@@ -4972,35 +4905,80 @@
       <c r="E57" s="2" t="s">
         <v>430</v>
       </c>
-      <c r="F57" s="18" t="n">
+      <c r="F57" s="12"/>
+      <c r="G57" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="L57" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M57" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q57" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="S57" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="T57" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="U57" s="1" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="F58" s="18" t="n">
         <v>45235</v>
       </c>
-      <c r="G57" s="3" t="s">
+      <c r="G58" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="H57" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I57" s="3" t="s">
+      <c r="H58" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I58" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="L57" s="4" t="s">
+      <c r="L58" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="N57" s="5" t="s">
-        <v>401</v>
-      </c>
-      <c r="Q57" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="S57" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="T57" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="U57" s="1" t="s">
-        <v>434</v>
+      <c r="N58" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="Q58" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="S58" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="T58" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="U58" s="1" t="s">
+        <v>442</v>
       </c>
     </row>
   </sheetData>
@@ -5041,31 +5019,31 @@
     <hyperlink ref="Q33" r:id="rId34" display="https://gfbinitiative.net/"/>
     <hyperlink ref="Q34" r:id="rId35" display="http://icp-forests.net/"/>
     <hyperlink ref="T35" r:id="rId36" display="https://doi.org/10.1016/j.srs.2020.100002"/>
-    <hyperlink ref="Q37" r:id="rId37" display="http://sapfluxnet.creaf.cat/"/>
-    <hyperlink ref="T37" r:id="rId38" display="https://doi.org/10.5194/essd-13-2607-2021"/>
-    <hyperlink ref="T41" r:id="rId39" display="https://doi.org/10.1111/jbi.13623"/>
-    <hyperlink ref="Q42" r:id="rId40" location="/home" display="https://data.isric.org/geonetwork/srv/eng/catalog.search#/home"/>
-    <hyperlink ref="T42" r:id="rId41" display="https://doi.org/10.5194/essd-9-1-2017"/>
-    <hyperlink ref="Q43" r:id="rId42" display="https://www.fao.org/soils-portal/data-hub/soil-maps-and-databases/harmonized-world-soil-database-v12/en/"/>
-    <hyperlink ref="Q44" r:id="rId43" display="https://soilgrids.org/"/>
-    <hyperlink ref="Q45" r:id="rId44" display="https://www.isric.org/explore/wise-databases"/>
-    <hyperlink ref="T45" r:id="rId45" display="https://doi.org/10.1016/j.geoderma.2016.01.034"/>
-    <hyperlink ref="Q46" r:id="rId46" display="http://globalchange.bnu.edu.cn/research/data"/>
-    <hyperlink ref="T46" r:id="rId47" display="http://doi.wiley.com/10.1002/2013MS000293"/>
-    <hyperlink ref="Q47" r:id="rId48" display="https://www.futurewater.eu/projects/hihydrosoil/"/>
-    <hyperlink ref="Q48" r:id="rId49" display="https://ismn.earth/en/"/>
-    <hyperlink ref="T48" r:id="rId50" display="https://doi.org/10.5194/hess-2021-2"/>
-    <hyperlink ref="Q49" r:id="rId51" display="https://doi.org/10.3334/ORNLDAAC/1827"/>
-    <hyperlink ref="T49" r:id="rId52" display="https://10.5194/bg-7-1915-2010"/>
-    <hyperlink ref="Q50" r:id="rId53" display="https://doi.pangaea.de/10.1594/PANGAEA.788537"/>
-    <hyperlink ref="T50" r:id="rId54" display="https://doi.org/10.1029/2012GC004370"/>
-    <hyperlink ref="Q51" r:id="rId55" display="https://dataverse.scholarsportal.info/dataset.xhtml"/>
-    <hyperlink ref="T51" r:id="rId56" display="https://doi.org/10.1002/2017GL075860"/>
-    <hyperlink ref="T52" r:id="rId57" display="https://doi.org/10.1016/j.cageo.2014.07.020"/>
-    <hyperlink ref="Q53" r:id="rId58" display="https://biotime.st-andrews.ac.uk/"/>
-    <hyperlink ref="T53" r:id="rId59" display="https://doi.org/10.1111/geb.12729"/>
-    <hyperlink ref="Q55" r:id="rId60" display="https://compadre-db.org/"/>
-    <hyperlink ref="T55" r:id="rId61" display="https://doi.org/10.1111/1365-2745.12334"/>
+    <hyperlink ref="Q38" r:id="rId37" display="http://sapfluxnet.creaf.cat/"/>
+    <hyperlink ref="T38" r:id="rId38" display="https://doi.org/10.5194/essd-13-2607-2021"/>
+    <hyperlink ref="T42" r:id="rId39" display="https://doi.org/10.1111/jbi.13623"/>
+    <hyperlink ref="Q43" r:id="rId40" location="/home" display="https://data.isric.org/geonetwork/srv/eng/catalog.search#/home"/>
+    <hyperlink ref="T43" r:id="rId41" display="https://doi.org/10.5194/essd-9-1-2017"/>
+    <hyperlink ref="Q44" r:id="rId42" display="https://www.fao.org/soils-portal/data-hub/soil-maps-and-databases/harmonized-world-soil-database-v12/en/"/>
+    <hyperlink ref="Q45" r:id="rId43" display="https://soilgrids.org/"/>
+    <hyperlink ref="Q46" r:id="rId44" display="https://www.isric.org/explore/wise-databases"/>
+    <hyperlink ref="T46" r:id="rId45" display="https://doi.org/10.1016/j.geoderma.2016.01.034"/>
+    <hyperlink ref="Q47" r:id="rId46" display="http://globalchange.bnu.edu.cn/research/data"/>
+    <hyperlink ref="T47" r:id="rId47" display="http://doi.wiley.com/10.1002/2013MS000293"/>
+    <hyperlink ref="Q48" r:id="rId48" display="https://www.futurewater.eu/projects/hihydrosoil/"/>
+    <hyperlink ref="Q49" r:id="rId49" display="https://ismn.earth/en/"/>
+    <hyperlink ref="T49" r:id="rId50" display="https://doi.org/10.5194/hess-2021-2"/>
+    <hyperlink ref="Q50" r:id="rId51" display="https://doi.org/10.3334/ORNLDAAC/1827"/>
+    <hyperlink ref="T50" r:id="rId52" display="https://10.5194/bg-7-1915-2010"/>
+    <hyperlink ref="Q51" r:id="rId53" display="https://doi.pangaea.de/10.1594/PANGAEA.788537"/>
+    <hyperlink ref="T51" r:id="rId54" display="https://doi.org/10.1029/2012GC004370"/>
+    <hyperlink ref="Q52" r:id="rId55" display="https://dataverse.scholarsportal.info/dataset.xhtml"/>
+    <hyperlink ref="T52" r:id="rId56" display="https://doi.org/10.1002/2017GL075860"/>
+    <hyperlink ref="T53" r:id="rId57" display="https://doi.org/10.1016/j.cageo.2014.07.020"/>
+    <hyperlink ref="Q54" r:id="rId58" display="https://biotime.st-andrews.ac.uk/"/>
+    <hyperlink ref="T54" r:id="rId59" display="https://doi.org/10.1111/geb.12729"/>
+    <hyperlink ref="Q56" r:id="rId60" display="https://compadre-db.org/"/>
+    <hyperlink ref="T56" r:id="rId61" display="https://doi.org/10.1111/1365-2745.12334"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -5078,7 +5056,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -5088,22 +5066,22 @@
       <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.4453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>435</v>
+        <v>443</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>436</v>
+        <v>444</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>437</v>
+        <v>445</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>438</v>
+        <v>446</v>
       </c>
     </row>
   </sheetData>

--- a/ExternalDataSources.xlsx
+++ b/ExternalDataSources.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="447">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="817" uniqueCount="455">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -1200,6 +1200,30 @@
   </si>
   <si>
     <t xml:space="preserve">Weigelt, P., König, C. &amp; Kreft, H. (2020) GIFT – A Global Inventory of Floras and Traits for macroecology and biogeography. Journal of Biogeography, 47, 16-43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLAMITS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLAMITS: A global database of plant flammability traits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Open access global database on plant flammability traits measured under laboratory conditions aiming to: (a) identify the diversity of methodologies to measure plant flammability under laboratory conditions; (b) standardize the associated terminology; and (c) find geographical, ecological, and taxonomic gaps in our knowledge on plant flammability.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27/12/23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.5061/dryad.h18931zr3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flammability traits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1111/geb.13799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ocampo-Zuleta, Pausas &amp; Paula (2023) FLAMITS: A global database of plant flammability traits. Global Ecology and Biogeography</t>
   </si>
   <si>
     <t xml:space="preserve">WoSIS</t>
@@ -2018,7 +2042,7 @@
     <numFmt numFmtId="165" formatCode="mm/dd/yy"/>
     <numFmt numFmtId="166" formatCode="dd/mm/yy"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2064,12 +2088,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -2233,7 +2251,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2319,15 +2337,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V58"/>
+  <dimension ref="A1:V59"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="P1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="G23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="E37" activeCellId="0" sqref="E37"/>
+      <selection pane="topLeft" activeCell="P1" activeCellId="0" sqref="P1"/>
+      <selection pane="bottomLeft" activeCell="U43" activeCellId="0" sqref="U43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.4609375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="25.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="2" width="25.28"/>
@@ -3977,7 +3995,7 @@
       <c r="C37" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="D37" s="21" t="s">
+      <c r="D37" s="16" t="s">
         <v>272</v>
       </c>
       <c r="E37" s="2" t="s">
@@ -4004,7 +4022,7 @@
       <c r="O37" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="P37" s="0" t="s">
+      <c r="P37" s="21" t="s">
         <v>276</v>
       </c>
       <c r="Q37" s="13" t="s">
@@ -4277,18 +4295,20 @@
         <v>321</v>
       </c>
       <c r="B43" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D43" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="E43" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="D43" s="2" t="s">
+      <c r="F43" s="22" t="s">
         <v>324</v>
       </c>
-      <c r="E43" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="F43" s="12"/>
       <c r="G43" s="3" t="s">
         <v>51</v>
       </c>
@@ -4301,32 +4321,42 @@
       <c r="L43" s="4" t="s">
         <v>84</v>
       </c>
+      <c r="N43" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="O43" s="1" t="s">
+        <v>147</v>
+      </c>
       <c r="Q43" s="13" t="s">
+        <v>325</v>
+      </c>
+      <c r="R43" s="19"/>
+      <c r="S43" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="R43" s="13"/>
       <c r="T43" s="13" t="s">
         <v>327</v>
       </c>
       <c r="U43" s="1" t="s">
         <v>328</v>
       </c>
+      <c r="V43" s="20"/>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
         <v>329</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="F44" s="12"/>
       <c r="G44" s="3" t="s">
@@ -4336,31 +4366,37 @@
         <v>28</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>29</v>
+        <v>107</v>
       </c>
       <c r="L44" s="4" t="s">
         <v>84</v>
       </c>
       <c r="Q44" s="13" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="R44" s="13"/>
+      <c r="T44" s="13" t="s">
+        <v>335</v>
+      </c>
+      <c r="U44" s="1" t="s">
+        <v>336</v>
+      </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="F45" s="12"/>
       <c r="G45" s="3" t="s">
@@ -4372,35 +4408,29 @@
       <c r="I45" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>336</v>
-      </c>
       <c r="L45" s="4" t="s">
         <v>84</v>
       </c>
       <c r="Q45" s="13" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="R45" s="13"/>
-      <c r="V45" s="1" t="s">
-        <v>338</v>
-      </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="F46" s="12"/>
       <c r="G46" s="3" t="s">
@@ -4413,37 +4443,34 @@
         <v>29</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="L46" s="4" t="s">
         <v>84</v>
       </c>
       <c r="Q46" s="13" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="R46" s="13"/>
-      <c r="S46" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="T46" s="13" t="s">
-        <v>344</v>
-      </c>
-      <c r="U46" s="1" t="s">
-        <v>345</v>
+      <c r="V46" s="1" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>347</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>348</v>
       </c>
       <c r="F47" s="12"/>
       <c r="G47" s="3" t="s">
@@ -4456,40 +4483,37 @@
         <v>29</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="L47" s="4" t="s">
         <v>84</v>
       </c>
       <c r="Q47" s="13" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="R47" s="13"/>
       <c r="S47" s="1" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="T47" s="13" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="U47" s="1" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>353</v>
+        <v>338</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="F48" s="12"/>
       <c r="G48" s="3" t="s">
@@ -4502,37 +4526,40 @@
         <v>29</v>
       </c>
       <c r="J48" s="3" t="s">
-        <v>52</v>
+        <v>349</v>
       </c>
       <c r="L48" s="4" t="s">
         <v>84</v>
       </c>
       <c r="Q48" s="13" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="R48" s="13"/>
+      <c r="S48" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="T48" s="13" t="s">
+        <v>358</v>
+      </c>
       <c r="U48" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="V48" s="1" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>360</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="F49" s="12"/>
       <c r="G49" s="3" t="s">
@@ -4542,22 +4569,22 @@
         <v>28</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>107</v>
+        <v>29</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="L49" s="4" t="s">
         <v>84</v>
       </c>
       <c r="Q49" s="13" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="R49" s="13"/>
-      <c r="S49" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="T49" s="13" t="s">
+      <c r="U49" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="U49" s="1" t="s">
+      <c r="V49" s="1" t="s">
         <v>365</v>
       </c>
     </row>
@@ -4566,7 +4593,7 @@
         <v>366</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>367</v>
@@ -4587,46 +4614,38 @@
       <c r="I50" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="K50" s="4" t="s">
+      <c r="L50" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q50" s="13" t="s">
         <v>370</v>
       </c>
-      <c r="L50" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="M50" s="4" t="s">
+      <c r="R50" s="13"/>
+      <c r="S50" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="Q50" s="13" t="s">
+      <c r="T50" s="13" t="s">
         <v>372</v>
       </c>
-      <c r="R50" s="1" t="s">
+      <c r="U50" s="1" t="s">
         <v>373</v>
-      </c>
-      <c r="S50" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="T50" s="13" t="s">
-        <v>375</v>
-      </c>
-      <c r="U50" s="1" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="E51" s="2" t="s">
         <v>377</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>381</v>
       </c>
       <c r="F51" s="12"/>
       <c r="G51" s="3" t="s">
@@ -4636,15 +4655,26 @@
         <v>28</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>157</v>
+        <v>107</v>
+      </c>
+      <c r="K51" s="4" t="s">
+        <v>378</v>
       </c>
       <c r="L51" s="4" t="s">
-        <v>84</v>
+        <v>28</v>
+      </c>
+      <c r="M51" s="4" t="s">
+        <v>379</v>
       </c>
       <c r="Q51" s="13" t="s">
+        <v>380</v>
+      </c>
+      <c r="R51" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="S51" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="R51" s="13"/>
       <c r="T51" s="13" t="s">
         <v>383</v>
       </c>
@@ -4657,16 +4687,16 @@
         <v>385</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="F52" s="12"/>
       <c r="G52" s="3" t="s">
@@ -4678,9 +4708,6 @@
       <c r="I52" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>389</v>
-      </c>
       <c r="L52" s="4" t="s">
         <v>84</v>
       </c>
@@ -4688,20 +4715,19 @@
         <v>390</v>
       </c>
       <c r="R52" s="13"/>
-      <c r="S52" s="1" t="s">
+      <c r="T52" s="13" t="s">
         <v>391</v>
       </c>
-      <c r="T52" s="13" t="s">
+      <c r="U52" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="U52" s="13"/>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
         <v>393</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>394</v>
@@ -4712,9 +4738,7 @@
       <c r="E53" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="F53" s="12" t="s">
-        <v>397</v>
-      </c>
+      <c r="F53" s="12"/>
       <c r="G53" s="3" t="s">
         <v>51</v>
       </c>
@@ -4722,48 +4746,45 @@
         <v>28</v>
       </c>
       <c r="I53" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="K53" s="4" t="s">
-        <v>398</v>
+        <v>157</v>
+      </c>
+      <c r="J53" s="3" t="s">
+        <v>397</v>
       </c>
       <c r="L53" s="4" t="s">
         <v>84</v>
       </c>
       <c r="Q53" s="13" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="R53" s="13"/>
       <c r="S53" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="T53" s="13" t="s">
         <v>400</v>
       </c>
-      <c r="T53" s="13" t="s">
-        <v>401</v>
-      </c>
-      <c r="U53" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="V53" s="1" t="s">
-        <v>403</v>
-      </c>
+      <c r="U53" s="13"/>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="E54" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="F54" s="12" t="s">
         <v>405</v>
       </c>
-      <c r="C54" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="F54" s="12"/>
       <c r="G54" s="3" t="s">
         <v>51</v>
       </c>
@@ -4773,47 +4794,41 @@
       <c r="I54" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>224</v>
-      </c>
       <c r="K54" s="4" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="L54" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="M54" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="N54" s="5" t="s">
-        <v>409</v>
+        <v>84</v>
       </c>
       <c r="Q54" s="13" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="R54" s="13"/>
       <c r="S54" s="1" t="s">
-        <v>226</v>
+        <v>408</v>
       </c>
       <c r="T54" s="13" t="s">
+        <v>409</v>
+      </c>
+      <c r="U54" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="V54" s="1" t="s">
         <v>411</v>
-      </c>
-      <c r="U54" s="1" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="B55" s="2" t="s">
         <v>413</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>405</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>414</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>415</v>
@@ -4828,31 +4843,50 @@
       <c r="I55" s="3" t="s">
         <v>107</v>
       </c>
+      <c r="J55" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="K55" s="4" t="s">
+        <v>416</v>
+      </c>
       <c r="L55" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q55" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="V55" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M55" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="N55" s="5" t="s">
         <v>417</v>
+      </c>
+      <c r="Q55" s="13" t="s">
+        <v>418</v>
+      </c>
+      <c r="R55" s="13"/>
+      <c r="S55" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="T55" s="13" t="s">
+        <v>419</v>
+      </c>
+      <c r="U55" s="1" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>405</v>
+        <v>413</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="F56" s="12"/>
       <c r="G56" s="3" t="s">
@@ -4865,49 +4899,34 @@
         <v>107</v>
       </c>
       <c r="L56" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="M56" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="N56" s="5" t="s">
-        <v>409</v>
-      </c>
-      <c r="Q56" s="13" t="s">
-        <v>422</v>
-      </c>
-      <c r="S56" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="T56" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q56" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="U56" s="1" t="s">
+      <c r="V56" s="1" t="s">
         <v>425</v>
-      </c>
-      <c r="V56" s="1" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="C57" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="B57" s="2" t="s">
-        <v>405</v>
-      </c>
-      <c r="C57" s="2" t="s">
+      <c r="D57" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="D57" s="2" t="s">
+      <c r="E57" s="2" t="s">
         <v>429</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>430</v>
       </c>
       <c r="F57" s="12"/>
       <c r="G57" s="3" t="s">
-        <v>431</v>
+        <v>51</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>28</v>
@@ -4919,30 +4938,36 @@
         <v>28</v>
       </c>
       <c r="M57" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q57" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="N57" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="Q57" s="13" t="s">
+        <v>430</v>
+      </c>
+      <c r="S57" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="T57" s="13" t="s">
         <v>432</v>
       </c>
-      <c r="S57" s="1" t="s">
+      <c r="U57" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="T57" s="1" t="s">
+      <c r="V57" s="1" t="s">
         <v>434</v>
-      </c>
-      <c r="U57" s="1" t="s">
-        <v>435</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="C58" s="2" t="s">
         <v>436</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>405</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>414</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>437</v>
@@ -4950,35 +4975,80 @@
       <c r="E58" s="2" t="s">
         <v>438</v>
       </c>
-      <c r="F58" s="18" t="n">
+      <c r="F58" s="12"/>
+      <c r="G58" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="L58" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M58" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q58" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="S58" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="T58" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="U58" s="1" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="F59" s="18" t="n">
         <v>45235</v>
       </c>
-      <c r="G58" s="3" t="s">
+      <c r="G59" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I58" s="3" t="s">
+      <c r="H59" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I59" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="L58" s="4" t="s">
+      <c r="L59" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="N58" s="5" t="s">
-        <v>409</v>
-      </c>
-      <c r="Q58" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="S58" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="T58" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="U58" s="1" t="s">
-        <v>442</v>
+      <c r="N59" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="Q59" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="S59" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="T59" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="U59" s="1" t="s">
+        <v>450</v>
       </c>
     </row>
   </sheetData>
@@ -5022,28 +5092,29 @@
     <hyperlink ref="Q38" r:id="rId37" display="http://sapfluxnet.creaf.cat/"/>
     <hyperlink ref="T38" r:id="rId38" display="https://doi.org/10.5194/essd-13-2607-2021"/>
     <hyperlink ref="T42" r:id="rId39" display="https://doi.org/10.1111/jbi.13623"/>
-    <hyperlink ref="Q43" r:id="rId40" location="/home" display="https://data.isric.org/geonetwork/srv/eng/catalog.search#/home"/>
-    <hyperlink ref="T43" r:id="rId41" display="https://doi.org/10.5194/essd-9-1-2017"/>
-    <hyperlink ref="Q44" r:id="rId42" display="https://www.fao.org/soils-portal/data-hub/soil-maps-and-databases/harmonized-world-soil-database-v12/en/"/>
-    <hyperlink ref="Q45" r:id="rId43" display="https://soilgrids.org/"/>
-    <hyperlink ref="Q46" r:id="rId44" display="https://www.isric.org/explore/wise-databases"/>
-    <hyperlink ref="T46" r:id="rId45" display="https://doi.org/10.1016/j.geoderma.2016.01.034"/>
-    <hyperlink ref="Q47" r:id="rId46" display="http://globalchange.bnu.edu.cn/research/data"/>
-    <hyperlink ref="T47" r:id="rId47" display="http://doi.wiley.com/10.1002/2013MS000293"/>
-    <hyperlink ref="Q48" r:id="rId48" display="https://www.futurewater.eu/projects/hihydrosoil/"/>
-    <hyperlink ref="Q49" r:id="rId49" display="https://ismn.earth/en/"/>
-    <hyperlink ref="T49" r:id="rId50" display="https://doi.org/10.5194/hess-2021-2"/>
-    <hyperlink ref="Q50" r:id="rId51" display="https://doi.org/10.3334/ORNLDAAC/1827"/>
-    <hyperlink ref="T50" r:id="rId52" display="https://10.5194/bg-7-1915-2010"/>
-    <hyperlink ref="Q51" r:id="rId53" display="https://doi.pangaea.de/10.1594/PANGAEA.788537"/>
-    <hyperlink ref="T51" r:id="rId54" display="https://doi.org/10.1029/2012GC004370"/>
-    <hyperlink ref="Q52" r:id="rId55" display="https://dataverse.scholarsportal.info/dataset.xhtml"/>
-    <hyperlink ref="T52" r:id="rId56" display="https://doi.org/10.1002/2017GL075860"/>
-    <hyperlink ref="T53" r:id="rId57" display="https://doi.org/10.1016/j.cageo.2014.07.020"/>
-    <hyperlink ref="Q54" r:id="rId58" display="https://biotime.st-andrews.ac.uk/"/>
-    <hyperlink ref="T54" r:id="rId59" display="https://doi.org/10.1111/geb.12729"/>
-    <hyperlink ref="Q56" r:id="rId60" display="https://compadre-db.org/"/>
-    <hyperlink ref="T56" r:id="rId61" display="https://doi.org/10.1111/1365-2745.12334"/>
+    <hyperlink ref="T43" r:id="rId40" display="https://doi.org/10.1111/geb.13799"/>
+    <hyperlink ref="Q44" r:id="rId41" location="/home" display="https://data.isric.org/geonetwork/srv/eng/catalog.search#/home"/>
+    <hyperlink ref="T44" r:id="rId42" display="https://doi.org/10.5194/essd-9-1-2017"/>
+    <hyperlink ref="Q45" r:id="rId43" display="https://www.fao.org/soils-portal/data-hub/soil-maps-and-databases/harmonized-world-soil-database-v12/en/"/>
+    <hyperlink ref="Q46" r:id="rId44" display="https://soilgrids.org/"/>
+    <hyperlink ref="Q47" r:id="rId45" display="https://www.isric.org/explore/wise-databases"/>
+    <hyperlink ref="T47" r:id="rId46" display="https://doi.org/10.1016/j.geoderma.2016.01.034"/>
+    <hyperlink ref="Q48" r:id="rId47" display="http://globalchange.bnu.edu.cn/research/data"/>
+    <hyperlink ref="T48" r:id="rId48" display="http://doi.wiley.com/10.1002/2013MS000293"/>
+    <hyperlink ref="Q49" r:id="rId49" display="https://www.futurewater.eu/projects/hihydrosoil/"/>
+    <hyperlink ref="Q50" r:id="rId50" display="https://ismn.earth/en/"/>
+    <hyperlink ref="T50" r:id="rId51" display="https://doi.org/10.5194/hess-2021-2"/>
+    <hyperlink ref="Q51" r:id="rId52" display="https://doi.org/10.3334/ORNLDAAC/1827"/>
+    <hyperlink ref="T51" r:id="rId53" display="https://10.5194/bg-7-1915-2010"/>
+    <hyperlink ref="Q52" r:id="rId54" display="https://doi.pangaea.de/10.1594/PANGAEA.788537"/>
+    <hyperlink ref="T52" r:id="rId55" display="https://doi.org/10.1029/2012GC004370"/>
+    <hyperlink ref="Q53" r:id="rId56" display="https://dataverse.scholarsportal.info/dataset.xhtml"/>
+    <hyperlink ref="T53" r:id="rId57" display="https://doi.org/10.1002/2017GL075860"/>
+    <hyperlink ref="T54" r:id="rId58" display="https://doi.org/10.1016/j.cageo.2014.07.020"/>
+    <hyperlink ref="Q55" r:id="rId59" display="https://biotime.st-andrews.ac.uk/"/>
+    <hyperlink ref="T55" r:id="rId60" display="https://doi.org/10.1111/geb.12729"/>
+    <hyperlink ref="Q57" r:id="rId61" display="https://compadre-db.org/"/>
+    <hyperlink ref="T57" r:id="rId62" display="https://doi.org/10.1111/1365-2745.12334"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -5066,22 +5137,22 @@
       <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.4609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>443</v>
+        <v>451</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>445</v>
+        <v>453</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>446</v>
+        <v>454</v>
       </c>
     </row>
   </sheetData>

--- a/ExternalDataSources.xlsx
+++ b/ExternalDataSources.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="817" uniqueCount="455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="881" uniqueCount="485">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -701,6 +701,9 @@
     <t xml:space="preserve">https://www.try-db.org/TryWeb/Home.php</t>
   </si>
   <si>
+    <t xml:space="preserve">Multiple plant functional traits</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://doi.org/10.1111/j.1365-2486.2011.02451.x</t>
   </si>
   <si>
@@ -758,6 +761,141 @@
     <t xml:space="preserve">Tumber-Dávila, Shersingh Joseph and Schenk, H. Jochen and Du, Enzai and Jackson, Robert B. New Phytologist (2022) 235: 1032–1056</t>
   </si>
   <si>
+    <t xml:space="preserve">GIFT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Global Inventory of Floras and Traits (GIFT)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Global Inventory of Floras and Traits - GIFT database is a global archive of regional plant checklists and floras and plant functional traits. It contains information about the floristic status of 368,580 species across 3,627 geographic regions. Functional trait information is available for 287,245 species and 109 traits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">API</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://gift.uni-goettingen.de/home</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1111/jbi.13623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weigelt, P., König, C. &amp; Kreft, H. (2020) GIFT – A Global Inventory of Floras and Traits for macroecology and biogeography. Journal of Biogeography, 47, 16-43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLAMITS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLAMITS: A global database of plant flammability traits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Open access global database on plant flammability traits measured under laboratory conditions aiming to: (a) identify the diversity of methodologies to measure plant flammability under laboratory conditions; (b) standardize the associated terminology; and (c) find geographical, ecological, and taxonomic gaps in our knowledge on plant flammability.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27/12/2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.5061/dryad.h18931zr3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flammability traits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1111/geb.13799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ocampo-Zuleta, Pausas &amp; Paula (2023) FLAMITS: A global database of plant flammability traits. Global Ecology and Biogeography</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FunAndes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FunAndes: A functional trait database of Andean plants</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FunAndes contains data on 24 traits across 2,694 taxa, for a total of 105,466 entries. The database features plant-morphological attributes including growth form, and leaf, stem, and wood traits measured at the species or individual level, together with geographic metadata (i.e., coordinates and elevation).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28/12/2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tropical Andes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.6084/m9.figshare.19665471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1038/s41597-022-01626-6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baez et al. 2022. FunAndes – A functional trait database of Andean plants. Scientific Data 9: 511 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tundra Trait Team: a database of plant traits spanning the tundra biome</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Tundra Trait Team (TTT) database includes field-based measurements of key traits related to plant form and function at multiple sites across the tundra biome. The database contains 91,970 measurements of 18 plant traits. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Global/Tundra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/TundraTraitTeam/TraitHub</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1111/geb.12821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bjorkman, A. D. et al. Tundra Trait Team: a database of plant traits spanning the tundra biome. Glob. Ecol. Biogeogr. 27, 1402–1411 (2018).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AusTraits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AusTraits, a curated plant trait database for the Australian flora</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AusTraits synthesises data on 448 traits across 28,640 taxa from field campaigns, published literature, taxonomic monographs, and individual taxon descriptions. Traits vary in scope from physiological measures of performance (e.g. photosynthetic gas exchange, water-use efficiency) to morphological attributes (e.g. leaf area, seed mass, plant height) which link to aspects of ecological variation.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Australia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.6084/m9.figshare.14545755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1038/s41597-021-01006-6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Falster, D., Gallagher, R., Wenk, E.H. et al. AusTraits, a curated plant trait database for the Australian flora. Sci Data 8, 254 (2021). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BROT2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BROT 2.0: A functional trait database for Mediterranean Basin plants</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BROT 2.0 is a database of pant functional traits for the Mediterranean Basin flora. It includes 25764 records of 44 traits from 2457 plant taxa distributed in 119 taxonomic families.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mediterranean Basin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.6084/m9.figshare.c.3843841.v1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1038/sdata.2018.135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tavşanoglu, C., and J. G. Pausas. 2018. A functional trait database for Mediterranean Basin plants. Scientific Data 5:1–18.</t>
+  </si>
+  <si>
     <t xml:space="preserve">sPlot</t>
   </si>
   <si>
@@ -1176,54 +1314,6 @@
   </si>
   <si>
     <t xml:space="preserve">Vangansbeke P, Máliš F, Hédl R, et al. ClimPlant: Realized climatic niches of vascular plants in European forest understoreys. Global Ecol Biogeogr. 2021;30:1183–1190</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GIFT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Global Inventory of Floras and Traits (GIFT)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Global Inventory of Floras and Traits - GIFT database is a global archive of regional plant checklists and floras and plant functional traits. It contains information about the floristic status of 368,580 species across 3,627 geographic regions. Functional trait information is available for 287,245 species and 109 traits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">API</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://gift.uni-goettingen.de/home</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://doi.org/10.1111/jbi.13623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Weigelt, P., König, C. &amp; Kreft, H. (2020) GIFT – A Global Inventory of Floras and Traits for macroecology and biogeography. Journal of Biogeography, 47, 16-43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FLAMITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FLAMITS: A global database of plant flammability traits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Open access global database on plant flammability traits measured under laboratory conditions aiming to: (a) identify the diversity of methodologies to measure plant flammability under laboratory conditions; (b) standardize the associated terminology; and (c) find geographical, ecological, and taxonomic gaps in our knowledge on plant flammability.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27/12/23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://doi.org/10.5061/dryad.h18931zr3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flammability traits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://doi.org/10.1111/geb.13799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ocampo-Zuleta, Pausas &amp; Paula (2023) FLAMITS: A global database of plant flammability traits. Global Ecology and Biogeography</t>
   </si>
   <si>
     <t xml:space="preserve">WoSIS</t>
@@ -2042,7 +2132,7 @@
     <numFmt numFmtId="165" formatCode="mm/dd/yy"/>
     <numFmt numFmtId="166" formatCode="dd/mm/yy"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2088,6 +2178,18 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="0"/>
     </font>
   </fonts>
   <fills count="6">
@@ -2166,7 +2268,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2251,12 +2353,20 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -2337,15 +2447,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V59"/>
+  <dimension ref="A1:V63"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="P1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="G23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="P1" activeCellId="0" sqref="P1"/>
-      <selection pane="bottomLeft" activeCell="U43" activeCellId="0" sqref="U43"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="G2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A35" activeCellId="0" sqref="A35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.4609375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.47265625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="25.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="2" width="25.28"/>
@@ -3533,14 +3643,17 @@
         <v>201</v>
       </c>
       <c r="R26" s="13"/>
+      <c r="S26" s="1" t="s">
+        <v>202</v>
+      </c>
       <c r="T26" s="13" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="U26" s="13"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>197</v>
@@ -3549,10 +3662,10 @@
         <v>198</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F27" s="12"/>
       <c r="G27" s="3" t="s">
@@ -3565,17 +3678,17 @@
         <v>84</v>
       </c>
       <c r="Q27" s="13" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="R27" s="13"/>
       <c r="T27" s="13" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="U27" s="13"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>197</v>
@@ -3584,10 +3697,10 @@
         <v>198</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F28" s="12"/>
       <c r="G28" s="3" t="s">
@@ -3603,17 +3716,17 @@
         <v>200</v>
       </c>
       <c r="Q28" s="13" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="R28" s="13"/>
       <c r="T28" s="13"/>
       <c r="U28" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>180</v>
@@ -3622,10 +3735,10 @@
         <v>198</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F29" s="18" t="n">
         <v>45118</v>
@@ -3646,40 +3759,42 @@
         <v>200</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q29" s="13" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="R29" s="19"/>
       <c r="S29" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="T29" s="13" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="U29" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="V29" s="20"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>197</v>
+        <v>180</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="F30" s="12"/>
+        <v>224</v>
+      </c>
+      <c r="F30" s="21" t="n">
+        <v>45264</v>
+      </c>
       <c r="G30" s="3" t="s">
         <v>51</v>
       </c>
@@ -3689,42 +3804,50 @@
       <c r="I30" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="J30" s="3" t="s">
-        <v>224</v>
-      </c>
       <c r="L30" s="4" t="s">
         <v>84</v>
       </c>
       <c r="N30" s="5" t="s">
         <v>200</v>
       </c>
+      <c r="O30" s="1" t="s">
+        <v>225</v>
+      </c>
       <c r="Q30" s="13" t="s">
-        <v>225</v>
-      </c>
-      <c r="R30" s="13"/>
-      <c r="S30" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="T30" s="13"/>
-      <c r="U30" s="13"/>
+      <c r="R30" s="19" t="s">
+        <v>227</v>
+      </c>
+      <c r="T30" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="U30" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="V30" s="20" t="s">
+        <v>222</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>197</v>
+        <v>180</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="F31" s="12"/>
+        <v>232</v>
+      </c>
+      <c r="F31" s="21" t="s">
+        <v>233</v>
+      </c>
       <c r="G31" s="3" t="s">
         <v>51</v>
       </c>
@@ -3734,48 +3857,51 @@
       <c r="I31" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="J31" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="K31" s="4" t="s">
-        <v>229</v>
-      </c>
       <c r="L31" s="4" t="s">
         <v>84</v>
       </c>
+      <c r="N31" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="O31" s="1" t="s">
+        <v>147</v>
+      </c>
       <c r="Q31" s="13" t="s">
-        <v>230</v>
-      </c>
-      <c r="R31" s="13"/>
+        <v>234</v>
+      </c>
+      <c r="R31" s="19"/>
       <c r="S31" s="1" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="T31" s="13" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="U31" s="1" t="s">
-        <v>232</v>
-      </c>
+        <v>237</v>
+      </c>
+      <c r="V31" s="20"/>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>197</v>
+        <v>180</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="F32" s="12"/>
+        <v>240</v>
+      </c>
+      <c r="F32" s="21" t="s">
+        <v>241</v>
+      </c>
       <c r="G32" s="3" t="s">
-        <v>51</v>
+        <v>242</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>28</v>
@@ -3784,35 +3910,50 @@
         <v>107</v>
       </c>
       <c r="L32" s="4" t="s">
-        <v>28</v>
+        <v>84</v>
+      </c>
+      <c r="N32" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="O32" s="1" t="s">
+        <v>147</v>
       </c>
       <c r="Q32" s="13" t="s">
-        <v>236</v>
-      </c>
-      <c r="R32" s="13"/>
+        <v>243</v>
+      </c>
+      <c r="R32" s="19"/>
+      <c r="S32" s="1" t="s">
+        <v>202</v>
+      </c>
       <c r="T32" s="13" t="s">
-        <v>237</v>
-      </c>
+        <v>244</v>
+      </c>
+      <c r="U32" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="V32" s="20"/>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>197</v>
+        <v>180</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>240</v>
+        <v>198</v>
+      </c>
+      <c r="D33" s="22" t="s">
+        <v>247</v>
       </c>
       <c r="E33" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="F33" s="21" t="s">
         <v>241</v>
       </c>
-      <c r="F33" s="12"/>
       <c r="G33" s="3" t="s">
-        <v>51</v>
+        <v>249</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>28</v>
@@ -3823,31 +3964,48 @@
       <c r="L33" s="4" t="s">
         <v>84</v>
       </c>
+      <c r="N33" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="O33" s="1" t="s">
+        <v>147</v>
+      </c>
       <c r="Q33" s="13" t="s">
-        <v>242</v>
-      </c>
-      <c r="R33" s="13"/>
-      <c r="T33" s="13"/>
-    </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>250</v>
+      </c>
+      <c r="R33" s="19"/>
+      <c r="S33" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="T33" s="13" t="s">
+        <v>251</v>
+      </c>
+      <c r="U33" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="V33" s="20"/>
+    </row>
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>197</v>
+        <v>180</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>245</v>
+        <v>198</v>
+      </c>
+      <c r="D34" s="22" t="s">
+        <v>254</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="F34" s="12"/>
+        <v>255</v>
+      </c>
+      <c r="F34" s="21" t="s">
+        <v>241</v>
+      </c>
       <c r="G34" s="3" t="s">
-        <v>93</v>
+        <v>256</v>
       </c>
       <c r="H34" s="3" t="s">
         <v>28</v>
@@ -3855,185 +4013,172 @@
       <c r="I34" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="K34" s="4" t="s">
-        <v>247</v>
-      </c>
       <c r="L34" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="M34" s="4" t="s">
-        <v>224</v>
+        <v>84</v>
+      </c>
+      <c r="N34" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="O34" s="1" t="s">
+        <v>147</v>
       </c>
       <c r="Q34" s="13" t="s">
-        <v>248</v>
-      </c>
-      <c r="R34" s="13"/>
+        <v>257</v>
+      </c>
+      <c r="R34" s="19"/>
       <c r="S34" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="T34" s="13"/>
-      <c r="V34" s="1" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>202</v>
+      </c>
+      <c r="T34" s="13" t="s">
+        <v>258</v>
+      </c>
+      <c r="U34" s="23" t="s">
+        <v>259</v>
+      </c>
+      <c r="V34" s="20"/>
+    </row>
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>180</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>252</v>
+        <v>198</v>
+      </c>
+      <c r="D35" s="22" t="s">
+        <v>261</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="F35" s="14" t="n">
-        <v>44779</v>
+        <v>262</v>
+      </c>
+      <c r="F35" s="21" t="s">
+        <v>241</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>51</v>
+        <v>263</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>254</v>
+        <v>84</v>
       </c>
       <c r="L35" s="4" t="s">
-        <v>28</v>
+        <v>84</v>
+      </c>
+      <c r="N35" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="O35" s="1" t="s">
+        <v>147</v>
       </c>
       <c r="Q35" s="13" t="s">
-        <v>255</v>
-      </c>
-      <c r="R35" s="13"/>
+        <v>264</v>
+      </c>
+      <c r="R35" s="19"/>
       <c r="S35" s="1" t="s">
-        <v>256</v>
+        <v>202</v>
       </c>
       <c r="T35" s="13" t="s">
-        <v>257</v>
-      </c>
-      <c r="U35" s="1" t="s">
-        <v>258</v>
-      </c>
+        <v>265</v>
+      </c>
+      <c r="U35" s="23" t="s">
+        <v>266</v>
+      </c>
+      <c r="V35" s="20"/>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>244</v>
+        <v>268</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="F36" s="14" t="s">
-        <v>262</v>
-      </c>
+        <v>269</v>
+      </c>
+      <c r="F36" s="12"/>
       <c r="G36" s="3" t="s">
-        <v>263</v>
+        <v>51</v>
       </c>
       <c r="H36" s="3" t="s">
         <v>28</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>29</v>
+        <v>107</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="K36" s="4" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="L36" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="M36" s="4" t="s">
-        <v>266</v>
+        <v>84</v>
       </c>
       <c r="N36" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="O36" s="1" t="s">
-        <v>147</v>
-      </c>
       <c r="Q36" s="13" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="R36" s="13"/>
       <c r="S36" s="1" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="T36" s="13"/>
-      <c r="U36" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="V36" s="1" t="s">
-        <v>270</v>
-      </c>
+      <c r="U36" s="13"/>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="D37" s="16" t="s">
-        <v>272</v>
+        <v>268</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>273</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="F37" s="14" t="s">
         <v>274</v>
       </c>
+      <c r="F37" s="12"/>
       <c r="G37" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="J37" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="K37" s="4" t="s">
         <v>275</v>
-      </c>
-      <c r="H37" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I37" s="3" t="s">
-        <v>29</v>
       </c>
       <c r="L37" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="N37" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="O37" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="P37" s="21" t="s">
+      <c r="Q37" s="13" t="s">
         <v>276</v>
-      </c>
-      <c r="Q37" s="13" t="s">
-        <v>277</v>
       </c>
       <c r="R37" s="13"/>
       <c r="S37" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="T37" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="U37" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="T37" s="13"/>
-      <c r="V37" s="1"/>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
@@ -4043,10 +4188,10 @@
         <v>197</v>
       </c>
       <c r="C38" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="D38" s="2" t="s">
         <v>280</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>279</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>281</v>
@@ -4064,44 +4209,29 @@
       <c r="L38" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="M38" s="4" t="s">
+      <c r="Q38" s="13" t="s">
         <v>282</v>
       </c>
-      <c r="P38" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q38" s="13" t="s">
+      <c r="R38" s="13"/>
+      <c r="T38" s="13" t="s">
         <v>283</v>
-      </c>
-      <c r="R38" s="13"/>
-      <c r="S38" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="T38" s="13" t="s">
-        <v>285</v>
-      </c>
-      <c r="U38" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="V38" s="1" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>197</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="F39" s="12"/>
       <c r="G39" s="3" t="s">
@@ -4111,39 +4241,36 @@
         <v>28</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J39" s="3" t="s">
-        <v>291</v>
+        <v>107</v>
       </c>
       <c r="L39" s="4" t="s">
         <v>84</v>
       </c>
       <c r="Q39" s="13" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="R39" s="13"/>
       <c r="T39" s="13"/>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="F40" s="12"/>
       <c r="G40" s="3" t="s">
-        <v>51</v>
+        <v>93</v>
       </c>
       <c r="H40" s="3" t="s">
         <v>28</v>
@@ -4152,55 +4279,47 @@
         <v>107</v>
       </c>
       <c r="K40" s="4" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="L40" s="4" t="s">
         <v>28</v>
       </c>
       <c r="M40" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="N40" s="5" t="s">
-        <v>298</v>
+        <v>270</v>
       </c>
       <c r="Q40" s="13" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="R40" s="13"/>
       <c r="S40" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="T40" s="13" t="s">
-        <v>301</v>
-      </c>
-      <c r="U40" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="V40" s="20" t="s">
-        <v>303</v>
+        <v>295</v>
+      </c>
+      <c r="T40" s="13"/>
+      <c r="V40" s="1" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>180</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="F41" s="12" t="s">
-        <v>307</v>
+        <v>299</v>
+      </c>
+      <c r="F41" s="14" t="n">
+        <v>44779</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>93</v>
+        <v>51</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>28</v>
@@ -4209,114 +4328,113 @@
         <v>29</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="K41" s="4" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="L41" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="N41" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="O41" s="1" t="s">
-        <v>147</v>
+        <v>28</v>
       </c>
       <c r="Q41" s="13" t="s">
-        <v>310</v>
-      </c>
-      <c r="R41" s="19" t="n">
-        <v>1.2</v>
+        <v>301</v>
+      </c>
+      <c r="R41" s="13"/>
+      <c r="S41" s="1" t="s">
+        <v>302</v>
       </c>
       <c r="T41" s="13" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="U41" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="V41" s="20"/>
-    </row>
-    <row r="42" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>180</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>198</v>
+        <v>290</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="F42" s="22" t="n">
-        <v>45264</v>
+        <v>307</v>
+      </c>
+      <c r="F42" s="14" t="s">
+        <v>308</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>51</v>
+        <v>309</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>28</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>107</v>
+        <v>29</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="K42" s="4" t="s">
+        <v>311</v>
       </c>
       <c r="L42" s="4" t="s">
-        <v>84</v>
+        <v>28</v>
+      </c>
+      <c r="M42" s="4" t="s">
+        <v>312</v>
       </c>
       <c r="N42" s="5" t="s">
         <v>200</v>
       </c>
       <c r="O42" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q42" s="13" t="s">
+        <v>313</v>
+      </c>
+      <c r="R42" s="13"/>
+      <c r="S42" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="T42" s="13"/>
+      <c r="U42" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="V42" s="1" t="s">
         <v>316</v>
-      </c>
-      <c r="Q42" s="13" t="s">
-        <v>317</v>
-      </c>
-      <c r="R42" s="19" t="s">
-        <v>318</v>
-      </c>
-      <c r="T42" s="13" t="s">
-        <v>319</v>
-      </c>
-      <c r="U42" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="V42" s="20" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>180</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>322</v>
+        <v>290</v>
+      </c>
+      <c r="D43" s="16" t="s">
+        <v>318</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="F43" s="22" t="s">
-        <v>324</v>
+        <v>319</v>
+      </c>
+      <c r="F43" s="14" t="s">
+        <v>320</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>51</v>
+        <v>321</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>28</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>107</v>
+        <v>29</v>
       </c>
       <c r="L43" s="4" t="s">
         <v>84</v>
@@ -4327,36 +4445,34 @@
       <c r="O43" s="1" t="s">
         <v>147</v>
       </c>
+      <c r="P43" s="24" t="s">
+        <v>322</v>
+      </c>
       <c r="Q43" s="13" t="s">
-        <v>325</v>
-      </c>
-      <c r="R43" s="19"/>
+        <v>323</v>
+      </c>
+      <c r="R43" s="13"/>
       <c r="S43" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="T43" s="13" t="s">
-        <v>327</v>
-      </c>
-      <c r="U43" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="V43" s="20"/>
+        <v>324</v>
+      </c>
+      <c r="T43" s="13"/>
+      <c r="V43" s="1"/>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>330</v>
+        <v>197</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="F44" s="12"/>
       <c r="G44" s="3" t="s">
@@ -4369,34 +4485,46 @@
         <v>107</v>
       </c>
       <c r="L44" s="4" t="s">
-        <v>84</v>
+        <v>28</v>
+      </c>
+      <c r="M44" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="P44" s="1" t="s">
+        <v>101</v>
       </c>
       <c r="Q44" s="13" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="R44" s="13"/>
+      <c r="S44" s="1" t="s">
+        <v>330</v>
+      </c>
       <c r="T44" s="13" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="U44" s="1" t="s">
-        <v>336</v>
+        <v>332</v>
+      </c>
+      <c r="V44" s="1" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>330</v>
+        <v>197</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="F45" s="12"/>
       <c r="G45" s="3" t="s">
@@ -4408,29 +4536,33 @@
       <c r="I45" s="3" t="s">
         <v>29</v>
       </c>
+      <c r="J45" s="3" t="s">
+        <v>337</v>
+      </c>
       <c r="L45" s="4" t="s">
         <v>84</v>
       </c>
       <c r="Q45" s="13" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="R45" s="13"/>
+      <c r="T45" s="13"/>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="E46" s="2" t="s">
         <v>342</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>343</v>
       </c>
       <c r="F46" s="12"/>
       <c r="G46" s="3" t="s">
@@ -4440,41 +4572,58 @@
         <v>28</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J46" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="K46" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="L46" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M46" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="N46" s="5" t="s">
         <v>344</v>
-      </c>
-      <c r="L46" s="4" t="s">
-        <v>84</v>
       </c>
       <c r="Q46" s="13" t="s">
         <v>345</v>
       </c>
       <c r="R46" s="13"/>
-      <c r="V46" s="1" t="s">
+      <c r="S46" s="1" t="s">
         <v>346</v>
+      </c>
+      <c r="T46" s="13" t="s">
+        <v>347</v>
+      </c>
+      <c r="U46" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="V46" s="20" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>330</v>
+        <v>180</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>338</v>
+        <v>351</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="F47" s="12"/>
+        <v>352</v>
+      </c>
+      <c r="F47" s="12" t="s">
+        <v>353</v>
+      </c>
       <c r="G47" s="3" t="s">
-        <v>51</v>
+        <v>93</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>28</v>
@@ -4483,37 +4632,49 @@
         <v>29</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>349</v>
+        <v>354</v>
+      </c>
+      <c r="K47" s="4" t="s">
+        <v>355</v>
       </c>
       <c r="L47" s="4" t="s">
         <v>84</v>
       </c>
+      <c r="N47" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="O47" s="1" t="s">
+        <v>147</v>
+      </c>
       <c r="Q47" s="13" t="s">
-        <v>350</v>
-      </c>
-      <c r="R47" s="13"/>
-      <c r="S47" s="1" t="s">
-        <v>351</v>
+        <v>356</v>
+      </c>
+      <c r="R47" s="19" t="n">
+        <v>1.2</v>
       </c>
       <c r="T47" s="13" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="U47" s="1" t="s">
-        <v>353</v>
-      </c>
+        <v>358</v>
+      </c>
+      <c r="V47" s="20"/>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>330</v>
+        <v>360</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>338</v>
+        <v>361</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>355</v>
+        <v>362</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>363</v>
       </c>
       <c r="F48" s="12"/>
       <c r="G48" s="3" t="s">
@@ -4523,43 +4684,37 @@
         <v>28</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J48" s="3" t="s">
-        <v>349</v>
+        <v>107</v>
       </c>
       <c r="L48" s="4" t="s">
         <v>84</v>
       </c>
       <c r="Q48" s="13" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="R48" s="13"/>
-      <c r="S48" s="1" t="s">
-        <v>357</v>
-      </c>
       <c r="T48" s="13" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="U48" s="1" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="B49" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="B49" s="2" t="s">
-        <v>330</v>
-      </c>
       <c r="C49" s="2" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>360</v>
+        <v>369</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="F49" s="12"/>
       <c r="G49" s="3" t="s">
@@ -4571,38 +4726,29 @@
       <c r="I49" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>52</v>
-      </c>
       <c r="L49" s="4" t="s">
         <v>84</v>
       </c>
       <c r="Q49" s="13" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="R49" s="13"/>
-      <c r="U49" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="V49" s="1" t="s">
-        <v>365</v>
-      </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>330</v>
+        <v>360</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="F50" s="12"/>
       <c r="G50" s="3" t="s">
@@ -4612,40 +4758,37 @@
         <v>28</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>107</v>
+        <v>29</v>
+      </c>
+      <c r="J50" s="3" t="s">
+        <v>374</v>
       </c>
       <c r="L50" s="4" t="s">
         <v>84</v>
       </c>
       <c r="Q50" s="13" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="R50" s="13"/>
-      <c r="S50" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="T50" s="13" t="s">
-        <v>372</v>
-      </c>
-      <c r="U50" s="1" t="s">
-        <v>373</v>
+      <c r="V50" s="1" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>330</v>
+        <v>360</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="F51" s="12"/>
       <c r="G51" s="3" t="s">
@@ -4655,48 +4798,40 @@
         <v>28</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="K51" s="4" t="s">
-        <v>378</v>
+        <v>29</v>
+      </c>
+      <c r="J51" s="3" t="s">
+        <v>379</v>
       </c>
       <c r="L51" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="M51" s="4" t="s">
-        <v>379</v>
+        <v>84</v>
       </c>
       <c r="Q51" s="13" t="s">
         <v>380</v>
       </c>
-      <c r="R51" s="1" t="s">
+      <c r="R51" s="13"/>
+      <c r="S51" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="S51" s="1" t="s">
+      <c r="T51" s="13" t="s">
         <v>382</v>
       </c>
-      <c r="T51" s="13" t="s">
+      <c r="U51" s="1" t="s">
         <v>383</v>
-      </c>
-      <c r="U51" s="1" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="D52" s="2" t="s">
         <v>385</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>389</v>
       </c>
       <c r="F52" s="12"/>
       <c r="G52" s="3" t="s">
@@ -4706,37 +4841,43 @@
         <v>28</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>157</v>
+        <v>29</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>379</v>
       </c>
       <c r="L52" s="4" t="s">
         <v>84</v>
       </c>
       <c r="Q52" s="13" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="R52" s="13"/>
+      <c r="S52" s="1" t="s">
+        <v>387</v>
+      </c>
       <c r="T52" s="13" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="U52" s="1" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>386</v>
+        <v>360</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="F53" s="12"/>
       <c r="G53" s="3" t="s">
@@ -4746,45 +4887,42 @@
         <v>28</v>
       </c>
       <c r="I53" s="3" t="s">
-        <v>157</v>
+        <v>29</v>
       </c>
       <c r="J53" s="3" t="s">
-        <v>397</v>
+        <v>52</v>
       </c>
       <c r="L53" s="4" t="s">
         <v>84</v>
       </c>
       <c r="Q53" s="13" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="R53" s="13"/>
-      <c r="S53" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="T53" s="13" t="s">
-        <v>400</v>
-      </c>
-      <c r="U53" s="13"/>
+      <c r="U53" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="V53" s="1" t="s">
+        <v>395</v>
+      </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>386</v>
+        <v>360</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="F54" s="12" t="s">
-        <v>405</v>
-      </c>
+        <v>399</v>
+      </c>
+      <c r="F54" s="12"/>
       <c r="G54" s="3" t="s">
         <v>51</v>
       </c>
@@ -4794,44 +4932,38 @@
       <c r="I54" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="K54" s="4" t="s">
-        <v>406</v>
-      </c>
       <c r="L54" s="4" t="s">
         <v>84</v>
       </c>
       <c r="Q54" s="13" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="R54" s="13"/>
       <c r="S54" s="1" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="T54" s="13" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="U54" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="V54" s="1" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>413</v>
+        <v>360</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="F55" s="12"/>
       <c r="G55" s="3" t="s">
@@ -4843,50 +4975,46 @@
       <c r="I55" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="J55" s="3" t="s">
-        <v>224</v>
-      </c>
       <c r="K55" s="4" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="L55" s="4" t="s">
         <v>28</v>
       </c>
       <c r="M55" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="N55" s="5" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="Q55" s="13" t="s">
-        <v>418</v>
-      </c>
-      <c r="R55" s="13"/>
+        <v>410</v>
+      </c>
+      <c r="R55" s="1" t="s">
+        <v>411</v>
+      </c>
       <c r="S55" s="1" t="s">
-        <v>226</v>
+        <v>412</v>
       </c>
       <c r="T55" s="13" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="U55" s="1" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="F56" s="12"/>
       <c r="G56" s="3" t="s">
@@ -4896,33 +5024,37 @@
         <v>28</v>
       </c>
       <c r="I56" s="3" t="s">
-        <v>107</v>
+        <v>157</v>
       </c>
       <c r="L56" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="Q56" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="V56" s="1" t="s">
-        <v>425</v>
+      <c r="Q56" s="13" t="s">
+        <v>420</v>
+      </c>
+      <c r="R56" s="13"/>
+      <c r="T56" s="13" t="s">
+        <v>421</v>
+      </c>
+      <c r="U56" s="1" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="E57" s="2" t="s">
         <v>426</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>413</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>427</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>428</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>429</v>
       </c>
       <c r="F57" s="12"/>
       <c r="G57" s="3" t="s">
@@ -4932,52 +5064,47 @@
         <v>28</v>
       </c>
       <c r="I57" s="3" t="s">
-        <v>107</v>
+        <v>157</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>427</v>
       </c>
       <c r="L57" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="M57" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="N57" s="5" t="s">
-        <v>417</v>
+        <v>84</v>
       </c>
       <c r="Q57" s="13" t="s">
+        <v>428</v>
+      </c>
+      <c r="R57" s="13"/>
+      <c r="S57" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="T57" s="13" t="s">
         <v>430</v>
       </c>
-      <c r="S57" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="T57" s="13" t="s">
-        <v>432</v>
-      </c>
-      <c r="U57" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="V57" s="1" t="s">
-        <v>434</v>
-      </c>
+      <c r="U57" s="13"/>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="F58" s="12" t="s">
         <v>435</v>
       </c>
-      <c r="B58" s="2" t="s">
-        <v>413</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>437</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>438</v>
-      </c>
-      <c r="F58" s="12"/>
       <c r="G58" s="3" t="s">
-        <v>439</v>
+        <v>51</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>28</v>
@@ -4985,44 +5112,46 @@
       <c r="I58" s="3" t="s">
         <v>107</v>
       </c>
+      <c r="K58" s="4" t="s">
+        <v>436</v>
+      </c>
       <c r="L58" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="M58" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q58" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q58" s="13" t="s">
+        <v>437</v>
+      </c>
+      <c r="R58" s="13"/>
+      <c r="S58" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="T58" s="13" t="s">
+        <v>439</v>
+      </c>
+      <c r="U58" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="S58" s="1" t="s">
+      <c r="V58" s="1" t="s">
         <v>441</v>
-      </c>
-      <c r="T58" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="U58" s="1" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="C59" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="B59" s="2" t="s">
-        <v>413</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>422</v>
-      </c>
       <c r="D59" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="E59" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="E59" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="F59" s="18" t="n">
-        <v>45235</v>
-      </c>
+      <c r="F59" s="12"/>
       <c r="G59" s="3" t="s">
         <v>51</v>
       </c>
@@ -5030,25 +5159,214 @@
         <v>28</v>
       </c>
       <c r="I59" s="3" t="s">
-        <v>157</v>
+        <v>107</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="K59" s="4" t="s">
+        <v>446</v>
       </c>
       <c r="L59" s="4" t="s">
-        <v>84</v>
+        <v>28</v>
+      </c>
+      <c r="M59" s="4" t="s">
+        <v>270</v>
       </c>
       <c r="N59" s="5" t="s">
-        <v>417</v>
-      </c>
-      <c r="Q59" s="1" t="s">
         <v>447</v>
       </c>
+      <c r="Q59" s="13" t="s">
+        <v>448</v>
+      </c>
+      <c r="R59" s="13"/>
       <c r="S59" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="T59" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="T59" s="13" t="s">
         <v>449</v>
       </c>
       <c r="U59" s="1" t="s">
         <v>450</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="F60" s="12"/>
+      <c r="G60" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="L60" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q60" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="V60" s="1" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="F61" s="12"/>
+      <c r="G61" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H61" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I61" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="L61" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M61" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="N61" s="5" t="s">
+        <v>447</v>
+      </c>
+      <c r="Q61" s="13" t="s">
+        <v>460</v>
+      </c>
+      <c r="S61" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="T61" s="13" t="s">
+        <v>462</v>
+      </c>
+      <c r="U61" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="V61" s="1" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="F62" s="12"/>
+      <c r="G62" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="L62" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M62" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q62" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="S62" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="T62" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="U62" s="1" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="F63" s="18" t="n">
+        <v>45235</v>
+      </c>
+      <c r="G63" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H63" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I63" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="L63" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="N63" s="5" t="s">
+        <v>447</v>
+      </c>
+      <c r="Q63" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="S63" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="T63" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="U63" s="1" t="s">
+        <v>480</v>
       </c>
     </row>
   </sheetData>
@@ -5081,40 +5399,47 @@
     <hyperlink ref="Q28" r:id="rId26" display="https://xylemfunctionaltraits.org/"/>
     <hyperlink ref="Q29" r:id="rId27" display="https://pasta.lternet.edu/package/metadata/eml/knb-lter-hfr/426/1"/>
     <hyperlink ref="T29" r:id="rId28" display="https://doi.org/10.1111/nph.18031"/>
-    <hyperlink ref="Q30" r:id="rId29" display="https://www.idiv.de/de/splot.html"/>
-    <hyperlink ref="Q31" r:id="rId30" display="https://doi.org/10.25829/idiv.3474-40-3292"/>
-    <hyperlink ref="T31" r:id="rId31" display="https://doi.org/10.1111/geb.13346"/>
-    <hyperlink ref="Q32" r:id="rId32" display="https://lotvs.csic.es/"/>
-    <hyperlink ref="T32" r:id="rId33" display="https://www.biorxiv.org/content/10.1101/2021.09.29.462383v1.full"/>
-    <hyperlink ref="Q33" r:id="rId34" display="https://gfbinitiative.net/"/>
-    <hyperlink ref="Q34" r:id="rId35" display="http://icp-forests.net/"/>
-    <hyperlink ref="T35" r:id="rId36" display="https://doi.org/10.1016/j.srs.2020.100002"/>
-    <hyperlink ref="Q38" r:id="rId37" display="http://sapfluxnet.creaf.cat/"/>
-    <hyperlink ref="T38" r:id="rId38" display="https://doi.org/10.5194/essd-13-2607-2021"/>
-    <hyperlink ref="T42" r:id="rId39" display="https://doi.org/10.1111/jbi.13623"/>
-    <hyperlink ref="T43" r:id="rId40" display="https://doi.org/10.1111/geb.13799"/>
-    <hyperlink ref="Q44" r:id="rId41" location="/home" display="https://data.isric.org/geonetwork/srv/eng/catalog.search#/home"/>
-    <hyperlink ref="T44" r:id="rId42" display="https://doi.org/10.5194/essd-9-1-2017"/>
-    <hyperlink ref="Q45" r:id="rId43" display="https://www.fao.org/soils-portal/data-hub/soil-maps-and-databases/harmonized-world-soil-database-v12/en/"/>
-    <hyperlink ref="Q46" r:id="rId44" display="https://soilgrids.org/"/>
-    <hyperlink ref="Q47" r:id="rId45" display="https://www.isric.org/explore/wise-databases"/>
-    <hyperlink ref="T47" r:id="rId46" display="https://doi.org/10.1016/j.geoderma.2016.01.034"/>
-    <hyperlink ref="Q48" r:id="rId47" display="http://globalchange.bnu.edu.cn/research/data"/>
-    <hyperlink ref="T48" r:id="rId48" display="http://doi.wiley.com/10.1002/2013MS000293"/>
-    <hyperlink ref="Q49" r:id="rId49" display="https://www.futurewater.eu/projects/hihydrosoil/"/>
-    <hyperlink ref="Q50" r:id="rId50" display="https://ismn.earth/en/"/>
-    <hyperlink ref="T50" r:id="rId51" display="https://doi.org/10.5194/hess-2021-2"/>
-    <hyperlink ref="Q51" r:id="rId52" display="https://doi.org/10.3334/ORNLDAAC/1827"/>
-    <hyperlink ref="T51" r:id="rId53" display="https://10.5194/bg-7-1915-2010"/>
-    <hyperlink ref="Q52" r:id="rId54" display="https://doi.pangaea.de/10.1594/PANGAEA.788537"/>
-    <hyperlink ref="T52" r:id="rId55" display="https://doi.org/10.1029/2012GC004370"/>
-    <hyperlink ref="Q53" r:id="rId56" display="https://dataverse.scholarsportal.info/dataset.xhtml"/>
-    <hyperlink ref="T53" r:id="rId57" display="https://doi.org/10.1002/2017GL075860"/>
-    <hyperlink ref="T54" r:id="rId58" display="https://doi.org/10.1016/j.cageo.2014.07.020"/>
-    <hyperlink ref="Q55" r:id="rId59" display="https://biotime.st-andrews.ac.uk/"/>
-    <hyperlink ref="T55" r:id="rId60" display="https://doi.org/10.1111/geb.12729"/>
-    <hyperlink ref="Q57" r:id="rId61" display="https://compadre-db.org/"/>
-    <hyperlink ref="T57" r:id="rId62" display="https://doi.org/10.1111/1365-2745.12334"/>
+    <hyperlink ref="T30" r:id="rId29" display="https://doi.org/10.1111/jbi.13623"/>
+    <hyperlink ref="T31" r:id="rId30" display="https://doi.org/10.1111/geb.13799"/>
+    <hyperlink ref="T32" r:id="rId31" display="https://doi.org/10.1038/s41597-022-01626-6"/>
+    <hyperlink ref="Q33" r:id="rId32" display="https://github.com/TundraTraitTeam/TraitHub"/>
+    <hyperlink ref="T33" r:id="rId33" display="https://doi.org/10.1111/geb.12821"/>
+    <hyperlink ref="Q34" r:id="rId34" display="https://doi.org/10.6084/m9.figshare.14545755"/>
+    <hyperlink ref="T34" r:id="rId35" display="https://doi.org/10.1038/s41597-021-01006-6"/>
+    <hyperlink ref="Q35" r:id="rId36" display="https://doi.org/10.6084/m9.figshare.c.3843841.v1"/>
+    <hyperlink ref="T35" r:id="rId37" display="https://doi.org/10.1038/sdata.2018.135"/>
+    <hyperlink ref="Q36" r:id="rId38" display="https://www.idiv.de/de/splot.html"/>
+    <hyperlink ref="Q37" r:id="rId39" display="https://doi.org/10.25829/idiv.3474-40-3292"/>
+    <hyperlink ref="T37" r:id="rId40" display="https://doi.org/10.1111/geb.13346"/>
+    <hyperlink ref="Q38" r:id="rId41" display="https://lotvs.csic.es/"/>
+    <hyperlink ref="T38" r:id="rId42" display="https://www.biorxiv.org/content/10.1101/2021.09.29.462383v1.full"/>
+    <hyperlink ref="Q39" r:id="rId43" display="https://gfbinitiative.net/"/>
+    <hyperlink ref="Q40" r:id="rId44" display="http://icp-forests.net/"/>
+    <hyperlink ref="T41" r:id="rId45" display="https://doi.org/10.1016/j.srs.2020.100002"/>
+    <hyperlink ref="Q44" r:id="rId46" display="http://sapfluxnet.creaf.cat/"/>
+    <hyperlink ref="T44" r:id="rId47" display="https://doi.org/10.5194/essd-13-2607-2021"/>
+    <hyperlink ref="Q48" r:id="rId48" location="/home" display="https://data.isric.org/geonetwork/srv/eng/catalog.search#/home"/>
+    <hyperlink ref="T48" r:id="rId49" display="https://doi.org/10.5194/essd-9-1-2017"/>
+    <hyperlink ref="Q49" r:id="rId50" display="https://www.fao.org/soils-portal/data-hub/soil-maps-and-databases/harmonized-world-soil-database-v12/en/"/>
+    <hyperlink ref="Q50" r:id="rId51" display="https://soilgrids.org/"/>
+    <hyperlink ref="Q51" r:id="rId52" display="https://www.isric.org/explore/wise-databases"/>
+    <hyperlink ref="T51" r:id="rId53" display="https://doi.org/10.1016/j.geoderma.2016.01.034"/>
+    <hyperlink ref="Q52" r:id="rId54" display="http://globalchange.bnu.edu.cn/research/data"/>
+    <hyperlink ref="T52" r:id="rId55" display="http://doi.wiley.com/10.1002/2013MS000293"/>
+    <hyperlink ref="Q53" r:id="rId56" display="https://www.futurewater.eu/projects/hihydrosoil/"/>
+    <hyperlink ref="Q54" r:id="rId57" display="https://ismn.earth/en/"/>
+    <hyperlink ref="T54" r:id="rId58" display="https://doi.org/10.5194/hess-2021-2"/>
+    <hyperlink ref="Q55" r:id="rId59" display="https://doi.org/10.3334/ORNLDAAC/1827"/>
+    <hyperlink ref="T55" r:id="rId60" display="https://10.5194/bg-7-1915-2010"/>
+    <hyperlink ref="Q56" r:id="rId61" display="https://doi.pangaea.de/10.1594/PANGAEA.788537"/>
+    <hyperlink ref="T56" r:id="rId62" display="https://doi.org/10.1029/2012GC004370"/>
+    <hyperlink ref="Q57" r:id="rId63" display="https://dataverse.scholarsportal.info/dataset.xhtml"/>
+    <hyperlink ref="T57" r:id="rId64" display="https://doi.org/10.1002/2017GL075860"/>
+    <hyperlink ref="T58" r:id="rId65" display="https://doi.org/10.1016/j.cageo.2014.07.020"/>
+    <hyperlink ref="Q59" r:id="rId66" display="https://biotime.st-andrews.ac.uk/"/>
+    <hyperlink ref="T59" r:id="rId67" display="https://doi.org/10.1111/geb.12729"/>
+    <hyperlink ref="Q61" r:id="rId68" display="https://compadre-db.org/"/>
+    <hyperlink ref="T61" r:id="rId69" display="https://doi.org/10.1111/1365-2745.12334"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -5137,22 +5462,22 @@
       <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.4609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.47265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>451</v>
+        <v>481</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>452</v>
+        <v>482</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>453</v>
+        <v>483</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>454</v>
+        <v>484</v>
       </c>
     </row>
   </sheetData>

--- a/ExternalDataSources.xlsx
+++ b/ExternalDataSources.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="881" uniqueCount="485">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="492">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -894,6 +894,27 @@
   </si>
   <si>
     <t xml:space="preserve">Tavşanoglu, C., and J. G. Pausas. 2018. A functional trait database for Mediterranean Basin plants. Scientific Data 5:1–18.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CPTD2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The China plant trait database version 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">China Plant Trait Database contains information on morphometric, physical, chemical, photosynthetic and hydraulic traits from 1529 unique species in 140 sites spanning a diversity of vegetation types</t>
+  </si>
+  <si>
+    <t xml:space="preserve">China</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.6084/m9.figshare.19448219.v6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1038/s41597-022-01884-4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wang, H., Harrison, S.P., Li, M. et al. The China plant trait database version 2. Sci Data 9, 769 (2022)</t>
   </si>
   <si>
     <t xml:space="preserve">sPlot</t>
@@ -2132,7 +2153,7 @@
     <numFmt numFmtId="165" formatCode="mm/dd/yy"/>
     <numFmt numFmtId="166" formatCode="dd/mm/yy"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2180,16 +2201,11 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="6">
@@ -2268,7 +2284,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2357,11 +2373,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2447,15 +2459,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V63"/>
+  <dimension ref="A1:V64"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="G2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A35" activeCellId="0" sqref="A35"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="G11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
+      <selection pane="bottomLeft" activeCell="O37" activeCellId="0" sqref="O37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.47265625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.48828125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="25.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="2" width="25.28"/>
@@ -3943,7 +3955,7 @@
       <c r="C33" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="D33" s="22" t="s">
+      <c r="D33" s="16" t="s">
         <v>247</v>
       </c>
       <c r="E33" s="2" t="s">
@@ -3995,7 +4007,7 @@
       <c r="C34" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="D34" s="22" t="s">
+      <c r="D34" s="16" t="s">
         <v>254</v>
       </c>
       <c r="E34" s="2" t="s">
@@ -4032,7 +4044,7 @@
       <c r="T34" s="13" t="s">
         <v>258</v>
       </c>
-      <c r="U34" s="23" t="s">
+      <c r="U34" s="22" t="s">
         <v>259</v>
       </c>
       <c r="V34" s="20"/>
@@ -4047,7 +4059,7 @@
       <c r="C35" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="D35" s="22" t="s">
+      <c r="D35" s="16" t="s">
         <v>261</v>
       </c>
       <c r="E35" s="2" t="s">
@@ -4081,30 +4093,32 @@
       <c r="T35" s="13" t="s">
         <v>265</v>
       </c>
-      <c r="U35" s="23" t="s">
+      <c r="U35" s="22" t="s">
         <v>266</v>
       </c>
       <c r="V35" s="20"/>
     </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
         <v>267</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>197</v>
+        <v>180</v>
       </c>
       <c r="C36" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D36" s="16" t="s">
         <v>268</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>267</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="F36" s="12"/>
+      <c r="F36" s="21" t="s">
+        <v>241</v>
+      </c>
       <c r="G36" s="3" t="s">
-        <v>51</v>
+        <v>270</v>
       </c>
       <c r="H36" s="3" t="s">
         <v>28</v>
@@ -4112,40 +4126,47 @@
       <c r="I36" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="J36" s="3" t="s">
-        <v>270</v>
-      </c>
       <c r="L36" s="4" t="s">
         <v>84</v>
       </c>
       <c r="N36" s="5" t="s">
         <v>200</v>
       </c>
+      <c r="O36" s="1" t="s">
+        <v>147</v>
+      </c>
       <c r="Q36" s="13" t="s">
         <v>271</v>
       </c>
-      <c r="R36" s="13"/>
+      <c r="R36" s="19" t="n">
+        <v>2</v>
+      </c>
       <c r="S36" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="T36" s="13" t="s">
         <v>272</v>
       </c>
-      <c r="T36" s="13"/>
-      <c r="U36" s="13"/>
+      <c r="U36" s="22" t="s">
+        <v>273</v>
+      </c>
+      <c r="V36" s="20"/>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>197</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="F37" s="12"/>
       <c r="G37" s="3" t="s">
@@ -4158,37 +4179,33 @@
         <v>107</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="K37" s="4" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="L37" s="4" t="s">
         <v>84</v>
       </c>
+      <c r="N37" s="5" t="s">
+        <v>200</v>
+      </c>
       <c r="Q37" s="13" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="R37" s="13"/>
       <c r="S37" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="T37" s="13" t="s">
-        <v>277</v>
-      </c>
-      <c r="U37" s="1" t="s">
-        <v>278</v>
-      </c>
+        <v>279</v>
+      </c>
+      <c r="T37" s="13"/>
+      <c r="U37" s="13"/>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>197</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>280</v>
@@ -4206,32 +4223,44 @@
       <c r="I38" s="3" t="s">
         <v>107</v>
       </c>
+      <c r="J38" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="K38" s="4" t="s">
+        <v>282</v>
+      </c>
       <c r="L38" s="4" t="s">
-        <v>28</v>
+        <v>84</v>
       </c>
       <c r="Q38" s="13" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="R38" s="13"/>
+      <c r="S38" s="1" t="s">
+        <v>279</v>
+      </c>
       <c r="T38" s="13" t="s">
-        <v>283</v>
+        <v>284</v>
+      </c>
+      <c r="U38" s="1" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>197</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="F39" s="12"/>
       <c r="G39" s="3" t="s">
@@ -4244,33 +4273,35 @@
         <v>107</v>
       </c>
       <c r="L39" s="4" t="s">
-        <v>84</v>
+        <v>28</v>
       </c>
       <c r="Q39" s="13" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="R39" s="13"/>
-      <c r="T39" s="13"/>
+      <c r="T39" s="13" t="s">
+        <v>290</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>197</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="F40" s="12"/>
       <c r="G40" s="3" t="s">
-        <v>93</v>
+        <v>51</v>
       </c>
       <c r="H40" s="3" t="s">
         <v>28</v>
@@ -4278,36 +4309,24 @@
       <c r="I40" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="K40" s="4" t="s">
-        <v>293</v>
-      </c>
       <c r="L40" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="M40" s="4" t="s">
-        <v>270</v>
+        <v>84</v>
       </c>
       <c r="Q40" s="13" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="R40" s="13"/>
-      <c r="S40" s="1" t="s">
-        <v>295</v>
-      </c>
       <c r="T40" s="13"/>
-      <c r="V40" s="1" t="s">
-        <v>296</v>
-      </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C41" s="2" t="s">
         <v>297</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>290</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>298</v>
@@ -4315,23 +4334,24 @@
       <c r="E41" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="F41" s="14" t="n">
-        <v>44779</v>
-      </c>
+      <c r="F41" s="12"/>
       <c r="G41" s="3" t="s">
-        <v>51</v>
+        <v>93</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>28</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J41" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="K41" s="4" t="s">
         <v>300</v>
       </c>
       <c r="L41" s="4" t="s">
         <v>28</v>
+      </c>
+      <c r="M41" s="4" t="s">
+        <v>277</v>
       </c>
       <c r="Q41" s="13" t="s">
         <v>301</v>
@@ -4340,34 +4360,32 @@
       <c r="S41" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="T41" s="13" t="s">
+      <c r="T41" s="13"/>
+      <c r="V41" s="1" t="s">
         <v>303</v>
-      </c>
-      <c r="U41" s="1" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>180</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="D42" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="E42" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="F42" s="14" t="s">
-        <v>308</v>
+      <c r="F42" s="14" t="n">
+        <v>44779</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>309</v>
+        <v>51</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>28</v>
@@ -4376,59 +4394,46 @@
         <v>29</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="K42" s="4" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="L42" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="M42" s="4" t="s">
-        <v>312</v>
-      </c>
-      <c r="N42" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="O42" s="1" t="s">
-        <v>147</v>
-      </c>
       <c r="Q42" s="13" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="R42" s="13"/>
       <c r="S42" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="T42" s="13"/>
+        <v>309</v>
+      </c>
+      <c r="T42" s="13" t="s">
+        <v>310</v>
+      </c>
       <c r="U42" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="V42" s="1" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>180</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="D43" s="16" t="s">
-        <v>318</v>
+        <v>297</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>313</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="F43" s="14" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>28</v>
@@ -4436,8 +4441,17 @@
       <c r="I43" s="3" t="s">
         <v>29</v>
       </c>
+      <c r="J43" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="K43" s="4" t="s">
+        <v>318</v>
+      </c>
       <c r="L43" s="4" t="s">
-        <v>84</v>
+        <v>28</v>
+      </c>
+      <c r="M43" s="4" t="s">
+        <v>319</v>
       </c>
       <c r="N43" s="5" t="s">
         <v>200</v>
@@ -4445,86 +4459,86 @@
       <c r="O43" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="P43" s="24" t="s">
-        <v>322</v>
-      </c>
       <c r="Q43" s="13" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="R43" s="13"/>
       <c r="S43" s="1" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="T43" s="13"/>
-      <c r="V43" s="1"/>
+      <c r="U43" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="V43" s="1" t="s">
+        <v>323</v>
+      </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="D44" s="16" t="s">
         <v>325</v>
       </c>
-      <c r="B44" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="C44" s="2" t="s">
+      <c r="E44" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="D44" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="E44" s="2" t="s">
+      <c r="F44" s="14" t="s">
         <v>327</v>
       </c>
-      <c r="F44" s="12"/>
       <c r="G44" s="3" t="s">
-        <v>51</v>
+        <v>328</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>28</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>107</v>
+        <v>29</v>
       </c>
       <c r="L44" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="M44" s="4" t="s">
-        <v>328</v>
-      </c>
-      <c r="P44" s="1" t="s">
-        <v>101</v>
+        <v>84</v>
+      </c>
+      <c r="N44" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="O44" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="P44" s="23" t="s">
+        <v>329</v>
       </c>
       <c r="Q44" s="13" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="R44" s="13"/>
       <c r="S44" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="T44" s="13" t="s">
         <v>331</v>
       </c>
-      <c r="U44" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="V44" s="1" t="s">
-        <v>333</v>
-      </c>
+      <c r="T44" s="13"/>
+      <c r="V44" s="1"/>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>197</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D45" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>334</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>336</v>
       </c>
       <c r="F45" s="12"/>
       <c r="G45" s="3" t="s">
@@ -4534,35 +4548,49 @@
         <v>28</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J45" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="L45" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M45" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="P45" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q45" s="13" t="s">
+        <v>336</v>
+      </c>
+      <c r="R45" s="13"/>
+      <c r="S45" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="L45" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q45" s="13" t="s">
+      <c r="T45" s="13" t="s">
         <v>338</v>
       </c>
-      <c r="R45" s="13"/>
-      <c r="T45" s="13"/>
+      <c r="U45" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="V45" s="1" t="s">
+        <v>340</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>341</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="F46" s="12"/>
       <c r="G46" s="3" t="s">
@@ -4572,140 +4600,138 @@
         <v>28</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="K46" s="4" t="s">
-        <v>343</v>
+        <v>29</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>344</v>
       </c>
       <c r="L46" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="M46" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="N46" s="5" t="s">
-        <v>344</v>
+        <v>84</v>
       </c>
       <c r="Q46" s="13" t="s">
         <v>345</v>
       </c>
       <c r="R46" s="13"/>
-      <c r="S46" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="T46" s="13" t="s">
-        <v>347</v>
-      </c>
-      <c r="U46" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="V46" s="20" t="s">
-        <v>349</v>
-      </c>
+      <c r="T46" s="13"/>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>180</v>
       </c>
       <c r="C47" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="F47" s="12"/>
+      <c r="G47" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="K47" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="L47" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M47" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="N47" s="5" t="s">
         <v>351</v>
       </c>
-      <c r="D47" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="E47" s="2" t="s">
+      <c r="Q47" s="13" t="s">
         <v>352</v>
       </c>
-      <c r="F47" s="12" t="s">
+      <c r="R47" s="13"/>
+      <c r="S47" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="G47" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J47" s="3" t="s">
+      <c r="T47" s="13" t="s">
         <v>354</v>
       </c>
-      <c r="K47" s="4" t="s">
+      <c r="U47" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="L47" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="N47" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="O47" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q47" s="13" t="s">
+      <c r="V47" s="20" t="s">
         <v>356</v>
       </c>
-      <c r="R47" s="19" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="T47" s="13" t="s">
-        <v>357</v>
-      </c>
-      <c r="U47" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="V47" s="20"/>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="F48" s="12" t="s">
         <v>360</v>
       </c>
-      <c r="C48" s="2" t="s">
+      <c r="G48" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J48" s="3" t="s">
         <v>361</v>
       </c>
-      <c r="D48" s="2" t="s">
+      <c r="K48" s="4" t="s">
         <v>362</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="F48" s="12"/>
-      <c r="G48" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>107</v>
       </c>
       <c r="L48" s="4" t="s">
         <v>84</v>
       </c>
+      <c r="N48" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="O48" s="1" t="s">
+        <v>147</v>
+      </c>
       <c r="Q48" s="13" t="s">
+        <v>363</v>
+      </c>
+      <c r="R48" s="19" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="T48" s="13" t="s">
         <v>364</v>
       </c>
-      <c r="R48" s="13"/>
-      <c r="T48" s="13" t="s">
+      <c r="U48" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="U48" s="1" t="s">
-        <v>366</v>
-      </c>
+      <c r="V48" s="20"/>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="B49" s="2" t="s">
         <v>367</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>360</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>368</v>
@@ -4724,7 +4750,7 @@
         <v>28</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>29</v>
+        <v>107</v>
       </c>
       <c r="L49" s="4" t="s">
         <v>84</v>
@@ -4733,22 +4759,28 @@
         <v>371</v>
       </c>
       <c r="R49" s="13"/>
+      <c r="T49" s="13" t="s">
+        <v>372</v>
+      </c>
+      <c r="U49" s="1" t="s">
+        <v>373</v>
+      </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="F50" s="12"/>
       <c r="G50" s="3" t="s">
@@ -4760,35 +4792,29 @@
       <c r="I50" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="J50" s="3" t="s">
-        <v>374</v>
-      </c>
       <c r="L50" s="4" t="s">
         <v>84</v>
       </c>
       <c r="Q50" s="13" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="R50" s="13"/>
-      <c r="V50" s="1" t="s">
-        <v>376</v>
-      </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="F51" s="12"/>
       <c r="G51" s="3" t="s">
@@ -4801,22 +4827,16 @@
         <v>29</v>
       </c>
       <c r="J51" s="3" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="L51" s="4" t="s">
         <v>84</v>
       </c>
       <c r="Q51" s="13" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="R51" s="13"/>
-      <c r="S51" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="T51" s="13" t="s">
-        <v>382</v>
-      </c>
-      <c r="U51" s="1" t="s">
+      <c r="V51" s="1" t="s">
         <v>383</v>
       </c>
     </row>
@@ -4825,12 +4845,15 @@
         <v>384</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="D52" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="E52" s="2" t="s">
         <v>385</v>
       </c>
       <c r="F52" s="12"/>
@@ -4844,39 +4867,36 @@
         <v>29</v>
       </c>
       <c r="J52" s="3" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="L52" s="4" t="s">
         <v>84</v>
       </c>
       <c r="Q52" s="13" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="R52" s="13"/>
       <c r="S52" s="1" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="T52" s="13" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="U52" s="1" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>391</v>
+        <v>375</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="E53" s="2" t="s">
         <v>392</v>
       </c>
       <c r="F53" s="12"/>
@@ -4890,7 +4910,7 @@
         <v>29</v>
       </c>
       <c r="J53" s="3" t="s">
-        <v>52</v>
+        <v>386</v>
       </c>
       <c r="L53" s="4" t="s">
         <v>84</v>
@@ -4899,25 +4919,28 @@
         <v>393</v>
       </c>
       <c r="R53" s="13"/>
+      <c r="S53" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="T53" s="13" t="s">
+        <v>395</v>
+      </c>
       <c r="U53" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="V53" s="1" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="C54" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="D54" s="2" t="s">
         <v>397</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>398</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>399</v>
@@ -4930,7 +4953,10 @@
         <v>28</v>
       </c>
       <c r="I54" s="3" t="s">
-        <v>107</v>
+        <v>29</v>
+      </c>
+      <c r="J54" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="L54" s="4" t="s">
         <v>84</v>
@@ -4939,31 +4965,28 @@
         <v>400</v>
       </c>
       <c r="R54" s="13"/>
-      <c r="S54" s="1" t="s">
+      <c r="U54" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="T54" s="13" t="s">
+      <c r="V54" s="1" t="s">
         <v>402</v>
-      </c>
-      <c r="U54" s="1" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="C55" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="B55" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="C55" s="2" t="s">
+      <c r="D55" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="D55" s="2" t="s">
+      <c r="E55" s="2" t="s">
         <v>406</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>407</v>
       </c>
       <c r="F55" s="12"/>
       <c r="G55" s="3" t="s">
@@ -4975,46 +4998,38 @@
       <c r="I55" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="K55" s="4" t="s">
+      <c r="L55" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q55" s="13" t="s">
+        <v>407</v>
+      </c>
+      <c r="R55" s="13"/>
+      <c r="S55" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="L55" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="M55" s="4" t="s">
+      <c r="T55" s="13" t="s">
         <v>409</v>
       </c>
-      <c r="Q55" s="13" t="s">
+      <c r="U55" s="1" t="s">
         <v>410</v>
-      </c>
-      <c r="R55" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="S55" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="T55" s="13" t="s">
-        <v>413</v>
-      </c>
-      <c r="U55" s="1" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>416</v>
+        <v>367</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="F56" s="12"/>
       <c r="G56" s="3" t="s">
@@ -5024,28 +5039,39 @@
         <v>28</v>
       </c>
       <c r="I56" s="3" t="s">
-        <v>157</v>
+        <v>107</v>
+      </c>
+      <c r="K56" s="4" t="s">
+        <v>415</v>
       </c>
       <c r="L56" s="4" t="s">
-        <v>84</v>
+        <v>28</v>
+      </c>
+      <c r="M56" s="4" t="s">
+        <v>416</v>
       </c>
       <c r="Q56" s="13" t="s">
+        <v>417</v>
+      </c>
+      <c r="R56" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="S56" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="T56" s="13" t="s">
         <v>420</v>
       </c>
-      <c r="R56" s="13"/>
-      <c r="T56" s="13" t="s">
+      <c r="U56" s="1" t="s">
         <v>421</v>
-      </c>
-      <c r="U56" s="1" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="B57" s="2" t="s">
         <v>423</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>416</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>424</v>
@@ -5066,43 +5092,37 @@
       <c r="I57" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>427</v>
-      </c>
       <c r="L57" s="4" t="s">
         <v>84</v>
       </c>
       <c r="Q57" s="13" t="s">
+        <v>427</v>
+      </c>
+      <c r="R57" s="13"/>
+      <c r="T57" s="13" t="s">
         <v>428</v>
       </c>
-      <c r="R57" s="13"/>
-      <c r="S57" s="1" t="s">
+      <c r="U57" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="T57" s="13" t="s">
-        <v>430</v>
-      </c>
-      <c r="U57" s="13"/>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="C58" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="B58" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="C58" s="2" t="s">
+      <c r="D58" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="D58" s="2" t="s">
+      <c r="E58" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="E58" s="2" t="s">
-        <v>434</v>
-      </c>
-      <c r="F58" s="12" t="s">
-        <v>435</v>
-      </c>
+      <c r="F58" s="12"/>
       <c r="G58" s="3" t="s">
         <v>51</v>
       </c>
@@ -5110,48 +5130,45 @@
         <v>28</v>
       </c>
       <c r="I58" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="K58" s="4" t="s">
-        <v>436</v>
+        <v>157</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>434</v>
       </c>
       <c r="L58" s="4" t="s">
         <v>84</v>
       </c>
       <c r="Q58" s="13" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="R58" s="13"/>
       <c r="S58" s="1" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="T58" s="13" t="s">
-        <v>439</v>
-      </c>
-      <c r="U58" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="V58" s="1" t="s">
-        <v>441</v>
-      </c>
+        <v>437</v>
+      </c>
+      <c r="U58" s="13"/>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="F59" s="12" t="s">
         <v>442</v>
       </c>
-      <c r="B59" s="2" t="s">
-        <v>443</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>444</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>445</v>
-      </c>
-      <c r="F59" s="12"/>
       <c r="G59" s="3" t="s">
         <v>51</v>
       </c>
@@ -5161,50 +5178,44 @@
       <c r="I59" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>270</v>
-      </c>
       <c r="K59" s="4" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="L59" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="M59" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="N59" s="5" t="s">
-        <v>447</v>
+        <v>84</v>
       </c>
       <c r="Q59" s="13" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="R59" s="13"/>
       <c r="S59" s="1" t="s">
-        <v>272</v>
+        <v>445</v>
       </c>
       <c r="T59" s="13" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="U59" s="1" t="s">
-        <v>450</v>
+        <v>447</v>
+      </c>
+      <c r="V59" s="1" t="s">
+        <v>448</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="C60" s="2" t="s">
         <v>451</v>
       </c>
-      <c r="B60" s="2" t="s">
-        <v>443</v>
-      </c>
-      <c r="C60" s="2" t="s">
+      <c r="D60" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="E60" s="2" t="s">
         <v>452</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>451</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>453</v>
       </c>
       <c r="F60" s="12"/>
       <c r="G60" s="3" t="s">
@@ -5216,31 +5227,50 @@
       <c r="I60" s="3" t="s">
         <v>107</v>
       </c>
+      <c r="J60" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="K60" s="4" t="s">
+        <v>453</v>
+      </c>
       <c r="L60" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q60" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M60" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="N60" s="5" t="s">
         <v>454</v>
       </c>
-      <c r="V60" s="1" t="s">
+      <c r="Q60" s="13" t="s">
         <v>455</v>
+      </c>
+      <c r="R60" s="13"/>
+      <c r="S60" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="T60" s="13" t="s">
+        <v>456</v>
+      </c>
+      <c r="U60" s="1" t="s">
+        <v>457</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>443</v>
+        <v>450</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>458</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="F61" s="12"/>
       <c r="G61" s="3" t="s">
@@ -5253,49 +5283,34 @@
         <v>107</v>
       </c>
       <c r="L61" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="M61" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="N61" s="5" t="s">
-        <v>447</v>
-      </c>
-      <c r="Q61" s="13" t="s">
-        <v>460</v>
-      </c>
-      <c r="S61" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q61" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="T61" s="13" t="s">
+      <c r="V61" s="1" t="s">
         <v>462</v>
-      </c>
-      <c r="U61" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="V61" s="1" t="s">
-        <v>464</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="D62" s="2" t="s">
         <v>465</v>
       </c>
-      <c r="B62" s="2" t="s">
-        <v>443</v>
-      </c>
-      <c r="C62" s="2" t="s">
+      <c r="E62" s="2" t="s">
         <v>466</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>467</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>468</v>
       </c>
       <c r="F62" s="12"/>
       <c r="G62" s="3" t="s">
-        <v>469</v>
+        <v>51</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>28</v>
@@ -5307,54 +5322,58 @@
         <v>28</v>
       </c>
       <c r="M62" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q62" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="N62" s="5" t="s">
+        <v>454</v>
+      </c>
+      <c r="Q62" s="13" t="s">
+        <v>467</v>
+      </c>
+      <c r="S62" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="T62" s="13" t="s">
+        <v>469</v>
+      </c>
+      <c r="U62" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="S62" s="1" t="s">
+      <c r="V62" s="1" t="s">
         <v>471</v>
-      </c>
-      <c r="T62" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="U62" s="1" t="s">
-        <v>473</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="D63" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="B63" s="2" t="s">
-        <v>443</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>452</v>
-      </c>
-      <c r="D63" s="2" t="s">
+      <c r="E63" s="2" t="s">
         <v>475</v>
       </c>
-      <c r="E63" s="2" t="s">
+      <c r="F63" s="12"/>
+      <c r="G63" s="3" t="s">
         <v>476</v>
       </c>
-      <c r="F63" s="18" t="n">
-        <v>45235</v>
-      </c>
-      <c r="G63" s="3" t="s">
-        <v>51</v>
-      </c>
       <c r="H63" s="3" t="s">
         <v>28</v>
       </c>
       <c r="I63" s="3" t="s">
-        <v>157</v>
+        <v>107</v>
       </c>
       <c r="L63" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="N63" s="5" t="s">
-        <v>447</v>
+        <v>28</v>
+      </c>
+      <c r="M63" s="4" t="s">
+        <v>146</v>
       </c>
       <c r="Q63" s="1" t="s">
         <v>477</v>
@@ -5367,6 +5386,53 @@
       </c>
       <c r="U63" s="1" t="s">
         <v>480</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="F64" s="18" t="n">
+        <v>45235</v>
+      </c>
+      <c r="G64" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H64" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I64" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="L64" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="N64" s="5" t="s">
+        <v>454</v>
+      </c>
+      <c r="Q64" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="S64" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="T64" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="U64" s="1" t="s">
+        <v>487</v>
       </c>
     </row>
   </sheetData>
@@ -5408,38 +5474,40 @@
     <hyperlink ref="T34" r:id="rId35" display="https://doi.org/10.1038/s41597-021-01006-6"/>
     <hyperlink ref="Q35" r:id="rId36" display="https://doi.org/10.6084/m9.figshare.c.3843841.v1"/>
     <hyperlink ref="T35" r:id="rId37" display="https://doi.org/10.1038/sdata.2018.135"/>
-    <hyperlink ref="Q36" r:id="rId38" display="https://www.idiv.de/de/splot.html"/>
-    <hyperlink ref="Q37" r:id="rId39" display="https://doi.org/10.25829/idiv.3474-40-3292"/>
-    <hyperlink ref="T37" r:id="rId40" display="https://doi.org/10.1111/geb.13346"/>
-    <hyperlink ref="Q38" r:id="rId41" display="https://lotvs.csic.es/"/>
-    <hyperlink ref="T38" r:id="rId42" display="https://www.biorxiv.org/content/10.1101/2021.09.29.462383v1.full"/>
-    <hyperlink ref="Q39" r:id="rId43" display="https://gfbinitiative.net/"/>
-    <hyperlink ref="Q40" r:id="rId44" display="http://icp-forests.net/"/>
-    <hyperlink ref="T41" r:id="rId45" display="https://doi.org/10.1016/j.srs.2020.100002"/>
-    <hyperlink ref="Q44" r:id="rId46" display="http://sapfluxnet.creaf.cat/"/>
-    <hyperlink ref="T44" r:id="rId47" display="https://doi.org/10.5194/essd-13-2607-2021"/>
-    <hyperlink ref="Q48" r:id="rId48" location="/home" display="https://data.isric.org/geonetwork/srv/eng/catalog.search#/home"/>
-    <hyperlink ref="T48" r:id="rId49" display="https://doi.org/10.5194/essd-9-1-2017"/>
-    <hyperlink ref="Q49" r:id="rId50" display="https://www.fao.org/soils-portal/data-hub/soil-maps-and-databases/harmonized-world-soil-database-v12/en/"/>
-    <hyperlink ref="Q50" r:id="rId51" display="https://soilgrids.org/"/>
-    <hyperlink ref="Q51" r:id="rId52" display="https://www.isric.org/explore/wise-databases"/>
-    <hyperlink ref="T51" r:id="rId53" display="https://doi.org/10.1016/j.geoderma.2016.01.034"/>
-    <hyperlink ref="Q52" r:id="rId54" display="http://globalchange.bnu.edu.cn/research/data"/>
-    <hyperlink ref="T52" r:id="rId55" display="http://doi.wiley.com/10.1002/2013MS000293"/>
-    <hyperlink ref="Q53" r:id="rId56" display="https://www.futurewater.eu/projects/hihydrosoil/"/>
-    <hyperlink ref="Q54" r:id="rId57" display="https://ismn.earth/en/"/>
-    <hyperlink ref="T54" r:id="rId58" display="https://doi.org/10.5194/hess-2021-2"/>
-    <hyperlink ref="Q55" r:id="rId59" display="https://doi.org/10.3334/ORNLDAAC/1827"/>
-    <hyperlink ref="T55" r:id="rId60" display="https://10.5194/bg-7-1915-2010"/>
-    <hyperlink ref="Q56" r:id="rId61" display="https://doi.pangaea.de/10.1594/PANGAEA.788537"/>
-    <hyperlink ref="T56" r:id="rId62" display="https://doi.org/10.1029/2012GC004370"/>
-    <hyperlink ref="Q57" r:id="rId63" display="https://dataverse.scholarsportal.info/dataset.xhtml"/>
-    <hyperlink ref="T57" r:id="rId64" display="https://doi.org/10.1002/2017GL075860"/>
-    <hyperlink ref="T58" r:id="rId65" display="https://doi.org/10.1016/j.cageo.2014.07.020"/>
-    <hyperlink ref="Q59" r:id="rId66" display="https://biotime.st-andrews.ac.uk/"/>
-    <hyperlink ref="T59" r:id="rId67" display="https://doi.org/10.1111/geb.12729"/>
-    <hyperlink ref="Q61" r:id="rId68" display="https://compadre-db.org/"/>
-    <hyperlink ref="T61" r:id="rId69" display="https://doi.org/10.1111/1365-2745.12334"/>
+    <hyperlink ref="Q36" r:id="rId38" display="https://doi.org/10.6084/m9.figshare.19448219.v6"/>
+    <hyperlink ref="T36" r:id="rId39" display="https://doi.org/10.1038/s41597-022-01884-4"/>
+    <hyperlink ref="Q37" r:id="rId40" display="https://www.idiv.de/de/splot.html"/>
+    <hyperlink ref="Q38" r:id="rId41" display="https://doi.org/10.25829/idiv.3474-40-3292"/>
+    <hyperlink ref="T38" r:id="rId42" display="https://doi.org/10.1111/geb.13346"/>
+    <hyperlink ref="Q39" r:id="rId43" display="https://lotvs.csic.es/"/>
+    <hyperlink ref="T39" r:id="rId44" display="https://www.biorxiv.org/content/10.1101/2021.09.29.462383v1.full"/>
+    <hyperlink ref="Q40" r:id="rId45" display="https://gfbinitiative.net/"/>
+    <hyperlink ref="Q41" r:id="rId46" display="http://icp-forests.net/"/>
+    <hyperlink ref="T42" r:id="rId47" display="https://doi.org/10.1016/j.srs.2020.100002"/>
+    <hyperlink ref="Q45" r:id="rId48" display="http://sapfluxnet.creaf.cat/"/>
+    <hyperlink ref="T45" r:id="rId49" display="https://doi.org/10.5194/essd-13-2607-2021"/>
+    <hyperlink ref="Q49" r:id="rId50" location="/home" display="https://data.isric.org/geonetwork/srv/eng/catalog.search#/home"/>
+    <hyperlink ref="T49" r:id="rId51" display="https://doi.org/10.5194/essd-9-1-2017"/>
+    <hyperlink ref="Q50" r:id="rId52" display="https://www.fao.org/soils-portal/data-hub/soil-maps-and-databases/harmonized-world-soil-database-v12/en/"/>
+    <hyperlink ref="Q51" r:id="rId53" display="https://soilgrids.org/"/>
+    <hyperlink ref="Q52" r:id="rId54" display="https://www.isric.org/explore/wise-databases"/>
+    <hyperlink ref="T52" r:id="rId55" display="https://doi.org/10.1016/j.geoderma.2016.01.034"/>
+    <hyperlink ref="Q53" r:id="rId56" display="http://globalchange.bnu.edu.cn/research/data"/>
+    <hyperlink ref="T53" r:id="rId57" display="http://doi.wiley.com/10.1002/2013MS000293"/>
+    <hyperlink ref="Q54" r:id="rId58" display="https://www.futurewater.eu/projects/hihydrosoil/"/>
+    <hyperlink ref="Q55" r:id="rId59" display="https://ismn.earth/en/"/>
+    <hyperlink ref="T55" r:id="rId60" display="https://doi.org/10.5194/hess-2021-2"/>
+    <hyperlink ref="Q56" r:id="rId61" display="https://doi.org/10.3334/ORNLDAAC/1827"/>
+    <hyperlink ref="T56" r:id="rId62" display="https://10.5194/bg-7-1915-2010"/>
+    <hyperlink ref="Q57" r:id="rId63" display="https://doi.pangaea.de/10.1594/PANGAEA.788537"/>
+    <hyperlink ref="T57" r:id="rId64" display="https://doi.org/10.1029/2012GC004370"/>
+    <hyperlink ref="Q58" r:id="rId65" display="https://dataverse.scholarsportal.info/dataset.xhtml"/>
+    <hyperlink ref="T58" r:id="rId66" display="https://doi.org/10.1002/2017GL075860"/>
+    <hyperlink ref="T59" r:id="rId67" display="https://doi.org/10.1016/j.cageo.2014.07.020"/>
+    <hyperlink ref="Q60" r:id="rId68" display="https://biotime.st-andrews.ac.uk/"/>
+    <hyperlink ref="T60" r:id="rId69" display="https://doi.org/10.1111/geb.12729"/>
+    <hyperlink ref="Q62" r:id="rId70" display="https://compadre-db.org/"/>
+    <hyperlink ref="T62" r:id="rId71" display="https://doi.org/10.1111/1365-2745.12334"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -5462,22 +5530,22 @@
       <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.47265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.48828125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>481</v>
+        <v>488</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>482</v>
+        <v>489</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>483</v>
+        <v>490</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>484</v>
+        <v>491</v>
       </c>
     </row>
   </sheetData>

--- a/ExternalDataSources.xlsx
+++ b/ExternalDataSources.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="492">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="911" uniqueCount="499">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -1038,6 +1038,27 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.biorxiv.org/content/10.1101/2021.09.29.462383v1.full</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RecruitNet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RecruitNet: A global database of plant recruitmentnetworks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A data set containing 143 plant recruitment networks in 23 countries across five conti-nents, including temperate and tropical ecosystems. The data set includes &gt;850,000recruiting individuals involved in 118,411 paired interactions among 3318 vas-cular plant species across the globe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.5281/zenodo.6567608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recruitment data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1002/ecy.3923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verdú, Miguel, JoseL. Garrido, Julio M. Alc_x0013_antara,Alicia Montesinos-Navarro, Salom_x0013_on Aguilar,Marcelo A. Aizen, Ali A. Al-Namazi, et al. 2023.“RecruitNet: A Global Database of PlantRecruitment Networks.”Ecology104(2): e3923.</t>
   </si>
   <si>
     <t xml:space="preserve">GFBI</t>
@@ -2459,15 +2480,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V64"/>
+  <dimension ref="A1:V65"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="G11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="O37" activeCellId="0" sqref="O37"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="G23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A40" activeCellId="0" sqref="A40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.48828125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="25.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="2" width="25.28"/>
@@ -4291,15 +4312,17 @@
         <v>197</v>
       </c>
       <c r="C40" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="D40" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="D40" s="2" t="s">
+      <c r="E40" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="E40" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="F40" s="12"/>
+      <c r="F40" s="18" t="n">
+        <v>45352</v>
+      </c>
       <c r="G40" s="3" t="s">
         <v>51</v>
       </c>
@@ -4312,31 +4335,42 @@
       <c r="L40" s="4" t="s">
         <v>84</v>
       </c>
+      <c r="O40" s="1" t="s">
+        <v>147</v>
+      </c>
       <c r="Q40" s="13" t="s">
+        <v>294</v>
+      </c>
+      <c r="R40" s="13"/>
+      <c r="S40" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="R40" s="13"/>
-      <c r="T40" s="13"/>
+      <c r="T40" s="13" t="s">
+        <v>296</v>
+      </c>
+      <c r="U40" s="1" t="s">
+        <v>297</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>197</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="F41" s="12"/>
       <c r="G41" s="3" t="s">
-        <v>93</v>
+        <v>51</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>28</v>
@@ -4344,36 +4378,24 @@
       <c r="I41" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="K41" s="4" t="s">
-        <v>300</v>
-      </c>
       <c r="L41" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="M41" s="4" t="s">
-        <v>277</v>
+        <v>84</v>
       </c>
       <c r="Q41" s="13" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="R41" s="13"/>
-      <c r="S41" s="1" t="s">
-        <v>302</v>
-      </c>
       <c r="T41" s="13"/>
-      <c r="V41" s="1" t="s">
-        <v>303</v>
-      </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C42" s="2" t="s">
         <v>304</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>297</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>305</v>
@@ -4381,23 +4403,24 @@
       <c r="E42" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="F42" s="14" t="n">
-        <v>44779</v>
-      </c>
+      <c r="F42" s="12"/>
       <c r="G42" s="3" t="s">
-        <v>51</v>
+        <v>93</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>28</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J42" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="K42" s="4" t="s">
         <v>307</v>
       </c>
       <c r="L42" s="4" t="s">
         <v>28</v>
+      </c>
+      <c r="M42" s="4" t="s">
+        <v>277</v>
       </c>
       <c r="Q42" s="13" t="s">
         <v>308</v>
@@ -4406,34 +4429,32 @@
       <c r="S42" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="T42" s="13" t="s">
+      <c r="T42" s="13"/>
+      <c r="V42" s="1" t="s">
         <v>310</v>
-      </c>
-      <c r="U42" s="1" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>180</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="D43" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="E43" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="F43" s="14" t="s">
-        <v>315</v>
+      <c r="F43" s="14" t="n">
+        <v>44779</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>316</v>
+        <v>51</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>28</v>
@@ -4442,59 +4463,46 @@
         <v>29</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="K43" s="4" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="L43" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="M43" s="4" t="s">
-        <v>319</v>
-      </c>
-      <c r="N43" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="O43" s="1" t="s">
-        <v>147</v>
-      </c>
       <c r="Q43" s="13" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="R43" s="13"/>
       <c r="S43" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="T43" s="13"/>
+        <v>316</v>
+      </c>
+      <c r="T43" s="13" t="s">
+        <v>317</v>
+      </c>
       <c r="U43" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="V43" s="1" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>180</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="D44" s="16" t="s">
-        <v>325</v>
+        <v>304</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>320</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="F44" s="14" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>28</v>
@@ -4502,8 +4510,17 @@
       <c r="I44" s="3" t="s">
         <v>29</v>
       </c>
+      <c r="J44" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="K44" s="4" t="s">
+        <v>325</v>
+      </c>
       <c r="L44" s="4" t="s">
-        <v>84</v>
+        <v>28</v>
+      </c>
+      <c r="M44" s="4" t="s">
+        <v>326</v>
       </c>
       <c r="N44" s="5" t="s">
         <v>200</v>
@@ -4511,86 +4528,86 @@
       <c r="O44" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="P44" s="23" t="s">
-        <v>329</v>
-      </c>
       <c r="Q44" s="13" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="R44" s="13"/>
       <c r="S44" s="1" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="T44" s="13"/>
-      <c r="V44" s="1"/>
+      <c r="U44" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="V44" s="1" t="s">
+        <v>330</v>
+      </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="D45" s="16" t="s">
         <v>332</v>
       </c>
-      <c r="B45" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="C45" s="2" t="s">
+      <c r="E45" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="D45" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="E45" s="2" t="s">
+      <c r="F45" s="14" t="s">
         <v>334</v>
       </c>
-      <c r="F45" s="12"/>
       <c r="G45" s="3" t="s">
-        <v>51</v>
+        <v>335</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>28</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>107</v>
+        <v>29</v>
       </c>
       <c r="L45" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="M45" s="4" t="s">
-        <v>335</v>
-      </c>
-      <c r="P45" s="1" t="s">
-        <v>101</v>
+        <v>84</v>
+      </c>
+      <c r="N45" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="O45" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="P45" s="23" t="s">
+        <v>336</v>
       </c>
       <c r="Q45" s="13" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="R45" s="13"/>
       <c r="S45" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="T45" s="13" t="s">
         <v>338</v>
       </c>
-      <c r="U45" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="V45" s="1" t="s">
-        <v>340</v>
-      </c>
+      <c r="T45" s="13"/>
+      <c r="V45" s="1"/>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>197</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D46" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="E46" s="2" t="s">
         <v>341</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>343</v>
       </c>
       <c r="F46" s="12"/>
       <c r="G46" s="3" t="s">
@@ -4600,35 +4617,49 @@
         <v>28</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J46" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="L46" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M46" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="P46" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q46" s="13" t="s">
+        <v>343</v>
+      </c>
+      <c r="R46" s="13"/>
+      <c r="S46" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="L46" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q46" s="13" t="s">
+      <c r="T46" s="13" t="s">
         <v>345</v>
       </c>
-      <c r="R46" s="13"/>
-      <c r="T46" s="13"/>
+      <c r="U46" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="V46" s="1" t="s">
+        <v>347</v>
+      </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>348</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="F47" s="12"/>
       <c r="G47" s="3" t="s">
@@ -4638,140 +4669,138 @@
         <v>28</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="K47" s="4" t="s">
-        <v>350</v>
+        <v>29</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>351</v>
       </c>
       <c r="L47" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="M47" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="N47" s="5" t="s">
-        <v>351</v>
+        <v>84</v>
       </c>
       <c r="Q47" s="13" t="s">
         <v>352</v>
       </c>
       <c r="R47" s="13"/>
-      <c r="S47" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="T47" s="13" t="s">
-        <v>354</v>
-      </c>
-      <c r="U47" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="V47" s="20" t="s">
-        <v>356</v>
-      </c>
+      <c r="T47" s="13"/>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>180</v>
       </c>
       <c r="C48" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="F48" s="12"/>
+      <c r="G48" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="K48" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="L48" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M48" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="N48" s="5" t="s">
         <v>358</v>
       </c>
-      <c r="D48" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="E48" s="2" t="s">
+      <c r="Q48" s="13" t="s">
         <v>359</v>
       </c>
-      <c r="F48" s="12" t="s">
+      <c r="R48" s="13"/>
+      <c r="S48" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J48" s="3" t="s">
+      <c r="T48" s="13" t="s">
         <v>361</v>
       </c>
-      <c r="K48" s="4" t="s">
+      <c r="U48" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="L48" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="N48" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="O48" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q48" s="13" t="s">
+      <c r="V48" s="20" t="s">
         <v>363</v>
       </c>
-      <c r="R48" s="19" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="T48" s="13" t="s">
-        <v>364</v>
-      </c>
-      <c r="U48" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="V48" s="20"/>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="E49" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="F49" s="12" t="s">
         <v>367</v>
       </c>
-      <c r="C49" s="2" t="s">
+      <c r="G49" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J49" s="3" t="s">
         <v>368</v>
       </c>
-      <c r="D49" s="2" t="s">
+      <c r="K49" s="4" t="s">
         <v>369</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="F49" s="12"/>
-      <c r="G49" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>107</v>
       </c>
       <c r="L49" s="4" t="s">
         <v>84</v>
       </c>
+      <c r="N49" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="O49" s="1" t="s">
+        <v>147</v>
+      </c>
       <c r="Q49" s="13" t="s">
+        <v>370</v>
+      </c>
+      <c r="R49" s="19" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="T49" s="13" t="s">
         <v>371</v>
       </c>
-      <c r="R49" s="13"/>
-      <c r="T49" s="13" t="s">
+      <c r="U49" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="U49" s="1" t="s">
-        <v>373</v>
-      </c>
+      <c r="V49" s="20"/>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="B50" s="2" t="s">
         <v>374</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>367</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>375</v>
@@ -4790,7 +4819,7 @@
         <v>28</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>29</v>
+        <v>107</v>
       </c>
       <c r="L50" s="4" t="s">
         <v>84</v>
@@ -4799,22 +4828,28 @@
         <v>378</v>
       </c>
       <c r="R50" s="13"/>
+      <c r="T50" s="13" t="s">
+        <v>379</v>
+      </c>
+      <c r="U50" s="1" t="s">
+        <v>380</v>
+      </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="F51" s="12"/>
       <c r="G51" s="3" t="s">
@@ -4826,35 +4861,29 @@
       <c r="I51" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="J51" s="3" t="s">
-        <v>381</v>
-      </c>
       <c r="L51" s="4" t="s">
         <v>84</v>
       </c>
       <c r="Q51" s="13" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="R51" s="13"/>
-      <c r="V51" s="1" t="s">
-        <v>383</v>
-      </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="F52" s="12"/>
       <c r="G52" s="3" t="s">
@@ -4867,22 +4896,16 @@
         <v>29</v>
       </c>
       <c r="J52" s="3" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="L52" s="4" t="s">
         <v>84</v>
       </c>
       <c r="Q52" s="13" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="R52" s="13"/>
-      <c r="S52" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="T52" s="13" t="s">
-        <v>389</v>
-      </c>
-      <c r="U52" s="1" t="s">
+      <c r="V52" s="1" t="s">
         <v>390</v>
       </c>
     </row>
@@ -4891,12 +4914,15 @@
         <v>391</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="D53" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="E53" s="2" t="s">
         <v>392</v>
       </c>
       <c r="F53" s="12"/>
@@ -4910,39 +4936,36 @@
         <v>29</v>
       </c>
       <c r="J53" s="3" t="s">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="L53" s="4" t="s">
         <v>84</v>
       </c>
       <c r="Q53" s="13" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="R53" s="13"/>
       <c r="S53" s="1" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="T53" s="13" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="U53" s="1" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>398</v>
+        <v>382</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="E54" s="2" t="s">
         <v>399</v>
       </c>
       <c r="F54" s="12"/>
@@ -4956,7 +4979,7 @@
         <v>29</v>
       </c>
       <c r="J54" s="3" t="s">
-        <v>52</v>
+        <v>393</v>
       </c>
       <c r="L54" s="4" t="s">
         <v>84</v>
@@ -4965,25 +4988,28 @@
         <v>400</v>
       </c>
       <c r="R54" s="13"/>
+      <c r="S54" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="T54" s="13" t="s">
+        <v>402</v>
+      </c>
       <c r="U54" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="V54" s="1" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="C55" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="D55" s="2" t="s">
         <v>404</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>405</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>406</v>
@@ -4996,7 +5022,10 @@
         <v>28</v>
       </c>
       <c r="I55" s="3" t="s">
-        <v>107</v>
+        <v>29</v>
+      </c>
+      <c r="J55" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="L55" s="4" t="s">
         <v>84</v>
@@ -5005,31 +5034,28 @@
         <v>407</v>
       </c>
       <c r="R55" s="13"/>
-      <c r="S55" s="1" t="s">
+      <c r="U55" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="T55" s="13" t="s">
+      <c r="V55" s="1" t="s">
         <v>409</v>
-      </c>
-      <c r="U55" s="1" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="C56" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="B56" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="C56" s="2" t="s">
+      <c r="D56" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="D56" s="2" t="s">
+      <c r="E56" s="2" t="s">
         <v>413</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>414</v>
       </c>
       <c r="F56" s="12"/>
       <c r="G56" s="3" t="s">
@@ -5041,46 +5067,38 @@
       <c r="I56" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="K56" s="4" t="s">
+      <c r="L56" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q56" s="13" t="s">
+        <v>414</v>
+      </c>
+      <c r="R56" s="13"/>
+      <c r="S56" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="L56" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="M56" s="4" t="s">
+      <c r="T56" s="13" t="s">
         <v>416</v>
       </c>
-      <c r="Q56" s="13" t="s">
+      <c r="U56" s="1" t="s">
         <v>417</v>
-      </c>
-      <c r="R56" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="S56" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="T56" s="13" t="s">
-        <v>420</v>
-      </c>
-      <c r="U56" s="1" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>423</v>
+        <v>374</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="F57" s="12"/>
       <c r="G57" s="3" t="s">
@@ -5090,28 +5108,39 @@
         <v>28</v>
       </c>
       <c r="I57" s="3" t="s">
-        <v>157</v>
+        <v>107</v>
+      </c>
+      <c r="K57" s="4" t="s">
+        <v>422</v>
       </c>
       <c r="L57" s="4" t="s">
-        <v>84</v>
+        <v>28</v>
+      </c>
+      <c r="M57" s="4" t="s">
+        <v>423</v>
       </c>
       <c r="Q57" s="13" t="s">
+        <v>424</v>
+      </c>
+      <c r="R57" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="S57" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="T57" s="13" t="s">
         <v>427</v>
       </c>
-      <c r="R57" s="13"/>
-      <c r="T57" s="13" t="s">
+      <c r="U57" s="1" t="s">
         <v>428</v>
-      </c>
-      <c r="U57" s="1" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="B58" s="2" t="s">
         <v>430</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>423</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>431</v>
@@ -5132,43 +5161,37 @@
       <c r="I58" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>434</v>
-      </c>
       <c r="L58" s="4" t="s">
         <v>84</v>
       </c>
       <c r="Q58" s="13" t="s">
+        <v>434</v>
+      </c>
+      <c r="R58" s="13"/>
+      <c r="T58" s="13" t="s">
         <v>435</v>
       </c>
-      <c r="R58" s="13"/>
-      <c r="S58" s="1" t="s">
+      <c r="U58" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="T58" s="13" t="s">
-        <v>437</v>
-      </c>
-      <c r="U58" s="13"/>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="C59" s="2" t="s">
         <v>438</v>
       </c>
-      <c r="B59" s="2" t="s">
-        <v>423</v>
-      </c>
-      <c r="C59" s="2" t="s">
+      <c r="D59" s="2" t="s">
         <v>439</v>
       </c>
-      <c r="D59" s="2" t="s">
+      <c r="E59" s="2" t="s">
         <v>440</v>
       </c>
-      <c r="E59" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="F59" s="12" t="s">
-        <v>442</v>
-      </c>
+      <c r="F59" s="12"/>
       <c r="G59" s="3" t="s">
         <v>51</v>
       </c>
@@ -5176,48 +5199,45 @@
         <v>28</v>
       </c>
       <c r="I59" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="K59" s="4" t="s">
-        <v>443</v>
+        <v>157</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>441</v>
       </c>
       <c r="L59" s="4" t="s">
         <v>84</v>
       </c>
       <c r="Q59" s="13" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="R59" s="13"/>
       <c r="S59" s="1" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="T59" s="13" t="s">
-        <v>446</v>
-      </c>
-      <c r="U59" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="V59" s="1" t="s">
-        <v>448</v>
-      </c>
+        <v>444</v>
+      </c>
+      <c r="U59" s="13"/>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="F60" s="12" t="s">
         <v>449</v>
       </c>
-      <c r="B60" s="2" t="s">
-        <v>450</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>451</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>449</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>452</v>
-      </c>
-      <c r="F60" s="12"/>
       <c r="G60" s="3" t="s">
         <v>51</v>
       </c>
@@ -5227,50 +5247,44 @@
       <c r="I60" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="J60" s="3" t="s">
-        <v>277</v>
-      </c>
       <c r="K60" s="4" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="L60" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="M60" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="N60" s="5" t="s">
-        <v>454</v>
+        <v>84</v>
       </c>
       <c r="Q60" s="13" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="R60" s="13"/>
       <c r="S60" s="1" t="s">
-        <v>279</v>
+        <v>452</v>
       </c>
       <c r="T60" s="13" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="U60" s="1" t="s">
-        <v>457</v>
+        <v>454</v>
+      </c>
+      <c r="V60" s="1" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="C61" s="2" t="s">
         <v>458</v>
       </c>
-      <c r="B61" s="2" t="s">
-        <v>450</v>
-      </c>
-      <c r="C61" s="2" t="s">
+      <c r="D61" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="E61" s="2" t="s">
         <v>459</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>460</v>
       </c>
       <c r="F61" s="12"/>
       <c r="G61" s="3" t="s">
@@ -5282,31 +5296,50 @@
       <c r="I61" s="3" t="s">
         <v>107</v>
       </c>
+      <c r="J61" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="K61" s="4" t="s">
+        <v>460</v>
+      </c>
       <c r="L61" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q61" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M61" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="N61" s="5" t="s">
         <v>461</v>
       </c>
-      <c r="V61" s="1" t="s">
+      <c r="Q61" s="13" t="s">
         <v>462</v>
+      </c>
+      <c r="R61" s="13"/>
+      <c r="S61" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="T61" s="13" t="s">
+        <v>463</v>
+      </c>
+      <c r="U61" s="1" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>465</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="F62" s="12"/>
       <c r="G62" s="3" t="s">
@@ -5319,49 +5352,34 @@
         <v>107</v>
       </c>
       <c r="L62" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="M62" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="N62" s="5" t="s">
-        <v>454</v>
-      </c>
-      <c r="Q62" s="13" t="s">
-        <v>467</v>
-      </c>
-      <c r="S62" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q62" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="T62" s="13" t="s">
+      <c r="V62" s="1" t="s">
         <v>469</v>
-      </c>
-      <c r="U62" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="V62" s="1" t="s">
-        <v>471</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="D63" s="2" t="s">
         <v>472</v>
       </c>
-      <c r="B63" s="2" t="s">
-        <v>450</v>
-      </c>
-      <c r="C63" s="2" t="s">
+      <c r="E63" s="2" t="s">
         <v>473</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>475</v>
       </c>
       <c r="F63" s="12"/>
       <c r="G63" s="3" t="s">
-        <v>476</v>
+        <v>51</v>
       </c>
       <c r="H63" s="3" t="s">
         <v>28</v>
@@ -5373,54 +5391,58 @@
         <v>28</v>
       </c>
       <c r="M63" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q63" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="N63" s="5" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q63" s="13" t="s">
+        <v>474</v>
+      </c>
+      <c r="S63" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="T63" s="13" t="s">
+        <v>476</v>
+      </c>
+      <c r="U63" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="S63" s="1" t="s">
+      <c r="V63" s="1" t="s">
         <v>478</v>
-      </c>
-      <c r="T63" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="U63" s="1" t="s">
-        <v>480</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="D64" s="2" t="s">
         <v>481</v>
       </c>
-      <c r="B64" s="2" t="s">
-        <v>450</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="D64" s="2" t="s">
+      <c r="E64" s="2" t="s">
         <v>482</v>
       </c>
-      <c r="E64" s="2" t="s">
+      <c r="F64" s="12"/>
+      <c r="G64" s="3" t="s">
         <v>483</v>
       </c>
-      <c r="F64" s="18" t="n">
-        <v>45235</v>
-      </c>
-      <c r="G64" s="3" t="s">
-        <v>51</v>
-      </c>
       <c r="H64" s="3" t="s">
         <v>28</v>
       </c>
       <c r="I64" s="3" t="s">
-        <v>157</v>
+        <v>107</v>
       </c>
       <c r="L64" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="N64" s="5" t="s">
-        <v>454</v>
+        <v>28</v>
+      </c>
+      <c r="M64" s="4" t="s">
+        <v>146</v>
       </c>
       <c r="Q64" s="1" t="s">
         <v>484</v>
@@ -5433,6 +5455,53 @@
       </c>
       <c r="U64" s="1" t="s">
         <v>487</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="F65" s="18" t="n">
+        <v>45235</v>
+      </c>
+      <c r="G65" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H65" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I65" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="L65" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="N65" s="5" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q65" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="S65" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="T65" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="U65" s="1" t="s">
+        <v>494</v>
       </c>
     </row>
   </sheetData>
@@ -5481,33 +5550,35 @@
     <hyperlink ref="T38" r:id="rId42" display="https://doi.org/10.1111/geb.13346"/>
     <hyperlink ref="Q39" r:id="rId43" display="https://lotvs.csic.es/"/>
     <hyperlink ref="T39" r:id="rId44" display="https://www.biorxiv.org/content/10.1101/2021.09.29.462383v1.full"/>
-    <hyperlink ref="Q40" r:id="rId45" display="https://gfbinitiative.net/"/>
-    <hyperlink ref="Q41" r:id="rId46" display="http://icp-forests.net/"/>
-    <hyperlink ref="T42" r:id="rId47" display="https://doi.org/10.1016/j.srs.2020.100002"/>
-    <hyperlink ref="Q45" r:id="rId48" display="http://sapfluxnet.creaf.cat/"/>
-    <hyperlink ref="T45" r:id="rId49" display="https://doi.org/10.5194/essd-13-2607-2021"/>
-    <hyperlink ref="Q49" r:id="rId50" location="/home" display="https://data.isric.org/geonetwork/srv/eng/catalog.search#/home"/>
-    <hyperlink ref="T49" r:id="rId51" display="https://doi.org/10.5194/essd-9-1-2017"/>
-    <hyperlink ref="Q50" r:id="rId52" display="https://www.fao.org/soils-portal/data-hub/soil-maps-and-databases/harmonized-world-soil-database-v12/en/"/>
-    <hyperlink ref="Q51" r:id="rId53" display="https://soilgrids.org/"/>
-    <hyperlink ref="Q52" r:id="rId54" display="https://www.isric.org/explore/wise-databases"/>
-    <hyperlink ref="T52" r:id="rId55" display="https://doi.org/10.1016/j.geoderma.2016.01.034"/>
-    <hyperlink ref="Q53" r:id="rId56" display="http://globalchange.bnu.edu.cn/research/data"/>
-    <hyperlink ref="T53" r:id="rId57" display="http://doi.wiley.com/10.1002/2013MS000293"/>
-    <hyperlink ref="Q54" r:id="rId58" display="https://www.futurewater.eu/projects/hihydrosoil/"/>
-    <hyperlink ref="Q55" r:id="rId59" display="https://ismn.earth/en/"/>
-    <hyperlink ref="T55" r:id="rId60" display="https://doi.org/10.5194/hess-2021-2"/>
-    <hyperlink ref="Q56" r:id="rId61" display="https://doi.org/10.3334/ORNLDAAC/1827"/>
-    <hyperlink ref="T56" r:id="rId62" display="https://10.5194/bg-7-1915-2010"/>
-    <hyperlink ref="Q57" r:id="rId63" display="https://doi.pangaea.de/10.1594/PANGAEA.788537"/>
-    <hyperlink ref="T57" r:id="rId64" display="https://doi.org/10.1029/2012GC004370"/>
-    <hyperlink ref="Q58" r:id="rId65" display="https://dataverse.scholarsportal.info/dataset.xhtml"/>
-    <hyperlink ref="T58" r:id="rId66" display="https://doi.org/10.1002/2017GL075860"/>
-    <hyperlink ref="T59" r:id="rId67" display="https://doi.org/10.1016/j.cageo.2014.07.020"/>
-    <hyperlink ref="Q60" r:id="rId68" display="https://biotime.st-andrews.ac.uk/"/>
-    <hyperlink ref="T60" r:id="rId69" display="https://doi.org/10.1111/geb.12729"/>
-    <hyperlink ref="Q62" r:id="rId70" display="https://compadre-db.org/"/>
-    <hyperlink ref="T62" r:id="rId71" display="https://doi.org/10.1111/1365-2745.12334"/>
+    <hyperlink ref="Q40" r:id="rId45" display="https://doi.org/10.5281/zenodo.6567608"/>
+    <hyperlink ref="T40" r:id="rId46" display="https://doi.org/10.1002/ecy.3923"/>
+    <hyperlink ref="Q41" r:id="rId47" display="https://gfbinitiative.net/"/>
+    <hyperlink ref="Q42" r:id="rId48" display="http://icp-forests.net/"/>
+    <hyperlink ref="T43" r:id="rId49" display="https://doi.org/10.1016/j.srs.2020.100002"/>
+    <hyperlink ref="Q46" r:id="rId50" display="http://sapfluxnet.creaf.cat/"/>
+    <hyperlink ref="T46" r:id="rId51" display="https://doi.org/10.5194/essd-13-2607-2021"/>
+    <hyperlink ref="Q50" r:id="rId52" location="/home" display="https://data.isric.org/geonetwork/srv/eng/catalog.search#/home"/>
+    <hyperlink ref="T50" r:id="rId53" display="https://doi.org/10.5194/essd-9-1-2017"/>
+    <hyperlink ref="Q51" r:id="rId54" display="https://www.fao.org/soils-portal/data-hub/soil-maps-and-databases/harmonized-world-soil-database-v12/en/"/>
+    <hyperlink ref="Q52" r:id="rId55" display="https://soilgrids.org/"/>
+    <hyperlink ref="Q53" r:id="rId56" display="https://www.isric.org/explore/wise-databases"/>
+    <hyperlink ref="T53" r:id="rId57" display="https://doi.org/10.1016/j.geoderma.2016.01.034"/>
+    <hyperlink ref="Q54" r:id="rId58" display="http://globalchange.bnu.edu.cn/research/data"/>
+    <hyperlink ref="T54" r:id="rId59" display="http://doi.wiley.com/10.1002/2013MS000293"/>
+    <hyperlink ref="Q55" r:id="rId60" display="https://www.futurewater.eu/projects/hihydrosoil/"/>
+    <hyperlink ref="Q56" r:id="rId61" display="https://ismn.earth/en/"/>
+    <hyperlink ref="T56" r:id="rId62" display="https://doi.org/10.5194/hess-2021-2"/>
+    <hyperlink ref="Q57" r:id="rId63" display="https://doi.org/10.3334/ORNLDAAC/1827"/>
+    <hyperlink ref="T57" r:id="rId64" display="https://10.5194/bg-7-1915-2010"/>
+    <hyperlink ref="Q58" r:id="rId65" display="https://doi.pangaea.de/10.1594/PANGAEA.788537"/>
+    <hyperlink ref="T58" r:id="rId66" display="https://doi.org/10.1029/2012GC004370"/>
+    <hyperlink ref="Q59" r:id="rId67" display="https://dataverse.scholarsportal.info/dataset.xhtml"/>
+    <hyperlink ref="T59" r:id="rId68" display="https://doi.org/10.1002/2017GL075860"/>
+    <hyperlink ref="T60" r:id="rId69" display="https://doi.org/10.1016/j.cageo.2014.07.020"/>
+    <hyperlink ref="Q61" r:id="rId70" display="https://biotime.st-andrews.ac.uk/"/>
+    <hyperlink ref="T61" r:id="rId71" display="https://doi.org/10.1111/geb.12729"/>
+    <hyperlink ref="Q63" r:id="rId72" display="https://compadre-db.org/"/>
+    <hyperlink ref="T63" r:id="rId73" display="https://doi.org/10.1111/1365-2745.12334"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -5530,22 +5601,22 @@
       <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.48828125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>488</v>
+        <v>495</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>489</v>
+        <v>496</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>490</v>
+        <v>497</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>491</v>
+        <v>498</v>
       </c>
     </row>
   </sheetData>

--- a/ExternalDataSources.xlsx
+++ b/ExternalDataSources.xlsx
@@ -8,8 +8,8 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Datasets" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="ModelBenchmarkProjects" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Datasets" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="ModelBenchmarkProjects" sheetId="2" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="911" uniqueCount="499">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="927" uniqueCount="505">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -2151,6 +2151,24 @@
   </si>
   <si>
     <t xml:space="preserve">van Kleunen M, Pyšek P, Dawson W, Essl F, Kreft H, Pergl J, Weigelt P, Stein A, Dullinger S, König C, Lenzner B, Maurel N, Moser D, Seebens H, Kartesz J, Nishino M, Aleksanyan A, Ansong M, Antonova LA, Barcelona JF, Breckle SW, Brundu G, Cabezas FJ, Cárdenas D, Cárdenas-Toro J, Castaño N, Chacón E, Chatelain C, Conn B, de Sá Dechoum M, Dufour-Dror JM, Ebel AL, Figueiredo E, Fragman-Sapir O, Fuentes N, Groom QJ, Henderson L, Inderjit, Jogan N, Krestov P, Kupriyanov A, Masciadri S, Meerman J, Morozova O, Nickrent D, Nowak A, Patzelt A, Pelser PB, Shu W sheng, Thomas J, Uludag A, Velayos M, Verkhosina A, Villaseñor JL, Weber E, Wieringa JJ, Yazlık A, Zeddam A, Zykova E, Winter M (2019) The Global Naturalized Alien Flora (GloNAF) database. Ecology 100: 1–2. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LSTRAD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">High-resolution (1 km) all-sky net radiation over Europe enabled by the merging of land surface temperature retrievals from geostationary and polar-orbiting satellites </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zenodo.org/records/8332222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.5194/essd-16-567-2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rains et al. 2024</t>
   </si>
   <si>
     <t xml:space="preserve">ILamb</t>
@@ -2305,7 +2323,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2398,10 +2416,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2475,17 +2489,123 @@
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="LibreOffice">
+      <a:dk1>
+        <a:srgbClr val="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:srgbClr val="ffffff"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="000000"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="ffffff"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="18a303"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="0369a3"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="a33e03"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8e03a3"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="c99c00"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="c9211e"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000ee"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="551a8b"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme>
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V65"/>
+  <dimension ref="A1:V66"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="G23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A40" activeCellId="0" sqref="A40"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="G33" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="M1" activeCellId="0" sqref="M1"/>
+      <selection pane="bottomLeft" activeCell="Q1" activeCellId="0" sqref="Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4580,7 +4700,7 @@
       <c r="O45" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="P45" s="23" t="s">
+      <c r="P45" s="15" t="s">
         <v>336</v>
       </c>
       <c r="Q45" s="13" t="s">
@@ -5502,6 +5622,56 @@
       </c>
       <c r="U65" s="1" t="s">
         <v>494</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="H66" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I66" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J66" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="L66" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M66" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="O66" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q66" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="R66" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="T66" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="U66" s="1" t="s">
+        <v>500</v>
       </c>
     </row>
   </sheetData>
@@ -5591,7 +5761,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -5605,18 +5775,18 @@
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>495</v>
+        <v>501</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>496</v>
+        <v>502</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>497</v>
+        <v>503</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>498</v>
+        <v>504</v>
       </c>
     </row>
   </sheetData>

--- a/ExternalDataSources.xlsx
+++ b/ExternalDataSources.xlsx
@@ -8,8 +8,8 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Datasets" sheetId="1" state="visible" r:id="rId3"/>
-    <sheet name="ModelBenchmarkProjects" sheetId="2" state="visible" r:id="rId4"/>
+    <sheet name="Datasets" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="ModelBenchmarkProjects" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="927" uniqueCount="505">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="938" uniqueCount="510">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -1800,6 +1800,21 @@
       </rPr>
       <t xml:space="preserve">, 1915–1926 (2010).</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">SoilsICGC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soil map 1:25000 for Catalonia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Distribution of soils in the Catalan territory according to morphology, physical charactersitics, chemical characteristics and biological characteristics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1:25000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://icgc.cat/Administracio-i-empresa/Descarregues/Cartografia-geologica-i-geotematica/Cartografia-de-sols/Mapa-de-sols-1-25.000-continu</t>
   </si>
   <si>
     <t xml:space="preserve">GliM</t>
@@ -2489,126 +2504,20 @@
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="LibreOffice">
-      <a:dk1>
-        <a:srgbClr val="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:srgbClr val="ffffff"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="000000"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="ffffff"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="18a303"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="0369a3"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="a33e03"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="8e03a3"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="c99c00"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="c9211e"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0000ee"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="551a8b"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
-        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
-        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
-        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
-        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme>
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:prstDash val="solid"/>
-          <a:miter/>
-        </a:ln>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:prstDash val="solid"/>
-          <a:miter/>
-        </a:ln>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:prstDash val="solid"/>
-          <a:miter/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V66"/>
+  <dimension ref="A1:V1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="G33" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="M1" activeCellId="0" sqref="M1"/>
-      <selection pane="bottomLeft" activeCell="Q1" activeCellId="0" sqref="Q1"/>
+      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
+      <selection pane="bottomLeft" activeCell="Q58" activeCellId="0" sqref="Q58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5234375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="25.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="2" width="25.28"/>
@@ -5260,20 +5169,22 @@
         <v>429</v>
       </c>
       <c r="B58" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="D58" s="2" t="s">
         <v>430</v>
       </c>
-      <c r="C58" s="2" t="s">
+      <c r="E58" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="D58" s="2" t="s">
-        <v>432</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>433</v>
-      </c>
-      <c r="F58" s="12"/>
+      <c r="F58" s="18" t="n">
+        <v>45630</v>
+      </c>
       <c r="G58" s="3" t="s">
-        <v>51</v>
+        <v>100</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>28</v>
@@ -5281,35 +5192,33 @@
       <c r="I58" s="3" t="s">
         <v>157</v>
       </c>
+      <c r="J58" s="3" t="s">
+        <v>432</v>
+      </c>
       <c r="L58" s="4" t="s">
         <v>84</v>
       </c>
       <c r="Q58" s="13" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="R58" s="13"/>
-      <c r="T58" s="13" t="s">
-        <v>435</v>
-      </c>
-      <c r="U58" s="1" t="s">
-        <v>436</v>
-      </c>
+      <c r="T58" s="13"/>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="D59" s="2" t="s">
         <v>437</v>
       </c>
-      <c r="B59" s="2" t="s">
-        <v>430</v>
-      </c>
-      <c r="C59" s="2" t="s">
+      <c r="E59" s="2" t="s">
         <v>438</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>440</v>
       </c>
       <c r="F59" s="12"/>
       <c r="G59" s="3" t="s">
@@ -5321,43 +5230,37 @@
       <c r="I59" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>441</v>
-      </c>
       <c r="L59" s="4" t="s">
         <v>84</v>
       </c>
       <c r="Q59" s="13" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="R59" s="13"/>
-      <c r="S59" s="1" t="s">
-        <v>443</v>
-      </c>
       <c r="T59" s="13" t="s">
-        <v>444</v>
-      </c>
-      <c r="U59" s="13"/>
+        <v>440</v>
+      </c>
+      <c r="U59" s="1" t="s">
+        <v>441</v>
+      </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="E60" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="B60" s="2" t="s">
-        <v>430</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>447</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>448</v>
-      </c>
-      <c r="F60" s="12" t="s">
-        <v>449</v>
-      </c>
+      <c r="F60" s="12"/>
       <c r="G60" s="3" t="s">
         <v>51</v>
       </c>
@@ -5365,48 +5268,45 @@
         <v>28</v>
       </c>
       <c r="I60" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="K60" s="4" t="s">
-        <v>450</v>
+        <v>157</v>
+      </c>
+      <c r="J60" s="3" t="s">
+        <v>446</v>
       </c>
       <c r="L60" s="4" t="s">
         <v>84</v>
       </c>
       <c r="Q60" s="13" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="R60" s="13"/>
       <c r="S60" s="1" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="T60" s="13" t="s">
-        <v>453</v>
-      </c>
-      <c r="U60" s="1" t="s">
-        <v>454</v>
-      </c>
-      <c r="V60" s="1" t="s">
-        <v>455</v>
-      </c>
+        <v>449</v>
+      </c>
+      <c r="U60" s="13"/>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>457</v>
+        <v>435</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="F61" s="12"/>
+        <v>453</v>
+      </c>
+      <c r="F61" s="12" t="s">
+        <v>454</v>
+      </c>
       <c r="G61" s="3" t="s">
         <v>51</v>
       </c>
@@ -5416,50 +5316,44 @@
       <c r="I61" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="J61" s="3" t="s">
-        <v>277</v>
-      </c>
       <c r="K61" s="4" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="L61" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="M61" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="N61" s="5" t="s">
-        <v>461</v>
+        <v>84</v>
       </c>
       <c r="Q61" s="13" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="R61" s="13"/>
       <c r="S61" s="1" t="s">
-        <v>279</v>
+        <v>457</v>
       </c>
       <c r="T61" s="13" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="U61" s="1" t="s">
-        <v>464</v>
+        <v>459</v>
+      </c>
+      <c r="V61" s="1" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="F62" s="12"/>
       <c r="G62" s="3" t="s">
@@ -5471,13 +5365,32 @@
       <c r="I62" s="3" t="s">
         <v>107</v>
       </c>
+      <c r="J62" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="K62" s="4" t="s">
+        <v>465</v>
+      </c>
       <c r="L62" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q62" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M62" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="N62" s="5" t="s">
+        <v>466</v>
+      </c>
+      <c r="Q62" s="13" t="s">
+        <v>467</v>
+      </c>
+      <c r="R62" s="13"/>
+      <c r="S62" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="T62" s="13" t="s">
         <v>468</v>
       </c>
-      <c r="V62" s="1" t="s">
+      <c r="U62" s="1" t="s">
         <v>469</v>
       </c>
     </row>
@@ -5486,16 +5399,16 @@
         <v>470</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>471</v>
       </c>
       <c r="D63" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="E63" s="2" t="s">
         <v>472</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>473</v>
       </c>
       <c r="F63" s="12"/>
       <c r="G63" s="3" t="s">
@@ -5508,49 +5421,34 @@
         <v>107</v>
       </c>
       <c r="L63" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="M63" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="N63" s="5" t="s">
-        <v>461</v>
-      </c>
-      <c r="Q63" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q63" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="V63" s="1" t="s">
         <v>474</v>
-      </c>
-      <c r="S63" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="T63" s="13" t="s">
-        <v>476</v>
-      </c>
-      <c r="U63" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="V63" s="1" t="s">
-        <v>478</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="F64" s="12"/>
       <c r="G64" s="3" t="s">
-        <v>483</v>
+        <v>51</v>
       </c>
       <c r="H64" s="3" t="s">
         <v>28</v>
@@ -5562,118 +5460,170 @@
         <v>28</v>
       </c>
       <c r="M64" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q64" s="1" t="s">
-        <v>484</v>
+        <v>277</v>
+      </c>
+      <c r="N64" s="5" t="s">
+        <v>466</v>
+      </c>
+      <c r="Q64" s="13" t="s">
+        <v>479</v>
       </c>
       <c r="S64" s="1" t="s">
-        <v>485</v>
-      </c>
-      <c r="T64" s="1" t="s">
-        <v>486</v>
+        <v>480</v>
+      </c>
+      <c r="T64" s="13" t="s">
+        <v>481</v>
       </c>
       <c r="U64" s="1" t="s">
-        <v>487</v>
+        <v>482</v>
+      </c>
+      <c r="V64" s="1" t="s">
+        <v>483</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="F65" s="12"/>
+      <c r="G65" s="3" t="s">
         <v>488</v>
       </c>
-      <c r="B65" s="2" t="s">
-        <v>457</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="D65" s="2" t="s">
+      <c r="H65" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I65" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="L65" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M65" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q65" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="E65" s="2" t="s">
+      <c r="S65" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="F65" s="18" t="n">
-        <v>45235</v>
-      </c>
-      <c r="G65" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="H65" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I65" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="L65" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="N65" s="5" t="s">
-        <v>461</v>
-      </c>
-      <c r="Q65" s="1" t="s">
+      <c r="T65" s="1" t="s">
         <v>491</v>
       </c>
-      <c r="S65" s="1" t="s">
+      <c r="U65" s="1" t="s">
         <v>492</v>
-      </c>
-      <c r="T65" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="U65" s="1" t="s">
-        <v>494</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="E66" s="2" t="s">
         <v>495</v>
       </c>
-      <c r="B66" s="2" t="s">
+      <c r="F66" s="18" t="n">
+        <v>45235</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H66" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I66" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="L66" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="N66" s="5" t="s">
+        <v>466</v>
+      </c>
+      <c r="Q66" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="S66" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="T66" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="U66" s="1" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="B67" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C66" s="2" t="s">
+      <c r="C67" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D66" s="2" t="s">
-        <v>495</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>496</v>
-      </c>
-      <c r="G66" s="3" t="s">
+      <c r="D67" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="G67" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="H66" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I66" s="3" t="s">
+      <c r="H67" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I67" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="J66" s="3" t="s">
+      <c r="J67" s="3" t="s">
         <v>351</v>
       </c>
-      <c r="L66" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="M66" s="4" t="s">
+      <c r="L67" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M67" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="O66" s="1" t="s">
+      <c r="O67" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="Q66" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="R66" s="1" t="s">
-        <v>498</v>
-      </c>
-      <c r="T66" s="1" t="s">
-        <v>499</v>
-      </c>
-      <c r="U66" s="1" t="s">
-        <v>500</v>
-      </c>
-    </row>
+      <c r="Q67" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="R67" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="T67" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="U67" s="1" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="Q2" r:id="rId1" display="https://cds.climate.copernicus.eu"/>
@@ -5740,15 +5690,16 @@
     <hyperlink ref="T56" r:id="rId62" display="https://doi.org/10.5194/hess-2021-2"/>
     <hyperlink ref="Q57" r:id="rId63" display="https://doi.org/10.3334/ORNLDAAC/1827"/>
     <hyperlink ref="T57" r:id="rId64" display="https://10.5194/bg-7-1915-2010"/>
-    <hyperlink ref="Q58" r:id="rId65" display="https://doi.pangaea.de/10.1594/PANGAEA.788537"/>
-    <hyperlink ref="T58" r:id="rId66" display="https://doi.org/10.1029/2012GC004370"/>
-    <hyperlink ref="Q59" r:id="rId67" display="https://dataverse.scholarsportal.info/dataset.xhtml"/>
-    <hyperlink ref="T59" r:id="rId68" display="https://doi.org/10.1002/2017GL075860"/>
-    <hyperlink ref="T60" r:id="rId69" display="https://doi.org/10.1016/j.cageo.2014.07.020"/>
-    <hyperlink ref="Q61" r:id="rId70" display="https://biotime.st-andrews.ac.uk/"/>
-    <hyperlink ref="T61" r:id="rId71" display="https://doi.org/10.1111/geb.12729"/>
-    <hyperlink ref="Q63" r:id="rId72" display="https://compadre-db.org/"/>
-    <hyperlink ref="T63" r:id="rId73" display="https://doi.org/10.1111/1365-2745.12334"/>
+    <hyperlink ref="Q58" r:id="rId65" display="https://icgc.cat/Administracio-i-empresa/Descarregues/Cartografia-geologica-i-geotematica/Cartografia-de-sols/Mapa-de-sols-1-25.000-continu"/>
+    <hyperlink ref="Q59" r:id="rId66" display="https://doi.pangaea.de/10.1594/PANGAEA.788537"/>
+    <hyperlink ref="T59" r:id="rId67" display="https://doi.org/10.1029/2012GC004370"/>
+    <hyperlink ref="Q60" r:id="rId68" display="https://dataverse.scholarsportal.info/dataset.xhtml"/>
+    <hyperlink ref="T60" r:id="rId69" display="https://doi.org/10.1002/2017GL075860"/>
+    <hyperlink ref="T61" r:id="rId70" display="https://doi.org/10.1016/j.cageo.2014.07.020"/>
+    <hyperlink ref="Q62" r:id="rId71" display="https://biotime.st-andrews.ac.uk/"/>
+    <hyperlink ref="T62" r:id="rId72" display="https://doi.org/10.1111/geb.12729"/>
+    <hyperlink ref="Q64" r:id="rId73" display="https://compadre-db.org/"/>
+    <hyperlink ref="T64" r:id="rId74" display="https://doi.org/10.1111/1365-2745.12334"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -5761,7 +5712,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -5771,22 +5722,22 @@
       <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>502</v>
+        <v>507</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>503</v>
+        <v>508</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>504</v>
+        <v>509</v>
       </c>
     </row>
   </sheetData>

--- a/ExternalDataSources.xlsx
+++ b/ExternalDataSources.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="938" uniqueCount="510">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="951" uniqueCount="516">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -1641,6 +1641,24 @@
   </si>
   <si>
     <t xml:space="preserve">google engine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CARBOSOL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Physical and chemical properties of 6,609 soil profiles in Spain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.pangaea.de/10.1594/PANGAEA.884517</t>
+  </si>
+  <si>
+    <t xml:space="preserve">organic matter, texture, pH, nutrients, depth, …</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1594/PANGAEA.884514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Llorente, Mireia; Rovira, Pere; Merino, Agustín; Rubio, Agustín; Turrión, MaBelén; Badía, David; Romanya, Joan; González, Jordi Cortina José Antonio (2018): Physical and chemical characteristics of soil horizons from the CARBOSOL Database of Spain. https://doi.org/10.1594/PANGAEA.884514</t>
   </si>
   <si>
     <t xml:space="preserve">ISMN</t>
@@ -2509,15 +2527,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V1048576"/>
+  <dimension ref="A1:V68"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="G33" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="Q58" activeCellId="0" sqref="Q58"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A56" activeCellId="0" sqref="A56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5234375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="25.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="2" width="25.28"/>
@@ -5078,17 +5096,17 @@
         <v>374</v>
       </c>
       <c r="C56" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="E56" s="2" t="s">
         <v>411</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>412</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>413</v>
       </c>
       <c r="F56" s="12"/>
       <c r="G56" s="3" t="s">
-        <v>51</v>
+        <v>113</v>
       </c>
       <c r="H56" s="3" t="s">
         <v>28</v>
@@ -5100,34 +5118,35 @@
         <v>84</v>
       </c>
       <c r="Q56" s="13" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="R56" s="13"/>
       <c r="S56" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="T56" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="U56" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="T56" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="U56" s="1" t="s">
-        <v>417</v>
-      </c>
+      <c r="V56" s="1"/>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>374</v>
       </c>
       <c r="C57" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="E57" s="2" t="s">
         <v>419</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>421</v>
       </c>
       <c r="F57" s="12"/>
       <c r="G57" s="3" t="s">
@@ -5139,90 +5158,95 @@
       <c r="I57" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="K57" s="4" t="s">
+      <c r="L57" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q57" s="13" t="s">
+        <v>420</v>
+      </c>
+      <c r="R57" s="13"/>
+      <c r="S57" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="T57" s="13" t="s">
         <v>422</v>
       </c>
-      <c r="L57" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="M57" s="4" t="s">
+      <c r="U57" s="1" t="s">
         <v>423</v>
-      </c>
-      <c r="Q57" s="13" t="s">
-        <v>424</v>
-      </c>
-      <c r="R57" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="S57" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="T57" s="13" t="s">
-        <v>427</v>
-      </c>
-      <c r="U57" s="1" t="s">
-        <v>428</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>374</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>382</v>
+        <v>425</v>
       </c>
       <c r="D58" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="F58" s="12"/>
+      <c r="G58" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="K58" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="L58" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M58" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="Q58" s="13" t="s">
         <v>430</v>
       </c>
-      <c r="E58" s="2" t="s">
+      <c r="R58" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="F58" s="18" t="n">
-        <v>45630</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="J58" s="3" t="s">
+      <c r="S58" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="L58" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q58" s="13" t="s">
+      <c r="T58" s="13" t="s">
         <v>433</v>
       </c>
-      <c r="R58" s="13"/>
-      <c r="T58" s="13"/>
+      <c r="U58" s="1" t="s">
+        <v>434</v>
+      </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>435</v>
+        <v>374</v>
       </c>
       <c r="C59" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="D59" s="2" t="s">
         <v>436</v>
       </c>
-      <c r="D59" s="2" t="s">
+      <c r="E59" s="2" t="s">
         <v>437</v>
       </c>
-      <c r="E59" s="2" t="s">
-        <v>438</v>
-      </c>
-      <c r="F59" s="12"/>
+      <c r="F59" s="18" t="n">
+        <v>45630</v>
+      </c>
       <c r="G59" s="3" t="s">
-        <v>51</v>
+        <v>100</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>28</v>
@@ -5230,6 +5254,9 @@
       <c r="I59" s="3" t="s">
         <v>157</v>
       </c>
+      <c r="J59" s="3" t="s">
+        <v>438</v>
+      </c>
       <c r="L59" s="4" t="s">
         <v>84</v>
       </c>
@@ -5237,28 +5264,23 @@
         <v>439</v>
       </c>
       <c r="R59" s="13"/>
-      <c r="T59" s="13" t="s">
-        <v>440</v>
-      </c>
-      <c r="U59" s="1" t="s">
-        <v>441</v>
-      </c>
+      <c r="T59" s="13"/>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="C60" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="B60" s="2" t="s">
-        <v>435</v>
-      </c>
-      <c r="C60" s="2" t="s">
+      <c r="D60" s="2" t="s">
         <v>443</v>
       </c>
-      <c r="D60" s="2" t="s">
+      <c r="E60" s="2" t="s">
         <v>444</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>445</v>
       </c>
       <c r="F60" s="12"/>
       <c r="G60" s="3" t="s">
@@ -5270,43 +5292,37 @@
       <c r="I60" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="J60" s="3" t="s">
-        <v>446</v>
-      </c>
       <c r="L60" s="4" t="s">
         <v>84</v>
       </c>
       <c r="Q60" s="13" t="s">
+        <v>445</v>
+      </c>
+      <c r="R60" s="13"/>
+      <c r="T60" s="13" t="s">
+        <v>446</v>
+      </c>
+      <c r="U60" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="R60" s="13"/>
-      <c r="S60" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="T60" s="13" t="s">
-        <v>449</v>
-      </c>
-      <c r="U60" s="13"/>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="D61" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="B61" s="2" t="s">
-        <v>435</v>
-      </c>
-      <c r="C61" s="2" t="s">
+      <c r="E61" s="2" t="s">
         <v>451</v>
       </c>
-      <c r="D61" s="2" t="s">
-        <v>452</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>453</v>
-      </c>
-      <c r="F61" s="12" t="s">
-        <v>454</v>
-      </c>
+      <c r="F61" s="12"/>
       <c r="G61" s="3" t="s">
         <v>51</v>
       </c>
@@ -5314,48 +5330,45 @@
         <v>28</v>
       </c>
       <c r="I61" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="K61" s="4" t="s">
-        <v>455</v>
+        <v>157</v>
+      </c>
+      <c r="J61" s="3" t="s">
+        <v>452</v>
       </c>
       <c r="L61" s="4" t="s">
         <v>84</v>
       </c>
       <c r="Q61" s="13" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="R61" s="13"/>
       <c r="S61" s="1" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="T61" s="13" t="s">
-        <v>458</v>
-      </c>
-      <c r="U61" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="V61" s="1" t="s">
-        <v>460</v>
-      </c>
+        <v>455</v>
+      </c>
+      <c r="U61" s="13"/>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>462</v>
+        <v>441</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="F62" s="12"/>
+        <v>459</v>
+      </c>
+      <c r="F62" s="12" t="s">
+        <v>460</v>
+      </c>
       <c r="G62" s="3" t="s">
         <v>51</v>
       </c>
@@ -5365,50 +5378,44 @@
       <c r="I62" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>277</v>
-      </c>
       <c r="K62" s="4" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="L62" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="M62" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="N62" s="5" t="s">
-        <v>466</v>
+        <v>84</v>
       </c>
       <c r="Q62" s="13" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="R62" s="13"/>
       <c r="S62" s="1" t="s">
-        <v>279</v>
+        <v>463</v>
       </c>
       <c r="T62" s="13" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="U62" s="1" t="s">
-        <v>469</v>
+        <v>465</v>
+      </c>
+      <c r="V62" s="1" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="E63" s="2" t="s">
         <v>470</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>462</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>471</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>470</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>472</v>
       </c>
       <c r="F63" s="12"/>
       <c r="G63" s="3" t="s">
@@ -5420,28 +5427,47 @@
       <c r="I63" s="3" t="s">
         <v>107</v>
       </c>
+      <c r="J63" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="K63" s="4" t="s">
+        <v>471</v>
+      </c>
       <c r="L63" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q63" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M63" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="N63" s="5" t="s">
+        <v>472</v>
+      </c>
+      <c r="Q63" s="13" t="s">
         <v>473</v>
       </c>
-      <c r="V63" s="1" t="s">
+      <c r="R63" s="13"/>
+      <c r="S63" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="T63" s="13" t="s">
         <v>474</v>
+      </c>
+      <c r="U63" s="1" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="C64" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="D64" s="2" t="s">
         <v>476</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>477</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>478</v>
@@ -5457,49 +5483,34 @@
         <v>107</v>
       </c>
       <c r="L64" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="M64" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="N64" s="5" t="s">
-        <v>466</v>
-      </c>
-      <c r="Q64" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q64" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="S64" s="1" t="s">
+      <c r="V64" s="1" t="s">
         <v>480</v>
-      </c>
-      <c r="T64" s="13" t="s">
-        <v>481</v>
-      </c>
-      <c r="U64" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="V64" s="1" t="s">
-        <v>483</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="E65" s="2" t="s">
         <v>484</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>462</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>485</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>486</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>487</v>
       </c>
       <c r="F65" s="12"/>
       <c r="G65" s="3" t="s">
-        <v>488</v>
+        <v>51</v>
       </c>
       <c r="H65" s="3" t="s">
         <v>28</v>
@@ -5511,77 +5522,81 @@
         <v>28</v>
       </c>
       <c r="M65" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q65" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="N65" s="5" t="s">
+        <v>472</v>
+      </c>
+      <c r="Q65" s="13" t="s">
+        <v>485</v>
+      </c>
+      <c r="S65" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="T65" s="13" t="s">
+        <v>487</v>
+      </c>
+      <c r="U65" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="V65" s="1" t="s">
         <v>489</v>
-      </c>
-      <c r="S65" s="1" t="s">
-        <v>490</v>
-      </c>
-      <c r="T65" s="1" t="s">
-        <v>491</v>
-      </c>
-      <c r="U65" s="1" t="s">
-        <v>492</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="E66" s="2" t="s">
         <v>493</v>
       </c>
-      <c r="B66" s="2" t="s">
-        <v>462</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>471</v>
-      </c>
-      <c r="D66" s="2" t="s">
+      <c r="F66" s="12"/>
+      <c r="G66" s="3" t="s">
         <v>494</v>
       </c>
-      <c r="E66" s="2" t="s">
+      <c r="H66" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I66" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="L66" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M66" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q66" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="F66" s="18" t="n">
-        <v>45235</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I66" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="L66" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="N66" s="5" t="s">
-        <v>466</v>
-      </c>
-      <c r="Q66" s="1" t="s">
+      <c r="S66" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="S66" s="1" t="s">
+      <c r="T66" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="T66" s="1" t="s">
+      <c r="U66" s="1" t="s">
         <v>498</v>
-      </c>
-      <c r="U66" s="1" t="s">
-        <v>499</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>23</v>
+        <v>468</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>69</v>
+        <v>477</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>500</v>
@@ -5589,31 +5604,28 @@
       <c r="E67" s="2" t="s">
         <v>501</v>
       </c>
+      <c r="F67" s="18" t="n">
+        <v>45235</v>
+      </c>
       <c r="G67" s="3" t="s">
-        <v>93</v>
+        <v>51</v>
       </c>
       <c r="H67" s="3" t="s">
         <v>28</v>
       </c>
       <c r="I67" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J67" s="3" t="s">
-        <v>351</v>
+        <v>157</v>
       </c>
       <c r="L67" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="M67" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="O67" s="1" t="s">
-        <v>33</v>
+        <v>84</v>
+      </c>
+      <c r="N67" s="5" t="s">
+        <v>472</v>
       </c>
       <c r="Q67" s="1" t="s">
         <v>502</v>
       </c>
-      <c r="R67" s="1" t="s">
+      <c r="S67" s="1" t="s">
         <v>503</v>
       </c>
       <c r="T67" s="1" t="s">
@@ -5623,7 +5635,56 @@
         <v>505</v>
       </c>
     </row>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="G68" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="H68" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I68" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J68" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="L68" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M68" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="O68" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q68" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="R68" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="T68" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="U68" s="1" t="s">
+        <v>511</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="Q2" r:id="rId1" display="https://cds.climate.copernicus.eu"/>
@@ -5686,20 +5747,23 @@
     <hyperlink ref="Q54" r:id="rId58" display="http://globalchange.bnu.edu.cn/research/data"/>
     <hyperlink ref="T54" r:id="rId59" display="http://doi.wiley.com/10.1002/2013MS000293"/>
     <hyperlink ref="Q55" r:id="rId60" display="https://www.futurewater.eu/projects/hihydrosoil/"/>
-    <hyperlink ref="Q56" r:id="rId61" display="https://ismn.earth/en/"/>
-    <hyperlink ref="T56" r:id="rId62" display="https://doi.org/10.5194/hess-2021-2"/>
-    <hyperlink ref="Q57" r:id="rId63" display="https://doi.org/10.3334/ORNLDAAC/1827"/>
-    <hyperlink ref="T57" r:id="rId64" display="https://10.5194/bg-7-1915-2010"/>
-    <hyperlink ref="Q58" r:id="rId65" display="https://icgc.cat/Administracio-i-empresa/Descarregues/Cartografia-geologica-i-geotematica/Cartografia-de-sols/Mapa-de-sols-1-25.000-continu"/>
-    <hyperlink ref="Q59" r:id="rId66" display="https://doi.pangaea.de/10.1594/PANGAEA.788537"/>
-    <hyperlink ref="T59" r:id="rId67" display="https://doi.org/10.1029/2012GC004370"/>
-    <hyperlink ref="Q60" r:id="rId68" display="https://dataverse.scholarsportal.info/dataset.xhtml"/>
-    <hyperlink ref="T60" r:id="rId69" display="https://doi.org/10.1002/2017GL075860"/>
-    <hyperlink ref="T61" r:id="rId70" display="https://doi.org/10.1016/j.cageo.2014.07.020"/>
-    <hyperlink ref="Q62" r:id="rId71" display="https://biotime.st-andrews.ac.uk/"/>
-    <hyperlink ref="T62" r:id="rId72" display="https://doi.org/10.1111/geb.12729"/>
-    <hyperlink ref="Q64" r:id="rId73" display="https://compadre-db.org/"/>
-    <hyperlink ref="T64" r:id="rId74" display="https://doi.org/10.1111/1365-2745.12334"/>
+    <hyperlink ref="Q56" r:id="rId61" display="https://doi.pangaea.de/10.1594/PANGAEA.884517"/>
+    <hyperlink ref="T56" r:id="rId62" display="https://doi.org/10.1594/PANGAEA.884514"/>
+    <hyperlink ref="U56" r:id="rId63" display="https://doi.org/10.1594/PANGAEA.884514"/>
+    <hyperlink ref="Q57" r:id="rId64" display="https://ismn.earth/en/"/>
+    <hyperlink ref="T57" r:id="rId65" display="https://doi.org/10.5194/hess-2021-2"/>
+    <hyperlink ref="Q58" r:id="rId66" display="https://doi.org/10.3334/ORNLDAAC/1827"/>
+    <hyperlink ref="T58" r:id="rId67" display="https://10.5194/bg-7-1915-2010"/>
+    <hyperlink ref="Q59" r:id="rId68" display="https://icgc.cat/Administracio-i-empresa/Descarregues/Cartografia-geologica-i-geotematica/Cartografia-de-sols/Mapa-de-sols-1-25.000-continu"/>
+    <hyperlink ref="Q60" r:id="rId69" display="https://doi.pangaea.de/10.1594/PANGAEA.788537"/>
+    <hyperlink ref="T60" r:id="rId70" display="https://doi.org/10.1029/2012GC004370"/>
+    <hyperlink ref="Q61" r:id="rId71" display="https://dataverse.scholarsportal.info/dataset.xhtml"/>
+    <hyperlink ref="T61" r:id="rId72" display="https://doi.org/10.1002/2017GL075860"/>
+    <hyperlink ref="T62" r:id="rId73" display="https://doi.org/10.1016/j.cageo.2014.07.020"/>
+    <hyperlink ref="Q63" r:id="rId74" display="https://biotime.st-andrews.ac.uk/"/>
+    <hyperlink ref="T63" r:id="rId75" display="https://doi.org/10.1111/geb.12729"/>
+    <hyperlink ref="Q65" r:id="rId76" display="https://compadre-db.org/"/>
+    <hyperlink ref="T65" r:id="rId77" display="https://doi.org/10.1111/1365-2745.12334"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -5722,22 +5786,22 @@
       <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>506</v>
+        <v>512</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>507</v>
+        <v>513</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>508</v>
+        <v>514</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>509</v>
+        <v>515</v>
       </c>
     </row>
   </sheetData>

--- a/ExternalDataSources.xlsx
+++ b/ExternalDataSources.xlsx
@@ -8,8 +8,8 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Datasets" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="ModelBenchmarkProjects" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Datasets" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="ModelBenchmarkProjects" sheetId="2" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="951" uniqueCount="516">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="968" uniqueCount="526">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -551,6 +551,27 @@
     <t xml:space="preserve">Ackerman, D., Millet, D., &amp; Chen, X. (2019). Global Estimates of Inorganic Nitrogen Deposition Across Four Decades. Global Biogeochemical Cycles, 33(1), 100-107.</t>
   </si>
   <si>
+    <t xml:space="preserve">LSTRAD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">High-resolution (1 km) all-sky net radiation over Europe enabled by the merging of land surface temperature retrievals from geostationary and polar-orbiting satellites </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1km</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zenodo.org/records/8332222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.5194/essd-16-567-2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rains et al. 2024</t>
+  </si>
+  <si>
     <t xml:space="preserve">GRDC</t>
   </si>
   <si>
@@ -1292,9 +1313,6 @@
     <t xml:space="preserve">A global map of root biomass across the world’s forests</t>
   </si>
   <si>
-    <t xml:space="preserve">1km</t>
-  </si>
-  <si>
     <t xml:space="preserve">https://doi.org/10.5194/essd-2021-25</t>
   </si>
   <si>
@@ -1358,6 +1376,36 @@
     <t xml:space="preserve">Vangansbeke P, Máliš F, Hédl R, et al. ClimPlant: Realized climatic niches of vascular plants in European forest understoreys. Global Ecol Biogeogr. 2021;30:1183–1190</t>
   </si>
   <si>
+    <t xml:space="preserve">PlanetBiomass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Canopy height and biomass for Europe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Datasets generated from the research article "The overlooked contribution of trees outside forests to tree cover and woody biomass across Europe". Aggregated version of canopy cover and height map, and original biomass map at 30m resolution. The biomass map are calculated from the canopy cover and height maps using allometric equations. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">24/05/2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30 m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zenodo.org/records/8154445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Canopy height, canopy cover, aboveground biomass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1126/sciadv.adh4097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liu et al. The overlooked contribution of trees outside forests to tree cover and woody biomass across Europe. Science Advances</t>
+  </si>
+  <si>
     <t xml:space="preserve">WoSIS</t>
   </si>
   <si>
@@ -2184,24 +2232,6 @@
   </si>
   <si>
     <t xml:space="preserve">van Kleunen M, Pyšek P, Dawson W, Essl F, Kreft H, Pergl J, Weigelt P, Stein A, Dullinger S, König C, Lenzner B, Maurel N, Moser D, Seebens H, Kartesz J, Nishino M, Aleksanyan A, Ansong M, Antonova LA, Barcelona JF, Breckle SW, Brundu G, Cabezas FJ, Cárdenas D, Cárdenas-Toro J, Castaño N, Chacón E, Chatelain C, Conn B, de Sá Dechoum M, Dufour-Dror JM, Ebel AL, Figueiredo E, Fragman-Sapir O, Fuentes N, Groom QJ, Henderson L, Inderjit, Jogan N, Krestov P, Kupriyanov A, Masciadri S, Meerman J, Morozova O, Nickrent D, Nowak A, Patzelt A, Pelser PB, Shu W sheng, Thomas J, Uludag A, Velayos M, Verkhosina A, Villaseñor JL, Weber E, Wieringa JJ, Yazlık A, Zeddam A, Zykova E, Winter M (2019) The Global Naturalized Alien Flora (GloNAF) database. Ecology 100: 1–2. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">LSTRAD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">High-resolution (1 km) all-sky net radiation over Europe enabled by the merging of land surface temperature retrievals from geostationary and polar-orbiting satellites </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://zenodo.org/records/8332222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://doi.org/10.5194/essd-16-567-2024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rains et al. 2024</t>
   </si>
   <si>
     <t xml:space="preserve">ILamb</t>
@@ -2522,31 +2552,137 @@
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
+  <a:themeElements>
+    <a:clrScheme name="LibreOffice">
+      <a:dk1>
+        <a:srgbClr val="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:srgbClr val="ffffff"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="000000"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="ffffff"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="18a303"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="0369a3"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="a33e03"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8e03a3"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="c99c00"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="c9211e"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000ee"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="551a8b"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme>
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V68"/>
+  <dimension ref="A1:V1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="G33" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A56" activeCellId="0" sqref="A56"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="G23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="C51" activeCellId="0" sqref="C51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="25.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="2" width="25.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="39.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="234.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="19.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="3" width="19.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="19.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="3" width="19.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="3" width="7.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="3" width="24.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="11" style="4" width="13.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="5" width="13.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="11" style="4" width="13.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="5" width="13.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="14.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="35.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="11.71"/>
@@ -2623,7 +2759,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>22</v>
       </c>
@@ -2675,7 +2811,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>37</v>
       </c>
@@ -2727,7 +2863,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>42</v>
       </c>
@@ -2779,7 +2915,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>48</v>
       </c>
@@ -2825,7 +2961,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>56</v>
       </c>
@@ -2882,7 +3018,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>68</v>
       </c>
@@ -2934,7 +3070,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>76</v>
       </c>
@@ -2986,7 +3122,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>79</v>
       </c>
@@ -3264,7 +3400,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
         <v>126</v>
       </c>
@@ -3307,7 +3443,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
         <v>133</v>
       </c>
@@ -3415,50 +3551,66 @@
         <v>152</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="G19" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J19" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="L19" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M19" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q19" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="R19" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="F19" s="12"/>
-      <c r="G19" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I19" s="3" t="s">
+      <c r="T19" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="L19" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q19" s="13" t="s">
+      <c r="U19" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="R19" s="13"/>
-    </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="20" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
         <v>159</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="F20" s="12"/>
       <c r="G20" s="3" t="s">
@@ -3468,34 +3620,31 @@
         <v>28</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="L20" s="4" t="s">
-        <v>84</v>
+        <v>28</v>
       </c>
       <c r="Q20" s="13" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="R20" s="13"/>
-      <c r="U20" s="1" t="s">
-        <v>163</v>
-      </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="F21" s="12"/>
       <c r="G21" s="3" t="s">
@@ -3505,31 +3654,34 @@
         <v>28</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="L21" s="4" t="s">
         <v>84</v>
       </c>
       <c r="Q21" s="13" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="R21" s="13"/>
+      <c r="U21" s="1" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="F22" s="12"/>
       <c r="G22" s="3" t="s">
@@ -3539,37 +3691,31 @@
         <v>28</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="L22" s="4" t="s">
         <v>84</v>
       </c>
       <c r="Q22" s="13" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="R22" s="13"/>
-      <c r="T22" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="U22" s="1" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="23" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="F23" s="12"/>
       <c r="G23" s="3" t="s">
@@ -3579,97 +3725,84 @@
         <v>28</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="L23" s="4" t="s">
         <v>84</v>
       </c>
       <c r="Q23" s="13" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="R23" s="13"/>
       <c r="T23" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="U23" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B24" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="E24" s="2" t="s">
         <v>181</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>182</v>
       </c>
       <c r="F24" s="12"/>
       <c r="G24" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="L24" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q24" s="13" t="s">
         <v>183</v>
       </c>
-      <c r="H24" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="J24" s="3" t="s">
+      <c r="R24" s="13"/>
+      <c r="T24" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="K24" s="4" t="s">
+      <c r="U24" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="L24" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="M24" s="4" t="s">
+    </row>
+    <row r="25" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="Q24" s="13" t="s">
+      <c r="B25" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="R24" s="13"/>
-      <c r="S24" s="1" t="s">
+      <c r="C25" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="T24" s="13" t="s">
+      <c r="D25" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="E25" s="2" t="s">
         <v>189</v>
-      </c>
-      <c r="U24" s="13"/>
-      <c r="V24" s="1" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>193</v>
       </c>
       <c r="F25" s="12"/>
       <c r="G25" s="3" t="s">
-        <v>51</v>
+        <v>190</v>
       </c>
       <c r="H25" s="3" t="s">
         <v>28</v>
@@ -3677,8 +3810,17 @@
       <c r="I25" s="3" t="s">
         <v>107</v>
       </c>
+      <c r="J25" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="K25" s="4" t="s">
+        <v>192</v>
+      </c>
       <c r="L25" s="4" t="s">
         <v>28</v>
+      </c>
+      <c r="M25" s="4" t="s">
+        <v>193</v>
       </c>
       <c r="Q25" s="13" t="s">
         <v>194</v>
@@ -3687,37 +3829,42 @@
       <c r="S25" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="T25" s="13"/>
+      <c r="T25" s="13" t="s">
+        <v>196</v>
+      </c>
       <c r="U25" s="13"/>
-    </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="V25" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F26" s="12"/>
       <c r="G26" s="3" t="s">
         <v>51</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>84</v>
+        <v>28</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>107</v>
       </c>
       <c r="L26" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="N26" s="5" t="s">
-        <v>200</v>
+        <v>28</v>
       </c>
       <c r="Q26" s="13" t="s">
         <v>201</v>
@@ -3726,23 +3873,21 @@
       <c r="S26" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="T26" s="13" t="s">
+      <c r="T26" s="13"/>
+      <c r="U26" s="13"/>
+    </row>
+    <row r="27" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="U26" s="13"/>
-    </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="s">
+      <c r="B27" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>197</v>
-      </c>
       <c r="C27" s="2" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>206</v>
@@ -3757,30 +3902,36 @@
       <c r="L27" s="4" t="s">
         <v>84</v>
       </c>
+      <c r="N27" s="5" t="s">
+        <v>207</v>
+      </c>
       <c r="Q27" s="13" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="R27" s="13"/>
+      <c r="S27" s="1" t="s">
+        <v>209</v>
+      </c>
       <c r="T27" s="13" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="U27" s="13"/>
     </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="F28" s="12"/>
       <c r="G28" s="3" t="s">
@@ -3792,88 +3943,71 @@
       <c r="L28" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="N28" s="5" t="s">
-        <v>200</v>
-      </c>
       <c r="Q28" s="13" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="R28" s="13"/>
-      <c r="T28" s="13"/>
-      <c r="U28" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="T28" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="U28" s="13"/>
+    </row>
+    <row r="29" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>180</v>
+        <v>204</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="F29" s="18" t="n">
-        <v>45118</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="F29" s="12"/>
       <c r="G29" s="3" t="s">
         <v>51</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="L29" s="4" t="s">
         <v>84</v>
       </c>
       <c r="N29" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="O29" s="1" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="Q29" s="13" t="s">
-        <v>218</v>
-      </c>
-      <c r="R29" s="19"/>
-      <c r="S29" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="T29" s="13" t="s">
+      <c r="R29" s="13"/>
+      <c r="T29" s="13"/>
+      <c r="U29" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="U29" s="1" t="s">
+    </row>
+    <row r="30" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="V29" s="20"/>
-    </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1" t="s">
+      <c r="B30" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="D30" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="D30" s="2" t="s">
+      <c r="E30" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="E30" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="F30" s="21" t="n">
-        <v>45264</v>
+      <c r="F30" s="18" t="n">
+        <v>45118</v>
       </c>
       <c r="G30" s="3" t="s">
         <v>51</v>
@@ -3888,45 +4022,44 @@
         <v>84</v>
       </c>
       <c r="N30" s="5" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="O30" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q30" s="13" t="s">
         <v>225</v>
       </c>
-      <c r="Q30" s="13" t="s">
+      <c r="R30" s="19"/>
+      <c r="S30" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="R30" s="19" t="s">
+      <c r="T30" s="13" t="s">
         <v>227</v>
       </c>
-      <c r="T30" s="13" t="s">
+      <c r="U30" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="U30" s="1" t="s">
+      <c r="V30" s="20"/>
+    </row>
+    <row r="31" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="V30" s="20" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1" t="s">
+      <c r="B31" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="D31" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="D31" s="2" t="s">
+      <c r="E31" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="E31" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="F31" s="21" t="s">
-        <v>233</v>
+      <c r="F31" s="21" t="n">
+        <v>45264</v>
       </c>
       <c r="G31" s="3" t="s">
         <v>51</v>
@@ -3941,47 +4074,48 @@
         <v>84</v>
       </c>
       <c r="N31" s="5" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>147</v>
+        <v>232</v>
       </c>
       <c r="Q31" s="13" t="s">
+        <v>233</v>
+      </c>
+      <c r="R31" s="19" t="s">
         <v>234</v>
       </c>
-      <c r="R31" s="19"/>
-      <c r="S31" s="1" t="s">
+      <c r="T31" s="13" t="s">
         <v>235</v>
       </c>
-      <c r="T31" s="13" t="s">
+      <c r="U31" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="U31" s="1" t="s">
+      <c r="V31" s="20" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="V31" s="20"/>
-    </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="1" t="s">
+      <c r="B32" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="D32" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="D32" s="2" t="s">
+      <c r="E32" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="E32" s="2" t="s">
+      <c r="F32" s="21" t="s">
         <v>240</v>
       </c>
-      <c r="F32" s="21" t="s">
-        <v>241</v>
-      </c>
       <c r="G32" s="3" t="s">
-        <v>242</v>
+        <v>51</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>28</v>
@@ -3993,44 +4127,44 @@
         <v>84</v>
       </c>
       <c r="N32" s="5" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="O32" s="1" t="s">
         <v>147</v>
       </c>
       <c r="Q32" s="13" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="R32" s="19"/>
       <c r="S32" s="1" t="s">
-        <v>202</v>
+        <v>242</v>
       </c>
       <c r="T32" s="13" t="s">
+        <v>243</v>
+      </c>
+      <c r="U32" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="U32" s="1" t="s">
+      <c r="V32" s="20"/>
+    </row>
+    <row r="33" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="V32" s="20"/>
-    </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="1" t="s">
+      <c r="B33" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="D33" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="B33" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="D33" s="16" t="s">
+      <c r="E33" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="E33" s="2" t="s">
+      <c r="F33" s="21" t="s">
         <v>248</v>
-      </c>
-      <c r="F33" s="21" t="s">
-        <v>241</v>
       </c>
       <c r="G33" s="3" t="s">
         <v>249</v>
@@ -4045,7 +4179,7 @@
         <v>84</v>
       </c>
       <c r="N33" s="5" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="O33" s="1" t="s">
         <v>147</v>
@@ -4055,7 +4189,7 @@
       </c>
       <c r="R33" s="19"/>
       <c r="S33" s="1" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="T33" s="13" t="s">
         <v>251</v>
@@ -4065,15 +4199,15 @@
       </c>
       <c r="V33" s="20"/>
     </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
         <v>253</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="D34" s="16" t="s">
         <v>254</v>
@@ -4082,7 +4216,7 @@
         <v>255</v>
       </c>
       <c r="F34" s="21" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="G34" s="3" t="s">
         <v>256</v>
@@ -4097,7 +4231,7 @@
         <v>84</v>
       </c>
       <c r="N34" s="5" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="O34" s="1" t="s">
         <v>147</v>
@@ -4107,25 +4241,25 @@
       </c>
       <c r="R34" s="19"/>
       <c r="S34" s="1" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="T34" s="13" t="s">
         <v>258</v>
       </c>
-      <c r="U34" s="22" t="s">
+      <c r="U34" s="1" t="s">
         <v>259</v>
       </c>
       <c r="V34" s="20"/>
     </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
         <v>260</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="D35" s="16" t="s">
         <v>261</v>
@@ -4134,19 +4268,22 @@
         <v>262</v>
       </c>
       <c r="F35" s="21" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="G35" s="3" t="s">
         <v>263</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>84</v>
+        <v>28</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>107</v>
       </c>
       <c r="L35" s="4" t="s">
         <v>84</v>
       </c>
       <c r="N35" s="5" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="O35" s="1" t="s">
         <v>147</v>
@@ -4156,7 +4293,7 @@
       </c>
       <c r="R35" s="19"/>
       <c r="S35" s="1" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="T35" s="13" t="s">
         <v>265</v>
@@ -4166,15 +4303,15 @@
       </c>
       <c r="V35" s="20"/>
     </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
         <v>267</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="D36" s="16" t="s">
         <v>268</v>
@@ -4183,22 +4320,19 @@
         <v>269</v>
       </c>
       <c r="F36" s="21" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="G36" s="3" t="s">
         <v>270</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I36" s="3" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="L36" s="4" t="s">
         <v>84</v>
       </c>
       <c r="N36" s="5" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="O36" s="1" t="s">
         <v>147</v>
@@ -4206,11 +4340,9 @@
       <c r="Q36" s="13" t="s">
         <v>271</v>
       </c>
-      <c r="R36" s="19" t="n">
-        <v>2</v>
-      </c>
+      <c r="R36" s="19"/>
       <c r="S36" s="1" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="T36" s="13" t="s">
         <v>272</v>
@@ -4220,25 +4352,27 @@
       </c>
       <c r="V36" s="20"/>
     </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
         <v>274</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="C37" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="D37" s="16" t="s">
         <v>275</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>274</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="F37" s="12"/>
+      <c r="F37" s="21" t="s">
+        <v>248</v>
+      </c>
       <c r="G37" s="3" t="s">
-        <v>51</v>
+        <v>277</v>
       </c>
       <c r="H37" s="3" t="s">
         <v>28</v>
@@ -4246,40 +4380,47 @@
       <c r="I37" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="J37" s="3" t="s">
-        <v>277</v>
-      </c>
       <c r="L37" s="4" t="s">
         <v>84</v>
       </c>
       <c r="N37" s="5" t="s">
-        <v>200</v>
+        <v>207</v>
+      </c>
+      <c r="O37" s="1" t="s">
+        <v>147</v>
       </c>
       <c r="Q37" s="13" t="s">
         <v>278</v>
       </c>
-      <c r="R37" s="13"/>
+      <c r="R37" s="19" t="n">
+        <v>2</v>
+      </c>
       <c r="S37" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="T37" s="13" t="s">
         <v>279</v>
       </c>
-      <c r="T37" s="13"/>
-      <c r="U37" s="13"/>
-    </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U37" s="22" t="s">
+        <v>280</v>
+      </c>
+      <c r="V37" s="20"/>
+    </row>
+    <row r="38" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="F38" s="12"/>
       <c r="G38" s="3" t="s">
@@ -4292,37 +4433,33 @@
         <v>107</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="K38" s="4" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="L38" s="4" t="s">
         <v>84</v>
       </c>
+      <c r="N38" s="5" t="s">
+        <v>207</v>
+      </c>
       <c r="Q38" s="13" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="R38" s="13"/>
       <c r="S38" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="T38" s="13" t="s">
-        <v>284</v>
-      </c>
-      <c r="U38" s="1" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>286</v>
+      </c>
+      <c r="T38" s="13"/>
+      <c r="U38" s="13"/>
+    </row>
+    <row r="39" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>287</v>
@@ -4340,36 +4477,46 @@
       <c r="I39" s="3" t="s">
         <v>107</v>
       </c>
+      <c r="J39" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="K39" s="4" t="s">
+        <v>289</v>
+      </c>
       <c r="L39" s="4" t="s">
-        <v>28</v>
+        <v>84</v>
       </c>
       <c r="Q39" s="13" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="R39" s="13"/>
+      <c r="S39" s="1" t="s">
+        <v>286</v>
+      </c>
       <c r="T39" s="13" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>291</v>
+      </c>
+      <c r="U39" s="1" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="F40" s="18" t="n">
-        <v>45352</v>
-      </c>
+        <v>295</v>
+      </c>
+      <c r="F40" s="12"/>
       <c r="G40" s="3" t="s">
         <v>51</v>
       </c>
@@ -4380,42 +4527,35 @@
         <v>107</v>
       </c>
       <c r="L40" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="O40" s="1" t="s">
-        <v>147</v>
+        <v>28</v>
       </c>
       <c r="Q40" s="13" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="R40" s="13"/>
-      <c r="S40" s="1" t="s">
-        <v>295</v>
-      </c>
       <c r="T40" s="13" t="s">
-        <v>296</v>
-      </c>
-      <c r="U40" s="1" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
         <v>298</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="C41" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="D41" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="D41" s="2" t="s">
+      <c r="E41" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="E41" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="F41" s="12"/>
+      <c r="F41" s="18" t="n">
+        <v>45352</v>
+      </c>
       <c r="G41" s="3" t="s">
         <v>51</v>
       </c>
@@ -4428,31 +4568,42 @@
       <c r="L41" s="4" t="s">
         <v>84</v>
       </c>
+      <c r="O41" s="1" t="s">
+        <v>147</v>
+      </c>
       <c r="Q41" s="13" t="s">
+        <v>301</v>
+      </c>
+      <c r="R41" s="13"/>
+      <c r="S41" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="R41" s="13"/>
-      <c r="T41" s="13"/>
-    </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="T41" s="13" t="s">
+        <v>303</v>
+      </c>
+      <c r="U41" s="1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="F42" s="12"/>
       <c r="G42" s="3" t="s">
-        <v>93</v>
+        <v>51</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>28</v>
@@ -4460,36 +4611,24 @@
       <c r="I42" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="K42" s="4" t="s">
-        <v>307</v>
-      </c>
       <c r="L42" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="M42" s="4" t="s">
-        <v>277</v>
+        <v>84</v>
       </c>
       <c r="Q42" s="13" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="R42" s="13"/>
-      <c r="S42" s="1" t="s">
-        <v>309</v>
-      </c>
       <c r="T42" s="13"/>
-      <c r="V42" s="1" t="s">
+    </row>
+    <row r="43" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="1" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="1" t="s">
+      <c r="B43" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C43" s="2" t="s">
         <v>311</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>304</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>312</v>
@@ -4497,23 +4636,24 @@
       <c r="E43" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="F43" s="14" t="n">
-        <v>44779</v>
-      </c>
+      <c r="F43" s="12"/>
       <c r="G43" s="3" t="s">
-        <v>51</v>
+        <v>93</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>28</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J43" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="K43" s="4" t="s">
         <v>314</v>
       </c>
       <c r="L43" s="4" t="s">
         <v>28</v>
+      </c>
+      <c r="M43" s="4" t="s">
+        <v>284</v>
       </c>
       <c r="Q43" s="13" t="s">
         <v>315</v>
@@ -4522,34 +4662,32 @@
       <c r="S43" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="T43" s="13" t="s">
+      <c r="T43" s="13"/>
+      <c r="V43" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="U43" s="1" t="s">
+    </row>
+    <row r="44" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="1" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="1" t="s">
+      <c r="B44" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="D44" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="B44" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="D44" s="2" t="s">
+      <c r="E44" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="E44" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="F44" s="14" t="s">
-        <v>322</v>
+      <c r="F44" s="14" t="n">
+        <v>44779</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>323</v>
+        <v>51</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>28</v>
@@ -4558,59 +4696,46 @@
         <v>29</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>324</v>
-      </c>
-      <c r="K44" s="4" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="L44" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="M44" s="4" t="s">
-        <v>326</v>
-      </c>
-      <c r="N44" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="O44" s="1" t="s">
-        <v>147</v>
-      </c>
       <c r="Q44" s="13" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="R44" s="13"/>
       <c r="S44" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="T44" s="13"/>
+        <v>323</v>
+      </c>
+      <c r="T44" s="13" t="s">
+        <v>324</v>
+      </c>
       <c r="U44" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="V44" s="1" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="D45" s="16" t="s">
-        <v>332</v>
+        <v>311</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>327</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="F45" s="14" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>28</v>
@@ -4618,95 +4743,104 @@
       <c r="I45" s="3" t="s">
         <v>29</v>
       </c>
+      <c r="J45" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="K45" s="4" t="s">
+        <v>332</v>
+      </c>
       <c r="L45" s="4" t="s">
-        <v>84</v>
+        <v>28</v>
+      </c>
+      <c r="M45" s="4" t="s">
+        <v>333</v>
       </c>
       <c r="N45" s="5" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="O45" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="P45" s="15" t="s">
-        <v>336</v>
-      </c>
       <c r="Q45" s="13" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="R45" s="13"/>
       <c r="S45" s="1" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="T45" s="13"/>
-      <c r="V45" s="1"/>
+      <c r="U45" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="V45" s="1" t="s">
+        <v>337</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="D46" s="16" t="s">
         <v>339</v>
       </c>
-      <c r="B46" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="C46" s="2" t="s">
+      <c r="E46" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="D46" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="E46" s="2" t="s">
+      <c r="F46" s="14" t="s">
         <v>341</v>
       </c>
-      <c r="F46" s="12"/>
       <c r="G46" s="3" t="s">
-        <v>51</v>
+        <v>342</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>28</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>107</v>
+        <v>29</v>
       </c>
       <c r="L46" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="M46" s="4" t="s">
-        <v>342</v>
-      </c>
-      <c r="P46" s="1" t="s">
-        <v>101</v>
+        <v>84</v>
+      </c>
+      <c r="N46" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="O46" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="P46" s="15" t="s">
+        <v>343</v>
       </c>
       <c r="Q46" s="13" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="R46" s="13"/>
       <c r="S46" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="T46" s="13" t="s">
         <v>345</v>
       </c>
-      <c r="U46" s="1" t="s">
+      <c r="T46" s="13"/>
+      <c r="V46" s="1"/>
+    </row>
+    <row r="47" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="V46" s="1" t="s">
+      <c r="B47" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C47" s="2" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="1" t="s">
+      <c r="D47" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="E47" s="2" t="s">
         <v>348</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>350</v>
       </c>
       <c r="F47" s="12"/>
       <c r="G47" s="3" t="s">
@@ -4716,35 +4850,49 @@
         <v>28</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J47" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="L47" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M47" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="P47" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q47" s="13" t="s">
+        <v>350</v>
+      </c>
+      <c r="R47" s="13"/>
+      <c r="S47" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="L47" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q47" s="13" t="s">
+      <c r="T47" s="13" t="s">
         <v>352</v>
       </c>
-      <c r="R47" s="13"/>
-      <c r="T47" s="13"/>
+      <c r="U47" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="V47" s="1" t="s">
+        <v>354</v>
+      </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>180</v>
+        <v>204</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>355</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="F48" s="12"/>
       <c r="G48" s="3" t="s">
@@ -4754,153 +4902,153 @@
         <v>28</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="K48" s="4" t="s">
-        <v>357</v>
+        <v>29</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>154</v>
       </c>
       <c r="L48" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="M48" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="N48" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q48" s="13" t="s">
         <v>358</v>
       </c>
-      <c r="Q48" s="13" t="s">
-        <v>359</v>
-      </c>
       <c r="R48" s="13"/>
-      <c r="S48" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="T48" s="13" t="s">
-        <v>361</v>
-      </c>
-      <c r="U48" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="V48" s="20" t="s">
-        <v>363</v>
-      </c>
+      <c r="T48" s="13"/>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="F49" s="12"/>
+      <c r="G49" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="K49" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="L49" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M49" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="N49" s="5" t="s">
         <v>364</v>
       </c>
-      <c r="B49" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="C49" s="2" t="s">
+      <c r="Q49" s="13" t="s">
         <v>365</v>
       </c>
-      <c r="D49" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="E49" s="2" t="s">
+      <c r="R49" s="13"/>
+      <c r="S49" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="F49" s="12" t="s">
+      <c r="T49" s="13" t="s">
         <v>367</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J49" s="3" t="s">
+      <c r="U49" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="K49" s="4" t="s">
+      <c r="V49" s="20" t="s">
         <v>369</v>
       </c>
-      <c r="L49" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="N49" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="O49" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q49" s="13" t="s">
-        <v>370</v>
-      </c>
-      <c r="R49" s="19" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="T49" s="13" t="s">
-        <v>371</v>
-      </c>
-      <c r="U49" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="V49" s="20"/>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="F50" s="12" t="s">
         <v>373</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="G50" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="H50" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I50" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J50" s="3" t="s">
         <v>374</v>
       </c>
-      <c r="C50" s="2" t="s">
+      <c r="K50" s="4" t="s">
         <v>375</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="F50" s="12"/>
-      <c r="G50" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="H50" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I50" s="3" t="s">
-        <v>107</v>
       </c>
       <c r="L50" s="4" t="s">
         <v>84</v>
       </c>
+      <c r="N50" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="O50" s="1" t="s">
+        <v>147</v>
+      </c>
       <c r="Q50" s="13" t="s">
+        <v>376</v>
+      </c>
+      <c r="R50" s="19" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="T50" s="13" t="s">
+        <v>377</v>
+      </c>
+      <c r="U50" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="R50" s="13"/>
-      <c r="T50" s="13" t="s">
+      <c r="V50" s="20"/>
+    </row>
+    <row r="51" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="U50" s="1" t="s">
+      <c r="B51" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="D51" s="2" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="1" t="s">
+      <c r="E51" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="B51" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="C51" s="2" t="s">
+      <c r="F51" s="12" t="s">
         <v>382</v>
       </c>
-      <c r="D51" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="F51" s="12"/>
       <c r="G51" s="3" t="s">
-        <v>51</v>
+        <v>93</v>
       </c>
       <c r="H51" s="3" t="s">
         <v>28</v>
@@ -4908,29 +5056,47 @@
       <c r="I51" s="3" t="s">
         <v>29</v>
       </c>
+      <c r="J51" s="3" t="s">
+        <v>383</v>
+      </c>
       <c r="L51" s="4" t="s">
         <v>84</v>
       </c>
+      <c r="O51" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="Q51" s="13" t="s">
+        <v>384</v>
+      </c>
+      <c r="R51" s="19" t="s">
         <v>385</v>
       </c>
-      <c r="R51" s="13"/>
-    </row>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="S51" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="T51" s="13" t="s">
+        <v>387</v>
+      </c>
+      <c r="U51" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="V51" s="20"/>
+    </row>
+    <row r="52" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>374</v>
+        <v>390</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>382</v>
+        <v>391</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="F52" s="12"/>
       <c r="G52" s="3" t="s">
@@ -4940,37 +5106,37 @@
         <v>28</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>388</v>
+        <v>107</v>
       </c>
       <c r="L52" s="4" t="s">
         <v>84</v>
       </c>
       <c r="Q52" s="13" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="R52" s="13"/>
-      <c r="V52" s="1" t="s">
+      <c r="T52" s="13" t="s">
+        <v>395</v>
+      </c>
+      <c r="U52" s="1" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="B53" s="2" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>374</v>
-      </c>
       <c r="C53" s="2" t="s">
-        <v>382</v>
+        <v>398</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="F53" s="12"/>
       <c r="G53" s="3" t="s">
@@ -4982,38 +5148,29 @@
       <c r="I53" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="J53" s="3" t="s">
-        <v>393</v>
-      </c>
       <c r="L53" s="4" t="s">
         <v>84</v>
       </c>
       <c r="Q53" s="13" t="s">
-        <v>394</v>
+        <v>401</v>
       </c>
       <c r="R53" s="13"/>
-      <c r="S53" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="T53" s="13" t="s">
-        <v>396</v>
-      </c>
-      <c r="U53" s="1" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="54" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="C54" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="B54" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>382</v>
-      </c>
       <c r="D54" s="2" t="s">
-        <v>399</v>
+        <v>402</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>403</v>
       </c>
       <c r="F54" s="12"/>
       <c r="G54" s="3" t="s">
@@ -5026,40 +5183,34 @@
         <v>29</v>
       </c>
       <c r="J54" s="3" t="s">
-        <v>393</v>
+        <v>404</v>
       </c>
       <c r="L54" s="4" t="s">
         <v>84</v>
       </c>
       <c r="Q54" s="13" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="R54" s="13"/>
-      <c r="S54" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="T54" s="13" t="s">
-        <v>402</v>
-      </c>
-      <c r="U54" s="1" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="V54" s="1" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>374</v>
+        <v>390</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="F55" s="12"/>
       <c r="G55" s="3" t="s">
@@ -5072,81 +5223,83 @@
         <v>29</v>
       </c>
       <c r="J55" s="3" t="s">
-        <v>52</v>
+        <v>409</v>
       </c>
       <c r="L55" s="4" t="s">
         <v>84</v>
       </c>
       <c r="Q55" s="13" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="R55" s="13"/>
+      <c r="S55" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="T55" s="13" t="s">
+        <v>412</v>
+      </c>
       <c r="U55" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="V55" s="1" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>374</v>
+        <v>390</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>410</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="F56" s="12"/>
       <c r="G56" s="3" t="s">
-        <v>113</v>
+        <v>51</v>
       </c>
       <c r="H56" s="3" t="s">
         <v>28</v>
       </c>
       <c r="I56" s="3" t="s">
-        <v>107</v>
+        <v>29</v>
+      </c>
+      <c r="J56" s="3" t="s">
+        <v>409</v>
       </c>
       <c r="L56" s="4" t="s">
         <v>84</v>
       </c>
       <c r="Q56" s="13" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="R56" s="13"/>
       <c r="S56" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="T56" s="1" t="s">
-        <v>414</v>
+        <v>417</v>
+      </c>
+      <c r="T56" s="13" t="s">
+        <v>418</v>
       </c>
       <c r="U56" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="V56" s="1"/>
-    </row>
-    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>374</v>
+        <v>390</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="F57" s="12"/>
       <c r="G57" s="3" t="s">
@@ -5156,34 +5309,34 @@
         <v>28</v>
       </c>
       <c r="I57" s="3" t="s">
-        <v>107</v>
+        <v>29</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="L57" s="4" t="s">
         <v>84</v>
       </c>
       <c r="Q57" s="13" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="R57" s="13"/>
-      <c r="S57" s="1" t="s">
+      <c r="U57" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="V57" s="1" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="C58" s="2" t="s">
         <v>421</v>
-      </c>
-      <c r="T57" s="13" t="s">
-        <v>422</v>
-      </c>
-      <c r="U57" s="1" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>425</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>426</v>
@@ -5191,9 +5344,11 @@
       <c r="E58" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="F58" s="12"/>
+      <c r="F58" s="21" t="n">
+        <v>45544</v>
+      </c>
       <c r="G58" s="3" t="s">
-        <v>51</v>
+        <v>113</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>28</v>
@@ -5201,86 +5356,82 @@
       <c r="I58" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="K58" s="4" t="s">
+      <c r="L58" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q58" s="13" t="s">
         <v>428</v>
       </c>
-      <c r="L58" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="M58" s="4" t="s">
+      <c r="R58" s="13"/>
+      <c r="S58" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="Q58" s="13" t="s">
+      <c r="T58" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="R58" s="1" t="s">
+      <c r="U58" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="S58" s="1" t="s">
+      <c r="V58" s="1"/>
+    </row>
+    <row r="59" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="T58" s="13" t="s">
+      <c r="B59" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="C59" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="U58" s="1" t="s">
+      <c r="D59" s="2" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="1" t="s">
+      <c r="E59" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="B59" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>437</v>
-      </c>
-      <c r="F59" s="18" t="n">
-        <v>45630</v>
-      </c>
+      <c r="F59" s="12"/>
       <c r="G59" s="3" t="s">
-        <v>100</v>
+        <v>51</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>28</v>
       </c>
       <c r="I59" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>438</v>
+        <v>107</v>
       </c>
       <c r="L59" s="4" t="s">
         <v>84</v>
       </c>
       <c r="Q59" s="13" t="s">
+        <v>436</v>
+      </c>
+      <c r="R59" s="13"/>
+      <c r="S59" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="T59" s="13" t="s">
+        <v>438</v>
+      </c>
+      <c r="U59" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="R59" s="13"/>
-      <c r="T59" s="13"/>
-    </row>
-    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="60" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
         <v>440</v>
       </c>
       <c r="B60" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="C60" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="C60" s="2" t="s">
+      <c r="D60" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="D60" s="2" t="s">
+      <c r="E60" s="2" t="s">
         <v>443</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>444</v>
       </c>
       <c r="F60" s="12"/>
       <c r="G60" s="3" t="s">
@@ -5290,85 +5441,90 @@
         <v>28</v>
       </c>
       <c r="I60" s="3" t="s">
-        <v>157</v>
+        <v>107</v>
+      </c>
+      <c r="K60" s="4" t="s">
+        <v>444</v>
       </c>
       <c r="L60" s="4" t="s">
-        <v>84</v>
+        <v>28</v>
+      </c>
+      <c r="M60" s="4" t="s">
+        <v>445</v>
       </c>
       <c r="Q60" s="13" t="s">
-        <v>445</v>
-      </c>
-      <c r="R60" s="13"/>
+        <v>446</v>
+      </c>
+      <c r="R60" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="S60" s="1" t="s">
+        <v>448</v>
+      </c>
       <c r="T60" s="13" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="U60" s="1" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>441</v>
+        <v>390</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>449</v>
+        <v>398</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>451</v>
-      </c>
-      <c r="F61" s="12"/>
+        <v>453</v>
+      </c>
+      <c r="F61" s="18" t="n">
+        <v>45630</v>
+      </c>
       <c r="G61" s="3" t="s">
-        <v>51</v>
+        <v>100</v>
       </c>
       <c r="H61" s="3" t="s">
         <v>28</v>
       </c>
       <c r="I61" s="3" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="J61" s="3" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="L61" s="4" t="s">
         <v>84</v>
       </c>
       <c r="Q61" s="13" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="R61" s="13"/>
-      <c r="S61" s="1" t="s">
-        <v>454</v>
-      </c>
-      <c r="T61" s="13" t="s">
-        <v>455</v>
-      </c>
-      <c r="U61" s="13"/>
-    </row>
-    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="T61" s="13"/>
+    </row>
+    <row r="62" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
         <v>456</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>441</v>
+        <v>457</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="F62" s="12" t="s">
         <v>460</v>
       </c>
+      <c r="F62" s="12"/>
       <c r="G62" s="3" t="s">
         <v>51</v>
       </c>
@@ -5376,46 +5532,37 @@
         <v>28</v>
       </c>
       <c r="I62" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="K62" s="4" t="s">
-        <v>461</v>
+        <v>164</v>
       </c>
       <c r="L62" s="4" t="s">
         <v>84</v>
       </c>
       <c r="Q62" s="13" t="s">
+        <v>461</v>
+      </c>
+      <c r="R62" s="13"/>
+      <c r="T62" s="13" t="s">
         <v>462</v>
       </c>
-      <c r="R62" s="13"/>
-      <c r="S62" s="1" t="s">
+      <c r="U62" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="T62" s="13" t="s">
+    </row>
+    <row r="63" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="U62" s="1" t="s">
+      <c r="B63" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="C63" s="2" t="s">
         <v>465</v>
       </c>
-      <c r="V62" s="1" t="s">
+      <c r="D63" s="2" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="1" t="s">
+      <c r="E63" s="2" t="s">
         <v>467</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>469</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>467</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>470</v>
       </c>
       <c r="F63" s="12"/>
       <c r="G63" s="3" t="s">
@@ -5425,54 +5572,45 @@
         <v>28</v>
       </c>
       <c r="I63" s="3" t="s">
-        <v>107</v>
+        <v>164</v>
       </c>
       <c r="J63" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="K63" s="4" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="L63" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="M63" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="N63" s="5" t="s">
-        <v>472</v>
+        <v>84</v>
       </c>
       <c r="Q63" s="13" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="R63" s="13"/>
       <c r="S63" s="1" t="s">
-        <v>279</v>
+        <v>470</v>
       </c>
       <c r="T63" s="13" t="s">
+        <v>471</v>
+      </c>
+      <c r="U63" s="13"/>
+    </row>
+    <row r="64" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="D64" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="U63" s="1" t="s">
+      <c r="E64" s="2" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="1" t="s">
+      <c r="F64" s="12" t="s">
         <v>476</v>
       </c>
-      <c r="B64" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>477</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>476</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>478</v>
-      </c>
-      <c r="F64" s="12"/>
       <c r="G64" s="3" t="s">
         <v>51</v>
       </c>
@@ -5482,31 +5620,44 @@
       <c r="I64" s="3" t="s">
         <v>107</v>
       </c>
+      <c r="K64" s="4" t="s">
+        <v>477</v>
+      </c>
       <c r="L64" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="Q64" s="1" t="s">
+      <c r="Q64" s="13" t="s">
+        <v>478</v>
+      </c>
+      <c r="R64" s="13"/>
+      <c r="S64" s="1" t="s">
         <v>479</v>
       </c>
+      <c r="T64" s="13" t="s">
+        <v>480</v>
+      </c>
+      <c r="U64" s="1" t="s">
+        <v>481</v>
+      </c>
       <c r="V64" s="1" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>468</v>
+        <v>484</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>483</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="F65" s="12"/>
       <c r="G65" s="3" t="s">
@@ -5518,50 +5669,54 @@
       <c r="I65" s="3" t="s">
         <v>107</v>
       </c>
+      <c r="J65" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="K65" s="4" t="s">
+        <v>487</v>
+      </c>
       <c r="L65" s="4" t="s">
         <v>28</v>
       </c>
       <c r="M65" s="4" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="N65" s="5" t="s">
-        <v>472</v>
+        <v>488</v>
       </c>
       <c r="Q65" s="13" t="s">
-        <v>485</v>
-      </c>
+        <v>489</v>
+      </c>
+      <c r="R65" s="13"/>
       <c r="S65" s="1" t="s">
-        <v>486</v>
+        <v>286</v>
       </c>
       <c r="T65" s="13" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="U65" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="V65" s="1" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>468</v>
+        <v>484</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>492</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="F66" s="12"/>
       <c r="G66" s="3" t="s">
-        <v>494</v>
+        <v>51</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>28</v>
@@ -5570,43 +5725,32 @@
         <v>107</v>
       </c>
       <c r="L66" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="M66" s="4" t="s">
-        <v>146</v>
+        <v>84</v>
       </c>
       <c r="Q66" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="S66" s="1" t="s">
+      <c r="V66" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="T66" s="1" t="s">
+    </row>
+    <row r="67" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="U66" s="1" t="s">
+      <c r="B67" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="C67" s="2" t="s">
         <v>498</v>
       </c>
-    </row>
-    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="1" t="s">
+      <c r="D67" s="2" t="s">
         <v>499</v>
       </c>
-      <c r="B67" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>477</v>
-      </c>
-      <c r="D67" s="2" t="s">
+      <c r="E67" s="2" t="s">
         <v>500</v>
       </c>
-      <c r="E67" s="2" t="s">
-        <v>501</v>
-      </c>
-      <c r="F67" s="18" t="n">
-        <v>45235</v>
-      </c>
+      <c r="F67" s="12"/>
       <c r="G67" s="3" t="s">
         <v>51</v>
       </c>
@@ -5614,24 +5758,30 @@
         <v>28</v>
       </c>
       <c r="I67" s="3" t="s">
-        <v>157</v>
+        <v>107</v>
       </c>
       <c r="L67" s="4" t="s">
-        <v>84</v>
+        <v>28</v>
+      </c>
+      <c r="M67" s="4" t="s">
+        <v>284</v>
       </c>
       <c r="N67" s="5" t="s">
-        <v>472</v>
-      </c>
-      <c r="Q67" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="Q67" s="13" t="s">
+        <v>501</v>
+      </c>
+      <c r="S67" s="1" t="s">
         <v>502</v>
       </c>
-      <c r="S67" s="1" t="s">
+      <c r="T67" s="13" t="s">
         <v>503</v>
       </c>
-      <c r="T67" s="1" t="s">
+      <c r="U67" s="1" t="s">
         <v>504</v>
       </c>
-      <c r="U67" s="1" t="s">
+      <c r="V67" s="1" t="s">
         <v>505</v>
       </c>
     </row>
@@ -5640,51 +5790,94 @@
         <v>506</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>23</v>
+        <v>484</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>69</v>
+        <v>507</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>507</v>
-      </c>
+        <v>509</v>
+      </c>
+      <c r="F68" s="12"/>
       <c r="G68" s="3" t="s">
-        <v>93</v>
+        <v>510</v>
       </c>
       <c r="H68" s="3" t="s">
         <v>28</v>
       </c>
       <c r="I68" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J68" s="3" t="s">
-        <v>351</v>
+        <v>107</v>
       </c>
       <c r="L68" s="4" t="s">
         <v>28</v>
       </c>
       <c r="M68" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="O68" s="1" t="s">
-        <v>33</v>
+        <v>146</v>
       </c>
       <c r="Q68" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="R68" s="1" t="s">
-        <v>509</v>
+        <v>511</v>
+      </c>
+      <c r="S68" s="1" t="s">
+        <v>512</v>
       </c>
       <c r="T68" s="1" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="U68" s="1" t="s">
-        <v>511</v>
-      </c>
-    </row>
+        <v>514</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="F69" s="18" t="n">
+        <v>45235</v>
+      </c>
+      <c r="G69" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H69" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I69" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="L69" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="N69" s="5" t="s">
+        <v>488</v>
+      </c>
+      <c r="Q69" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="S69" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="T69" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="U69" s="1" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="Q2" r:id="rId1" display="https://cds.climate.copernicus.eu"/>
@@ -5703,67 +5896,68 @@
     <hyperlink ref="T17" r:id="rId14" display="https://doi.org/10.5194/gmd-10-1903-2017"/>
     <hyperlink ref="Q18" r:id="rId15" display="https://conservancy.umn.edu/handle/11299/197613"/>
     <hyperlink ref="T18" r:id="rId16" display="https://doi.org/10.1029/2018GB005990"/>
-    <hyperlink ref="Q19" r:id="rId17" display="https://www.bafg.de/GRDC/EN/Home/homepage_node.html"/>
-    <hyperlink ref="T22" r:id="rId18" display="https://dx.doi.org/10.1038/ncomms13603"/>
-    <hyperlink ref="Q24" r:id="rId19" display="https://treenet.info/"/>
-    <hyperlink ref="T24" r:id="rId20" display="https://doi.org/10.3389/ffgc.2021.776905"/>
-    <hyperlink ref="Q25" r:id="rId21" display="https://www.ncei.noaa.gov/products/paleoclimatology"/>
-    <hyperlink ref="Q26" r:id="rId22" display="https://www.try-db.org/TryWeb/Home.php"/>
-    <hyperlink ref="T26" r:id="rId23" display="https://doi.org/10.1111/j.1365-2486.2011.02451.x"/>
-    <hyperlink ref="Q27" r:id="rId24" display="https://roots.ornl.gov/"/>
-    <hyperlink ref="T27" r:id="rId25" display="https://doi.org/10.1111/nph.14486"/>
-    <hyperlink ref="Q28" r:id="rId26" display="https://xylemfunctionaltraits.org/"/>
-    <hyperlink ref="Q29" r:id="rId27" display="https://pasta.lternet.edu/package/metadata/eml/knb-lter-hfr/426/1"/>
-    <hyperlink ref="T29" r:id="rId28" display="https://doi.org/10.1111/nph.18031"/>
-    <hyperlink ref="T30" r:id="rId29" display="https://doi.org/10.1111/jbi.13623"/>
-    <hyperlink ref="T31" r:id="rId30" display="https://doi.org/10.1111/geb.13799"/>
-    <hyperlink ref="T32" r:id="rId31" display="https://doi.org/10.1038/s41597-022-01626-6"/>
-    <hyperlink ref="Q33" r:id="rId32" display="https://github.com/TundraTraitTeam/TraitHub"/>
-    <hyperlink ref="T33" r:id="rId33" display="https://doi.org/10.1111/geb.12821"/>
-    <hyperlink ref="Q34" r:id="rId34" display="https://doi.org/10.6084/m9.figshare.14545755"/>
-    <hyperlink ref="T34" r:id="rId35" display="https://doi.org/10.1038/s41597-021-01006-6"/>
-    <hyperlink ref="Q35" r:id="rId36" display="https://doi.org/10.6084/m9.figshare.c.3843841.v1"/>
-    <hyperlink ref="T35" r:id="rId37" display="https://doi.org/10.1038/sdata.2018.135"/>
-    <hyperlink ref="Q36" r:id="rId38" display="https://doi.org/10.6084/m9.figshare.19448219.v6"/>
-    <hyperlink ref="T36" r:id="rId39" display="https://doi.org/10.1038/s41597-022-01884-4"/>
-    <hyperlink ref="Q37" r:id="rId40" display="https://www.idiv.de/de/splot.html"/>
-    <hyperlink ref="Q38" r:id="rId41" display="https://doi.org/10.25829/idiv.3474-40-3292"/>
-    <hyperlink ref="T38" r:id="rId42" display="https://doi.org/10.1111/geb.13346"/>
-    <hyperlink ref="Q39" r:id="rId43" display="https://lotvs.csic.es/"/>
-    <hyperlink ref="T39" r:id="rId44" display="https://www.biorxiv.org/content/10.1101/2021.09.29.462383v1.full"/>
-    <hyperlink ref="Q40" r:id="rId45" display="https://doi.org/10.5281/zenodo.6567608"/>
-    <hyperlink ref="T40" r:id="rId46" display="https://doi.org/10.1002/ecy.3923"/>
-    <hyperlink ref="Q41" r:id="rId47" display="https://gfbinitiative.net/"/>
-    <hyperlink ref="Q42" r:id="rId48" display="http://icp-forests.net/"/>
-    <hyperlink ref="T43" r:id="rId49" display="https://doi.org/10.1016/j.srs.2020.100002"/>
-    <hyperlink ref="Q46" r:id="rId50" display="http://sapfluxnet.creaf.cat/"/>
-    <hyperlink ref="T46" r:id="rId51" display="https://doi.org/10.5194/essd-13-2607-2021"/>
-    <hyperlink ref="Q50" r:id="rId52" location="/home" display="https://data.isric.org/geonetwork/srv/eng/catalog.search#/home"/>
-    <hyperlink ref="T50" r:id="rId53" display="https://doi.org/10.5194/essd-9-1-2017"/>
-    <hyperlink ref="Q51" r:id="rId54" display="https://www.fao.org/soils-portal/data-hub/soil-maps-and-databases/harmonized-world-soil-database-v12/en/"/>
-    <hyperlink ref="Q52" r:id="rId55" display="https://soilgrids.org/"/>
-    <hyperlink ref="Q53" r:id="rId56" display="https://www.isric.org/explore/wise-databases"/>
-    <hyperlink ref="T53" r:id="rId57" display="https://doi.org/10.1016/j.geoderma.2016.01.034"/>
-    <hyperlink ref="Q54" r:id="rId58" display="http://globalchange.bnu.edu.cn/research/data"/>
-    <hyperlink ref="T54" r:id="rId59" display="http://doi.wiley.com/10.1002/2013MS000293"/>
-    <hyperlink ref="Q55" r:id="rId60" display="https://www.futurewater.eu/projects/hihydrosoil/"/>
-    <hyperlink ref="Q56" r:id="rId61" display="https://doi.pangaea.de/10.1594/PANGAEA.884517"/>
-    <hyperlink ref="T56" r:id="rId62" display="https://doi.org/10.1594/PANGAEA.884514"/>
-    <hyperlink ref="U56" r:id="rId63" display="https://doi.org/10.1594/PANGAEA.884514"/>
-    <hyperlink ref="Q57" r:id="rId64" display="https://ismn.earth/en/"/>
-    <hyperlink ref="T57" r:id="rId65" display="https://doi.org/10.5194/hess-2021-2"/>
-    <hyperlink ref="Q58" r:id="rId66" display="https://doi.org/10.3334/ORNLDAAC/1827"/>
-    <hyperlink ref="T58" r:id="rId67" display="https://10.5194/bg-7-1915-2010"/>
-    <hyperlink ref="Q59" r:id="rId68" display="https://icgc.cat/Administracio-i-empresa/Descarregues/Cartografia-geologica-i-geotematica/Cartografia-de-sols/Mapa-de-sols-1-25.000-continu"/>
-    <hyperlink ref="Q60" r:id="rId69" display="https://doi.pangaea.de/10.1594/PANGAEA.788537"/>
-    <hyperlink ref="T60" r:id="rId70" display="https://doi.org/10.1029/2012GC004370"/>
-    <hyperlink ref="Q61" r:id="rId71" display="https://dataverse.scholarsportal.info/dataset.xhtml"/>
-    <hyperlink ref="T61" r:id="rId72" display="https://doi.org/10.1002/2017GL075860"/>
-    <hyperlink ref="T62" r:id="rId73" display="https://doi.org/10.1016/j.cageo.2014.07.020"/>
-    <hyperlink ref="Q63" r:id="rId74" display="https://biotime.st-andrews.ac.uk/"/>
-    <hyperlink ref="T63" r:id="rId75" display="https://doi.org/10.1111/geb.12729"/>
-    <hyperlink ref="Q65" r:id="rId76" display="https://compadre-db.org/"/>
-    <hyperlink ref="T65" r:id="rId77" display="https://doi.org/10.1111/1365-2745.12334"/>
+    <hyperlink ref="Q20" r:id="rId17" display="https://www.bafg.de/GRDC/EN/Home/homepage_node.html"/>
+    <hyperlink ref="T23" r:id="rId18" display="https://dx.doi.org/10.1038/ncomms13603"/>
+    <hyperlink ref="Q25" r:id="rId19" display="https://treenet.info/"/>
+    <hyperlink ref="T25" r:id="rId20" display="https://doi.org/10.3389/ffgc.2021.776905"/>
+    <hyperlink ref="Q26" r:id="rId21" display="https://www.ncei.noaa.gov/products/paleoclimatology"/>
+    <hyperlink ref="Q27" r:id="rId22" display="https://www.try-db.org/TryWeb/Home.php"/>
+    <hyperlink ref="T27" r:id="rId23" display="https://doi.org/10.1111/j.1365-2486.2011.02451.x"/>
+    <hyperlink ref="Q28" r:id="rId24" display="https://roots.ornl.gov/"/>
+    <hyperlink ref="T28" r:id="rId25" display="https://doi.org/10.1111/nph.14486"/>
+    <hyperlink ref="Q29" r:id="rId26" display="https://xylemfunctionaltraits.org/"/>
+    <hyperlink ref="Q30" r:id="rId27" display="https://pasta.lternet.edu/package/metadata/eml/knb-lter-hfr/426/1"/>
+    <hyperlink ref="T30" r:id="rId28" display="https://doi.org/10.1111/nph.18031"/>
+    <hyperlink ref="T31" r:id="rId29" display="https://doi.org/10.1111/jbi.13623"/>
+    <hyperlink ref="T32" r:id="rId30" display="https://doi.org/10.1111/geb.13799"/>
+    <hyperlink ref="T33" r:id="rId31" display="https://doi.org/10.1038/s41597-022-01626-6"/>
+    <hyperlink ref="Q34" r:id="rId32" display="https://github.com/TundraTraitTeam/TraitHub"/>
+    <hyperlink ref="T34" r:id="rId33" display="https://doi.org/10.1111/geb.12821"/>
+    <hyperlink ref="Q35" r:id="rId34" display="https://doi.org/10.6084/m9.figshare.14545755"/>
+    <hyperlink ref="T35" r:id="rId35" display="https://doi.org/10.1038/s41597-021-01006-6"/>
+    <hyperlink ref="Q36" r:id="rId36" display="https://doi.org/10.6084/m9.figshare.c.3843841.v1"/>
+    <hyperlink ref="T36" r:id="rId37" display="https://doi.org/10.1038/sdata.2018.135"/>
+    <hyperlink ref="Q37" r:id="rId38" display="https://doi.org/10.6084/m9.figshare.19448219.v6"/>
+    <hyperlink ref="T37" r:id="rId39" display="https://doi.org/10.1038/s41597-022-01884-4"/>
+    <hyperlink ref="Q38" r:id="rId40" display="https://www.idiv.de/de/splot.html"/>
+    <hyperlink ref="Q39" r:id="rId41" display="https://doi.org/10.25829/idiv.3474-40-3292"/>
+    <hyperlink ref="T39" r:id="rId42" display="https://doi.org/10.1111/geb.13346"/>
+    <hyperlink ref="Q40" r:id="rId43" display="https://lotvs.csic.es/"/>
+    <hyperlink ref="T40" r:id="rId44" display="https://www.biorxiv.org/content/10.1101/2021.09.29.462383v1.full"/>
+    <hyperlink ref="Q41" r:id="rId45" display="https://doi.org/10.5281/zenodo.6567608"/>
+    <hyperlink ref="T41" r:id="rId46" display="https://doi.org/10.1002/ecy.3923"/>
+    <hyperlink ref="Q42" r:id="rId47" display="https://gfbinitiative.net/"/>
+    <hyperlink ref="Q43" r:id="rId48" display="http://icp-forests.net/"/>
+    <hyperlink ref="T44" r:id="rId49" display="https://doi.org/10.1016/j.srs.2020.100002"/>
+    <hyperlink ref="Q47" r:id="rId50" display="http://sapfluxnet.creaf.cat/"/>
+    <hyperlink ref="T47" r:id="rId51" display="https://doi.org/10.5194/essd-13-2607-2021"/>
+    <hyperlink ref="T51" r:id="rId52" display="https://doi.org/10.1126/sciadv.adh4097"/>
+    <hyperlink ref="Q52" r:id="rId53" location="/home" display="https://data.isric.org/geonetwork/srv/eng/catalog.search#/home"/>
+    <hyperlink ref="T52" r:id="rId54" display="https://doi.org/10.5194/essd-9-1-2017"/>
+    <hyperlink ref="Q53" r:id="rId55" display="https://www.fao.org/soils-portal/data-hub/soil-maps-and-databases/harmonized-world-soil-database-v12/en/"/>
+    <hyperlink ref="Q54" r:id="rId56" display="https://soilgrids.org/"/>
+    <hyperlink ref="Q55" r:id="rId57" display="https://www.isric.org/explore/wise-databases"/>
+    <hyperlink ref="T55" r:id="rId58" display="https://doi.org/10.1016/j.geoderma.2016.01.034"/>
+    <hyperlink ref="Q56" r:id="rId59" display="http://globalchange.bnu.edu.cn/research/data"/>
+    <hyperlink ref="T56" r:id="rId60" display="http://doi.wiley.com/10.1002/2013MS000293"/>
+    <hyperlink ref="Q57" r:id="rId61" display="https://www.futurewater.eu/projects/hihydrosoil/"/>
+    <hyperlink ref="Q58" r:id="rId62" display="https://doi.pangaea.de/10.1594/PANGAEA.884517"/>
+    <hyperlink ref="T58" r:id="rId63" display="https://doi.org/10.1594/PANGAEA.884514"/>
+    <hyperlink ref="U58" r:id="rId64" display="Llorente, Mireia; Rovira, Pere; Merino, Agustín; Rubio, Agustín; Turrión, MaBelén; Badía, David; Romanya, Joan; González, Jordi Cortina José Antonio (2018): Physical and chemical characteristics of soil horizons from the CARBOSOL Database of Spain. https://doi.org/10.1594/PANGAEA.884514"/>
+    <hyperlink ref="Q59" r:id="rId65" display="https://ismn.earth/en/"/>
+    <hyperlink ref="T59" r:id="rId66" display="https://doi.org/10.5194/hess-2021-2"/>
+    <hyperlink ref="Q60" r:id="rId67" display="https://doi.org/10.3334/ORNLDAAC/1827"/>
+    <hyperlink ref="T60" r:id="rId68" display="https://10.5194/bg-7-1915-2010"/>
+    <hyperlink ref="Q61" r:id="rId69" display="https://icgc.cat/Administracio-i-empresa/Descarregues/Cartografia-geologica-i-geotematica/Cartografia-de-sols/Mapa-de-sols-1-25.000-continu"/>
+    <hyperlink ref="Q62" r:id="rId70" display="https://doi.pangaea.de/10.1594/PANGAEA.788537"/>
+    <hyperlink ref="T62" r:id="rId71" display="https://doi.org/10.1029/2012GC004370"/>
+    <hyperlink ref="Q63" r:id="rId72" display="https://dataverse.scholarsportal.info/dataset.xhtml"/>
+    <hyperlink ref="T63" r:id="rId73" display="https://doi.org/10.1002/2017GL075860"/>
+    <hyperlink ref="T64" r:id="rId74" display="https://doi.org/10.1016/j.cageo.2014.07.020"/>
+    <hyperlink ref="Q65" r:id="rId75" display="https://biotime.st-andrews.ac.uk/"/>
+    <hyperlink ref="T65" r:id="rId76" display="https://doi.org/10.1111/geb.12729"/>
+    <hyperlink ref="Q67" r:id="rId77" display="https://compadre-db.org/"/>
+    <hyperlink ref="T67" r:id="rId78" display="https://doi.org/10.1111/1365-2745.12334"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -5776,7 +5970,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -5786,22 +5980,22 @@
       <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>512</v>
+        <v>522</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>514</v>
+        <v>524</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>515</v>
+        <v>525</v>
       </c>
     </row>
   </sheetData>

--- a/ExternalDataSources.xlsx
+++ b/ExternalDataSources.xlsx
@@ -1973,7 +1973,7 @@
     <t xml:space="preserve">10 x 10 km (polygons)</t>
   </si>
   <si>
-    <t xml:space="preserve">https://dataverse.scholarsportal.info/dataset.xhtml</t>
+    <t xml:space="preserve">https://borealisdata.ca/dataset.xhtml?persistentId=doi%3A10.5683/SP2/TTJNIU</t>
   </si>
   <si>
     <t xml:space="preserve">subsurface permeability, subsurface porosity</t>
@@ -2665,13 +2665,13 @@
   </sheetPr>
   <dimension ref="A1:V1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="G23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="C51" activeCellId="0" sqref="C51"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="G37" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
+      <selection pane="bottomLeft" activeCell="Q63" activeCellId="0" sqref="Q63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="25.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="2" width="25.28"/>
@@ -5951,7 +5951,7 @@
     <hyperlink ref="Q61" r:id="rId69" display="https://icgc.cat/Administracio-i-empresa/Descarregues/Cartografia-geologica-i-geotematica/Cartografia-de-sols/Mapa-de-sols-1-25.000-continu"/>
     <hyperlink ref="Q62" r:id="rId70" display="https://doi.pangaea.de/10.1594/PANGAEA.788537"/>
     <hyperlink ref="T62" r:id="rId71" display="https://doi.org/10.1029/2012GC004370"/>
-    <hyperlink ref="Q63" r:id="rId72" display="https://dataverse.scholarsportal.info/dataset.xhtml"/>
+    <hyperlink ref="Q63" r:id="rId72" display="https://borealisdata.ca/dataset.xhtml?persistentId=doi%3A10.5683/SP2/TTJNIU"/>
     <hyperlink ref="T63" r:id="rId73" display="https://doi.org/10.1002/2017GL075860"/>
     <hyperlink ref="T64" r:id="rId74" display="https://doi.org/10.1016/j.cageo.2014.07.020"/>
     <hyperlink ref="Q65" r:id="rId75" display="https://biotime.st-andrews.ac.uk/"/>
@@ -5980,7 +5980,7 @@
       <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="2" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">

--- a/ExternalDataSources.xlsx
+++ b/ExternalDataSources.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="968" uniqueCount="526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="981" uniqueCount="530">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -936,6 +936,18 @@
   </si>
   <si>
     <t xml:space="preserve">Wang, H., Harrison, S.P., Li, M. et al. The China plant trait database version 2. Sci Data 9, 769 (2022)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SeedArc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Global Archive of Primary Seed Geermination data: contains 47,000 germination records from 4500 species</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.unioviedo.es/seedarc/index.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multiple functional and demographic traits</t>
   </si>
   <si>
     <t xml:space="preserve">sPlot</t>
@@ -2663,15 +2675,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V1048576"/>
+  <dimension ref="A1:V70"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="G37" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="Q63" activeCellId="0" sqref="Q63"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="R1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="G29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="R1" activeCellId="0" sqref="R1"/>
+      <selection pane="bottomLeft" activeCell="S38" activeCellId="0" sqref="S38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="25.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="2" width="25.28"/>
@@ -4406,23 +4418,25 @@
       </c>
       <c r="V37" s="20"/>
     </row>
-    <row r="38" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
         <v>281</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>204</v>
+        <v>187</v>
       </c>
       <c r="C38" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="D38" s="16" t="s">
+        <v>281</v>
+      </c>
+      <c r="E38" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="D38" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="F38" s="12"/>
+      <c r="F38" s="21" t="n">
+        <v>45996</v>
+      </c>
       <c r="G38" s="3" t="s">
         <v>51</v>
       </c>
@@ -4432,40 +4446,41 @@
       <c r="I38" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="J38" s="3" t="s">
-        <v>284</v>
-      </c>
       <c r="L38" s="4" t="s">
         <v>84</v>
       </c>
       <c r="N38" s="5" t="s">
         <v>207</v>
       </c>
+      <c r="O38" s="1" t="s">
+        <v>147</v>
+      </c>
       <c r="Q38" s="13" t="s">
-        <v>285</v>
-      </c>
-      <c r="R38" s="13"/>
+        <v>283</v>
+      </c>
+      <c r="R38" s="19"/>
       <c r="S38" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="T38" s="13"/>
-      <c r="U38" s="13"/>
+      <c r="U38" s="22"/>
+      <c r="V38" s="20"/>
     </row>
     <row r="39" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>204</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="D39" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="E39" s="2" t="s">
         <v>287</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>288</v>
       </c>
       <c r="F39" s="12"/>
       <c r="G39" s="3" t="s">
@@ -4478,43 +4493,39 @@
         <v>107</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="K39" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="L39" s="4" t="s">
         <v>84</v>
       </c>
+      <c r="N39" s="5" t="s">
+        <v>207</v>
+      </c>
       <c r="Q39" s="13" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="R39" s="13"/>
       <c r="S39" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="T39" s="13" t="s">
-        <v>291</v>
-      </c>
-      <c r="U39" s="1" t="s">
-        <v>292</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="T39" s="13"/>
+      <c r="U39" s="13"/>
     </row>
     <row r="40" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>204</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="F40" s="12"/>
       <c r="G40" s="3" t="s">
@@ -4526,36 +4537,46 @@
       <c r="I40" s="3" t="s">
         <v>107</v>
       </c>
+      <c r="J40" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="K40" s="4" t="s">
+        <v>293</v>
+      </c>
       <c r="L40" s="4" t="s">
-        <v>28</v>
+        <v>84</v>
       </c>
       <c r="Q40" s="13" t="s">
+        <v>294</v>
+      </c>
+      <c r="R40" s="13"/>
+      <c r="S40" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="T40" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="U40" s="1" t="s">
         <v>296</v>
-      </c>
-      <c r="R40" s="13"/>
-      <c r="T40" s="13" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>204</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="D41" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="E41" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="E41" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="F41" s="18" t="n">
-        <v>45352</v>
-      </c>
+      <c r="F41" s="12"/>
       <c r="G41" s="3" t="s">
         <v>51</v>
       </c>
@@ -4566,42 +4587,35 @@
         <v>107</v>
       </c>
       <c r="L41" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="O41" s="1" t="s">
-        <v>147</v>
+        <v>28</v>
       </c>
       <c r="Q41" s="13" t="s">
+        <v>300</v>
+      </c>
+      <c r="R41" s="13"/>
+      <c r="T41" s="13" t="s">
         <v>301</v>
-      </c>
-      <c r="R41" s="13"/>
-      <c r="S41" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="T41" s="13" t="s">
-        <v>303</v>
-      </c>
-      <c r="U41" s="1" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>204</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>306</v>
+        <v>286</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="F42" s="12"/>
+        <v>304</v>
+      </c>
+      <c r="F42" s="18" t="n">
+        <v>45352</v>
+      </c>
       <c r="G42" s="3" t="s">
         <v>51</v>
       </c>
@@ -4614,31 +4628,42 @@
       <c r="L42" s="4" t="s">
         <v>84</v>
       </c>
+      <c r="O42" s="1" t="s">
+        <v>147</v>
+      </c>
       <c r="Q42" s="13" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="R42" s="13"/>
-      <c r="T42" s="13"/>
+      <c r="S42" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="T42" s="13" t="s">
+        <v>307</v>
+      </c>
+      <c r="U42" s="1" t="s">
+        <v>308</v>
+      </c>
     </row>
     <row r="43" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>204</v>
       </c>
       <c r="C43" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="D43" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="D43" s="2" t="s">
+      <c r="E43" s="2" t="s">
         <v>312</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>313</v>
       </c>
       <c r="F43" s="12"/>
       <c r="G43" s="3" t="s">
-        <v>93</v>
+        <v>51</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>28</v>
@@ -4646,96 +4671,83 @@
       <c r="I43" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="K43" s="4" t="s">
-        <v>314</v>
-      </c>
       <c r="L43" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="M43" s="4" t="s">
-        <v>284</v>
+        <v>84</v>
       </c>
       <c r="Q43" s="13" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="R43" s="13"/>
-      <c r="S43" s="1" t="s">
-        <v>316</v>
-      </c>
       <c r="T43" s="13"/>
-      <c r="V43" s="1" t="s">
-        <v>317</v>
-      </c>
     </row>
     <row r="44" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="F44" s="12"/>
+      <c r="G44" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="K44" s="4" t="s">
         <v>318</v>
       </c>
-      <c r="B44" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="D44" s="2" t="s">
+      <c r="L44" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M44" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="Q44" s="13" t="s">
         <v>319</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="F44" s="14" t="n">
-        <v>44779</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J44" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="L44" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q44" s="13" t="s">
-        <v>322</v>
       </c>
       <c r="R44" s="13"/>
       <c r="S44" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="T44" s="13" t="s">
-        <v>324</v>
-      </c>
-      <c r="U44" s="1" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>320</v>
+      </c>
+      <c r="T44" s="13"/>
+      <c r="V44" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>187</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="F45" s="14" t="s">
-        <v>329</v>
+        <v>324</v>
+      </c>
+      <c r="F45" s="14" t="n">
+        <v>44779</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>330</v>
+        <v>51</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>28</v>
@@ -4744,59 +4756,46 @@
         <v>29</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>331</v>
-      </c>
-      <c r="K45" s="4" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="L45" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="M45" s="4" t="s">
-        <v>333</v>
-      </c>
-      <c r="N45" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="O45" s="1" t="s">
-        <v>147</v>
-      </c>
       <c r="Q45" s="13" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="R45" s="13"/>
       <c r="S45" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="T45" s="13"/>
+        <v>327</v>
+      </c>
+      <c r="T45" s="13" t="s">
+        <v>328</v>
+      </c>
       <c r="U45" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="V45" s="1" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>187</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="D46" s="16" t="s">
-        <v>339</v>
+        <v>315</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>331</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="F46" s="14" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>28</v>
@@ -4804,8 +4803,17 @@
       <c r="I46" s="3" t="s">
         <v>29</v>
       </c>
+      <c r="J46" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="K46" s="4" t="s">
+        <v>336</v>
+      </c>
       <c r="L46" s="4" t="s">
-        <v>84</v>
+        <v>28</v>
+      </c>
+      <c r="M46" s="4" t="s">
+        <v>337</v>
       </c>
       <c r="N46" s="5" t="s">
         <v>207</v>
@@ -4813,86 +4821,86 @@
       <c r="O46" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="P46" s="15" t="s">
-        <v>343</v>
-      </c>
       <c r="Q46" s="13" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="R46" s="13"/>
       <c r="S46" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="T46" s="13"/>
+      <c r="U46" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="V46" s="1" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="D47" s="16" t="s">
+        <v>343</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="F47" s="14" t="s">
         <v>345</v>
       </c>
-      <c r="T46" s="13"/>
-      <c r="V46" s="1"/>
-    </row>
-    <row r="47" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="1" t="s">
+      <c r="G47" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="B47" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="C47" s="2" t="s">
+      <c r="H47" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L47" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="N47" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="O47" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="P47" s="15" t="s">
         <v>347</v>
       </c>
-      <c r="D47" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="E47" s="2" t="s">
+      <c r="Q47" s="13" t="s">
         <v>348</v>
-      </c>
-      <c r="F47" s="12"/>
-      <c r="G47" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="L47" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="M47" s="4" t="s">
-        <v>349</v>
-      </c>
-      <c r="P47" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q47" s="13" t="s">
-        <v>350</v>
       </c>
       <c r="R47" s="13"/>
       <c r="S47" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="T47" s="13" t="s">
-        <v>352</v>
-      </c>
-      <c r="U47" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="V47" s="1" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>349</v>
+      </c>
+      <c r="T47" s="13"/>
+      <c r="V47" s="1"/>
+    </row>
+    <row r="48" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>204</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="F48" s="12"/>
       <c r="G48" s="3" t="s">
@@ -4902,35 +4910,49 @@
         <v>28</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J48" s="3" t="s">
-        <v>154</v>
+        <v>107</v>
       </c>
       <c r="L48" s="4" t="s">
-        <v>84</v>
+        <v>28</v>
+      </c>
+      <c r="M48" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="P48" s="1" t="s">
+        <v>101</v>
       </c>
       <c r="Q48" s="13" t="s">
+        <v>354</v>
+      </c>
+      <c r="R48" s="13"/>
+      <c r="S48" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="T48" s="13" t="s">
+        <v>356</v>
+      </c>
+      <c r="U48" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="V48" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="R48" s="13"/>
-      <c r="T48" s="13"/>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
         <v>359</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>360</v>
       </c>
       <c r="D49" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="E49" s="2" t="s">
         <v>361</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>362</v>
       </c>
       <c r="F49" s="12"/>
       <c r="G49" s="3" t="s">
@@ -4940,112 +4962,93 @@
         <v>28</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="K49" s="4" t="s">
-        <v>363</v>
+        <v>29</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>154</v>
       </c>
       <c r="L49" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="M49" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="N49" s="5" t="s">
-        <v>364</v>
+        <v>84</v>
       </c>
       <c r="Q49" s="13" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="R49" s="13"/>
-      <c r="S49" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="T49" s="13" t="s">
-        <v>367</v>
-      </c>
-      <c r="U49" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="V49" s="20" t="s">
-        <v>369</v>
-      </c>
+      <c r="T49" s="13"/>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>187</v>
       </c>
       <c r="C50" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="F50" s="12"/>
+      <c r="G50" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H50" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I50" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="K50" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="L50" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M50" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="N50" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="Q50" s="13" t="s">
+        <v>369</v>
+      </c>
+      <c r="R50" s="13"/>
+      <c r="S50" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="T50" s="13" t="s">
         <v>371</v>
       </c>
-      <c r="D50" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="E50" s="2" t="s">
+      <c r="U50" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="F50" s="12" t="s">
+      <c r="V50" s="20" t="s">
         <v>373</v>
       </c>
-      <c r="G50" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="H50" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I50" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J50" s="3" t="s">
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="1" t="s">
         <v>374</v>
-      </c>
-      <c r="K50" s="4" t="s">
-        <v>375</v>
-      </c>
-      <c r="L50" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="N50" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="O50" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q50" s="13" t="s">
-        <v>376</v>
-      </c>
-      <c r="R50" s="19" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="T50" s="13" t="s">
-        <v>377</v>
-      </c>
-      <c r="U50" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="V50" s="20"/>
-    </row>
-    <row r="51" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="1" t="s">
-        <v>379</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>187</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>311</v>
+        <v>375</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="F51" s="12" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="G51" s="3" t="s">
         <v>93</v>
@@ -5057,86 +5060,103 @@
         <v>29</v>
       </c>
       <c r="J51" s="3" t="s">
-        <v>383</v>
+        <v>378</v>
+      </c>
+      <c r="K51" s="4" t="s">
+        <v>379</v>
       </c>
       <c r="L51" s="4" t="s">
         <v>84</v>
       </c>
+      <c r="N51" s="5" t="s">
+        <v>207</v>
+      </c>
       <c r="O51" s="1" t="s">
-        <v>63</v>
+        <v>147</v>
       </c>
       <c r="Q51" s="13" t="s">
-        <v>384</v>
-      </c>
-      <c r="R51" s="19" t="s">
-        <v>385</v>
-      </c>
-      <c r="S51" s="1" t="s">
-        <v>386</v>
+        <v>380</v>
+      </c>
+      <c r="R51" s="19" t="n">
+        <v>1.2</v>
       </c>
       <c r="T51" s="13" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="U51" s="1" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="V51" s="20"/>
     </row>
     <row r="52" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>390</v>
+        <v>187</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>391</v>
+        <v>315</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="F52" s="12"/>
+        <v>385</v>
+      </c>
+      <c r="F52" s="12" t="s">
+        <v>386</v>
+      </c>
       <c r="G52" s="3" t="s">
-        <v>51</v>
+        <v>93</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>28</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>107</v>
+        <v>29</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>387</v>
       </c>
       <c r="L52" s="4" t="s">
         <v>84</v>
       </c>
+      <c r="O52" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="Q52" s="13" t="s">
-        <v>394</v>
-      </c>
-      <c r="R52" s="13"/>
+        <v>388</v>
+      </c>
+      <c r="R52" s="19" t="s">
+        <v>389</v>
+      </c>
+      <c r="S52" s="1" t="s">
+        <v>390</v>
+      </c>
       <c r="T52" s="13" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="U52" s="1" t="s">
-        <v>396</v>
-      </c>
+        <v>392</v>
+      </c>
+      <c r="V52" s="20"/>
     </row>
     <row r="53" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="E53" s="2" t="s">
         <v>397</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>400</v>
       </c>
       <c r="F53" s="12"/>
       <c r="G53" s="3" t="s">
@@ -5146,31 +5166,37 @@
         <v>28</v>
       </c>
       <c r="I53" s="3" t="s">
-        <v>29</v>
+        <v>107</v>
       </c>
       <c r="L53" s="4" t="s">
         <v>84</v>
       </c>
       <c r="Q53" s="13" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="R53" s="13"/>
+      <c r="T53" s="13" t="s">
+        <v>399</v>
+      </c>
+      <c r="U53" s="1" t="s">
+        <v>400</v>
+      </c>
     </row>
     <row r="54" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="C54" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="B54" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>398</v>
-      </c>
       <c r="D54" s="2" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="F54" s="12"/>
       <c r="G54" s="3" t="s">
@@ -5182,9 +5208,6 @@
       <c r="I54" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>404</v>
-      </c>
       <c r="L54" s="4" t="s">
         <v>84</v>
       </c>
@@ -5192,25 +5215,22 @@
         <v>405</v>
       </c>
       <c r="R54" s="13"/>
-      <c r="V54" s="1" t="s">
-        <v>406</v>
-      </c>
     </row>
     <row r="55" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="E55" s="2" t="s">
         <v>407</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>408</v>
       </c>
       <c r="F55" s="12"/>
       <c r="G55" s="3" t="s">
@@ -5223,37 +5243,34 @@
         <v>29</v>
       </c>
       <c r="J55" s="3" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="L55" s="4" t="s">
         <v>84</v>
       </c>
       <c r="Q55" s="13" t="s">
+        <v>409</v>
+      </c>
+      <c r="R55" s="13"/>
+      <c r="V55" s="1" t="s">
         <v>410</v>
-      </c>
-      <c r="R55" s="13"/>
-      <c r="S55" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="T55" s="13" t="s">
-        <v>412</v>
-      </c>
-      <c r="U55" s="1" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>415</v>
+        <v>411</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>412</v>
       </c>
       <c r="F56" s="12"/>
       <c r="G56" s="3" t="s">
@@ -5266,40 +5283,37 @@
         <v>29</v>
       </c>
       <c r="J56" s="3" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="L56" s="4" t="s">
         <v>84</v>
       </c>
       <c r="Q56" s="13" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="R56" s="13"/>
       <c r="S56" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="T56" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="U56" s="1" t="s">
         <v>417</v>
-      </c>
-      <c r="T56" s="13" t="s">
-        <v>418</v>
-      </c>
-      <c r="U56" s="1" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>421</v>
+        <v>402</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="F57" s="12"/>
       <c r="G57" s="3" t="s">
@@ -5312,87 +5326,89 @@
         <v>29</v>
       </c>
       <c r="J57" s="3" t="s">
-        <v>52</v>
+        <v>413</v>
       </c>
       <c r="L57" s="4" t="s">
         <v>84</v>
       </c>
       <c r="Q57" s="13" t="s">
+        <v>420</v>
+      </c>
+      <c r="R57" s="13"/>
+      <c r="S57" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="T57" s="13" t="s">
+        <v>422</v>
+      </c>
+      <c r="U57" s="1" t="s">
         <v>423</v>
-      </c>
-      <c r="R57" s="13"/>
-      <c r="U57" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="V57" s="1" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="E58" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="B58" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>421</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>426</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>427</v>
-      </c>
-      <c r="F58" s="21" t="n">
-        <v>45544</v>
-      </c>
+      <c r="F58" s="12"/>
       <c r="G58" s="3" t="s">
-        <v>113</v>
+        <v>51</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>28</v>
       </c>
       <c r="I58" s="3" t="s">
-        <v>107</v>
+        <v>29</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="L58" s="4" t="s">
         <v>84</v>
       </c>
       <c r="Q58" s="13" t="s">
+        <v>427</v>
+      </c>
+      <c r="R58" s="13"/>
+      <c r="U58" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="R58" s="13"/>
-      <c r="S58" s="1" t="s">
+      <c r="V58" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="T58" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="U58" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="V58" s="1"/>
     </row>
     <row r="59" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>435</v>
-      </c>
-      <c r="F59" s="12"/>
+        <v>431</v>
+      </c>
+      <c r="F59" s="21" t="n">
+        <v>45544</v>
+      </c>
       <c r="G59" s="3" t="s">
-        <v>51</v>
+        <v>113</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>28</v>
@@ -5404,34 +5420,35 @@
         <v>84</v>
       </c>
       <c r="Q59" s="13" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="R59" s="13"/>
       <c r="S59" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="T59" s="13" t="s">
-        <v>438</v>
+        <v>433</v>
+      </c>
+      <c r="T59" s="1" t="s">
+        <v>434</v>
       </c>
       <c r="U59" s="1" t="s">
-        <v>439</v>
-      </c>
+        <v>435</v>
+      </c>
+      <c r="V59" s="1"/>
     </row>
     <row r="60" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="F60" s="12"/>
       <c r="G60" s="3" t="s">
@@ -5443,90 +5460,95 @@
       <c r="I60" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="K60" s="4" t="s">
-        <v>444</v>
-      </c>
       <c r="L60" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="M60" s="4" t="s">
-        <v>445</v>
+        <v>84</v>
       </c>
       <c r="Q60" s="13" t="s">
-        <v>446</v>
-      </c>
-      <c r="R60" s="1" t="s">
-        <v>447</v>
-      </c>
+        <v>440</v>
+      </c>
+      <c r="R60" s="13"/>
       <c r="S60" s="1" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="T60" s="13" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="U60" s="1" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="F61" s="12"/>
+      <c r="G61" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H61" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I61" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="K61" s="4" t="s">
+        <v>448</v>
+      </c>
+      <c r="L61" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M61" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="Q61" s="13" t="s">
+        <v>450</v>
+      </c>
+      <c r="R61" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="B61" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="D61" s="2" t="s">
+      <c r="S61" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="E61" s="2" t="s">
+      <c r="T61" s="13" t="s">
         <v>453</v>
       </c>
-      <c r="F61" s="18" t="n">
-        <v>45630</v>
-      </c>
-      <c r="G61" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="H61" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I61" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="J61" s="3" t="s">
+      <c r="U61" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="L61" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q61" s="13" t="s">
-        <v>455</v>
-      </c>
-      <c r="R61" s="13"/>
-      <c r="T61" s="13"/>
     </row>
     <row r="62" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="D62" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="E62" s="2" t="s">
         <v>457</v>
       </c>
-      <c r="C62" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>460</v>
-      </c>
-      <c r="F62" s="12"/>
+      <c r="F62" s="18" t="n">
+        <v>45630</v>
+      </c>
       <c r="G62" s="3" t="s">
-        <v>51</v>
+        <v>100</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>28</v>
@@ -5534,35 +5556,33 @@
       <c r="I62" s="3" t="s">
         <v>164</v>
       </c>
+      <c r="J62" s="3" t="s">
+        <v>458</v>
+      </c>
       <c r="L62" s="4" t="s">
         <v>84</v>
       </c>
       <c r="Q62" s="13" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="R62" s="13"/>
-      <c r="T62" s="13" t="s">
-        <v>462</v>
-      </c>
-      <c r="U62" s="1" t="s">
-        <v>463</v>
-      </c>
+      <c r="T62" s="13"/>
     </row>
     <row r="63" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="E63" s="2" t="s">
         <v>464</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>457</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>465</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>467</v>
       </c>
       <c r="F63" s="12"/>
       <c r="G63" s="3" t="s">
@@ -5574,43 +5594,37 @@
       <c r="I63" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="J63" s="3" t="s">
-        <v>468</v>
-      </c>
       <c r="L63" s="4" t="s">
         <v>84</v>
       </c>
       <c r="Q63" s="13" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="R63" s="13"/>
-      <c r="S63" s="1" t="s">
-        <v>470</v>
-      </c>
       <c r="T63" s="13" t="s">
-        <v>471</v>
-      </c>
-      <c r="U63" s="13"/>
+        <v>466</v>
+      </c>
+      <c r="U63" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="64" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>475</v>
-      </c>
-      <c r="F64" s="12" t="s">
-        <v>476</v>
-      </c>
+        <v>471</v>
+      </c>
+      <c r="F64" s="12"/>
       <c r="G64" s="3" t="s">
         <v>51</v>
       </c>
@@ -5618,48 +5632,45 @@
         <v>28</v>
       </c>
       <c r="I64" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="K64" s="4" t="s">
-        <v>477</v>
+        <v>164</v>
+      </c>
+      <c r="J64" s="3" t="s">
+        <v>472</v>
       </c>
       <c r="L64" s="4" t="s">
         <v>84</v>
       </c>
       <c r="Q64" s="13" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="R64" s="13"/>
       <c r="S64" s="1" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="T64" s="13" t="s">
-        <v>480</v>
-      </c>
-      <c r="U64" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="V64" s="1" t="s">
-        <v>482</v>
-      </c>
+        <v>475</v>
+      </c>
+      <c r="U64" s="13"/>
     </row>
     <row r="65" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>484</v>
+        <v>461</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>486</v>
-      </c>
-      <c r="F65" s="12"/>
+        <v>479</v>
+      </c>
+      <c r="F65" s="12" t="s">
+        <v>480</v>
+      </c>
       <c r="G65" s="3" t="s">
         <v>51</v>
       </c>
@@ -5669,50 +5680,44 @@
       <c r="I65" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="J65" s="3" t="s">
-        <v>284</v>
-      </c>
       <c r="K65" s="4" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="L65" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="M65" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="N65" s="5" t="s">
-        <v>488</v>
+        <v>84</v>
       </c>
       <c r="Q65" s="13" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="R65" s="13"/>
       <c r="S65" s="1" t="s">
-        <v>286</v>
+        <v>483</v>
       </c>
       <c r="T65" s="13" t="s">
+        <v>484</v>
+      </c>
+      <c r="U65" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="V65" s="1" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="E66" s="2" t="s">
         <v>490</v>
-      </c>
-      <c r="U65" s="1" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="1" t="s">
-        <v>492</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>484</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>493</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>492</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>494</v>
       </c>
       <c r="F66" s="12"/>
       <c r="G66" s="3" t="s">
@@ -5724,31 +5729,50 @@
       <c r="I66" s="3" t="s">
         <v>107</v>
       </c>
+      <c r="J66" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="K66" s="4" t="s">
+        <v>491</v>
+      </c>
       <c r="L66" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q66" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M66" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="N66" s="5" t="s">
+        <v>492</v>
+      </c>
+      <c r="Q66" s="13" t="s">
+        <v>493</v>
+      </c>
+      <c r="R66" s="13"/>
+      <c r="S66" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="T66" s="13" t="s">
+        <v>494</v>
+      </c>
+      <c r="U66" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="V66" s="1" t="s">
+    </row>
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="1" t="s">
         <v>496</v>
       </c>
-    </row>
-    <row r="67" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="1" t="s">
+      <c r="B67" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="C67" s="2" t="s">
         <v>497</v>
       </c>
-      <c r="B67" s="2" t="s">
-        <v>484</v>
-      </c>
-      <c r="C67" s="2" t="s">
+      <c r="D67" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="E67" s="2" t="s">
         <v>498</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>499</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>500</v>
       </c>
       <c r="F67" s="12"/>
       <c r="G67" s="3" t="s">
@@ -5761,49 +5785,34 @@
         <v>107</v>
       </c>
       <c r="L67" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="M67" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="N67" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q67" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="V67" s="1" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="B68" s="2" t="s">
         <v>488</v>
       </c>
-      <c r="Q67" s="13" t="s">
-        <v>501</v>
-      </c>
-      <c r="S67" s="1" t="s">
+      <c r="C68" s="2" t="s">
         <v>502</v>
       </c>
-      <c r="T67" s="13" t="s">
+      <c r="D68" s="2" t="s">
         <v>503</v>
       </c>
-      <c r="U67" s="1" t="s">
+      <c r="E68" s="2" t="s">
         <v>504</v>
-      </c>
-      <c r="V67" s="1" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>484</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>507</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>508</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>509</v>
       </c>
       <c r="F68" s="12"/>
       <c r="G68" s="3" t="s">
-        <v>510</v>
+        <v>51</v>
       </c>
       <c r="H68" s="3" t="s">
         <v>28</v>
@@ -5815,69 +5824,119 @@
         <v>28</v>
       </c>
       <c r="M68" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q68" s="1" t="s">
-        <v>511</v>
+        <v>288</v>
+      </c>
+      <c r="N68" s="5" t="s">
+        <v>492</v>
+      </c>
+      <c r="Q68" s="13" t="s">
+        <v>505</v>
       </c>
       <c r="S68" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="T68" s="1" t="s">
-        <v>513</v>
+        <v>506</v>
+      </c>
+      <c r="T68" s="13" t="s">
+        <v>507</v>
       </c>
       <c r="U68" s="1" t="s">
-        <v>514</v>
+        <v>508</v>
+      </c>
+      <c r="V68" s="1" t="s">
+        <v>509</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="F69" s="12"/>
+      <c r="G69" s="3" t="s">
+        <v>514</v>
+      </c>
+      <c r="H69" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I69" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="L69" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M69" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q69" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="B69" s="2" t="s">
-        <v>484</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>493</v>
-      </c>
-      <c r="D69" s="2" t="s">
+      <c r="S69" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="E69" s="2" t="s">
+      <c r="T69" s="1" t="s">
         <v>517</v>
       </c>
-      <c r="F69" s="18" t="n">
+      <c r="U69" s="1" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="F70" s="18" t="n">
         <v>45235</v>
       </c>
-      <c r="G69" s="3" t="s">
+      <c r="G70" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="H69" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I69" s="3" t="s">
+      <c r="H70" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I70" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="L69" s="4" t="s">
+      <c r="L70" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="N69" s="5" t="s">
-        <v>488</v>
-      </c>
-      <c r="Q69" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="S69" s="1" t="s">
-        <v>519</v>
-      </c>
-      <c r="T69" s="1" t="s">
-        <v>520</v>
-      </c>
-      <c r="U69" s="1" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="N70" s="5" t="s">
+        <v>492</v>
+      </c>
+      <c r="Q70" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="S70" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="T70" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="U70" s="1" t="s">
+        <v>525</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="Q2" r:id="rId1" display="https://cds.climate.copernicus.eu"/>
@@ -5919,45 +5978,45 @@
     <hyperlink ref="T36" r:id="rId37" display="https://doi.org/10.1038/sdata.2018.135"/>
     <hyperlink ref="Q37" r:id="rId38" display="https://doi.org/10.6084/m9.figshare.19448219.v6"/>
     <hyperlink ref="T37" r:id="rId39" display="https://doi.org/10.1038/s41597-022-01884-4"/>
-    <hyperlink ref="Q38" r:id="rId40" display="https://www.idiv.de/de/splot.html"/>
-    <hyperlink ref="Q39" r:id="rId41" display="https://doi.org/10.25829/idiv.3474-40-3292"/>
-    <hyperlink ref="T39" r:id="rId42" display="https://doi.org/10.1111/geb.13346"/>
-    <hyperlink ref="Q40" r:id="rId43" display="https://lotvs.csic.es/"/>
-    <hyperlink ref="T40" r:id="rId44" display="https://www.biorxiv.org/content/10.1101/2021.09.29.462383v1.full"/>
-    <hyperlink ref="Q41" r:id="rId45" display="https://doi.org/10.5281/zenodo.6567608"/>
-    <hyperlink ref="T41" r:id="rId46" display="https://doi.org/10.1002/ecy.3923"/>
-    <hyperlink ref="Q42" r:id="rId47" display="https://gfbinitiative.net/"/>
-    <hyperlink ref="Q43" r:id="rId48" display="http://icp-forests.net/"/>
-    <hyperlink ref="T44" r:id="rId49" display="https://doi.org/10.1016/j.srs.2020.100002"/>
-    <hyperlink ref="Q47" r:id="rId50" display="http://sapfluxnet.creaf.cat/"/>
-    <hyperlink ref="T47" r:id="rId51" display="https://doi.org/10.5194/essd-13-2607-2021"/>
-    <hyperlink ref="T51" r:id="rId52" display="https://doi.org/10.1126/sciadv.adh4097"/>
-    <hyperlink ref="Q52" r:id="rId53" location="/home" display="https://data.isric.org/geonetwork/srv/eng/catalog.search#/home"/>
-    <hyperlink ref="T52" r:id="rId54" display="https://doi.org/10.5194/essd-9-1-2017"/>
-    <hyperlink ref="Q53" r:id="rId55" display="https://www.fao.org/soils-portal/data-hub/soil-maps-and-databases/harmonized-world-soil-database-v12/en/"/>
-    <hyperlink ref="Q54" r:id="rId56" display="https://soilgrids.org/"/>
-    <hyperlink ref="Q55" r:id="rId57" display="https://www.isric.org/explore/wise-databases"/>
-    <hyperlink ref="T55" r:id="rId58" display="https://doi.org/10.1016/j.geoderma.2016.01.034"/>
-    <hyperlink ref="Q56" r:id="rId59" display="http://globalchange.bnu.edu.cn/research/data"/>
-    <hyperlink ref="T56" r:id="rId60" display="http://doi.wiley.com/10.1002/2013MS000293"/>
-    <hyperlink ref="Q57" r:id="rId61" display="https://www.futurewater.eu/projects/hihydrosoil/"/>
-    <hyperlink ref="Q58" r:id="rId62" display="https://doi.pangaea.de/10.1594/PANGAEA.884517"/>
-    <hyperlink ref="T58" r:id="rId63" display="https://doi.org/10.1594/PANGAEA.884514"/>
-    <hyperlink ref="U58" r:id="rId64" display="Llorente, Mireia; Rovira, Pere; Merino, Agustín; Rubio, Agustín; Turrión, MaBelén; Badía, David; Romanya, Joan; González, Jordi Cortina José Antonio (2018): Physical and chemical characteristics of soil horizons from the CARBOSOL Database of Spain. https://doi.org/10.1594/PANGAEA.884514"/>
-    <hyperlink ref="Q59" r:id="rId65" display="https://ismn.earth/en/"/>
-    <hyperlink ref="T59" r:id="rId66" display="https://doi.org/10.5194/hess-2021-2"/>
-    <hyperlink ref="Q60" r:id="rId67" display="https://doi.org/10.3334/ORNLDAAC/1827"/>
-    <hyperlink ref="T60" r:id="rId68" display="https://10.5194/bg-7-1915-2010"/>
-    <hyperlink ref="Q61" r:id="rId69" display="https://icgc.cat/Administracio-i-empresa/Descarregues/Cartografia-geologica-i-geotematica/Cartografia-de-sols/Mapa-de-sols-1-25.000-continu"/>
-    <hyperlink ref="Q62" r:id="rId70" display="https://doi.pangaea.de/10.1594/PANGAEA.788537"/>
-    <hyperlink ref="T62" r:id="rId71" display="https://doi.org/10.1029/2012GC004370"/>
-    <hyperlink ref="Q63" r:id="rId72" display="https://borealisdata.ca/dataset.xhtml?persistentId=doi%3A10.5683/SP2/TTJNIU"/>
-    <hyperlink ref="T63" r:id="rId73" display="https://doi.org/10.1002/2017GL075860"/>
-    <hyperlink ref="T64" r:id="rId74" display="https://doi.org/10.1016/j.cageo.2014.07.020"/>
-    <hyperlink ref="Q65" r:id="rId75" display="https://biotime.st-andrews.ac.uk/"/>
-    <hyperlink ref="T65" r:id="rId76" display="https://doi.org/10.1111/geb.12729"/>
-    <hyperlink ref="Q67" r:id="rId77" display="https://compadre-db.org/"/>
-    <hyperlink ref="T67" r:id="rId78" display="https://doi.org/10.1111/1365-2745.12334"/>
+    <hyperlink ref="Q39" r:id="rId40" display="https://www.idiv.de/de/splot.html"/>
+    <hyperlink ref="Q40" r:id="rId41" display="https://doi.org/10.25829/idiv.3474-40-3292"/>
+    <hyperlink ref="T40" r:id="rId42" display="https://doi.org/10.1111/geb.13346"/>
+    <hyperlink ref="Q41" r:id="rId43" display="https://lotvs.csic.es/"/>
+    <hyperlink ref="T41" r:id="rId44" display="https://www.biorxiv.org/content/10.1101/2021.09.29.462383v1.full"/>
+    <hyperlink ref="Q42" r:id="rId45" display="https://doi.org/10.5281/zenodo.6567608"/>
+    <hyperlink ref="T42" r:id="rId46" display="https://doi.org/10.1002/ecy.3923"/>
+    <hyperlink ref="Q43" r:id="rId47" display="https://gfbinitiative.net/"/>
+    <hyperlink ref="Q44" r:id="rId48" display="http://icp-forests.net/"/>
+    <hyperlink ref="T45" r:id="rId49" display="https://doi.org/10.1016/j.srs.2020.100002"/>
+    <hyperlink ref="Q48" r:id="rId50" display="http://sapfluxnet.creaf.cat/"/>
+    <hyperlink ref="T48" r:id="rId51" display="https://doi.org/10.5194/essd-13-2607-2021"/>
+    <hyperlink ref="T52" r:id="rId52" display="https://doi.org/10.1126/sciadv.adh4097"/>
+    <hyperlink ref="Q53" r:id="rId53" location="/home" display="https://data.isric.org/geonetwork/srv/eng/catalog.search#/home"/>
+    <hyperlink ref="T53" r:id="rId54" display="https://doi.org/10.5194/essd-9-1-2017"/>
+    <hyperlink ref="Q54" r:id="rId55" display="https://www.fao.org/soils-portal/data-hub/soil-maps-and-databases/harmonized-world-soil-database-v12/en/"/>
+    <hyperlink ref="Q55" r:id="rId56" display="https://soilgrids.org/"/>
+    <hyperlink ref="Q56" r:id="rId57" display="https://www.isric.org/explore/wise-databases"/>
+    <hyperlink ref="T56" r:id="rId58" display="https://doi.org/10.1016/j.geoderma.2016.01.034"/>
+    <hyperlink ref="Q57" r:id="rId59" display="http://globalchange.bnu.edu.cn/research/data"/>
+    <hyperlink ref="T57" r:id="rId60" display="http://doi.wiley.com/10.1002/2013MS000293"/>
+    <hyperlink ref="Q58" r:id="rId61" display="https://www.futurewater.eu/projects/hihydrosoil/"/>
+    <hyperlink ref="Q59" r:id="rId62" display="https://doi.pangaea.de/10.1594/PANGAEA.884517"/>
+    <hyperlink ref="T59" r:id="rId63" display="https://doi.org/10.1594/PANGAEA.884514"/>
+    <hyperlink ref="U59" r:id="rId64" display="Llorente, Mireia; Rovira, Pere; Merino, Agustín; Rubio, Agustín; Turrión, MaBelén; Badía, David; Romanya, Joan; González, Jordi Cortina José Antonio (2018): Physical and chemical characteristics of soil horizons from the CARBOSOL Database of Spain. https://doi.org/10.1594/PANGAEA.884514"/>
+    <hyperlink ref="Q60" r:id="rId65" display="https://ismn.earth/en/"/>
+    <hyperlink ref="T60" r:id="rId66" display="https://doi.org/10.5194/hess-2021-2"/>
+    <hyperlink ref="Q61" r:id="rId67" display="https://doi.org/10.3334/ORNLDAAC/1827"/>
+    <hyperlink ref="T61" r:id="rId68" display="https://10.5194/bg-7-1915-2010"/>
+    <hyperlink ref="Q62" r:id="rId69" display="https://icgc.cat/Administracio-i-empresa/Descarregues/Cartografia-geologica-i-geotematica/Cartografia-de-sols/Mapa-de-sols-1-25.000-continu"/>
+    <hyperlink ref="Q63" r:id="rId70" display="https://doi.pangaea.de/10.1594/PANGAEA.788537"/>
+    <hyperlink ref="T63" r:id="rId71" display="https://doi.org/10.1029/2012GC004370"/>
+    <hyperlink ref="Q64" r:id="rId72" display="https://borealisdata.ca/dataset.xhtml?persistentId=doi%3A10.5683/SP2/TTJNIU"/>
+    <hyperlink ref="T64" r:id="rId73" display="https://doi.org/10.1002/2017GL075860"/>
+    <hyperlink ref="T65" r:id="rId74" display="https://doi.org/10.1016/j.cageo.2014.07.020"/>
+    <hyperlink ref="Q66" r:id="rId75" display="https://biotime.st-andrews.ac.uk/"/>
+    <hyperlink ref="T66" r:id="rId76" display="https://doi.org/10.1111/geb.12729"/>
+    <hyperlink ref="Q68" r:id="rId77" display="https://compadre-db.org/"/>
+    <hyperlink ref="T68" r:id="rId78" display="https://doi.org/10.1111/1365-2745.12334"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -5980,22 +6039,22 @@
       <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="2" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
     </row>
   </sheetData>

--- a/ExternalDataSources.xlsx
+++ b/ExternalDataSources.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="981" uniqueCount="530">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="983" uniqueCount="531">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -200,9 +200,6 @@
     <t xml:space="preserve">High-resolution paleoclimate data for use in biological modeling and GIS</t>
   </si>
   <si>
-    <t xml:space="preserve">14/09/2022</t>
-  </si>
-  <si>
     <t xml:space="preserve">5 km / 1 km</t>
   </si>
   <si>
@@ -270,9 +267,6 @@
   </si>
   <si>
     <t xml:space="preserve">The RCP database aims at documenting the emissions, concentrations, and land-cover change projections of the so-called "Representative Concentration Pathways" (RCPs). </t>
-  </si>
-  <si>
-    <t xml:space="preserve">21/07/2022</t>
   </si>
   <si>
     <t xml:space="preserve">No</t>
@@ -815,9 +809,6 @@
     <t xml:space="preserve">Open access global database on plant flammability traits measured under laboratory conditions aiming to: (a) identify the diversity of methodologies to measure plant flammability under laboratory conditions; (b) standardize the associated terminology; and (c) find geographical, ecological, and taxonomic gaps in our knowledge on plant flammability.</t>
   </si>
   <si>
-    <t xml:space="preserve">27/12/2023</t>
-  </si>
-  <si>
     <t xml:space="preserve">https://doi.org/10.5061/dryad.h18931zr3</t>
   </si>
   <si>
@@ -839,9 +830,6 @@
     <t xml:space="preserve">FunAndes contains data on 24 traits across 2,694 taxa, for a total of 105,466 entries. The database features plant-morphological attributes including growth form, and leaf, stem, and wood traits measured at the species or individual level, together with geographic metadata (i.e., coordinates and elevation).</t>
   </si>
   <si>
-    <t xml:space="preserve">28/12/2023</t>
-  </si>
-  <si>
     <t xml:space="preserve">Tropical Andes</t>
   </si>
   <si>
@@ -948,6 +936,36 @@
   </si>
   <si>
     <t xml:space="preserve">Multiple functional and demographic traits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GWDD2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Global Wood Density Database v.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Global Wood Density Database v.2 (GWDD v.2) is a collection of 109,626 taxonomically standardized wood density records and 15,093 additional bark density records. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Individual</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSV,Rdata</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zenodo.org/records/18262736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wood density of stem, branches</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1111/nph.70860</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fischer et al. (2026). New Phytologist</t>
   </si>
   <si>
     <t xml:space="preserve">sPlot</t>
@@ -1166,9 +1184,6 @@
     <t xml:space="preserve">The FIA program delivers current, consistent, and credible information about the status of the United States’ forests.</t>
   </si>
   <si>
-    <t xml:space="preserve">19/04/2023</t>
-  </si>
-  <si>
     <t xml:space="preserve">United States</t>
   </si>
   <si>
@@ -1200,9 +1215,6 @@
   </si>
   <si>
     <t xml:space="preserve">L’estiu del 2022 es va dur a terme el treball de camp per conèixer les principals variables silvo-dasomètriques que permeten la caracterització dels diferents tipus de boscos del Principat d’Andorra.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18/12/2023</t>
   </si>
   <si>
     <t xml:space="preserve">Andorra</t>
@@ -1370,9 +1382,6 @@
     <t xml:space="preserve">Realized climatic niches of vascular plants in European forest understoreys</t>
   </si>
   <si>
-    <t xml:space="preserve">14/03/2023</t>
-  </si>
-  <si>
     <t xml:space="preserve">10 arc-min</t>
   </si>
   <si>
@@ -1395,9 +1404,6 @@
   </si>
   <si>
     <t xml:space="preserve">Datasets generated from the research article "The overlooked contribution of trees outside forests to tree cover and woody biomass across Europe". Aggregated version of canopy cover and height map, and original biomass map at 30m resolution. The biomass map are calculated from the canopy cover and height maps using allometric equations. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">24/05/2025</t>
   </si>
   <si>
     <t xml:space="preserve">30 m</t>
@@ -2006,9 +2012,6 @@
     <t xml:space="preserve">The aim of the Global Paleofire Database (GPD) is to provide the scientific community with a global paleofire dataset for research and archiving sedimentary records of fire.</t>
   </si>
   <si>
-    <t xml:space="preserve">15/09/2022</t>
-  </si>
-  <si>
     <t xml:space="preserve">50 kyr bp – present</t>
   </si>
   <si>
@@ -2264,8 +2267,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="mm/dd/yy"/>
-    <numFmt numFmtId="166" formatCode="dd/mm/yy"/>
+    <numFmt numFmtId="165" formatCode="dd/mm/yy"/>
+    <numFmt numFmtId="166" formatCode="mm/dd/yy"/>
   </numFmts>
   <fonts count="8">
     <font>
@@ -2455,7 +2458,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2471,7 +2478,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2481,10 +2488,6 @@
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -2675,12 +2678,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V70"/>
+  <dimension ref="A1:V71"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="R1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="G29" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="G6" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="R1" activeCellId="0" sqref="R1"/>
-      <selection pane="bottomLeft" activeCell="S38" activeCellId="0" sqref="S38"/>
+      <selection pane="bottomLeft" activeCell="U39" activeCellId="0" sqref="U39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2989,8 +2992,8 @@
       <c r="E6" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="F6" s="12" t="s">
-        <v>59</v>
+      <c r="F6" s="14" t="n">
+        <v>44818</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>51</v>
@@ -3002,49 +3005,49 @@
         <v>29</v>
       </c>
       <c r="J6" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K6" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="K6" s="4" t="s">
+      <c r="L6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M6" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="L6" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="M6" s="4" t="s">
+      <c r="O6" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="O6" s="1" t="s">
+      <c r="Q6" s="13" t="s">
         <v>63</v>
-      </c>
-      <c r="Q6" s="13" t="s">
-        <v>64</v>
       </c>
       <c r="R6" s="13"/>
       <c r="S6" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="T6" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="T6" s="13" t="s">
+      <c r="U6" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="U6" s="1" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>71</v>
       </c>
       <c r="F7" s="12"/>
       <c r="G7" s="3" t="s">
@@ -3060,7 +3063,7 @@
         <v>46</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L7" s="4" t="s">
         <v>28</v>
@@ -3072,31 +3075,31 @@
         <v>33</v>
       </c>
       <c r="P7" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q7" s="13" t="s">
         <v>73</v>
-      </c>
-      <c r="Q7" s="13" t="s">
-        <v>74</v>
       </c>
       <c r="R7" s="13"/>
       <c r="S7" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="E8" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F8" s="12"/>
       <c r="G8" s="3" t="s">
@@ -3112,94 +3115,94 @@
         <v>46</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L8" s="4" t="s">
         <v>28</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O8" s="1" t="s">
         <v>33</v>
       </c>
       <c r="P8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q8" s="13" t="s">
         <v>73</v>
-      </c>
-      <c r="Q8" s="13" t="s">
-        <v>74</v>
       </c>
       <c r="R8" s="13"/>
       <c r="S8" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="E9" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="F9" s="14" t="s">
-        <v>83</v>
+      <c r="F9" s="15" t="n">
+        <v>44763</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>51</v>
       </c>
       <c r="H9" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q9" s="13" t="s">
         <v>84</v>
-      </c>
-      <c r="L9" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="M9" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q9" s="13" t="s">
-        <v>86</v>
       </c>
       <c r="R9" s="1" t="n">
         <v>2.05</v>
       </c>
       <c r="S9" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="T9" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="U9" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="T9" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="U9" s="1" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F10" s="12"/>
       <c r="G10" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>28</v>
@@ -3211,40 +3214,40 @@
         <v>46</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="L10" s="4" t="s">
         <v>28</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O10" s="1" t="s">
         <v>33</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="S10" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F11" s="12"/>
       <c r="G11" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H11" s="3" t="s">
         <v>28</v>
@@ -3258,137 +3261,137 @@
       <c r="M11" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="P11" s="15" t="s">
-        <v>101</v>
+      <c r="P11" s="16" t="s">
+        <v>99</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C12" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>104</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>106</v>
       </c>
       <c r="F12" s="12"/>
       <c r="G12" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>28</v>
       </c>
       <c r="I12" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="V12" s="1" t="s">
         <v>107</v>
-      </c>
-      <c r="L12" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q12" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="V12" s="1" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F13" s="12"/>
       <c r="G13" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H13" s="3" t="s">
         <v>28</v>
       </c>
       <c r="I13" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="V13" s="1" t="s">
         <v>107</v>
-      </c>
-      <c r="L13" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q13" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="V13" s="1" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F14" s="12"/>
       <c r="G14" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>28</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="L14" s="4" t="s">
         <v>28</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D15" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="E15" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="F15" s="17"/>
+        <v>79</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="F15" s="18"/>
       <c r="G15" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>28</v>
@@ -3397,36 +3400,36 @@
         <v>29</v>
       </c>
       <c r="J15" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="L15" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M15" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q15" s="1" t="s">
         <v>123</v>
-      </c>
-      <c r="K15" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="L15" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="M15" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q15" s="1" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D16" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>128</v>
       </c>
       <c r="F16" s="12"/>
       <c r="G16" s="3" t="s">
@@ -3436,40 +3439,40 @@
         <v>28</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="L16" s="4" t="s">
         <v>28</v>
       </c>
       <c r="Q16" s="13" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="R16" s="13"/>
       <c r="T16" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="U16" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="V16" s="13" t="s">
         <v>130</v>
-      </c>
-      <c r="U16" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="V16" s="13" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D17" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>133</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>135</v>
       </c>
       <c r="F17" s="12"/>
       <c r="G17" s="3" t="s">
@@ -3482,41 +3485,41 @@
         <v>29</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="L17" s="4" t="s">
         <v>28</v>
       </c>
       <c r="M17" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Q17" s="13" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="R17" s="13"/>
       <c r="T17" s="13" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="U17" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="V17" s="13"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C18" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>141</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>143</v>
       </c>
       <c r="F18" s="12"/>
       <c r="G18" s="3" t="s">
@@ -3529,53 +3532,53 @@
         <v>29</v>
       </c>
       <c r="J18" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="L18" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M18" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="K18" s="4" t="s">
+      <c r="O18" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="L18" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="M18" s="4" t="s">
+      <c r="Q18" s="13" t="s">
         <v>146</v>
-      </c>
-      <c r="O18" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q18" s="13" t="s">
-        <v>148</v>
       </c>
       <c r="R18" s="13"/>
       <c r="S18" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="T18" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="U18" s="1" t="s">
         <v>149</v>
-      </c>
-      <c r="T18" s="13" t="s">
-        <v>150</v>
-      </c>
-      <c r="U18" s="1" t="s">
-        <v>151</v>
       </c>
       <c r="V18" s="13"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H19" s="3" t="s">
         <v>28</v>
@@ -3584,45 +3587,45 @@
         <v>29</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="L19" s="4" t="s">
         <v>28</v>
       </c>
       <c r="M19" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O19" s="1" t="s">
         <v>33</v>
       </c>
       <c r="Q19" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="R19" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="T19" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="R19" s="1" t="s">
+      <c r="U19" s="1" t="s">
         <v>156</v>
-      </c>
-      <c r="T19" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="U19" s="1" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="D20" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="E20" s="2" t="s">
         <v>161</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>163</v>
       </c>
       <c r="F20" s="12"/>
       <c r="G20" s="3" t="s">
@@ -3632,31 +3635,31 @@
         <v>28</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="L20" s="4" t="s">
         <v>28</v>
       </c>
       <c r="Q20" s="13" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="R20" s="13"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>166</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>168</v>
       </c>
       <c r="F21" s="12"/>
       <c r="G21" s="3" t="s">
@@ -3666,34 +3669,34 @@
         <v>28</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="L21" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="Q21" s="13" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="R21" s="13"/>
       <c r="U21" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F22" s="12"/>
       <c r="G22" s="3" t="s">
@@ -3703,31 +3706,31 @@
         <v>28</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="L22" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="Q22" s="13" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="R22" s="13"/>
     </row>
     <row r="23" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F23" s="12"/>
       <c r="G23" s="3" t="s">
@@ -3737,37 +3740,37 @@
         <v>28</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="L23" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="Q23" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="R23" s="13"/>
       <c r="T23" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="U23" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F24" s="12"/>
       <c r="G24" s="3" t="s">
@@ -3780,90 +3783,90 @@
         <v>29</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="L24" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="Q24" s="13" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="R24" s="13"/>
       <c r="T24" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="U24" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="D25" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="E25" s="2" t="s">
         <v>187</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>189</v>
       </c>
       <c r="F25" s="12"/>
       <c r="G25" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="K25" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="H25" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I25" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="J25" s="3" t="s">
+      <c r="L25" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M25" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="K25" s="4" t="s">
+      <c r="Q25" s="13" t="s">
         <v>192</v>
-      </c>
-      <c r="L25" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="M25" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="Q25" s="13" t="s">
-        <v>194</v>
       </c>
       <c r="R25" s="13"/>
       <c r="S25" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="T25" s="13" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="U25" s="13"/>
       <c r="V25" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>198</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>200</v>
       </c>
       <c r="F26" s="12"/>
       <c r="G26" s="3" t="s">
@@ -3873,152 +3876,152 @@
         <v>28</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="L26" s="4" t="s">
         <v>28</v>
       </c>
       <c r="Q26" s="13" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="R26" s="13"/>
       <c r="S26" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="T26" s="13"/>
       <c r="U26" s="13"/>
     </row>
     <row r="27" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="D27" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>204</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>206</v>
       </c>
       <c r="F27" s="12"/>
       <c r="G27" s="3" t="s">
         <v>51</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="L27" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="N27" s="5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="Q27" s="13" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="R27" s="13"/>
       <c r="S27" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="T27" s="13" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="U27" s="13"/>
     </row>
     <row r="28" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E28" s="2" t="s">
         <v>211</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>213</v>
       </c>
       <c r="F28" s="12"/>
       <c r="G28" s="3" t="s">
         <v>51</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="L28" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="Q28" s="13" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="R28" s="13"/>
       <c r="T28" s="13" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="U28" s="13"/>
     </row>
     <row r="29" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E29" s="2" t="s">
         <v>216</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>218</v>
       </c>
       <c r="F29" s="12"/>
       <c r="G29" s="3" t="s">
         <v>51</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="L29" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="N29" s="5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="Q29" s="13" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="R29" s="13"/>
       <c r="T29" s="13"/>
       <c r="U29" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E30" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="F30" s="18" t="n">
+      <c r="F30" s="19" t="n">
         <v>45118</v>
       </c>
       <c r="G30" s="3" t="s">
@@ -4028,49 +4031,49 @@
         <v>28</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="L30" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="N30" s="5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="O30" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q30" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="R30" s="20"/>
+      <c r="S30" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="Q30" s="13" t="s">
+      <c r="T30" s="13" t="s">
         <v>225</v>
       </c>
-      <c r="R30" s="19"/>
-      <c r="S30" s="1" t="s">
+      <c r="U30" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="T30" s="13" t="s">
-        <v>227</v>
-      </c>
-      <c r="U30" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="V30" s="20"/>
+      <c r="V30" s="21"/>
     </row>
     <row r="31" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="E31" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="F31" s="21" t="n">
+      <c r="F31" s="14" t="n">
         <v>45264</v>
       </c>
       <c r="G31" s="3" t="s">
@@ -4080,51 +4083,51 @@
         <v>28</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="L31" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="N31" s="5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="O31" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q31" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="R31" s="20" t="s">
         <v>232</v>
       </c>
-      <c r="Q31" s="13" t="s">
+      <c r="T31" s="13" t="s">
         <v>233</v>
       </c>
-      <c r="R31" s="19" t="s">
+      <c r="U31" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="T31" s="13" t="s">
-        <v>235</v>
-      </c>
-      <c r="U31" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="V31" s="20" t="s">
-        <v>229</v>
+      <c r="V31" s="21" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="E32" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="F32" s="21" t="s">
-        <v>240</v>
+      <c r="F32" s="14" t="n">
+        <v>45287</v>
       </c>
       <c r="G32" s="3" t="s">
         <v>51</v>
@@ -4133,308 +4136,308 @@
         <v>28</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="L32" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="N32" s="5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="O32" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="Q32" s="13" t="s">
+        <v>238</v>
+      </c>
+      <c r="R32" s="20"/>
+      <c r="S32" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="T32" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="U32" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="R32" s="19"/>
-      <c r="S32" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="T32" s="13" t="s">
-        <v>243</v>
-      </c>
-      <c r="U32" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="V32" s="20"/>
+      <c r="V32" s="21"/>
     </row>
     <row r="33" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="F33" s="14" t="n">
+        <v>45288</v>
+      </c>
+      <c r="G33" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="B33" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="C33" s="2" t="s">
+      <c r="H33" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="L33" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="N33" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="O33" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q33" s="13" t="s">
         <v>246</v>
       </c>
-      <c r="E33" s="2" t="s">
+      <c r="R33" s="20"/>
+      <c r="S33" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="T33" s="13" t="s">
         <v>247</v>
       </c>
-      <c r="F33" s="21" t="s">
+      <c r="U33" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="G33" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="L33" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="N33" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="O33" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q33" s="13" t="s">
-        <v>250</v>
-      </c>
-      <c r="R33" s="19"/>
-      <c r="S33" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="T33" s="13" t="s">
-        <v>251</v>
-      </c>
-      <c r="U33" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="V33" s="20"/>
+      <c r="V33" s="21"/>
     </row>
     <row r="34" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D34" s="17" t="s">
+        <v>250</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="F34" s="14" t="n">
+        <v>45288</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="L34" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="N34" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="O34" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q34" s="13" t="s">
         <v>253</v>
       </c>
-      <c r="B34" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="D34" s="16" t="s">
+      <c r="R34" s="20"/>
+      <c r="S34" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="T34" s="13" t="s">
         <v>254</v>
       </c>
-      <c r="E34" s="2" t="s">
+      <c r="U34" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="F34" s="21" t="s">
-        <v>248</v>
-      </c>
-      <c r="G34" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="H34" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I34" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="L34" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="N34" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="O34" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q34" s="13" t="s">
-        <v>257</v>
-      </c>
-      <c r="R34" s="19"/>
-      <c r="S34" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="T34" s="13" t="s">
-        <v>258</v>
-      </c>
-      <c r="U34" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="V34" s="20"/>
+      <c r="V34" s="21"/>
     </row>
     <row r="35" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D35" s="17" t="s">
+        <v>257</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="F35" s="14" t="n">
+        <v>45288</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="L35" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="N35" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="O35" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q35" s="13" t="s">
         <v>260</v>
       </c>
-      <c r="B35" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="D35" s="16" t="s">
+      <c r="R35" s="20"/>
+      <c r="S35" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="T35" s="13" t="s">
         <v>261</v>
       </c>
-      <c r="E35" s="2" t="s">
+      <c r="U35" s="22" t="s">
         <v>262</v>
       </c>
-      <c r="F35" s="21" t="s">
-        <v>248</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="L35" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="N35" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="O35" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q35" s="13" t="s">
-        <v>264</v>
-      </c>
-      <c r="R35" s="19"/>
-      <c r="S35" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="T35" s="13" t="s">
-        <v>265</v>
-      </c>
-      <c r="U35" s="22" t="s">
-        <v>266</v>
-      </c>
-      <c r="V35" s="20"/>
+      <c r="V35" s="21"/>
     </row>
     <row r="36" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D36" s="17" t="s">
+        <v>264</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="F36" s="14" t="n">
+        <v>45288</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="L36" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="N36" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="O36" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q36" s="13" t="s">
         <v>267</v>
       </c>
-      <c r="B36" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="D36" s="16" t="s">
+      <c r="R36" s="20"/>
+      <c r="S36" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="T36" s="13" t="s">
         <v>268</v>
       </c>
-      <c r="E36" s="2" t="s">
+      <c r="U36" s="22" t="s">
         <v>269</v>
       </c>
-      <c r="F36" s="21" t="s">
-        <v>248</v>
-      </c>
-      <c r="G36" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="H36" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="L36" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="N36" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="O36" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q36" s="13" t="s">
-        <v>271</v>
-      </c>
-      <c r="R36" s="19"/>
-      <c r="S36" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="T36" s="13" t="s">
-        <v>272</v>
-      </c>
-      <c r="U36" s="22" t="s">
-        <v>273</v>
-      </c>
-      <c r="V36" s="20"/>
+      <c r="V36" s="21"/>
     </row>
     <row r="37" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D37" s="17" t="s">
+        <v>271</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="F37" s="14" t="n">
+        <v>45288</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="L37" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="N37" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="O37" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q37" s="13" t="s">
         <v>274</v>
       </c>
-      <c r="B37" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="D37" s="16" t="s">
+      <c r="R37" s="20" t="n">
+        <v>2</v>
+      </c>
+      <c r="S37" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="T37" s="13" t="s">
         <v>275</v>
       </c>
-      <c r="E37" s="2" t="s">
+      <c r="U37" s="22" t="s">
         <v>276</v>
       </c>
-      <c r="F37" s="21" t="s">
-        <v>248</v>
-      </c>
-      <c r="G37" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="H37" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I37" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="L37" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="N37" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="O37" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q37" s="13" t="s">
-        <v>278</v>
-      </c>
-      <c r="R37" s="19" t="n">
-        <v>2</v>
-      </c>
-      <c r="S37" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="T37" s="13" t="s">
-        <v>279</v>
-      </c>
-      <c r="U37" s="22" t="s">
-        <v>280</v>
-      </c>
-      <c r="V37" s="20"/>
+      <c r="V37" s="21"/>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="D38" s="16" t="s">
-        <v>281</v>
+        <v>203</v>
+      </c>
+      <c r="D38" s="17" t="s">
+        <v>277</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="F38" s="21" t="n">
+        <v>278</v>
+      </c>
+      <c r="F38" s="14" t="n">
         <v>45996</v>
       </c>
       <c r="G38" s="3" t="s">
@@ -4444,88 +4447,95 @@
         <v>28</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="L38" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="N38" s="5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="O38" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="Q38" s="13" t="s">
-        <v>283</v>
-      </c>
-      <c r="R38" s="19"/>
+        <v>279</v>
+      </c>
+      <c r="R38" s="20"/>
       <c r="S38" s="1" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="T38" s="13"/>
       <c r="U38" s="22"/>
-      <c r="V38" s="20"/>
+      <c r="V38" s="21"/>
     </row>
     <row r="39" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>204</v>
+        <v>185</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>285</v>
+        <v>203</v>
+      </c>
+      <c r="D39" s="17" t="s">
+        <v>282</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="F39" s="12"/>
+        <v>283</v>
+      </c>
+      <c r="F39" s="14" t="n">
+        <v>46041</v>
+      </c>
       <c r="G39" s="3" t="s">
         <v>51</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>28</v>
+        <v>284</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="J39" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="L39" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="N39" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="O39" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="Q39" s="13" t="s">
+        <v>287</v>
+      </c>
+      <c r="R39" s="20"/>
+      <c r="S39" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="L39" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="N39" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="Q39" s="13" t="s">
+      <c r="T39" s="13" t="s">
         <v>289</v>
       </c>
-      <c r="R39" s="13"/>
-      <c r="S39" s="1" t="s">
+      <c r="U39" s="22" t="s">
         <v>290</v>
       </c>
-      <c r="T39" s="13"/>
-      <c r="U39" s="13"/>
+      <c r="V39" s="21"/>
     </row>
     <row r="40" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
         <v>291</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>204</v>
+        <v>185</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>291</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F40" s="12"/>
       <c r="G40" s="3" t="s">
@@ -4535,46 +4545,42 @@
         <v>28</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="K40" s="4" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="L40" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
+      </c>
+      <c r="N40" s="5" t="s">
+        <v>205</v>
       </c>
       <c r="Q40" s="13" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="R40" s="13"/>
       <c r="S40" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="T40" s="13" t="s">
-        <v>295</v>
-      </c>
-      <c r="U40" s="1" t="s">
         <v>296</v>
       </c>
+      <c r="T40" s="13"/>
+      <c r="U40" s="13"/>
     </row>
     <row r="41" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
         <v>297</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="D41" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="E41" s="2" t="s">
         <v>298</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>299</v>
       </c>
       <c r="F41" s="12"/>
       <c r="G41" s="3" t="s">
@@ -4584,38 +4590,48 @@
         <v>28</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="K41" s="4" t="s">
+        <v>299</v>
       </c>
       <c r="L41" s="4" t="s">
-        <v>28</v>
+        <v>82</v>
       </c>
       <c r="Q41" s="13" t="s">
         <v>300</v>
       </c>
       <c r="R41" s="13"/>
+      <c r="S41" s="1" t="s">
+        <v>296</v>
+      </c>
       <c r="T41" s="13" t="s">
         <v>301</v>
       </c>
+      <c r="U41" s="1" t="s">
+        <v>302</v>
+      </c>
     </row>
     <row r="42" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="F42" s="18" t="n">
-        <v>45352</v>
-      </c>
+        <v>305</v>
+      </c>
+      <c r="F42" s="12"/>
       <c r="G42" s="3" t="s">
         <v>51</v>
       </c>
@@ -4623,45 +4639,38 @@
         <v>28</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="L42" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="O42" s="1" t="s">
-        <v>147</v>
+        <v>28</v>
       </c>
       <c r="Q42" s="13" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="R42" s="13"/>
-      <c r="S42" s="1" t="s">
-        <v>306</v>
-      </c>
       <c r="T42" s="13" t="s">
         <v>307</v>
       </c>
-      <c r="U42" s="1" t="s">
-        <v>308</v>
-      </c>
     </row>
     <row r="43" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="D43" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="B43" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="C43" s="2" t="s">
+      <c r="E43" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="D43" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="F43" s="12"/>
+      <c r="F43" s="19" t="n">
+        <v>45352</v>
+      </c>
       <c r="G43" s="3" t="s">
         <v>51</v>
       </c>
@@ -4669,133 +4678,131 @@
         <v>28</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="L43" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
+      </c>
+      <c r="O43" s="1" t="s">
+        <v>145</v>
       </c>
       <c r="Q43" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="R43" s="13"/>
+      <c r="S43" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="T43" s="13" t="s">
         <v>313</v>
       </c>
-      <c r="R43" s="13"/>
-      <c r="T43" s="13"/>
+      <c r="U43" s="1" t="s">
+        <v>314</v>
+      </c>
     </row>
     <row r="44" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="F44" s="12"/>
       <c r="G44" s="3" t="s">
-        <v>93</v>
+        <v>51</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>28</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="K44" s="4" t="s">
-        <v>318</v>
+        <v>105</v>
       </c>
       <c r="L44" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="M44" s="4" t="s">
-        <v>288</v>
+        <v>82</v>
       </c>
       <c r="Q44" s="13" t="s">
         <v>319</v>
       </c>
       <c r="R44" s="13"/>
-      <c r="S44" s="1" t="s">
-        <v>320</v>
-      </c>
       <c r="T44" s="13"/>
-      <c r="V44" s="1" t="s">
-        <v>321</v>
-      </c>
     </row>
     <row r="45" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="D45" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="B45" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="D45" s="2" t="s">
+      <c r="E45" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="E45" s="2" t="s">
+      <c r="F45" s="12"/>
+      <c r="G45" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="K45" s="4" t="s">
         <v>324</v>
       </c>
-      <c r="F45" s="14" t="n">
-        <v>44779</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J45" s="3" t="s">
+      <c r="L45" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M45" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="Q45" s="13" t="s">
         <v>325</v>
-      </c>
-      <c r="L45" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q45" s="13" t="s">
-        <v>326</v>
       </c>
       <c r="R45" s="13"/>
       <c r="S45" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="T45" s="13"/>
+      <c r="V45" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="T45" s="13" t="s">
+    </row>
+    <row r="46" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="U45" s="1" t="s">
+      <c r="B46" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="D46" s="2" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="1" t="s">
+      <c r="E46" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="B46" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="F46" s="14" t="s">
-        <v>333</v>
+      <c r="F46" s="15" t="n">
+        <v>44779</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>334</v>
+        <v>51</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>28</v>
@@ -4804,59 +4811,46 @@
         <v>29</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>335</v>
-      </c>
-      <c r="K46" s="4" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="L46" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="M46" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="N46" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="O46" s="1" t="s">
-        <v>147</v>
-      </c>
       <c r="Q46" s="13" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="R46" s="13"/>
       <c r="S46" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="T46" s="13"/>
+        <v>333</v>
+      </c>
+      <c r="T46" s="13" t="s">
+        <v>334</v>
+      </c>
       <c r="U46" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="V46" s="1" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="D47" s="16" t="s">
-        <v>343</v>
+        <v>321</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>337</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="F47" s="14" t="s">
-        <v>345</v>
+        <v>338</v>
+      </c>
+      <c r="F47" s="15" t="n">
+        <v>45035</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>28</v>
@@ -4864,95 +4858,104 @@
       <c r="I47" s="3" t="s">
         <v>29</v>
       </c>
+      <c r="J47" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="K47" s="4" t="s">
+        <v>341</v>
+      </c>
       <c r="L47" s="4" t="s">
-        <v>84</v>
+        <v>28</v>
+      </c>
+      <c r="M47" s="4" t="s">
+        <v>342</v>
       </c>
       <c r="N47" s="5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="O47" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="P47" s="15" t="s">
-        <v>347</v>
+        <v>145</v>
       </c>
       <c r="Q47" s="13" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="R47" s="13"/>
       <c r="S47" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="T47" s="13"/>
+      <c r="U47" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="V47" s="1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="D48" s="17" t="s">
+        <v>348</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="T47" s="13"/>
-      <c r="V47" s="1"/>
-    </row>
-    <row r="48" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="1" t="s">
+      <c r="F48" s="15" t="n">
+        <v>45278</v>
+      </c>
+      <c r="G48" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="B48" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="C48" s="2" t="s">
+      <c r="H48" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L48" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="N48" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="O48" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="P48" s="16" t="s">
         <v>351</v>
       </c>
-      <c r="D48" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="E48" s="2" t="s">
+      <c r="Q48" s="13" t="s">
         <v>352</v>
-      </c>
-      <c r="F48" s="12"/>
-      <c r="G48" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="L48" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="M48" s="4" t="s">
-        <v>353</v>
-      </c>
-      <c r="P48" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q48" s="13" t="s">
-        <v>354</v>
       </c>
       <c r="R48" s="13"/>
       <c r="S48" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="T48" s="13"/>
+      <c r="V48" s="1"/>
+    </row>
+    <row r="49" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C49" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="T48" s="13" t="s">
+      <c r="D49" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="E49" s="2" t="s">
         <v>356</v>
-      </c>
-      <c r="U48" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="V48" s="1" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>361</v>
       </c>
       <c r="F49" s="12"/>
       <c r="G49" s="3" t="s">
@@ -4962,35 +4965,49 @@
         <v>28</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J49" s="3" t="s">
-        <v>154</v>
+        <v>105</v>
       </c>
       <c r="L49" s="4" t="s">
-        <v>84</v>
+        <v>28</v>
+      </c>
+      <c r="M49" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="P49" s="1" t="s">
+        <v>99</v>
       </c>
       <c r="Q49" s="13" t="s">
+        <v>358</v>
+      </c>
+      <c r="R49" s="13"/>
+      <c r="S49" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="T49" s="13" t="s">
+        <v>360</v>
+      </c>
+      <c r="U49" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="V49" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="R49" s="13"/>
-      <c r="T49" s="13"/>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
         <v>363</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>187</v>
+        <v>202</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>364</v>
       </c>
       <c r="D50" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="E50" s="2" t="s">
         <v>365</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>366</v>
       </c>
       <c r="F50" s="12"/>
       <c r="G50" s="3" t="s">
@@ -5000,115 +5017,96 @@
         <v>28</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="K50" s="4" t="s">
-        <v>367</v>
+        <v>29</v>
+      </c>
+      <c r="J50" s="3" t="s">
+        <v>152</v>
       </c>
       <c r="L50" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="M50" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="N50" s="5" t="s">
-        <v>368</v>
+        <v>82</v>
       </c>
       <c r="Q50" s="13" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="R50" s="13"/>
-      <c r="S50" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="T50" s="13" t="s">
-        <v>371</v>
-      </c>
-      <c r="U50" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="V50" s="20" t="s">
-        <v>373</v>
-      </c>
+      <c r="T50" s="13"/>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="F51" s="12"/>
+      <c r="G51" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H51" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I51" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="K51" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="L51" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M51" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="N51" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="Q51" s="13" t="s">
+        <v>373</v>
+      </c>
+      <c r="R51" s="13"/>
+      <c r="S51" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="B51" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="C51" s="2" t="s">
+      <c r="T51" s="13" t="s">
         <v>375</v>
       </c>
-      <c r="D51" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="E51" s="2" t="s">
+      <c r="U51" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="F51" s="12" t="s">
+      <c r="V51" s="21" t="s">
         <v>377</v>
       </c>
-      <c r="G51" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="H51" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I51" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J51" s="3" t="s">
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="K51" s="4" t="s">
+      <c r="B52" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C52" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="L51" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="N51" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="O51" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q51" s="13" t="s">
+      <c r="D52" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="E52" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="R51" s="19" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="T51" s="13" t="s">
-        <v>381</v>
-      </c>
-      <c r="U51" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="V51" s="20"/>
-    </row>
-    <row r="52" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="F52" s="12" t="s">
-        <v>386</v>
+      <c r="F52" s="14" t="n">
+        <v>44999</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>28</v>
@@ -5117,86 +5115,103 @@
         <v>29</v>
       </c>
       <c r="J52" s="3" t="s">
-        <v>387</v>
+        <v>381</v>
+      </c>
+      <c r="K52" s="4" t="s">
+        <v>382</v>
       </c>
       <c r="L52" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
+      </c>
+      <c r="N52" s="5" t="s">
+        <v>205</v>
       </c>
       <c r="O52" s="1" t="s">
-        <v>63</v>
+        <v>145</v>
       </c>
       <c r="Q52" s="13" t="s">
-        <v>388</v>
-      </c>
-      <c r="R52" s="19" t="s">
-        <v>389</v>
-      </c>
-      <c r="S52" s="1" t="s">
-        <v>390</v>
+        <v>383</v>
+      </c>
+      <c r="R52" s="20" t="n">
+        <v>1.2</v>
       </c>
       <c r="T52" s="13" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="U52" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="V52" s="20"/>
+        <v>385</v>
+      </c>
+      <c r="V52" s="21"/>
     </row>
     <row r="53" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="F53" s="14" t="n">
+        <v>45801</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="H53" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I53" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J53" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="L53" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="O53" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q53" s="13" t="s">
+        <v>390</v>
+      </c>
+      <c r="R53" s="20" t="s">
+        <v>391</v>
+      </c>
+      <c r="S53" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="T53" s="13" t="s">
         <v>393</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="U53" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="C53" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="F53" s="12"/>
-      <c r="G53" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="H53" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I53" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="L53" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q53" s="13" t="s">
-        <v>398</v>
-      </c>
-      <c r="R53" s="13"/>
-      <c r="T53" s="13" t="s">
-        <v>399</v>
-      </c>
-      <c r="U53" s="1" t="s">
-        <v>400</v>
-      </c>
+      <c r="V53" s="21"/>
     </row>
     <row r="54" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="F54" s="12"/>
       <c r="G54" s="3" t="s">
@@ -5206,31 +5221,37 @@
         <v>28</v>
       </c>
       <c r="I54" s="3" t="s">
-        <v>29</v>
+        <v>105</v>
       </c>
       <c r="L54" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="Q54" s="13" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="R54" s="13"/>
+      <c r="T54" s="13" t="s">
+        <v>401</v>
+      </c>
+      <c r="U54" s="1" t="s">
+        <v>402</v>
+      </c>
     </row>
     <row r="55" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="E55" s="2" t="s">
         <v>406</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>402</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>407</v>
       </c>
       <c r="F55" s="12"/>
       <c r="G55" s="3" t="s">
@@ -5242,35 +5263,29 @@
       <c r="I55" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="J55" s="3" t="s">
-        <v>408</v>
-      </c>
       <c r="L55" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="Q55" s="13" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="R55" s="13"/>
-      <c r="V55" s="1" t="s">
-        <v>410</v>
-      </c>
     </row>
     <row r="56" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="F56" s="12"/>
       <c r="G56" s="3" t="s">
@@ -5283,37 +5298,34 @@
         <v>29</v>
       </c>
       <c r="J56" s="3" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="L56" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="Q56" s="13" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="R56" s="13"/>
-      <c r="S56" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="T56" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="U56" s="1" t="s">
-        <v>417</v>
+      <c r="V56" s="1" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>419</v>
+        <v>413</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>414</v>
       </c>
       <c r="F57" s="12"/>
       <c r="G57" s="3" t="s">
@@ -5326,40 +5338,37 @@
         <v>29</v>
       </c>
       <c r="J57" s="3" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="L57" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="Q57" s="13" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="R57" s="13"/>
       <c r="S57" s="1" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="T57" s="13" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="U57" s="1" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>425</v>
+        <v>404</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>424</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="F58" s="12"/>
       <c r="G58" s="3" t="s">
@@ -5372,126 +5381,129 @@
         <v>29</v>
       </c>
       <c r="J58" s="3" t="s">
-        <v>52</v>
+        <v>415</v>
       </c>
       <c r="L58" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="Q58" s="13" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="R58" s="13"/>
+      <c r="S58" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="T58" s="13" t="s">
+        <v>424</v>
+      </c>
       <c r="U58" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="V58" s="1" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="F59" s="12"/>
+      <c r="G59" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="L59" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q59" s="13" t="s">
+        <v>429</v>
+      </c>
+      <c r="R59" s="13"/>
+      <c r="U59" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="B59" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>430</v>
-      </c>
-      <c r="E59" s="2" t="s">
+      <c r="V59" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="F59" s="21" t="n">
-        <v>45544</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="L59" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q59" s="13" t="s">
-        <v>432</v>
-      </c>
-      <c r="R59" s="13"/>
-      <c r="S59" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="T59" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="U59" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="V59" s="1"/>
     </row>
     <row r="60" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>437</v>
+        <v>427</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="F60" s="12"/>
+        <v>433</v>
+      </c>
+      <c r="F60" s="14" t="n">
+        <v>45544</v>
+      </c>
       <c r="G60" s="3" t="s">
-        <v>51</v>
+        <v>111</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>28</v>
       </c>
       <c r="I60" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="L60" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="Q60" s="13" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="R60" s="13"/>
       <c r="S60" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="T60" s="13" t="s">
-        <v>442</v>
+        <v>435</v>
+      </c>
+      <c r="T60" s="1" t="s">
+        <v>436</v>
       </c>
       <c r="U60" s="1" t="s">
-        <v>443</v>
-      </c>
+        <v>437</v>
+      </c>
+      <c r="V60" s="1"/>
     </row>
     <row r="61" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="F61" s="12"/>
       <c r="G61" s="3" t="s">
@@ -5501,128 +5513,131 @@
         <v>28</v>
       </c>
       <c r="I61" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="K61" s="4" t="s">
-        <v>448</v>
+        <v>105</v>
       </c>
       <c r="L61" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="M61" s="4" t="s">
-        <v>449</v>
+        <v>82</v>
       </c>
       <c r="Q61" s="13" t="s">
-        <v>450</v>
-      </c>
-      <c r="R61" s="1" t="s">
-        <v>451</v>
-      </c>
+        <v>442</v>
+      </c>
+      <c r="R61" s="13"/>
       <c r="S61" s="1" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="T61" s="13" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
       <c r="U61" s="1" t="s">
-        <v>454</v>
+        <v>445</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="F62" s="12"/>
+      <c r="G62" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="K62" s="4" t="s">
+        <v>450</v>
+      </c>
+      <c r="L62" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M62" s="4" t="s">
+        <v>451</v>
+      </c>
+      <c r="Q62" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="R62" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="S62" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="T62" s="13" t="s">
         <v>455</v>
       </c>
-      <c r="B62" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>402</v>
-      </c>
-      <c r="D62" s="2" t="s">
+      <c r="U62" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="E62" s="2" t="s">
-        <v>457</v>
-      </c>
-      <c r="F62" s="18" t="n">
-        <v>45630</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>458</v>
-      </c>
-      <c r="L62" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q62" s="13" t="s">
-        <v>459</v>
-      </c>
-      <c r="R62" s="13"/>
-      <c r="T62" s="13"/>
     </row>
     <row r="63" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="F63" s="19" t="n">
+        <v>45630</v>
+      </c>
+      <c r="G63" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="H63" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I63" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="J63" s="3" t="s">
         <v>460</v>
       </c>
-      <c r="B63" s="2" t="s">
+      <c r="L63" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q63" s="13" t="s">
         <v>461</v>
       </c>
-      <c r="C63" s="2" t="s">
-        <v>462</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>463</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="F63" s="12"/>
-      <c r="G63" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="H63" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I63" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="L63" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q63" s="13" t="s">
-        <v>465</v>
-      </c>
       <c r="R63" s="13"/>
-      <c r="T63" s="13" t="s">
-        <v>466</v>
-      </c>
-      <c r="U63" s="1" t="s">
-        <v>467</v>
-      </c>
+      <c r="T63" s="13"/>
     </row>
     <row r="64" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="F64" s="12"/>
       <c r="G64" s="3" t="s">
@@ -5632,45 +5647,39 @@
         <v>28</v>
       </c>
       <c r="I64" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="J64" s="3" t="s">
-        <v>472</v>
+        <v>162</v>
       </c>
       <c r="L64" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="Q64" s="13" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="R64" s="13"/>
-      <c r="S64" s="1" t="s">
-        <v>474</v>
-      </c>
       <c r="T64" s="13" t="s">
-        <v>475</v>
-      </c>
-      <c r="U64" s="13"/>
+        <v>468</v>
+      </c>
+      <c r="U64" s="1" t="s">
+        <v>469</v>
+      </c>
     </row>
     <row r="65" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>479</v>
-      </c>
-      <c r="F65" s="12" t="s">
-        <v>480</v>
-      </c>
+        <v>473</v>
+      </c>
+      <c r="F65" s="12"/>
       <c r="G65" s="3" t="s">
         <v>51</v>
       </c>
@@ -5678,48 +5687,45 @@
         <v>28</v>
       </c>
       <c r="I65" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="K65" s="4" t="s">
-        <v>481</v>
+        <v>162</v>
+      </c>
+      <c r="J65" s="3" t="s">
+        <v>474</v>
       </c>
       <c r="L65" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="Q65" s="13" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="R65" s="13"/>
       <c r="S65" s="1" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="T65" s="13" t="s">
-        <v>484</v>
-      </c>
-      <c r="U65" s="1" t="s">
-        <v>485</v>
-      </c>
-      <c r="V65" s="1" t="s">
-        <v>486</v>
-      </c>
+        <v>477</v>
+      </c>
+      <c r="U65" s="13"/>
     </row>
     <row r="66" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
-        <v>487</v>
+        <v>478</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>488</v>
+        <v>463</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>489</v>
+        <v>479</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>490</v>
-      </c>
-      <c r="F66" s="12"/>
+        <v>481</v>
+      </c>
+      <c r="F66" s="14" t="n">
+        <v>44819</v>
+      </c>
       <c r="G66" s="3" t="s">
         <v>51</v>
       </c>
@@ -5727,52 +5733,46 @@
         <v>28</v>
       </c>
       <c r="I66" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="J66" s="3" t="s">
-        <v>288</v>
+        <v>105</v>
       </c>
       <c r="K66" s="4" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="L66" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="M66" s="4" t="s">
-        <v>288</v>
-      </c>
-      <c r="N66" s="5" t="s">
-        <v>492</v>
+        <v>82</v>
       </c>
       <c r="Q66" s="13" t="s">
-        <v>493</v>
+        <v>483</v>
       </c>
       <c r="R66" s="13"/>
       <c r="S66" s="1" t="s">
-        <v>290</v>
+        <v>484</v>
       </c>
       <c r="T66" s="13" t="s">
-        <v>494</v>
+        <v>485</v>
       </c>
       <c r="U66" s="1" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>486</v>
+      </c>
+      <c r="V66" s="1" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="B67" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="D67" s="2" t="s">
         <v>488</v>
       </c>
-      <c r="C67" s="2" t="s">
-        <v>497</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>496</v>
-      </c>
       <c r="E67" s="2" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="F67" s="12"/>
       <c r="G67" s="3" t="s">
@@ -5782,33 +5782,52 @@
         <v>28</v>
       </c>
       <c r="I67" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
+      </c>
+      <c r="J67" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="K67" s="4" t="s">
+        <v>492</v>
       </c>
       <c r="L67" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q67" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M67" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="N67" s="5" t="s">
+        <v>493</v>
+      </c>
+      <c r="Q67" s="13" t="s">
+        <v>494</v>
+      </c>
+      <c r="R67" s="13"/>
+      <c r="S67" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="T67" s="13" t="s">
+        <v>495</v>
+      </c>
+      <c r="U67" s="1" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="E68" s="2" t="s">
         <v>499</v>
-      </c>
-      <c r="V67" s="1" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="1" t="s">
-        <v>501</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>488</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>502</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>503</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>504</v>
       </c>
       <c r="F68" s="12"/>
       <c r="G68" s="3" t="s">
@@ -5818,123 +5837,159 @@
         <v>28</v>
       </c>
       <c r="I68" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="L68" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="M68" s="4" t="s">
-        <v>288</v>
-      </c>
-      <c r="N68" s="5" t="s">
-        <v>492</v>
-      </c>
-      <c r="Q68" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q68" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="V68" s="1" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="E69" s="2" t="s">
         <v>505</v>
-      </c>
-      <c r="S68" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="T68" s="13" t="s">
-        <v>507</v>
-      </c>
-      <c r="U68" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="V68" s="1" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>488</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>511</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>512</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>513</v>
       </c>
       <c r="F69" s="12"/>
       <c r="G69" s="3" t="s">
-        <v>514</v>
+        <v>51</v>
       </c>
       <c r="H69" s="3" t="s">
         <v>28</v>
       </c>
       <c r="I69" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="L69" s="4" t="s">
         <v>28</v>
       </c>
       <c r="M69" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q69" s="1" t="s">
-        <v>515</v>
+        <v>294</v>
+      </c>
+      <c r="N69" s="5" t="s">
+        <v>493</v>
+      </c>
+      <c r="Q69" s="13" t="s">
+        <v>506</v>
       </c>
       <c r="S69" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="T69" s="1" t="s">
-        <v>517</v>
+        <v>507</v>
+      </c>
+      <c r="T69" s="13" t="s">
+        <v>508</v>
       </c>
       <c r="U69" s="1" t="s">
-        <v>518</v>
+        <v>509</v>
+      </c>
+      <c r="V69" s="1" t="s">
+        <v>510</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="F70" s="12"/>
+      <c r="G70" s="3" t="s">
+        <v>515</v>
+      </c>
+      <c r="H70" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I70" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="L70" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M70" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q70" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="S70" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="T70" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="U70" s="1" t="s">
         <v>519</v>
       </c>
-      <c r="B70" s="2" t="s">
-        <v>488</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>497</v>
-      </c>
-      <c r="D70" s="2" t="s">
+    </row>
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="1" t="s">
         <v>520</v>
       </c>
-      <c r="E70" s="2" t="s">
+      <c r="B71" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="D71" s="2" t="s">
         <v>521</v>
       </c>
-      <c r="F70" s="18" t="n">
+      <c r="E71" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="F71" s="19" t="n">
         <v>45235</v>
       </c>
-      <c r="G70" s="3" t="s">
+      <c r="G71" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="H70" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I70" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="L70" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="N70" s="5" t="s">
-        <v>492</v>
-      </c>
-      <c r="Q70" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="S70" s="1" t="s">
+      <c r="H71" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I71" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="L71" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="N71" s="5" t="s">
+        <v>493</v>
+      </c>
+      <c r="Q71" s="1" t="s">
         <v>523</v>
       </c>
-      <c r="T70" s="1" t="s">
+      <c r="S71" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="U70" s="1" t="s">
+      <c r="T71" s="1" t="s">
         <v>525</v>
+      </c>
+      <c r="U71" s="1" t="s">
+        <v>526</v>
       </c>
     </row>
   </sheetData>
@@ -5978,45 +6033,47 @@
     <hyperlink ref="T36" r:id="rId37" display="https://doi.org/10.1038/sdata.2018.135"/>
     <hyperlink ref="Q37" r:id="rId38" display="https://doi.org/10.6084/m9.figshare.19448219.v6"/>
     <hyperlink ref="T37" r:id="rId39" display="https://doi.org/10.1038/s41597-022-01884-4"/>
-    <hyperlink ref="Q39" r:id="rId40" display="https://www.idiv.de/de/splot.html"/>
-    <hyperlink ref="Q40" r:id="rId41" display="https://doi.org/10.25829/idiv.3474-40-3292"/>
-    <hyperlink ref="T40" r:id="rId42" display="https://doi.org/10.1111/geb.13346"/>
-    <hyperlink ref="Q41" r:id="rId43" display="https://lotvs.csic.es/"/>
-    <hyperlink ref="T41" r:id="rId44" display="https://www.biorxiv.org/content/10.1101/2021.09.29.462383v1.full"/>
-    <hyperlink ref="Q42" r:id="rId45" display="https://doi.org/10.5281/zenodo.6567608"/>
-    <hyperlink ref="T42" r:id="rId46" display="https://doi.org/10.1002/ecy.3923"/>
-    <hyperlink ref="Q43" r:id="rId47" display="https://gfbinitiative.net/"/>
-    <hyperlink ref="Q44" r:id="rId48" display="http://icp-forests.net/"/>
-    <hyperlink ref="T45" r:id="rId49" display="https://doi.org/10.1016/j.srs.2020.100002"/>
-    <hyperlink ref="Q48" r:id="rId50" display="http://sapfluxnet.creaf.cat/"/>
-    <hyperlink ref="T48" r:id="rId51" display="https://doi.org/10.5194/essd-13-2607-2021"/>
-    <hyperlink ref="T52" r:id="rId52" display="https://doi.org/10.1126/sciadv.adh4097"/>
-    <hyperlink ref="Q53" r:id="rId53" location="/home" display="https://data.isric.org/geonetwork/srv/eng/catalog.search#/home"/>
-    <hyperlink ref="T53" r:id="rId54" display="https://doi.org/10.5194/essd-9-1-2017"/>
-    <hyperlink ref="Q54" r:id="rId55" display="https://www.fao.org/soils-portal/data-hub/soil-maps-and-databases/harmonized-world-soil-database-v12/en/"/>
-    <hyperlink ref="Q55" r:id="rId56" display="https://soilgrids.org/"/>
-    <hyperlink ref="Q56" r:id="rId57" display="https://www.isric.org/explore/wise-databases"/>
-    <hyperlink ref="T56" r:id="rId58" display="https://doi.org/10.1016/j.geoderma.2016.01.034"/>
-    <hyperlink ref="Q57" r:id="rId59" display="http://globalchange.bnu.edu.cn/research/data"/>
-    <hyperlink ref="T57" r:id="rId60" display="http://doi.wiley.com/10.1002/2013MS000293"/>
-    <hyperlink ref="Q58" r:id="rId61" display="https://www.futurewater.eu/projects/hihydrosoil/"/>
-    <hyperlink ref="Q59" r:id="rId62" display="https://doi.pangaea.de/10.1594/PANGAEA.884517"/>
-    <hyperlink ref="T59" r:id="rId63" display="https://doi.org/10.1594/PANGAEA.884514"/>
-    <hyperlink ref="U59" r:id="rId64" display="Llorente, Mireia; Rovira, Pere; Merino, Agustín; Rubio, Agustín; Turrión, MaBelén; Badía, David; Romanya, Joan; González, Jordi Cortina José Antonio (2018): Physical and chemical characteristics of soil horizons from the CARBOSOL Database of Spain. https://doi.org/10.1594/PANGAEA.884514"/>
-    <hyperlink ref="Q60" r:id="rId65" display="https://ismn.earth/en/"/>
-    <hyperlink ref="T60" r:id="rId66" display="https://doi.org/10.5194/hess-2021-2"/>
-    <hyperlink ref="Q61" r:id="rId67" display="https://doi.org/10.3334/ORNLDAAC/1827"/>
-    <hyperlink ref="T61" r:id="rId68" display="https://10.5194/bg-7-1915-2010"/>
-    <hyperlink ref="Q62" r:id="rId69" display="https://icgc.cat/Administracio-i-empresa/Descarregues/Cartografia-geologica-i-geotematica/Cartografia-de-sols/Mapa-de-sols-1-25.000-continu"/>
-    <hyperlink ref="Q63" r:id="rId70" display="https://doi.pangaea.de/10.1594/PANGAEA.788537"/>
-    <hyperlink ref="T63" r:id="rId71" display="https://doi.org/10.1029/2012GC004370"/>
-    <hyperlink ref="Q64" r:id="rId72" display="https://borealisdata.ca/dataset.xhtml?persistentId=doi%3A10.5683/SP2/TTJNIU"/>
-    <hyperlink ref="T64" r:id="rId73" display="https://doi.org/10.1002/2017GL075860"/>
-    <hyperlink ref="T65" r:id="rId74" display="https://doi.org/10.1016/j.cageo.2014.07.020"/>
-    <hyperlink ref="Q66" r:id="rId75" display="https://biotime.st-andrews.ac.uk/"/>
-    <hyperlink ref="T66" r:id="rId76" display="https://doi.org/10.1111/geb.12729"/>
-    <hyperlink ref="Q68" r:id="rId77" display="https://compadre-db.org/"/>
-    <hyperlink ref="T68" r:id="rId78" display="https://doi.org/10.1111/1365-2745.12334"/>
+    <hyperlink ref="Q39" r:id="rId40" display="https://zenodo.org/records/18262736"/>
+    <hyperlink ref="T39" r:id="rId41" display="https://doi.org/10.1111/nph.70860"/>
+    <hyperlink ref="Q40" r:id="rId42" display="https://www.idiv.de/de/splot.html"/>
+    <hyperlink ref="Q41" r:id="rId43" display="https://doi.org/10.25829/idiv.3474-40-3292"/>
+    <hyperlink ref="T41" r:id="rId44" display="https://doi.org/10.1111/geb.13346"/>
+    <hyperlink ref="Q42" r:id="rId45" display="https://lotvs.csic.es/"/>
+    <hyperlink ref="T42" r:id="rId46" display="https://www.biorxiv.org/content/10.1101/2021.09.29.462383v1.full"/>
+    <hyperlink ref="Q43" r:id="rId47" display="https://doi.org/10.5281/zenodo.6567608"/>
+    <hyperlink ref="T43" r:id="rId48" display="https://doi.org/10.1002/ecy.3923"/>
+    <hyperlink ref="Q44" r:id="rId49" display="https://gfbinitiative.net/"/>
+    <hyperlink ref="Q45" r:id="rId50" display="http://icp-forests.net/"/>
+    <hyperlink ref="T46" r:id="rId51" display="https://doi.org/10.1016/j.srs.2020.100002"/>
+    <hyperlink ref="Q49" r:id="rId52" display="http://sapfluxnet.creaf.cat/"/>
+    <hyperlink ref="T49" r:id="rId53" display="https://doi.org/10.5194/essd-13-2607-2021"/>
+    <hyperlink ref="T53" r:id="rId54" display="https://doi.org/10.1126/sciadv.adh4097"/>
+    <hyperlink ref="Q54" r:id="rId55" location="/home" display="https://data.isric.org/geonetwork/srv/eng/catalog.search#/home"/>
+    <hyperlink ref="T54" r:id="rId56" display="https://doi.org/10.5194/essd-9-1-2017"/>
+    <hyperlink ref="Q55" r:id="rId57" display="https://www.fao.org/soils-portal/data-hub/soil-maps-and-databases/harmonized-world-soil-database-v12/en/"/>
+    <hyperlink ref="Q56" r:id="rId58" display="https://soilgrids.org/"/>
+    <hyperlink ref="Q57" r:id="rId59" display="https://www.isric.org/explore/wise-databases"/>
+    <hyperlink ref="T57" r:id="rId60" display="https://doi.org/10.1016/j.geoderma.2016.01.034"/>
+    <hyperlink ref="Q58" r:id="rId61" display="http://globalchange.bnu.edu.cn/research/data"/>
+    <hyperlink ref="T58" r:id="rId62" display="http://doi.wiley.com/10.1002/2013MS000293"/>
+    <hyperlink ref="Q59" r:id="rId63" display="https://www.futurewater.eu/projects/hihydrosoil/"/>
+    <hyperlink ref="Q60" r:id="rId64" display="https://doi.pangaea.de/10.1594/PANGAEA.884517"/>
+    <hyperlink ref="T60" r:id="rId65" display="https://doi.org/10.1594/PANGAEA.884514"/>
+    <hyperlink ref="U60" r:id="rId66" display="Llorente, Mireia; Rovira, Pere; Merino, Agustín; Rubio, Agustín; Turrión, MaBelén; Badía, David; Romanya, Joan; González, Jordi Cortina José Antonio (2018): Physical and chemical characteristics of soil horizons from the CARBOSOL Database of Spain. https://doi.org/10.1594/PANGAEA.884514"/>
+    <hyperlink ref="Q61" r:id="rId67" display="https://ismn.earth/en/"/>
+    <hyperlink ref="T61" r:id="rId68" display="https://doi.org/10.5194/hess-2021-2"/>
+    <hyperlink ref="Q62" r:id="rId69" display="https://doi.org/10.3334/ORNLDAAC/1827"/>
+    <hyperlink ref="T62" r:id="rId70" display="https://10.5194/bg-7-1915-2010"/>
+    <hyperlink ref="Q63" r:id="rId71" display="https://icgc.cat/Administracio-i-empresa/Descarregues/Cartografia-geologica-i-geotematica/Cartografia-de-sols/Mapa-de-sols-1-25.000-continu"/>
+    <hyperlink ref="Q64" r:id="rId72" display="https://doi.pangaea.de/10.1594/PANGAEA.788537"/>
+    <hyperlink ref="T64" r:id="rId73" display="https://doi.org/10.1029/2012GC004370"/>
+    <hyperlink ref="Q65" r:id="rId74" display="https://borealisdata.ca/dataset.xhtml?persistentId=doi%3A10.5683/SP2/TTJNIU"/>
+    <hyperlink ref="T65" r:id="rId75" display="https://doi.org/10.1002/2017GL075860"/>
+    <hyperlink ref="T66" r:id="rId76" display="https://doi.org/10.1016/j.cageo.2014.07.020"/>
+    <hyperlink ref="Q67" r:id="rId77" display="https://biotime.st-andrews.ac.uk/"/>
+    <hyperlink ref="T67" r:id="rId78" display="https://doi.org/10.1111/geb.12729"/>
+    <hyperlink ref="Q69" r:id="rId79" display="https://compadre-db.org/"/>
+    <hyperlink ref="T69" r:id="rId80" display="https://doi.org/10.1111/1365-2745.12334"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -6043,18 +6100,18 @@
   <sheetData>
     <row r="2" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
   </sheetData>
